--- a/Config/SAMO.xlsx
+++ b/Config/SAMO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAF39983-F138-4831-A46C-F367FD904FC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58595F9D-AB66-46D1-9588-5CE7A363C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="4" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Application - Portal_TS" sheetId="9" state="hidden" r:id="rId1"/>
@@ -18,6 +18,7 @@
     <sheet name="AT - Test Suite" sheetId="14" r:id="rId3"/>
     <sheet name="AT - Test Case" sheetId="15" r:id="rId4"/>
     <sheet name="AT - Test Suite (2)" sheetId="17" r:id="rId5"/>
+    <sheet name="NA" sheetId="18" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2310" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="700">
   <si>
     <t xml:space="preserve">CXE </t>
   </si>
@@ -2857,6 +2858,9 @@
   </si>
   <si>
     <t>UI mismatch</t>
+  </si>
+  <si>
+    <t>REMARKS</t>
   </si>
 </sst>
 </file>
@@ -3201,7 +3205,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="103">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3440,20 +3444,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3476,38 +3504,20 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10914,7 +10924,7 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
@@ -11532,8 +11542,8 @@
   </sheetPr>
   <dimension ref="A1:H610"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11:F17"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A255" sqref="A255:XFD255"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11568,14 +11578,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="80" t="s">
+      <c r="A2" s="88" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
-      <c r="D2" s="80"/>
-      <c r="E2" s="80"/>
-      <c r="F2" s="80"/>
+      <c r="B2" s="88"/>
+      <c r="C2" s="88"/>
+      <c r="D2" s="88"/>
+      <c r="E2" s="88"/>
+      <c r="F2" s="88"/>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -11698,14 +11708,14 @@
       <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="80" t="s">
+      <c r="A10" s="88" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="80"/>
-      <c r="C10" s="80"/>
-      <c r="D10" s="80"/>
-      <c r="E10" s="80"/>
-      <c r="F10" s="80"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="88"/>
+      <c r="E10" s="88"/>
+      <c r="F10" s="88"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -11837,14 +11847,14 @@
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="101" t="s">
+      <c r="A18" s="81" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="101"/>
-      <c r="C18" s="101"/>
-      <c r="D18" s="101"/>
-      <c r="E18" s="101"/>
-      <c r="F18" s="101"/>
+      <c r="B18" s="81"/>
+      <c r="C18" s="81"/>
+      <c r="D18" s="81"/>
+      <c r="E18" s="81"/>
+      <c r="F18" s="81"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11865,65 +11875,65 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="92" t="s">
+      <c r="A20" s="82" t="s">
         <v>628</v>
       </c>
-      <c r="B20" s="95" t="s">
+      <c r="B20" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="C20" s="92" t="s">
+      <c r="C20" s="82" t="s">
         <v>530</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E20" s="92"/>
-      <c r="F20" s="92"/>
-      <c r="G20" s="102"/>
+      <c r="E20" s="82"/>
+      <c r="F20" s="82"/>
+      <c r="G20" s="80"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="93"/>
-      <c r="B21" s="96"/>
-      <c r="C21" s="93"/>
+      <c r="A21" s="83"/>
+      <c r="B21" s="86"/>
+      <c r="C21" s="83"/>
       <c r="D21" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="93"/>
-      <c r="F21" s="93"/>
-      <c r="G21" s="102"/>
+      <c r="E21" s="83"/>
+      <c r="F21" s="83"/>
+      <c r="G21" s="80"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="93"/>
-      <c r="B22" s="96"/>
-      <c r="C22" s="93"/>
+      <c r="A22" s="83"/>
+      <c r="B22" s="86"/>
+      <c r="C22" s="83"/>
       <c r="D22" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E22" s="93"/>
-      <c r="F22" s="93"/>
-      <c r="G22" s="102"/>
+      <c r="E22" s="83"/>
+      <c r="F22" s="83"/>
+      <c r="G22" s="80"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="93"/>
-      <c r="B23" s="96"/>
-      <c r="C23" s="93"/>
+      <c r="A23" s="83"/>
+      <c r="B23" s="86"/>
+      <c r="C23" s="83"/>
       <c r="D23" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E23" s="93"/>
-      <c r="F23" s="93"/>
-      <c r="G23" s="102"/>
+      <c r="E23" s="83"/>
+      <c r="F23" s="83"/>
+      <c r="G23" s="80"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="97"/>
-      <c r="C24" s="94"/>
+      <c r="A24" s="84"/>
+      <c r="B24" s="87"/>
+      <c r="C24" s="84"/>
       <c r="D24" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E24" s="94"/>
-      <c r="F24" s="94"/>
-      <c r="G24" s="102"/>
+      <c r="E24" s="84"/>
+      <c r="F24" s="84"/>
+      <c r="G24" s="80"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -12031,14 +12041,14 @@
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="101" t="s">
+      <c r="A31" s="81" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="101"/>
-      <c r="C31" s="101"/>
-      <c r="D31" s="101"/>
-      <c r="E31" s="101"/>
-      <c r="F31" s="101"/>
+      <c r="B31" s="81"/>
+      <c r="C31" s="81"/>
+      <c r="D31" s="81"/>
+      <c r="E31" s="81"/>
+      <c r="F31" s="81"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12059,65 +12069,65 @@
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="92" t="s">
+      <c r="A33" s="82" t="s">
         <v>629</v>
       </c>
-      <c r="B33" s="95" t="s">
+      <c r="B33" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="C33" s="92" t="s">
+      <c r="C33" s="82" t="s">
         <v>538</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E33" s="92"/>
-      <c r="F33" s="92"/>
-      <c r="G33" s="102"/>
+      <c r="E33" s="82"/>
+      <c r="F33" s="82"/>
+      <c r="G33" s="80"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="93"/>
-      <c r="B34" s="96"/>
-      <c r="C34" s="93"/>
+      <c r="A34" s="83"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="83"/>
       <c r="D34" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="102"/>
+      <c r="E34" s="83"/>
+      <c r="F34" s="83"/>
+      <c r="G34" s="80"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="93"/>
-      <c r="B35" s="96"/>
-      <c r="C35" s="93"/>
+      <c r="A35" s="83"/>
+      <c r="B35" s="86"/>
+      <c r="C35" s="83"/>
       <c r="D35" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E35" s="93"/>
-      <c r="F35" s="93"/>
-      <c r="G35" s="102"/>
+      <c r="E35" s="83"/>
+      <c r="F35" s="83"/>
+      <c r="G35" s="80"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="93"/>
-      <c r="B36" s="96"/>
-      <c r="C36" s="93"/>
+      <c r="A36" s="83"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="83"/>
       <c r="D36" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E36" s="93"/>
-      <c r="F36" s="93"/>
-      <c r="G36" s="102"/>
+      <c r="E36" s="83"/>
+      <c r="F36" s="83"/>
+      <c r="G36" s="80"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="94"/>
-      <c r="B37" s="97"/>
-      <c r="C37" s="94"/>
+      <c r="A37" s="84"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="84"/>
       <c r="D37" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E37" s="94"/>
-      <c r="F37" s="94"/>
-      <c r="G37" s="102"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="80"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
@@ -12226,14 +12236,14 @@
       <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="101" t="s">
+      <c r="A44" s="81" t="s">
         <v>479</v>
       </c>
-      <c r="B44" s="101"/>
-      <c r="C44" s="101"/>
-      <c r="D44" s="101"/>
-      <c r="E44" s="101"/>
-      <c r="F44" s="101"/>
+      <c r="B44" s="81"/>
+      <c r="C44" s="81"/>
+      <c r="D44" s="81"/>
+      <c r="E44" s="81"/>
+      <c r="F44" s="81"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
@@ -12348,14 +12358,14 @@
       <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="101" t="s">
+      <c r="A52" s="81" t="s">
         <v>481</v>
       </c>
-      <c r="B52" s="101"/>
-      <c r="C52" s="101"/>
-      <c r="D52" s="101"/>
-      <c r="E52" s="101"/>
-      <c r="F52" s="101"/>
+      <c r="B52" s="81"/>
+      <c r="C52" s="81"/>
+      <c r="D52" s="81"/>
+      <c r="E52" s="81"/>
+      <c r="F52" s="81"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
@@ -12475,14 +12485,14 @@
       <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="101" t="s">
+      <c r="A60" s="81" t="s">
         <v>483</v>
       </c>
-      <c r="B60" s="101"/>
-      <c r="C60" s="101"/>
-      <c r="D60" s="101"/>
-      <c r="E60" s="101"/>
-      <c r="F60" s="101"/>
+      <c r="B60" s="81"/>
+      <c r="C60" s="81"/>
+      <c r="D60" s="81"/>
+      <c r="E60" s="81"/>
+      <c r="F60" s="81"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
@@ -12599,14 +12609,14 @@
       <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="101" t="s">
+      <c r="A68" s="81" t="s">
         <v>492</v>
       </c>
-      <c r="B68" s="101"/>
-      <c r="C68" s="101"/>
-      <c r="D68" s="101"/>
-      <c r="E68" s="101"/>
-      <c r="F68" s="101"/>
+      <c r="B68" s="81"/>
+      <c r="C68" s="81"/>
+      <c r="D68" s="81"/>
+      <c r="E68" s="81"/>
+      <c r="F68" s="81"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
@@ -12673,14 +12683,14 @@
       <c r="F72" s="33"/>
     </row>
     <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="101" t="s">
+      <c r="A73" s="81" t="s">
         <v>502</v>
       </c>
-      <c r="B73" s="101"/>
-      <c r="C73" s="101"/>
-      <c r="D73" s="101"/>
-      <c r="E73" s="101"/>
-      <c r="F73" s="101"/>
+      <c r="B73" s="81"/>
+      <c r="C73" s="81"/>
+      <c r="D73" s="81"/>
+      <c r="E73" s="81"/>
+      <c r="F73" s="81"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
@@ -12811,14 +12821,14 @@
       <c r="F81" s="44"/>
     </row>
     <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="101" t="s">
+      <c r="A82" s="81" t="s">
         <v>485</v>
       </c>
-      <c r="B82" s="101"/>
-      <c r="C82" s="101"/>
-      <c r="D82" s="101"/>
-      <c r="E82" s="101"/>
-      <c r="F82" s="101"/>
+      <c r="B82" s="81"/>
+      <c r="C82" s="81"/>
+      <c r="D82" s="81"/>
+      <c r="E82" s="81"/>
+      <c r="F82" s="81"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
@@ -12837,60 +12847,60 @@
       <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="92" t="s">
+      <c r="A84" s="82" t="s">
         <v>638</v>
       </c>
-      <c r="B84" s="95" t="s">
+      <c r="B84" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="C84" s="92" t="s">
+      <c r="C84" s="82" t="s">
         <v>530</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E84" s="92"/>
-      <c r="F84" s="92"/>
+      <c r="E84" s="82"/>
+      <c r="F84" s="82"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="93"/>
-      <c r="B85" s="96"/>
-      <c r="C85" s="93"/>
+      <c r="A85" s="83"/>
+      <c r="B85" s="86"/>
+      <c r="C85" s="83"/>
       <c r="D85" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E85" s="93"/>
-      <c r="F85" s="93"/>
+      <c r="E85" s="83"/>
+      <c r="F85" s="83"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="93"/>
-      <c r="B86" s="96"/>
-      <c r="C86" s="93"/>
+      <c r="A86" s="83"/>
+      <c r="B86" s="86"/>
+      <c r="C86" s="83"/>
       <c r="D86" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E86" s="93"/>
-      <c r="F86" s="93"/>
+      <c r="E86" s="83"/>
+      <c r="F86" s="83"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="93"/>
-      <c r="B87" s="96"/>
-      <c r="C87" s="93"/>
+      <c r="A87" s="83"/>
+      <c r="B87" s="86"/>
+      <c r="C87" s="83"/>
       <c r="D87" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E87" s="93"/>
-      <c r="F87" s="93"/>
+      <c r="E87" s="83"/>
+      <c r="F87" s="83"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="94"/>
-      <c r="B88" s="97"/>
-      <c r="C88" s="94"/>
+      <c r="A88" s="84"/>
+      <c r="B88" s="87"/>
+      <c r="C88" s="84"/>
       <c r="D88" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E88" s="94"/>
-      <c r="F88" s="94"/>
+      <c r="E88" s="84"/>
+      <c r="F88" s="84"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
@@ -13037,14 +13047,14 @@
       <c r="F97" s="44"/>
     </row>
     <row r="98" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="101" t="s">
+      <c r="A98" s="81" t="s">
         <v>487</v>
       </c>
-      <c r="B98" s="101"/>
-      <c r="C98" s="101"/>
-      <c r="D98" s="101"/>
-      <c r="E98" s="101"/>
-      <c r="F98" s="101"/>
+      <c r="B98" s="81"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="81"/>
+      <c r="E98" s="81"/>
+      <c r="F98" s="81"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
@@ -13063,60 +13073,60 @@
       <c r="F99" s="33"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="92" t="s">
+      <c r="A100" s="82" t="s">
         <v>637</v>
       </c>
-      <c r="B100" s="95" t="s">
+      <c r="B100" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="C100" s="92" t="s">
+      <c r="C100" s="82" t="s">
         <v>530</v>
       </c>
       <c r="D100" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E100" s="92"/>
-      <c r="F100" s="92"/>
+      <c r="E100" s="82"/>
+      <c r="F100" s="82"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="93"/>
-      <c r="B101" s="96"/>
-      <c r="C101" s="93"/>
+      <c r="A101" s="83"/>
+      <c r="B101" s="86"/>
+      <c r="C101" s="83"/>
       <c r="D101" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E101" s="93"/>
-      <c r="F101" s="93"/>
+      <c r="E101" s="83"/>
+      <c r="F101" s="83"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="93"/>
-      <c r="B102" s="96"/>
-      <c r="C102" s="93"/>
+      <c r="A102" s="83"/>
+      <c r="B102" s="86"/>
+      <c r="C102" s="83"/>
       <c r="D102" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E102" s="93"/>
-      <c r="F102" s="93"/>
+      <c r="E102" s="83"/>
+      <c r="F102" s="83"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="93"/>
-      <c r="B103" s="96"/>
-      <c r="C103" s="93"/>
+      <c r="A103" s="83"/>
+      <c r="B103" s="86"/>
+      <c r="C103" s="83"/>
       <c r="D103" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E103" s="93"/>
-      <c r="F103" s="93"/>
+      <c r="E103" s="83"/>
+      <c r="F103" s="83"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="94"/>
-      <c r="B104" s="97"/>
-      <c r="C104" s="94"/>
+      <c r="A104" s="84"/>
+      <c r="B104" s="87"/>
+      <c r="C104" s="84"/>
       <c r="D104" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="94"/>
-      <c r="F104" s="94"/>
+      <c r="E104" s="84"/>
+      <c r="F104" s="84"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
@@ -13183,252 +13193,252 @@
       <c r="F108" s="33"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="92" t="s">
+      <c r="A109" s="82" t="s">
         <v>637</v>
       </c>
-      <c r="B109" s="95" t="s">
+      <c r="B109" s="85" t="s">
         <v>669</v>
       </c>
       <c r="C109" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="D109" s="92" t="s">
+      <c r="D109" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="E109" s="92"/>
-      <c r="F109" s="92"/>
+      <c r="E109" s="82"/>
+      <c r="F109" s="82"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="93"/>
-      <c r="B110" s="96"/>
+      <c r="A110" s="83"/>
+      <c r="B110" s="86"/>
       <c r="C110" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="D110" s="93"/>
-      <c r="E110" s="93"/>
-      <c r="F110" s="93"/>
+      <c r="D110" s="83"/>
+      <c r="E110" s="83"/>
+      <c r="F110" s="83"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="93"/>
-      <c r="B111" s="96"/>
+      <c r="A111" s="83"/>
+      <c r="B111" s="86"/>
       <c r="C111" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="D111" s="93"/>
-      <c r="E111" s="93"/>
-      <c r="F111" s="93"/>
+      <c r="D111" s="83"/>
+      <c r="E111" s="83"/>
+      <c r="F111" s="83"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="93"/>
-      <c r="B112" s="96"/>
+      <c r="A112" s="83"/>
+      <c r="B112" s="86"/>
       <c r="C112" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D112" s="93"/>
-      <c r="E112" s="93"/>
-      <c r="F112" s="93"/>
+      <c r="D112" s="83"/>
+      <c r="E112" s="83"/>
+      <c r="F112" s="83"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="93"/>
-      <c r="B113" s="96"/>
+      <c r="A113" s="83"/>
+      <c r="B113" s="86"/>
       <c r="C113" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="D113" s="93"/>
-      <c r="E113" s="93"/>
-      <c r="F113" s="93"/>
+      <c r="D113" s="83"/>
+      <c r="E113" s="83"/>
+      <c r="F113" s="83"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="93"/>
-      <c r="B114" s="96"/>
+      <c r="A114" s="83"/>
+      <c r="B114" s="86"/>
       <c r="C114" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D114" s="93"/>
-      <c r="E114" s="93"/>
-      <c r="F114" s="93"/>
+      <c r="D114" s="83"/>
+      <c r="E114" s="83"/>
+      <c r="F114" s="83"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="93"/>
-      <c r="B115" s="96"/>
+      <c r="A115" s="83"/>
+      <c r="B115" s="86"/>
       <c r="C115" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D115" s="93"/>
-      <c r="E115" s="93"/>
-      <c r="F115" s="93"/>
+      <c r="D115" s="83"/>
+      <c r="E115" s="83"/>
+      <c r="F115" s="83"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="93"/>
-      <c r="B116" s="96"/>
+      <c r="A116" s="83"/>
+      <c r="B116" s="86"/>
       <c r="C116" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D116" s="93"/>
-      <c r="E116" s="93"/>
-      <c r="F116" s="93"/>
+      <c r="D116" s="83"/>
+      <c r="E116" s="83"/>
+      <c r="F116" s="83"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="93"/>
-      <c r="B117" s="96"/>
+      <c r="A117" s="83"/>
+      <c r="B117" s="86"/>
       <c r="C117" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D117" s="93"/>
-      <c r="E117" s="93"/>
-      <c r="F117" s="93"/>
+      <c r="D117" s="83"/>
+      <c r="E117" s="83"/>
+      <c r="F117" s="83"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="94"/>
-      <c r="B118" s="97"/>
+      <c r="A118" s="84"/>
+      <c r="B118" s="87"/>
       <c r="C118" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D118" s="94"/>
-      <c r="E118" s="94"/>
-      <c r="F118" s="94"/>
+      <c r="D118" s="84"/>
+      <c r="E118" s="84"/>
+      <c r="F118" s="84"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="92" t="s">
+      <c r="A119" s="82" t="s">
         <v>637</v>
       </c>
-      <c r="B119" s="95" t="s">
+      <c r="B119" s="85" t="s">
         <v>673</v>
       </c>
       <c r="C119" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="D119" s="92" t="s">
+      <c r="D119" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="E119" s="92"/>
-      <c r="F119" s="92"/>
+      <c r="E119" s="82"/>
+      <c r="F119" s="82"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="93"/>
-      <c r="B120" s="96"/>
+      <c r="A120" s="83"/>
+      <c r="B120" s="86"/>
       <c r="C120" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D120" s="93"/>
-      <c r="E120" s="93"/>
-      <c r="F120" s="93"/>
+      <c r="D120" s="83"/>
+      <c r="E120" s="83"/>
+      <c r="F120" s="83"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="93"/>
-      <c r="B121" s="96"/>
+      <c r="A121" s="83"/>
+      <c r="B121" s="86"/>
       <c r="C121" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="D121" s="93"/>
-      <c r="E121" s="93"/>
-      <c r="F121" s="93"/>
+      <c r="D121" s="83"/>
+      <c r="E121" s="83"/>
+      <c r="F121" s="83"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="93"/>
-      <c r="B122" s="96"/>
+      <c r="A122" s="83"/>
+      <c r="B122" s="86"/>
       <c r="C122" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D122" s="93"/>
-      <c r="E122" s="93"/>
-      <c r="F122" s="93"/>
+      <c r="D122" s="83"/>
+      <c r="E122" s="83"/>
+      <c r="F122" s="83"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="93"/>
-      <c r="B123" s="96"/>
+      <c r="A123" s="83"/>
+      <c r="B123" s="86"/>
       <c r="C123" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D123" s="93"/>
-      <c r="E123" s="93"/>
-      <c r="F123" s="93"/>
+      <c r="D123" s="83"/>
+      <c r="E123" s="83"/>
+      <c r="F123" s="83"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="93"/>
-      <c r="B124" s="96"/>
+      <c r="A124" s="83"/>
+      <c r="B124" s="86"/>
       <c r="C124" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D124" s="93"/>
-      <c r="E124" s="93"/>
-      <c r="F124" s="93"/>
+      <c r="D124" s="83"/>
+      <c r="E124" s="83"/>
+      <c r="F124" s="83"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="93"/>
-      <c r="B125" s="96"/>
+      <c r="A125" s="83"/>
+      <c r="B125" s="86"/>
       <c r="C125" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D125" s="93"/>
-      <c r="E125" s="93"/>
-      <c r="F125" s="93"/>
+      <c r="D125" s="83"/>
+      <c r="E125" s="83"/>
+      <c r="F125" s="83"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="94"/>
-      <c r="B126" s="97"/>
+      <c r="A126" s="84"/>
+      <c r="B126" s="87"/>
       <c r="C126" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D126" s="94"/>
-      <c r="E126" s="94"/>
-      <c r="F126" s="94"/>
+      <c r="D126" s="84"/>
+      <c r="E126" s="84"/>
+      <c r="F126" s="84"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="92" t="s">
+      <c r="A127" s="82" t="s">
         <v>637</v>
       </c>
-      <c r="B127" s="95" t="s">
+      <c r="B127" s="85" t="s">
         <v>676</v>
       </c>
       <c r="C127" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="D127" s="92" t="s">
+      <c r="D127" s="82" t="s">
         <v>516</v>
       </c>
-      <c r="E127" s="92"/>
-      <c r="F127" s="92"/>
+      <c r="E127" s="82"/>
+      <c r="F127" s="82"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="93"/>
-      <c r="B128" s="96"/>
+      <c r="A128" s="83"/>
+      <c r="B128" s="86"/>
       <c r="C128" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="D128" s="93"/>
-      <c r="E128" s="93"/>
-      <c r="F128" s="93"/>
+      <c r="D128" s="83"/>
+      <c r="E128" s="83"/>
+      <c r="F128" s="83"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="93"/>
-      <c r="B129" s="96"/>
+      <c r="A129" s="83"/>
+      <c r="B129" s="86"/>
       <c r="C129" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="D129" s="93"/>
-      <c r="E129" s="93"/>
-      <c r="F129" s="93"/>
+      <c r="D129" s="83"/>
+      <c r="E129" s="83"/>
+      <c r="F129" s="83"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="93"/>
-      <c r="B130" s="96"/>
+      <c r="A130" s="83"/>
+      <c r="B130" s="86"/>
       <c r="C130" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="D130" s="93"/>
-      <c r="E130" s="93"/>
-      <c r="F130" s="93"/>
+      <c r="D130" s="83"/>
+      <c r="E130" s="83"/>
+      <c r="F130" s="83"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="94"/>
-      <c r="B131" s="97"/>
+      <c r="A131" s="84"/>
+      <c r="B131" s="87"/>
       <c r="C131" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D131" s="94"/>
-      <c r="E131" s="94"/>
-      <c r="F131" s="94"/>
+      <c r="D131" s="84"/>
+      <c r="E131" s="84"/>
+      <c r="F131" s="84"/>
     </row>
     <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="s">
@@ -13463,14 +13473,14 @@
       <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="101" t="s">
+      <c r="A134" s="81" t="s">
         <v>489</v>
       </c>
-      <c r="B134" s="101"/>
-      <c r="C134" s="101"/>
-      <c r="D134" s="101"/>
-      <c r="E134" s="101"/>
-      <c r="F134" s="101"/>
+      <c r="B134" s="81"/>
+      <c r="C134" s="81"/>
+      <c r="D134" s="81"/>
+      <c r="E134" s="81"/>
+      <c r="F134" s="81"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
@@ -13489,60 +13499,60 @@
       <c r="F135" s="33"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="92" t="s">
+      <c r="A136" s="82" t="s">
         <v>636</v>
       </c>
-      <c r="B136" s="95" t="s">
+      <c r="B136" s="85" t="s">
         <v>646</v>
       </c>
-      <c r="C136" s="92" t="s">
+      <c r="C136" s="82" t="s">
         <v>538</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E136" s="92"/>
-      <c r="F136" s="92"/>
+      <c r="E136" s="82"/>
+      <c r="F136" s="82"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="93"/>
-      <c r="B137" s="96"/>
-      <c r="C137" s="93"/>
+      <c r="A137" s="83"/>
+      <c r="B137" s="86"/>
+      <c r="C137" s="83"/>
       <c r="D137" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E137" s="93"/>
-      <c r="F137" s="93"/>
+      <c r="E137" s="83"/>
+      <c r="F137" s="83"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="93"/>
-      <c r="B138" s="96"/>
-      <c r="C138" s="93"/>
+      <c r="A138" s="83"/>
+      <c r="B138" s="86"/>
+      <c r="C138" s="83"/>
       <c r="D138" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E138" s="93"/>
-      <c r="F138" s="93"/>
+      <c r="E138" s="83"/>
+      <c r="F138" s="83"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="93"/>
-      <c r="B139" s="96"/>
-      <c r="C139" s="93"/>
+      <c r="A139" s="83"/>
+      <c r="B139" s="86"/>
+      <c r="C139" s="83"/>
       <c r="D139" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E139" s="93"/>
-      <c r="F139" s="93"/>
+      <c r="E139" s="83"/>
+      <c r="F139" s="83"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="94"/>
-      <c r="B140" s="97"/>
-      <c r="C140" s="94"/>
+      <c r="A140" s="84"/>
+      <c r="B140" s="87"/>
+      <c r="C140" s="84"/>
       <c r="D140" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E140" s="94"/>
-      <c r="F140" s="94"/>
+      <c r="E140" s="84"/>
+      <c r="F140" s="84"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
@@ -13609,254 +13619,254 @@
       <c r="F144" s="33"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="92" t="s">
+      <c r="A145" s="82" t="s">
         <v>636</v>
       </c>
-      <c r="B145" s="95" t="s">
+      <c r="B145" s="85" t="s">
         <v>669</v>
       </c>
       <c r="C145" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="D145" s="92" t="s">
+      <c r="D145" s="82" t="s">
         <v>570</v>
       </c>
-      <c r="E145" s="92"/>
-      <c r="F145" s="98" t="s">
+      <c r="E145" s="82"/>
+      <c r="F145" s="90" t="s">
         <v>689</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="93"/>
-      <c r="B146" s="96"/>
+      <c r="A146" s="83"/>
+      <c r="B146" s="86"/>
       <c r="C146" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="D146" s="93"/>
-      <c r="E146" s="93"/>
-      <c r="F146" s="99"/>
+      <c r="D146" s="83"/>
+      <c r="E146" s="83"/>
+      <c r="F146" s="91"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="93"/>
-      <c r="B147" s="96"/>
+      <c r="A147" s="83"/>
+      <c r="B147" s="86"/>
       <c r="C147" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="D147" s="93"/>
-      <c r="E147" s="93"/>
-      <c r="F147" s="99"/>
+      <c r="D147" s="83"/>
+      <c r="E147" s="83"/>
+      <c r="F147" s="91"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="93"/>
-      <c r="B148" s="96"/>
+      <c r="A148" s="83"/>
+      <c r="B148" s="86"/>
       <c r="C148" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D148" s="93"/>
-      <c r="E148" s="93"/>
-      <c r="F148" s="99"/>
+      <c r="D148" s="83"/>
+      <c r="E148" s="83"/>
+      <c r="F148" s="91"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="93"/>
-      <c r="B149" s="96"/>
+      <c r="A149" s="83"/>
+      <c r="B149" s="86"/>
       <c r="C149" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="D149" s="93"/>
-      <c r="E149" s="93"/>
-      <c r="F149" s="99"/>
+      <c r="D149" s="83"/>
+      <c r="E149" s="83"/>
+      <c r="F149" s="91"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="93"/>
-      <c r="B150" s="96"/>
+      <c r="A150" s="83"/>
+      <c r="B150" s="86"/>
       <c r="C150" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D150" s="93"/>
-      <c r="E150" s="93"/>
-      <c r="F150" s="99"/>
+      <c r="D150" s="83"/>
+      <c r="E150" s="83"/>
+      <c r="F150" s="91"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="93"/>
-      <c r="B151" s="96"/>
+      <c r="A151" s="83"/>
+      <c r="B151" s="86"/>
       <c r="C151" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D151" s="93"/>
-      <c r="E151" s="93"/>
-      <c r="F151" s="99"/>
+      <c r="D151" s="83"/>
+      <c r="E151" s="83"/>
+      <c r="F151" s="91"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="93"/>
-      <c r="B152" s="96"/>
+      <c r="A152" s="83"/>
+      <c r="B152" s="86"/>
       <c r="C152" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D152" s="93"/>
-      <c r="E152" s="93"/>
-      <c r="F152" s="99"/>
+      <c r="D152" s="83"/>
+      <c r="E152" s="83"/>
+      <c r="F152" s="91"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="93"/>
-      <c r="B153" s="96"/>
+      <c r="A153" s="83"/>
+      <c r="B153" s="86"/>
       <c r="C153" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D153" s="93"/>
-      <c r="E153" s="93"/>
-      <c r="F153" s="99"/>
+      <c r="D153" s="83"/>
+      <c r="E153" s="83"/>
+      <c r="F153" s="91"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="94"/>
-      <c r="B154" s="97"/>
+      <c r="A154" s="84"/>
+      <c r="B154" s="87"/>
       <c r="C154" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D154" s="94"/>
-      <c r="E154" s="94"/>
-      <c r="F154" s="100"/>
+      <c r="D154" s="84"/>
+      <c r="E154" s="84"/>
+      <c r="F154" s="92"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="92" t="s">
+      <c r="A155" s="82" t="s">
         <v>636</v>
       </c>
-      <c r="B155" s="95" t="s">
+      <c r="B155" s="85" t="s">
         <v>673</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="D155" s="92" t="s">
+      <c r="D155" s="82" t="s">
         <v>514</v>
       </c>
-      <c r="E155" s="92"/>
-      <c r="F155" s="92"/>
+      <c r="E155" s="82"/>
+      <c r="F155" s="82"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="93"/>
-      <c r="B156" s="96"/>
+      <c r="A156" s="83"/>
+      <c r="B156" s="86"/>
       <c r="C156" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D156" s="93"/>
-      <c r="E156" s="93"/>
-      <c r="F156" s="93"/>
+      <c r="D156" s="83"/>
+      <c r="E156" s="83"/>
+      <c r="F156" s="83"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="93"/>
-      <c r="B157" s="96"/>
+      <c r="A157" s="83"/>
+      <c r="B157" s="86"/>
       <c r="C157" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="D157" s="93"/>
-      <c r="E157" s="93"/>
-      <c r="F157" s="93"/>
+      <c r="D157" s="83"/>
+      <c r="E157" s="83"/>
+      <c r="F157" s="83"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="93"/>
-      <c r="B158" s="96"/>
+      <c r="A158" s="83"/>
+      <c r="B158" s="86"/>
       <c r="C158" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D158" s="93"/>
-      <c r="E158" s="93"/>
-      <c r="F158" s="93"/>
+      <c r="D158" s="83"/>
+      <c r="E158" s="83"/>
+      <c r="F158" s="83"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="93"/>
-      <c r="B159" s="96"/>
+      <c r="A159" s="83"/>
+      <c r="B159" s="86"/>
       <c r="C159" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D159" s="93"/>
-      <c r="E159" s="93"/>
-      <c r="F159" s="93"/>
+      <c r="D159" s="83"/>
+      <c r="E159" s="83"/>
+      <c r="F159" s="83"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="93"/>
-      <c r="B160" s="96"/>
+      <c r="A160" s="83"/>
+      <c r="B160" s="86"/>
       <c r="C160" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D160" s="93"/>
-      <c r="E160" s="93"/>
-      <c r="F160" s="93"/>
+      <c r="D160" s="83"/>
+      <c r="E160" s="83"/>
+      <c r="F160" s="83"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="93"/>
-      <c r="B161" s="96"/>
+      <c r="A161" s="83"/>
+      <c r="B161" s="86"/>
       <c r="C161" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D161" s="93"/>
-      <c r="E161" s="93"/>
-      <c r="F161" s="93"/>
+      <c r="D161" s="83"/>
+      <c r="E161" s="83"/>
+      <c r="F161" s="83"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="94"/>
-      <c r="B162" s="97"/>
+      <c r="A162" s="84"/>
+      <c r="B162" s="87"/>
       <c r="C162" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D162" s="94"/>
-      <c r="E162" s="94"/>
-      <c r="F162" s="94"/>
+      <c r="D162" s="84"/>
+      <c r="E162" s="84"/>
+      <c r="F162" s="84"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="92" t="s">
+      <c r="A163" s="82" t="s">
         <v>636</v>
       </c>
-      <c r="B163" s="95" t="s">
+      <c r="B163" s="85" t="s">
         <v>676</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="D163" s="92" t="s">
+      <c r="D163" s="82" t="s">
         <v>516</v>
       </c>
-      <c r="E163" s="92"/>
-      <c r="F163" s="92"/>
+      <c r="E163" s="82"/>
+      <c r="F163" s="82"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="93"/>
-      <c r="B164" s="96"/>
+      <c r="A164" s="83"/>
+      <c r="B164" s="86"/>
       <c r="C164" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="D164" s="93"/>
-      <c r="E164" s="93"/>
-      <c r="F164" s="93"/>
+      <c r="D164" s="83"/>
+      <c r="E164" s="83"/>
+      <c r="F164" s="83"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="93"/>
-      <c r="B165" s="96"/>
+      <c r="A165" s="83"/>
+      <c r="B165" s="86"/>
       <c r="C165" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="D165" s="93"/>
-      <c r="E165" s="93"/>
-      <c r="F165" s="93"/>
+      <c r="D165" s="83"/>
+      <c r="E165" s="83"/>
+      <c r="F165" s="83"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="93"/>
-      <c r="B166" s="96"/>
+      <c r="A166" s="83"/>
+      <c r="B166" s="86"/>
       <c r="C166" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="D166" s="93"/>
-      <c r="E166" s="93"/>
-      <c r="F166" s="93"/>
+      <c r="D166" s="83"/>
+      <c r="E166" s="83"/>
+      <c r="F166" s="83"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="94"/>
-      <c r="B167" s="97"/>
+      <c r="A167" s="84"/>
+      <c r="B167" s="87"/>
       <c r="C167" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D167" s="94"/>
-      <c r="E167" s="94"/>
-      <c r="F167" s="94"/>
+      <c r="D167" s="84"/>
+      <c r="E167" s="84"/>
+      <c r="F167" s="84"/>
     </row>
     <row r="168" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
@@ -13891,14 +13901,14 @@
       <c r="F169" s="44"/>
     </row>
     <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="84" t="s">
+      <c r="A170" s="89" t="s">
         <v>495</v>
       </c>
-      <c r="B170" s="84"/>
-      <c r="C170" s="84"/>
-      <c r="D170" s="84"/>
-      <c r="E170" s="84"/>
-      <c r="F170" s="84"/>
+      <c r="B170" s="89"/>
+      <c r="C170" s="89"/>
+      <c r="D170" s="89"/>
+      <c r="E170" s="89"/>
+      <c r="F170" s="89"/>
     </row>
     <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
@@ -13917,60 +13927,60 @@
       <c r="F171" s="16"/>
     </row>
     <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="85" t="s">
+      <c r="A172" s="93" t="s">
         <v>635</v>
       </c>
-      <c r="B172" s="88" t="s">
+      <c r="B172" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="C172" s="85" t="s">
+      <c r="C172" s="93" t="s">
         <v>522</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="E172" s="85"/>
-      <c r="F172" s="85"/>
+      <c r="E172" s="93"/>
+      <c r="F172" s="93"/>
     </row>
     <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="86"/>
-      <c r="B173" s="89"/>
-      <c r="C173" s="86"/>
+      <c r="A173" s="94"/>
+      <c r="B173" s="97"/>
+      <c r="C173" s="94"/>
       <c r="D173" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E173" s="86"/>
-      <c r="F173" s="86"/>
+      <c r="E173" s="94"/>
+      <c r="F173" s="94"/>
     </row>
     <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="86"/>
-      <c r="B174" s="89"/>
-      <c r="C174" s="86"/>
+      <c r="A174" s="94"/>
+      <c r="B174" s="97"/>
+      <c r="C174" s="94"/>
       <c r="D174" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E174" s="86"/>
-      <c r="F174" s="86"/>
+      <c r="E174" s="94"/>
+      <c r="F174" s="94"/>
     </row>
     <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="86"/>
-      <c r="B175" s="89"/>
-      <c r="C175" s="86"/>
+      <c r="A175" s="94"/>
+      <c r="B175" s="97"/>
+      <c r="C175" s="94"/>
       <c r="D175" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E175" s="86"/>
-      <c r="F175" s="86"/>
+      <c r="E175" s="94"/>
+      <c r="F175" s="94"/>
     </row>
     <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="87"/>
-      <c r="B176" s="90"/>
-      <c r="C176" s="87"/>
+      <c r="A176" s="95"/>
+      <c r="B176" s="98"/>
+      <c r="C176" s="95"/>
       <c r="D176" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E176" s="87"/>
-      <c r="F176" s="87"/>
+      <c r="E176" s="95"/>
+      <c r="F176" s="95"/>
     </row>
     <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
@@ -14021,100 +14031,100 @@
       <c r="F179" s="24"/>
     </row>
     <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="85" t="s">
+      <c r="A180" s="93" t="s">
         <v>635</v>
       </c>
-      <c r="B180" s="88" t="s">
+      <c r="B180" s="96" t="s">
         <v>665</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D180" s="85" t="s">
+      <c r="D180" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="E180" s="85"/>
-      <c r="F180" s="85"/>
+      <c r="E180" s="93"/>
+      <c r="F180" s="93"/>
     </row>
     <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="86"/>
-      <c r="B181" s="89"/>
+      <c r="A181" s="94"/>
+      <c r="B181" s="97"/>
       <c r="C181" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D181" s="86"/>
-      <c r="E181" s="86"/>
-      <c r="F181" s="86"/>
+      <c r="D181" s="94"/>
+      <c r="E181" s="94"/>
+      <c r="F181" s="94"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="86"/>
-      <c r="B182" s="89"/>
+      <c r="A182" s="94"/>
+      <c r="B182" s="97"/>
       <c r="C182" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="D182" s="86"/>
-      <c r="E182" s="86"/>
-      <c r="F182" s="86"/>
+      <c r="D182" s="94"/>
+      <c r="E182" s="94"/>
+      <c r="F182" s="94"/>
     </row>
     <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="86"/>
-      <c r="B183" s="89"/>
+      <c r="A183" s="94"/>
+      <c r="B183" s="97"/>
       <c r="C183" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D183" s="86"/>
-      <c r="E183" s="86"/>
-      <c r="F183" s="86"/>
+      <c r="D183" s="94"/>
+      <c r="E183" s="94"/>
+      <c r="F183" s="94"/>
     </row>
     <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="86"/>
-      <c r="B184" s="89"/>
+      <c r="A184" s="94"/>
+      <c r="B184" s="97"/>
       <c r="C184" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D184" s="86"/>
-      <c r="E184" s="86"/>
-      <c r="F184" s="86"/>
+      <c r="D184" s="94"/>
+      <c r="E184" s="94"/>
+      <c r="F184" s="94"/>
     </row>
     <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="86"/>
-      <c r="B185" s="89"/>
+      <c r="A185" s="94"/>
+      <c r="B185" s="97"/>
       <c r="C185" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D185" s="86"/>
-      <c r="E185" s="86"/>
-      <c r="F185" s="86"/>
+      <c r="D185" s="94"/>
+      <c r="E185" s="94"/>
+      <c r="F185" s="94"/>
     </row>
     <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="86"/>
-      <c r="B186" s="89"/>
+      <c r="A186" s="94"/>
+      <c r="B186" s="97"/>
       <c r="C186" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D186" s="86"/>
-      <c r="E186" s="86"/>
-      <c r="F186" s="86"/>
+      <c r="D186" s="94"/>
+      <c r="E186" s="94"/>
+      <c r="F186" s="94"/>
     </row>
     <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="86"/>
-      <c r="B187" s="89"/>
+      <c r="A187" s="94"/>
+      <c r="B187" s="97"/>
       <c r="C187" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="D187" s="86"/>
-      <c r="E187" s="86"/>
-      <c r="F187" s="86"/>
+      <c r="D187" s="94"/>
+      <c r="E187" s="94"/>
+      <c r="F187" s="94"/>
     </row>
     <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="87"/>
-      <c r="B188" s="90"/>
+      <c r="A188" s="95"/>
+      <c r="B188" s="98"/>
       <c r="C188" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D188" s="87"/>
-      <c r="E188" s="87"/>
-      <c r="F188" s="87"/>
+      <c r="D188" s="95"/>
+      <c r="E188" s="95"/>
+      <c r="F188" s="95"/>
     </row>
     <row r="189" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
@@ -14149,14 +14159,14 @@
       <c r="F190" s="16"/>
     </row>
     <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="84" t="s">
+      <c r="A191" s="89" t="s">
         <v>497</v>
       </c>
-      <c r="B191" s="84"/>
-      <c r="C191" s="84"/>
-      <c r="D191" s="84"/>
-      <c r="E191" s="84"/>
-      <c r="F191" s="84"/>
+      <c r="B191" s="89"/>
+      <c r="C191" s="89"/>
+      <c r="D191" s="89"/>
+      <c r="E191" s="89"/>
+      <c r="F191" s="89"/>
     </row>
     <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
@@ -14175,60 +14185,60 @@
       <c r="F192" s="16"/>
     </row>
     <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="85" t="s">
+      <c r="A193" s="93" t="s">
         <v>634</v>
       </c>
-      <c r="B193" s="88" t="s">
+      <c r="B193" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="C193" s="85" t="s">
+      <c r="C193" s="93" t="s">
         <v>530</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E193" s="85"/>
-      <c r="F193" s="85"/>
+      <c r="E193" s="93"/>
+      <c r="F193" s="93"/>
     </row>
     <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="86"/>
-      <c r="B194" s="89"/>
-      <c r="C194" s="86"/>
+      <c r="A194" s="94"/>
+      <c r="B194" s="97"/>
+      <c r="C194" s="94"/>
       <c r="D194" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E194" s="86"/>
-      <c r="F194" s="86"/>
+      <c r="E194" s="94"/>
+      <c r="F194" s="94"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="86"/>
-      <c r="B195" s="89"/>
-      <c r="C195" s="86"/>
+      <c r="A195" s="94"/>
+      <c r="B195" s="97"/>
+      <c r="C195" s="94"/>
       <c r="D195" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E195" s="86"/>
-      <c r="F195" s="86"/>
+      <c r="E195" s="94"/>
+      <c r="F195" s="94"/>
     </row>
     <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="86"/>
-      <c r="B196" s="89"/>
-      <c r="C196" s="86"/>
+      <c r="A196" s="94"/>
+      <c r="B196" s="97"/>
+      <c r="C196" s="94"/>
       <c r="D196" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E196" s="86"/>
-      <c r="F196" s="86"/>
+      <c r="E196" s="94"/>
+      <c r="F196" s="94"/>
     </row>
     <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="87"/>
-      <c r="B197" s="90"/>
-      <c r="C197" s="87"/>
+      <c r="A197" s="95"/>
+      <c r="B197" s="98"/>
+      <c r="C197" s="95"/>
       <c r="D197" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E197" s="87"/>
-      <c r="F197" s="87"/>
+      <c r="E197" s="95"/>
+      <c r="F197" s="95"/>
     </row>
     <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
@@ -14279,100 +14289,100 @@
       <c r="F200" s="24"/>
     </row>
     <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="85" t="s">
+      <c r="A201" s="93" t="s">
         <v>634</v>
       </c>
-      <c r="B201" s="88" t="s">
+      <c r="B201" s="96" t="s">
         <v>665</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D201" s="85" t="s">
+      <c r="D201" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="E201" s="85"/>
-      <c r="F201" s="85"/>
+      <c r="E201" s="93"/>
+      <c r="F201" s="93"/>
     </row>
     <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="86"/>
-      <c r="B202" s="89"/>
+      <c r="A202" s="94"/>
+      <c r="B202" s="97"/>
       <c r="C202" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D202" s="86"/>
-      <c r="E202" s="86"/>
-      <c r="F202" s="86"/>
+      <c r="D202" s="94"/>
+      <c r="E202" s="94"/>
+      <c r="F202" s="94"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="86"/>
-      <c r="B203" s="89"/>
+      <c r="A203" s="94"/>
+      <c r="B203" s="97"/>
       <c r="C203" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="D203" s="86"/>
-      <c r="E203" s="86"/>
-      <c r="F203" s="86"/>
+      <c r="D203" s="94"/>
+      <c r="E203" s="94"/>
+      <c r="F203" s="94"/>
     </row>
     <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="86"/>
-      <c r="B204" s="89"/>
+      <c r="A204" s="94"/>
+      <c r="B204" s="97"/>
       <c r="C204" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D204" s="86"/>
-      <c r="E204" s="86"/>
-      <c r="F204" s="86"/>
+      <c r="D204" s="94"/>
+      <c r="E204" s="94"/>
+      <c r="F204" s="94"/>
     </row>
     <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="86"/>
-      <c r="B205" s="89"/>
+      <c r="A205" s="94"/>
+      <c r="B205" s="97"/>
       <c r="C205" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D205" s="86"/>
-      <c r="E205" s="86"/>
-      <c r="F205" s="86"/>
+      <c r="D205" s="94"/>
+      <c r="E205" s="94"/>
+      <c r="F205" s="94"/>
     </row>
     <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="86"/>
-      <c r="B206" s="89"/>
+      <c r="A206" s="94"/>
+      <c r="B206" s="97"/>
       <c r="C206" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D206" s="86"/>
-      <c r="E206" s="86"/>
-      <c r="F206" s="86"/>
+      <c r="D206" s="94"/>
+      <c r="E206" s="94"/>
+      <c r="F206" s="94"/>
     </row>
     <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="86"/>
-      <c r="B207" s="89"/>
+      <c r="A207" s="94"/>
+      <c r="B207" s="97"/>
       <c r="C207" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="D207" s="86"/>
-      <c r="E207" s="86"/>
-      <c r="F207" s="86"/>
+      <c r="D207" s="94"/>
+      <c r="E207" s="94"/>
+      <c r="F207" s="94"/>
     </row>
     <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="86"/>
-      <c r="B208" s="89"/>
+      <c r="A208" s="94"/>
+      <c r="B208" s="97"/>
       <c r="C208" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="D208" s="86"/>
-      <c r="E208" s="86"/>
-      <c r="F208" s="86"/>
+      <c r="D208" s="94"/>
+      <c r="E208" s="94"/>
+      <c r="F208" s="94"/>
     </row>
     <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="87"/>
-      <c r="B209" s="90"/>
+      <c r="A209" s="95"/>
+      <c r="B209" s="98"/>
       <c r="C209" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D209" s="87"/>
-      <c r="E209" s="87"/>
-      <c r="F209" s="87"/>
+      <c r="D209" s="95"/>
+      <c r="E209" s="95"/>
+      <c r="F209" s="95"/>
     </row>
     <row r="210" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
@@ -14407,14 +14417,14 @@
       <c r="F211" s="16"/>
     </row>
     <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="91" t="s">
+      <c r="A212" s="99" t="s">
         <v>499</v>
       </c>
-      <c r="B212" s="91"/>
-      <c r="C212" s="91"/>
-      <c r="D212" s="91"/>
-      <c r="E212" s="91"/>
-      <c r="F212" s="91"/>
+      <c r="B212" s="99"/>
+      <c r="C212" s="99"/>
+      <c r="D212" s="99"/>
+      <c r="E212" s="99"/>
+      <c r="F212" s="99"/>
     </row>
     <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
@@ -14433,60 +14443,60 @@
       <c r="F213" s="16"/>
     </row>
     <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="85" t="s">
+      <c r="A214" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="B214" s="88" t="s">
+      <c r="B214" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="C214" s="85" t="s">
+      <c r="C214" s="93" t="s">
         <v>538</v>
       </c>
       <c r="D214" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="E214" s="85"/>
-      <c r="F214" s="85"/>
+      <c r="E214" s="93"/>
+      <c r="F214" s="93"/>
     </row>
     <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="86"/>
-      <c r="B215" s="89"/>
-      <c r="C215" s="86"/>
+      <c r="A215" s="94"/>
+      <c r="B215" s="97"/>
+      <c r="C215" s="94"/>
       <c r="D215" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E215" s="86"/>
-      <c r="F215" s="86"/>
+      <c r="E215" s="94"/>
+      <c r="F215" s="94"/>
     </row>
     <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="86"/>
-      <c r="B216" s="89"/>
-      <c r="C216" s="86"/>
+      <c r="A216" s="94"/>
+      <c r="B216" s="97"/>
+      <c r="C216" s="94"/>
       <c r="D216" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E216" s="86"/>
-      <c r="F216" s="86"/>
+      <c r="E216" s="94"/>
+      <c r="F216" s="94"/>
     </row>
     <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="86"/>
-      <c r="B217" s="89"/>
-      <c r="C217" s="86"/>
+      <c r="A217" s="94"/>
+      <c r="B217" s="97"/>
+      <c r="C217" s="94"/>
       <c r="D217" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E217" s="86"/>
-      <c r="F217" s="86"/>
+      <c r="E217" s="94"/>
+      <c r="F217" s="94"/>
     </row>
     <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="87"/>
-      <c r="B218" s="90"/>
-      <c r="C218" s="87"/>
+      <c r="A218" s="95"/>
+      <c r="B218" s="98"/>
+      <c r="C218" s="95"/>
       <c r="D218" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E218" s="87"/>
-      <c r="F218" s="87"/>
+      <c r="E218" s="95"/>
+      <c r="F218" s="95"/>
     </row>
     <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
@@ -14537,100 +14547,100 @@
       <c r="F221" s="24"/>
     </row>
     <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="85" t="s">
+      <c r="A222" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="B222" s="88" t="s">
+      <c r="B222" s="96" t="s">
         <v>665</v>
       </c>
       <c r="C222" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D222" s="85" t="s">
+      <c r="D222" s="93" t="s">
         <v>516</v>
       </c>
-      <c r="E222" s="85"/>
-      <c r="F222" s="85"/>
+      <c r="E222" s="93"/>
+      <c r="F222" s="93"/>
     </row>
     <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="86"/>
-      <c r="B223" s="89"/>
+      <c r="A223" s="94"/>
+      <c r="B223" s="97"/>
       <c r="C223" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D223" s="86"/>
-      <c r="E223" s="86"/>
-      <c r="F223" s="86"/>
+      <c r="D223" s="94"/>
+      <c r="E223" s="94"/>
+      <c r="F223" s="94"/>
     </row>
     <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="86"/>
-      <c r="B224" s="89"/>
+      <c r="A224" s="94"/>
+      <c r="B224" s="97"/>
       <c r="C224" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D224" s="86"/>
-      <c r="E224" s="86"/>
-      <c r="F224" s="86"/>
+      <c r="D224" s="94"/>
+      <c r="E224" s="94"/>
+      <c r="F224" s="94"/>
     </row>
     <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="86"/>
-      <c r="B225" s="89"/>
+      <c r="A225" s="94"/>
+      <c r="B225" s="97"/>
       <c r="C225" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="D225" s="86"/>
-      <c r="E225" s="86"/>
-      <c r="F225" s="86"/>
+      <c r="D225" s="94"/>
+      <c r="E225" s="94"/>
+      <c r="F225" s="94"/>
     </row>
     <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="86"/>
-      <c r="B226" s="89"/>
+      <c r="A226" s="94"/>
+      <c r="B226" s="97"/>
       <c r="C226" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D226" s="86"/>
-      <c r="E226" s="86"/>
-      <c r="F226" s="86"/>
+      <c r="D226" s="94"/>
+      <c r="E226" s="94"/>
+      <c r="F226" s="94"/>
     </row>
     <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="86"/>
-      <c r="B227" s="89"/>
+      <c r="A227" s="94"/>
+      <c r="B227" s="97"/>
       <c r="C227" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D227" s="86"/>
-      <c r="E227" s="86"/>
-      <c r="F227" s="86"/>
+      <c r="D227" s="94"/>
+      <c r="E227" s="94"/>
+      <c r="F227" s="94"/>
     </row>
     <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="86"/>
-      <c r="B228" s="89"/>
+      <c r="A228" s="94"/>
+      <c r="B228" s="97"/>
       <c r="C228" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="D228" s="86"/>
-      <c r="E228" s="86"/>
-      <c r="F228" s="86"/>
+      <c r="D228" s="94"/>
+      <c r="E228" s="94"/>
+      <c r="F228" s="94"/>
     </row>
     <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="86"/>
-      <c r="B229" s="89"/>
+      <c r="A229" s="94"/>
+      <c r="B229" s="97"/>
       <c r="C229" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="D229" s="86"/>
-      <c r="E229" s="86"/>
-      <c r="F229" s="86"/>
+      <c r="D229" s="94"/>
+      <c r="E229" s="94"/>
+      <c r="F229" s="94"/>
     </row>
     <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="87"/>
-      <c r="B230" s="90"/>
+      <c r="A230" s="95"/>
+      <c r="B230" s="98"/>
       <c r="C230" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D230" s="87"/>
-      <c r="E230" s="87"/>
-      <c r="F230" s="87"/>
+      <c r="D230" s="95"/>
+      <c r="E230" s="95"/>
+      <c r="F230" s="95"/>
     </row>
     <row r="231" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
@@ -14665,14 +14675,14 @@
       <c r="F232" s="16"/>
     </row>
     <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="84" t="s">
+      <c r="A233" s="89" t="s">
         <v>505</v>
       </c>
-      <c r="B233" s="84"/>
-      <c r="C233" s="84"/>
-      <c r="D233" s="84"/>
-      <c r="E233" s="84"/>
-      <c r="F233" s="84"/>
+      <c r="B233" s="89"/>
+      <c r="C233" s="89"/>
+      <c r="D233" s="89"/>
+      <c r="E233" s="89"/>
+      <c r="F233" s="89"/>
     </row>
     <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
@@ -14691,60 +14701,60 @@
       <c r="F234" s="16"/>
     </row>
     <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="85" t="s">
+      <c r="A235" s="93" t="s">
         <v>633</v>
       </c>
-      <c r="B235" s="88" t="s">
+      <c r="B235" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="C235" s="85" t="s">
+      <c r="C235" s="93" t="s">
         <v>530</v>
       </c>
       <c r="D235" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E235" s="85"/>
-      <c r="F235" s="85"/>
+      <c r="E235" s="93"/>
+      <c r="F235" s="93"/>
     </row>
     <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="86"/>
-      <c r="B236" s="89"/>
-      <c r="C236" s="86"/>
+      <c r="A236" s="94"/>
+      <c r="B236" s="97"/>
+      <c r="C236" s="94"/>
       <c r="D236" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E236" s="86"/>
-      <c r="F236" s="86"/>
+      <c r="E236" s="94"/>
+      <c r="F236" s="94"/>
     </row>
     <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="86"/>
-      <c r="B237" s="89"/>
-      <c r="C237" s="86"/>
+      <c r="A237" s="94"/>
+      <c r="B237" s="97"/>
+      <c r="C237" s="94"/>
       <c r="D237" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E237" s="86"/>
-      <c r="F237" s="86"/>
+      <c r="E237" s="94"/>
+      <c r="F237" s="94"/>
     </row>
     <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="86"/>
-      <c r="B238" s="89"/>
-      <c r="C238" s="86"/>
+      <c r="A238" s="94"/>
+      <c r="B238" s="97"/>
+      <c r="C238" s="94"/>
       <c r="D238" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E238" s="86"/>
-      <c r="F238" s="86"/>
+      <c r="E238" s="94"/>
+      <c r="F238" s="94"/>
     </row>
     <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="87"/>
-      <c r="B239" s="90"/>
-      <c r="C239" s="87"/>
+      <c r="A239" s="95"/>
+      <c r="B239" s="98"/>
+      <c r="C239" s="95"/>
       <c r="D239" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E239" s="87"/>
-      <c r="F239" s="87"/>
+      <c r="E239" s="95"/>
+      <c r="F239" s="95"/>
     </row>
     <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
@@ -14859,14 +14869,14 @@
       <c r="F246" s="23"/>
     </row>
     <row r="247" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="84" t="s">
+      <c r="A247" s="89" t="s">
         <v>507</v>
       </c>
-      <c r="B247" s="84"/>
-      <c r="C247" s="84"/>
-      <c r="D247" s="84"/>
-      <c r="E247" s="84"/>
-      <c r="F247" s="84"/>
+      <c r="B247" s="89"/>
+      <c r="C247" s="89"/>
+      <c r="D247" s="89"/>
+      <c r="E247" s="89"/>
+      <c r="F247" s="89"/>
     </row>
     <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A248" s="16" t="s">
@@ -14885,60 +14895,60 @@
       <c r="F248" s="16"/>
     </row>
     <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="85" t="s">
+      <c r="A249" s="93" t="s">
         <v>632</v>
       </c>
-      <c r="B249" s="88" t="s">
+      <c r="B249" s="96" t="s">
         <v>646</v>
       </c>
-      <c r="C249" s="85" t="s">
+      <c r="C249" s="93" t="s">
         <v>538</v>
       </c>
       <c r="D249" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="E249" s="85"/>
-      <c r="F249" s="85"/>
+      <c r="E249" s="93"/>
+      <c r="F249" s="93"/>
     </row>
     <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="86"/>
-      <c r="B250" s="89"/>
-      <c r="C250" s="86"/>
+      <c r="A250" s="94"/>
+      <c r="B250" s="97"/>
+      <c r="C250" s="94"/>
       <c r="D250" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E250" s="86"/>
-      <c r="F250" s="86"/>
+      <c r="E250" s="94"/>
+      <c r="F250" s="94"/>
     </row>
     <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="86"/>
-      <c r="B251" s="89"/>
-      <c r="C251" s="86"/>
+      <c r="A251" s="94"/>
+      <c r="B251" s="97"/>
+      <c r="C251" s="94"/>
       <c r="D251" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E251" s="86"/>
-      <c r="F251" s="86"/>
+      <c r="E251" s="94"/>
+      <c r="F251" s="94"/>
     </row>
     <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="86"/>
-      <c r="B252" s="89"/>
-      <c r="C252" s="86"/>
+      <c r="A252" s="94"/>
+      <c r="B252" s="97"/>
+      <c r="C252" s="94"/>
       <c r="D252" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E252" s="86"/>
-      <c r="F252" s="86"/>
+      <c r="E252" s="94"/>
+      <c r="F252" s="94"/>
     </row>
     <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="87"/>
-      <c r="B253" s="90"/>
-      <c r="C253" s="87"/>
+      <c r="A253" s="95"/>
+      <c r="B253" s="98"/>
+      <c r="C253" s="95"/>
       <c r="D253" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E253" s="87"/>
-      <c r="F253" s="87"/>
+      <c r="E253" s="95"/>
+      <c r="F253" s="95"/>
     </row>
     <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A254" s="16" t="s">
@@ -15101,14 +15111,14 @@
       <c r="F263" s="23"/>
     </row>
     <row r="264" spans="1:6" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="80" t="s">
+      <c r="A264" s="88" t="s">
         <v>606</v>
       </c>
-      <c r="B264" s="80"/>
-      <c r="C264" s="80"/>
-      <c r="D264" s="80"/>
-      <c r="E264" s="80"/>
-      <c r="F264" s="80"/>
+      <c r="B264" s="88"/>
+      <c r="C264" s="88"/>
+      <c r="D264" s="88"/>
+      <c r="E264" s="88"/>
+      <c r="F264" s="88"/>
     </row>
     <row r="265" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A265" s="55"/>
@@ -15583,144 +15593,144 @@
       <c r="F298" s="55"/>
     </row>
     <row r="299" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="81"/>
-      <c r="B299" s="81" t="s">
+      <c r="A299" s="100"/>
+      <c r="B299" s="100" t="s">
         <v>668</v>
       </c>
-      <c r="C299" s="82" t="s">
+      <c r="C299" s="101" t="s">
         <v>146</v>
       </c>
-      <c r="D299" s="83" t="s">
+      <c r="D299" s="102" t="s">
         <v>147</v>
       </c>
       <c r="E299" s="55"/>
       <c r="F299" s="55"/>
     </row>
     <row r="300" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="81"/>
-      <c r="B300" s="81"/>
-      <c r="C300" s="82"/>
-      <c r="D300" s="83"/>
+      <c r="A300" s="100"/>
+      <c r="B300" s="100"/>
+      <c r="C300" s="101"/>
+      <c r="D300" s="102"/>
       <c r="E300" s="55"/>
       <c r="F300" s="55"/>
     </row>
     <row r="301" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="81"/>
-      <c r="B301" s="81"/>
-      <c r="C301" s="82"/>
-      <c r="D301" s="83"/>
+      <c r="A301" s="100"/>
+      <c r="B301" s="100"/>
+      <c r="C301" s="101"/>
+      <c r="D301" s="102"/>
       <c r="E301" s="55"/>
       <c r="F301" s="55"/>
     </row>
     <row r="302" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="81"/>
-      <c r="B302" s="81"/>
-      <c r="C302" s="82"/>
-      <c r="D302" s="83"/>
+      <c r="A302" s="100"/>
+      <c r="B302" s="100"/>
+      <c r="C302" s="101"/>
+      <c r="D302" s="102"/>
       <c r="E302" s="55"/>
       <c r="F302" s="55"/>
     </row>
     <row r="303" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="81"/>
-      <c r="B303" s="81"/>
-      <c r="C303" s="82"/>
-      <c r="D303" s="83"/>
+      <c r="A303" s="100"/>
+      <c r="B303" s="100"/>
+      <c r="C303" s="101"/>
+      <c r="D303" s="102"/>
       <c r="E303" s="55"/>
       <c r="F303" s="55"/>
     </row>
     <row r="304" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="81"/>
-      <c r="B304" s="81"/>
-      <c r="C304" s="82"/>
-      <c r="D304" s="83"/>
+      <c r="A304" s="100"/>
+      <c r="B304" s="100"/>
+      <c r="C304" s="101"/>
+      <c r="D304" s="102"/>
       <c r="E304" s="55"/>
       <c r="F304" s="55"/>
     </row>
     <row r="305" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="81"/>
-      <c r="B305" s="81"/>
-      <c r="C305" s="82"/>
-      <c r="D305" s="83"/>
+      <c r="A305" s="100"/>
+      <c r="B305" s="100"/>
+      <c r="C305" s="101"/>
+      <c r="D305" s="102"/>
       <c r="E305" s="55"/>
       <c r="F305" s="55"/>
     </row>
     <row r="306" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="81"/>
-      <c r="B306" s="81"/>
-      <c r="C306" s="82"/>
-      <c r="D306" s="83"/>
+      <c r="A306" s="100"/>
+      <c r="B306" s="100"/>
+      <c r="C306" s="101"/>
+      <c r="D306" s="102"/>
       <c r="E306" s="55"/>
       <c r="F306" s="55"/>
     </row>
     <row r="307" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="81"/>
-      <c r="B307" s="81"/>
-      <c r="C307" s="82"/>
-      <c r="D307" s="83"/>
+      <c r="A307" s="100"/>
+      <c r="B307" s="100"/>
+      <c r="C307" s="101"/>
+      <c r="D307" s="102"/>
       <c r="E307" s="55"/>
       <c r="F307" s="55"/>
     </row>
     <row r="308" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="81"/>
-      <c r="B308" s="81"/>
-      <c r="C308" s="82"/>
-      <c r="D308" s="83"/>
+      <c r="A308" s="100"/>
+      <c r="B308" s="100"/>
+      <c r="C308" s="101"/>
+      <c r="D308" s="102"/>
       <c r="E308" s="55"/>
       <c r="F308" s="55"/>
     </row>
     <row r="309" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="81"/>
-      <c r="B309" s="81"/>
-      <c r="C309" s="82"/>
-      <c r="D309" s="83"/>
+      <c r="A309" s="100"/>
+      <c r="B309" s="100"/>
+      <c r="C309" s="101"/>
+      <c r="D309" s="102"/>
       <c r="E309" s="55"/>
       <c r="F309" s="55"/>
     </row>
     <row r="310" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="81"/>
-      <c r="B310" s="81"/>
-      <c r="C310" s="82"/>
-      <c r="D310" s="83"/>
+      <c r="A310" s="100"/>
+      <c r="B310" s="100"/>
+      <c r="C310" s="101"/>
+      <c r="D310" s="102"/>
       <c r="E310" s="55"/>
       <c r="F310" s="55"/>
     </row>
     <row r="311" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="81"/>
-      <c r="B311" s="81"/>
-      <c r="C311" s="82"/>
-      <c r="D311" s="83"/>
+      <c r="A311" s="100"/>
+      <c r="B311" s="100"/>
+      <c r="C311" s="101"/>
+      <c r="D311" s="102"/>
       <c r="E311" s="55"/>
       <c r="F311" s="55"/>
     </row>
     <row r="312" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="81"/>
-      <c r="B312" s="81"/>
-      <c r="C312" s="82"/>
-      <c r="D312" s="83"/>
+      <c r="A312" s="100"/>
+      <c r="B312" s="100"/>
+      <c r="C312" s="101"/>
+      <c r="D312" s="102"/>
       <c r="E312" s="55"/>
       <c r="F312" s="55"/>
     </row>
     <row r="313" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="81"/>
-      <c r="B313" s="81"/>
-      <c r="C313" s="82"/>
-      <c r="D313" s="83"/>
+      <c r="A313" s="100"/>
+      <c r="B313" s="100"/>
+      <c r="C313" s="101"/>
+      <c r="D313" s="102"/>
       <c r="E313" s="55"/>
       <c r="F313" s="55"/>
     </row>
     <row r="314" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="81"/>
-      <c r="B314" s="81"/>
-      <c r="C314" s="82"/>
-      <c r="D314" s="83"/>
+      <c r="A314" s="100"/>
+      <c r="B314" s="100"/>
+      <c r="C314" s="101"/>
+      <c r="D314" s="102"/>
       <c r="E314" s="55"/>
       <c r="F314" s="55"/>
     </row>
     <row r="315" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="81"/>
-      <c r="B315" s="81"/>
-      <c r="C315" s="82"/>
-      <c r="D315" s="83"/>
+      <c r="A315" s="100"/>
+      <c r="B315" s="100"/>
+      <c r="C315" s="101"/>
+      <c r="D315" s="102"/>
       <c r="E315" s="55"/>
       <c r="F315" s="55"/>
     </row>
@@ -16054,6 +16064,109 @@
     <row r="610" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="119">
+    <mergeCell ref="A264:F264"/>
+    <mergeCell ref="A299:A315"/>
+    <mergeCell ref="B299:B315"/>
+    <mergeCell ref="C299:C315"/>
+    <mergeCell ref="D299:D315"/>
+    <mergeCell ref="A247:F247"/>
+    <mergeCell ref="A249:A253"/>
+    <mergeCell ref="B249:B253"/>
+    <mergeCell ref="C249:C253"/>
+    <mergeCell ref="E249:E253"/>
+    <mergeCell ref="F249:F253"/>
+    <mergeCell ref="A233:F233"/>
+    <mergeCell ref="A235:A239"/>
+    <mergeCell ref="B235:B239"/>
+    <mergeCell ref="C235:C239"/>
+    <mergeCell ref="E235:E239"/>
+    <mergeCell ref="F235:F239"/>
+    <mergeCell ref="A214:A218"/>
+    <mergeCell ref="B214:B218"/>
+    <mergeCell ref="C214:C218"/>
+    <mergeCell ref="E214:E218"/>
+    <mergeCell ref="F214:F218"/>
+    <mergeCell ref="A222:A230"/>
+    <mergeCell ref="B222:B230"/>
+    <mergeCell ref="D222:D230"/>
+    <mergeCell ref="E222:E230"/>
+    <mergeCell ref="F222:F230"/>
+    <mergeCell ref="A201:A209"/>
+    <mergeCell ref="B201:B209"/>
+    <mergeCell ref="D201:D209"/>
+    <mergeCell ref="E201:E209"/>
+    <mergeCell ref="F201:F209"/>
+    <mergeCell ref="A212:F212"/>
+    <mergeCell ref="A191:F191"/>
+    <mergeCell ref="A193:A197"/>
+    <mergeCell ref="B193:B197"/>
+    <mergeCell ref="C193:C197"/>
+    <mergeCell ref="E193:E197"/>
+    <mergeCell ref="F193:F197"/>
+    <mergeCell ref="A172:A176"/>
+    <mergeCell ref="B172:B176"/>
+    <mergeCell ref="C172:C176"/>
+    <mergeCell ref="E172:E176"/>
+    <mergeCell ref="F172:F176"/>
+    <mergeCell ref="A180:A188"/>
+    <mergeCell ref="B180:B188"/>
+    <mergeCell ref="D180:D188"/>
+    <mergeCell ref="E180:E188"/>
+    <mergeCell ref="F180:F188"/>
+    <mergeCell ref="A163:A167"/>
+    <mergeCell ref="B163:B167"/>
+    <mergeCell ref="D163:D167"/>
+    <mergeCell ref="E163:E167"/>
+    <mergeCell ref="F163:F167"/>
+    <mergeCell ref="A170:F170"/>
+    <mergeCell ref="A145:A154"/>
+    <mergeCell ref="B145:B154"/>
+    <mergeCell ref="D145:D154"/>
+    <mergeCell ref="E145:E154"/>
+    <mergeCell ref="F145:F154"/>
+    <mergeCell ref="A155:A162"/>
+    <mergeCell ref="B155:B162"/>
+    <mergeCell ref="D155:D162"/>
+    <mergeCell ref="E155:E162"/>
+    <mergeCell ref="F155:F162"/>
+    <mergeCell ref="A134:F134"/>
+    <mergeCell ref="A136:A140"/>
+    <mergeCell ref="B136:B140"/>
+    <mergeCell ref="C136:C140"/>
+    <mergeCell ref="E136:E140"/>
+    <mergeCell ref="F136:F140"/>
+    <mergeCell ref="A119:A126"/>
+    <mergeCell ref="B119:B126"/>
+    <mergeCell ref="D119:D126"/>
+    <mergeCell ref="E119:E126"/>
+    <mergeCell ref="F119:F126"/>
+    <mergeCell ref="A127:A131"/>
+    <mergeCell ref="B127:B131"/>
+    <mergeCell ref="D127:D131"/>
+    <mergeCell ref="E127:E131"/>
+    <mergeCell ref="F127:F131"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="D109:D118"/>
+    <mergeCell ref="E109:E118"/>
+    <mergeCell ref="F109:F118"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A82:F82"/>
     <mergeCell ref="G20:G24"/>
     <mergeCell ref="A31:F31"/>
     <mergeCell ref="A33:A37"/>
@@ -16070,109 +16183,6 @@
     <mergeCell ref="C20:C24"/>
     <mergeCell ref="E20:E24"/>
     <mergeCell ref="F20:F24"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="D109:D118"/>
-    <mergeCell ref="E109:E118"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="A134:F134"/>
-    <mergeCell ref="A136:A140"/>
-    <mergeCell ref="B136:B140"/>
-    <mergeCell ref="C136:C140"/>
-    <mergeCell ref="E136:E140"/>
-    <mergeCell ref="F136:F140"/>
-    <mergeCell ref="A119:A126"/>
-    <mergeCell ref="B119:B126"/>
-    <mergeCell ref="D119:D126"/>
-    <mergeCell ref="E119:E126"/>
-    <mergeCell ref="F119:F126"/>
-    <mergeCell ref="A127:A131"/>
-    <mergeCell ref="B127:B131"/>
-    <mergeCell ref="D127:D131"/>
-    <mergeCell ref="E127:E131"/>
-    <mergeCell ref="F127:F131"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E167"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="A170:F170"/>
-    <mergeCell ref="A145:A154"/>
-    <mergeCell ref="B145:B154"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="E145:E154"/>
-    <mergeCell ref="F145:F154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="B155:B162"/>
-    <mergeCell ref="D155:D162"/>
-    <mergeCell ref="E155:E162"/>
-    <mergeCell ref="F155:F162"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="E172:E176"/>
-    <mergeCell ref="F172:F176"/>
-    <mergeCell ref="A180:A188"/>
-    <mergeCell ref="B180:B188"/>
-    <mergeCell ref="D180:D188"/>
-    <mergeCell ref="E180:E188"/>
-    <mergeCell ref="F180:F188"/>
-    <mergeCell ref="A201:A209"/>
-    <mergeCell ref="B201:B209"/>
-    <mergeCell ref="D201:D209"/>
-    <mergeCell ref="E201:E209"/>
-    <mergeCell ref="F201:F209"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="C193:C197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="E235:E239"/>
-    <mergeCell ref="F235:F239"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="F214:F218"/>
-    <mergeCell ref="A222:A230"/>
-    <mergeCell ref="B222:B230"/>
-    <mergeCell ref="D222:D230"/>
-    <mergeCell ref="E222:E230"/>
-    <mergeCell ref="F222:F230"/>
-    <mergeCell ref="A264:F264"/>
-    <mergeCell ref="A299:A315"/>
-    <mergeCell ref="B299:B315"/>
-    <mergeCell ref="C299:C315"/>
-    <mergeCell ref="D299:D315"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="A249:A253"/>
-    <mergeCell ref="B249:B253"/>
-    <mergeCell ref="C249:C253"/>
-    <mergeCell ref="E249:E253"/>
-    <mergeCell ref="F249:F253"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16187,8 +16197,8 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16902,4 +16912,340 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E7D7D87-83D5-4F69-B95B-8099F6CA5E9E}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:G26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="82.85546875" customWidth="1"/>
+    <col min="3" max="3" width="85.140625" customWidth="1"/>
+    <col min="4" max="4" width="12.5703125" style="59" customWidth="1"/>
+    <col min="5" max="5" width="12.5703125" customWidth="1"/>
+    <col min="7" max="7" width="26.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="70"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+    </row>
+    <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="71"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+    </row>
+    <row r="3" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="E3" s="1"/>
+      <c r="G3" s="104" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="72" t="s">
+        <v>464</v>
+      </c>
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="8"/>
+      <c r="B6" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C6" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D6" s="8"/>
+      <c r="E6" s="8"/>
+    </row>
+    <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="5" t="s">
+        <v>607</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="G7" s="58"/>
+    </row>
+    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="8"/>
+      <c r="B8" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D8" s="8"/>
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="5" t="s">
+        <v>608</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="8"/>
+      <c r="B10" s="9" t="s">
+        <v>467</v>
+      </c>
+      <c r="C10" s="15" t="s">
+        <v>468</v>
+      </c>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="72" t="s">
+        <v>477</v>
+      </c>
+      <c r="B11" s="73"/>
+      <c r="C11" s="73"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="73"/>
+    </row>
+    <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="5" t="s">
+        <v>611</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8"/>
+      <c r="B13" s="9" t="s">
+        <v>479</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D13" s="8"/>
+      <c r="E13" s="103"/>
+      <c r="F13" s="64"/>
+    </row>
+    <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="5" t="s">
+        <v>612</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="8"/>
+      <c r="B15" s="9" t="s">
+        <v>481</v>
+      </c>
+      <c r="C15" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D15" s="8"/>
+      <c r="E15" s="8"/>
+    </row>
+    <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="5" t="s">
+        <v>613</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>482</v>
+      </c>
+      <c r="C16" s="6"/>
+      <c r="D16" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="8"/>
+      <c r="B17" s="9" t="s">
+        <v>483</v>
+      </c>
+      <c r="C17" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D17" s="8"/>
+      <c r="E17" s="8"/>
+    </row>
+    <row r="18" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="5" t="s">
+        <v>616</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>488</v>
+      </c>
+      <c r="C18" s="7"/>
+      <c r="D18" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="8"/>
+      <c r="B19" s="9" t="s">
+        <v>489</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D19" s="8"/>
+      <c r="E19" s="8"/>
+    </row>
+    <row r="20" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="72" t="s">
+        <v>500</v>
+      </c>
+      <c r="B20" s="73"/>
+      <c r="C20" s="73"/>
+      <c r="D20" s="73"/>
+      <c r="E20" s="73"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="5" t="s">
+        <v>622</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>501</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="8"/>
+      <c r="B22" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C22" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D22" s="8"/>
+      <c r="E22" s="8"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
+        <v>623</v>
+      </c>
+      <c r="B23" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E23" s="5"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="8"/>
+      <c r="B24" s="9" t="s">
+        <v>502</v>
+      </c>
+      <c r="C24" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D24" s="8"/>
+      <c r="E24" s="8"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
+        <v>625</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="5" t="s">
+        <v>466</v>
+      </c>
+      <c r="E25" s="5"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="8"/>
+      <c r="B26" s="9" t="s">
+        <v>507</v>
+      </c>
+      <c r="C26" s="9" t="s">
+        <v>468</v>
+      </c>
+      <c r="D26" s="8"/>
+      <c r="E26" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="A1:E2"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Config/SAMO.xlsx
+++ b/Config/SAMO.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58595F9D-AB66-46D1-9588-5CE7A363C939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B97A1ED-A80A-44DD-8FFF-24CE19E548E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="5" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Application - Portal_TS" sheetId="9" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2369" uniqueCount="700">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="701">
   <si>
     <t xml:space="preserve">CXE </t>
   </si>
@@ -2559,31 +2559,6 @@
     <t>Reactivate Service page should be displayed</t>
   </si>
   <si>
-    <t>Populate the following
-Company Name*
-Doing Business As
-Business Email Address
-Business Landline*
-First Name*
-Last Name*
-Email Address*
-Mobile Number*
-Designation*</t>
-  </si>
-  <si>
-    <t>Populate the following:
-Service Address
-Province
-City / Municipality
-Home Ownership
-Billing Address indicator
-&gt; Attach Documents
-&gt; Click Next</t>
-  </si>
-  <si>
-    <t>TC018_Processing of Case Status to Application Approved</t>
-  </si>
-  <si>
     <t>TS002</t>
   </si>
   <si>
@@ -2659,9 +2634,6 @@
     <t>TC007</t>
   </si>
   <si>
-    <t>TC017</t>
-  </si>
-  <si>
     <t>TC016</t>
   </si>
   <si>
@@ -2695,36 +2667,12 @@
     <t>Step 10</t>
   </si>
   <si>
-    <t>Step 1Step 1</t>
-  </si>
-  <si>
-    <t>Step 12</t>
-  </si>
-  <si>
     <t>Step 2</t>
   </si>
   <si>
-    <t>Step 1Step 2</t>
-  </si>
-  <si>
-    <t>Step 20</t>
-  </si>
-  <si>
-    <t>Step 2Step 1</t>
-  </si>
-  <si>
-    <t>Step 2Step 2</t>
-  </si>
-  <si>
     <t>Step 3</t>
   </si>
   <si>
-    <t>Step 1Step 3</t>
-  </si>
-  <si>
-    <t>Step 2Step 3</t>
-  </si>
-  <si>
     <t>Step 30</t>
   </si>
   <si>
@@ -2740,30 +2688,18 @@
     <t>Step 4</t>
   </si>
   <si>
-    <t>Step 1Step 4</t>
-  </si>
-  <si>
-    <t>Step 2Step 4</t>
-  </si>
-  <si>
     <t>Step 3Step 4</t>
   </si>
   <si>
     <t>Step 5</t>
   </si>
   <si>
-    <t>Step 1Step 5</t>
-  </si>
-  <si>
     <t>Step 2Step 5</t>
   </si>
   <si>
     <t>Step 6</t>
   </si>
   <si>
-    <t>Step 1Step 6</t>
-  </si>
-  <si>
     <t>Step 2Step 6</t>
   </si>
   <si>
@@ -2773,9 +2709,6 @@
     <t>Step 7</t>
   </si>
   <si>
-    <t>Step 1Step 7</t>
-  </si>
-  <si>
     <t>Step 2Step 7</t>
   </si>
   <si>
@@ -2785,18 +2718,12 @@
     <t>Step 8</t>
   </si>
   <si>
-    <t>Step 1Step 8</t>
-  </si>
-  <si>
     <t>Step 2Step 8</t>
   </si>
   <si>
     <t>Step 9</t>
   </si>
   <si>
-    <t>Step 1Step 9</t>
-  </si>
-  <si>
     <t>Step 2Step 9</t>
   </si>
   <si>
@@ -2861,13 +2788,73 @@
   </si>
   <si>
     <t>REMARKS</t>
+  </si>
+  <si>
+    <t>Automated - January 6, 2023</t>
+  </si>
+  <si>
+    <t>Go tohttps://fuat-meralco.cs73.force.com/customers/s/cxe-apply</t>
+  </si>
+  <si>
+    <t>&gt;Click Next</t>
+  </si>
+  <si>
+    <t>Fields should be populated; Customer Info tab should be displayed</t>
+  </si>
+  <si>
+    <t>Populate Customer Account Number field</t>
+  </si>
+  <si>
+    <t>Customer Account Number field should be populated; Service ID Number field should be displayed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Populate Service ID Number </t>
+  </si>
+  <si>
+    <t>Service ID Number field should be populated</t>
+  </si>
+  <si>
+    <t>Email address*</t>
+  </si>
+  <si>
+    <t>Landline (optional)</t>
+  </si>
+  <si>
+    <t>Birthday (optional)</t>
+  </si>
+  <si>
+    <t>Service Address</t>
+  </si>
+  <si>
+    <t>Province</t>
+  </si>
+  <si>
+    <t>City / Municipality</t>
+  </si>
+  <si>
+    <t>Home Ownership</t>
+  </si>
+  <si>
+    <t>Billing Address indicator</t>
+  </si>
+  <si>
+    <t>CTS-196</t>
+  </si>
+  <si>
+    <t>Tick on Terms &amp; Conditions and  Privacy Policy agreement</t>
+  </si>
+  <si>
+    <t>Customer Account Number field should be populated</t>
+  </si>
+  <si>
+    <t>Test Design updated Based on current UI - Janauary 5, 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="15" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2974,8 +2961,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3040,6 +3040,12 @@
       <patternFill patternType="solid">
         <fgColor theme="0"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -3205,7 +3211,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="130">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3408,6 +3414,12 @@
     <xf numFmtId="0" fontId="5" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3513,10 +3525,77 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -3852,20 +3931,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3881,22 +3960,22 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="68" t="s">
+      <c r="A5" s="70" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="69"/>
-      <c r="C5" s="69"/>
-      <c r="D5" s="69"/>
-      <c r="E5" s="69"/>
+      <c r="B5" s="71"/>
+      <c r="C5" s="71"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="71"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -4020,13 +4099,13 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="69"/>
-      <c r="C16" s="69"/>
-      <c r="D16" s="69"/>
-      <c r="E16" s="69"/>
+      <c r="B16" s="71"/>
+      <c r="C16" s="71"/>
+      <c r="D16" s="71"/>
+      <c r="E16" s="71"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
@@ -4090,13 +4169,13 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="68" t="s">
+      <c r="A22" s="70" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="69"/>
-      <c r="C22" s="69"/>
-      <c r="D22" s="69"/>
-      <c r="E22" s="69"/>
+      <c r="B22" s="71"/>
+      <c r="C22" s="71"/>
+      <c r="D22" s="71"/>
+      <c r="E22" s="71"/>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
@@ -4149,13 +4228,13 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="68" t="s">
+      <c r="A27" s="70" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="69"/>
-      <c r="C27" s="69"/>
-      <c r="D27" s="69"/>
-      <c r="E27" s="69"/>
+      <c r="B27" s="71"/>
+      <c r="C27" s="71"/>
+      <c r="D27" s="71"/>
+      <c r="E27" s="71"/>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
@@ -4237,14 +4316,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="74" t="s">
+      <c r="A2" s="76" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="75"/>
-      <c r="C2" s="75"/>
-      <c r="D2" s="75"/>
-      <c r="E2" s="75"/>
-      <c r="F2" s="76"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="78"/>
     </row>
     <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
@@ -4522,172 +4601,172 @@
       </c>
     </row>
     <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="77"/>
-      <c r="B28" s="77">
+      <c r="A28" s="79"/>
+      <c r="B28" s="79">
         <v>26</v>
       </c>
-      <c r="C28" s="78" t="s">
+      <c r="C28" s="80" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="78" t="s">
+      <c r="D28" s="80" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="77"/>
-      <c r="B29" s="77"/>
-      <c r="C29" s="78"/>
-      <c r="D29" s="78"/>
+      <c r="A29" s="79"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="80"/>
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="77"/>
-      <c r="B30" s="77"/>
-      <c r="C30" s="78"/>
-      <c r="D30" s="78"/>
+      <c r="A30" s="79"/>
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="80"/>
     </row>
     <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="77"/>
-      <c r="B31" s="77"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
+      <c r="A31" s="79"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="80"/>
     </row>
     <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="77"/>
-      <c r="B32" s="77"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
+      <c r="A32" s="79"/>
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="80"/>
     </row>
     <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="77"/>
-      <c r="B33" s="77"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
+      <c r="A33" s="79"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="80"/>
     </row>
     <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="77"/>
-      <c r="B34" s="77"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
+      <c r="A34" s="79"/>
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="80"/>
     </row>
     <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="77"/>
-      <c r="B35" s="77"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
+      <c r="A35" s="79"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="80"/>
+      <c r="D35" s="80"/>
     </row>
     <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="77"/>
-      <c r="B36" s="77"/>
-      <c r="C36" s="78"/>
-      <c r="D36" s="78"/>
+      <c r="A36" s="79"/>
+      <c r="B36" s="79"/>
+      <c r="C36" s="80"/>
+      <c r="D36" s="80"/>
     </row>
     <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="77"/>
-      <c r="B37" s="77"/>
-      <c r="C37" s="78"/>
-      <c r="D37" s="78"/>
+      <c r="A37" s="79"/>
+      <c r="B37" s="79"/>
+      <c r="C37" s="80"/>
+      <c r="D37" s="80"/>
     </row>
     <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="77"/>
-      <c r="B38" s="77"/>
-      <c r="C38" s="78"/>
-      <c r="D38" s="78"/>
+      <c r="A38" s="79"/>
+      <c r="B38" s="79"/>
+      <c r="C38" s="80"/>
+      <c r="D38" s="80"/>
     </row>
     <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="77"/>
-      <c r="B39" s="77"/>
-      <c r="C39" s="78"/>
-      <c r="D39" s="78"/>
+      <c r="A39" s="79"/>
+      <c r="B39" s="79"/>
+      <c r="C39" s="80"/>
+      <c r="D39" s="80"/>
     </row>
     <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="77"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
+      <c r="A40" s="79"/>
+      <c r="B40" s="79"/>
+      <c r="C40" s="80"/>
+      <c r="D40" s="80"/>
     </row>
     <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="77"/>
-      <c r="B41" s="77"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
+      <c r="A41" s="79"/>
+      <c r="B41" s="79"/>
+      <c r="C41" s="80"/>
+      <c r="D41" s="80"/>
     </row>
     <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="77"/>
-      <c r="B42" s="77"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
+      <c r="A42" s="79"/>
+      <c r="B42" s="79"/>
+      <c r="C42" s="80"/>
+      <c r="D42" s="80"/>
     </row>
     <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="77"/>
-      <c r="B43" s="77"/>
-      <c r="C43" s="78"/>
-      <c r="D43" s="78"/>
+      <c r="A43" s="79"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="80"/>
     </row>
     <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="77"/>
-      <c r="B44" s="77"/>
-      <c r="C44" s="78"/>
-      <c r="D44" s="78"/>
+      <c r="A44" s="79"/>
+      <c r="B44" s="79"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="80"/>
     </row>
     <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="77"/>
-      <c r="B45" s="77"/>
-      <c r="C45" s="78"/>
-      <c r="D45" s="78"/>
+      <c r="A45" s="79"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="80"/>
     </row>
     <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="77"/>
-      <c r="B46" s="77"/>
-      <c r="C46" s="78"/>
-      <c r="D46" s="78"/>
+      <c r="A46" s="79"/>
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="80"/>
     </row>
     <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="77"/>
-      <c r="B47" s="77"/>
-      <c r="C47" s="78"/>
-      <c r="D47" s="78"/>
+      <c r="A47" s="79"/>
+      <c r="B47" s="79"/>
+      <c r="C47" s="80"/>
+      <c r="D47" s="80"/>
     </row>
     <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="77"/>
-      <c r="B48" s="77"/>
-      <c r="C48" s="78"/>
-      <c r="D48" s="78"/>
+      <c r="A48" s="79"/>
+      <c r="B48" s="79"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
     </row>
     <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="77"/>
-      <c r="B49" s="77"/>
-      <c r="C49" s="78"/>
-      <c r="D49" s="78"/>
+      <c r="A49" s="79"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
     </row>
     <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="77"/>
-      <c r="B50" s="77"/>
-      <c r="C50" s="78"/>
-      <c r="D50" s="78"/>
+      <c r="A50" s="79"/>
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
     </row>
     <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="77"/>
-      <c r="B51" s="77"/>
-      <c r="C51" s="78"/>
-      <c r="D51" s="78"/>
+      <c r="A51" s="79"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
     </row>
     <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="77"/>
-      <c r="B52" s="77"/>
-      <c r="C52" s="78"/>
-      <c r="D52" s="78"/>
+      <c r="A52" s="79"/>
+      <c r="B52" s="79"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
     </row>
     <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="77"/>
-      <c r="B53" s="77"/>
-      <c r="C53" s="78"/>
-      <c r="D53" s="78"/>
+      <c r="A53" s="79"/>
+      <c r="B53" s="79"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
     </row>
     <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="77"/>
-      <c r="B54" s="77"/>
-      <c r="C54" s="78"/>
-      <c r="D54" s="78"/>
+      <c r="A54" s="79"/>
+      <c r="B54" s="79"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
     </row>
     <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="51">
@@ -5005,112 +5084,112 @@
       </c>
     </row>
     <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="77"/>
-      <c r="B84" s="77">
+      <c r="A84" s="79"/>
+      <c r="B84" s="79">
         <v>56</v>
       </c>
-      <c r="C84" s="79" t="s">
+      <c r="C84" s="81" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="78" t="s">
+      <c r="D84" s="80" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="77"/>
-      <c r="B85" s="77"/>
-      <c r="C85" s="79"/>
-      <c r="D85" s="78"/>
+      <c r="A85" s="79"/>
+      <c r="B85" s="79"/>
+      <c r="C85" s="81"/>
+      <c r="D85" s="80"/>
     </row>
     <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="77"/>
-      <c r="B86" s="77"/>
-      <c r="C86" s="79"/>
-      <c r="D86" s="78"/>
+      <c r="A86" s="79"/>
+      <c r="B86" s="79"/>
+      <c r="C86" s="81"/>
+      <c r="D86" s="80"/>
     </row>
     <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="77"/>
-      <c r="B87" s="77"/>
-      <c r="C87" s="79"/>
-      <c r="D87" s="78"/>
+      <c r="A87" s="79"/>
+      <c r="B87" s="79"/>
+      <c r="C87" s="81"/>
+      <c r="D87" s="80"/>
     </row>
     <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="77"/>
-      <c r="B88" s="77"/>
-      <c r="C88" s="79"/>
-      <c r="D88" s="78"/>
+      <c r="A88" s="79"/>
+      <c r="B88" s="79"/>
+      <c r="C88" s="81"/>
+      <c r="D88" s="80"/>
     </row>
     <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="77"/>
-      <c r="B89" s="77"/>
-      <c r="C89" s="79"/>
-      <c r="D89" s="78"/>
+      <c r="A89" s="79"/>
+      <c r="B89" s="79"/>
+      <c r="C89" s="81"/>
+      <c r="D89" s="80"/>
     </row>
     <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="77"/>
-      <c r="B90" s="77"/>
-      <c r="C90" s="79"/>
-      <c r="D90" s="78"/>
+      <c r="A90" s="79"/>
+      <c r="B90" s="79"/>
+      <c r="C90" s="81"/>
+      <c r="D90" s="80"/>
     </row>
     <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="77"/>
-      <c r="B91" s="77"/>
-      <c r="C91" s="79"/>
-      <c r="D91" s="78"/>
+      <c r="A91" s="79"/>
+      <c r="B91" s="79"/>
+      <c r="C91" s="81"/>
+      <c r="D91" s="80"/>
     </row>
     <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="77"/>
-      <c r="B92" s="77"/>
-      <c r="C92" s="79"/>
-      <c r="D92" s="78"/>
+      <c r="A92" s="79"/>
+      <c r="B92" s="79"/>
+      <c r="C92" s="81"/>
+      <c r="D92" s="80"/>
     </row>
     <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="77"/>
-      <c r="B93" s="77"/>
-      <c r="C93" s="79"/>
-      <c r="D93" s="78"/>
+      <c r="A93" s="79"/>
+      <c r="B93" s="79"/>
+      <c r="C93" s="81"/>
+      <c r="D93" s="80"/>
     </row>
     <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="77"/>
-      <c r="B94" s="77"/>
-      <c r="C94" s="79"/>
-      <c r="D94" s="78"/>
+      <c r="A94" s="79"/>
+      <c r="B94" s="79"/>
+      <c r="C94" s="81"/>
+      <c r="D94" s="80"/>
     </row>
     <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="77"/>
-      <c r="B95" s="77"/>
-      <c r="C95" s="79"/>
-      <c r="D95" s="78"/>
+      <c r="A95" s="79"/>
+      <c r="B95" s="79"/>
+      <c r="C95" s="81"/>
+      <c r="D95" s="80"/>
     </row>
     <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="77"/>
-      <c r="B96" s="77"/>
-      <c r="C96" s="79"/>
-      <c r="D96" s="78"/>
+      <c r="A96" s="79"/>
+      <c r="B96" s="79"/>
+      <c r="C96" s="81"/>
+      <c r="D96" s="80"/>
     </row>
     <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="77"/>
-      <c r="B97" s="77"/>
-      <c r="C97" s="79"/>
-      <c r="D97" s="78"/>
+      <c r="A97" s="79"/>
+      <c r="B97" s="79"/>
+      <c r="C97" s="81"/>
+      <c r="D97" s="80"/>
     </row>
     <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="77"/>
-      <c r="B98" s="77"/>
-      <c r="C98" s="79"/>
-      <c r="D98" s="78"/>
+      <c r="A98" s="79"/>
+      <c r="B98" s="79"/>
+      <c r="C98" s="81"/>
+      <c r="D98" s="80"/>
     </row>
     <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="77"/>
-      <c r="B99" s="77"/>
-      <c r="C99" s="79"/>
-      <c r="D99" s="78"/>
+      <c r="A99" s="79"/>
+      <c r="B99" s="79"/>
+      <c r="C99" s="81"/>
+      <c r="D99" s="80"/>
     </row>
     <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="77"/>
-      <c r="B100" s="77"/>
-      <c r="C100" s="79"/>
-      <c r="D100" s="78"/>
+      <c r="A100" s="79"/>
+      <c r="B100" s="79"/>
+      <c r="C100" s="81"/>
+      <c r="D100" s="80"/>
     </row>
     <row r="101" spans="1:4" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="51">
@@ -5410,14 +5489,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="74" t="s">
+      <c r="A128" s="76" t="s">
         <v>12</v>
       </c>
-      <c r="B128" s="75"/>
-      <c r="C128" s="75"/>
-      <c r="D128" s="75"/>
-      <c r="E128" s="75"/>
-      <c r="F128" s="76"/>
+      <c r="B128" s="77"/>
+      <c r="C128" s="77"/>
+      <c r="D128" s="77"/>
+      <c r="E128" s="77"/>
+      <c r="F128" s="78"/>
     </row>
     <row r="129" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51">
@@ -6342,14 +6421,14 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="74" t="s">
+      <c r="A213" s="76" t="s">
         <v>17</v>
       </c>
-      <c r="B213" s="75"/>
-      <c r="C213" s="75"/>
-      <c r="D213" s="75"/>
-      <c r="E213" s="75"/>
-      <c r="F213" s="76"/>
+      <c r="B213" s="77"/>
+      <c r="C213" s="77"/>
+      <c r="D213" s="77"/>
+      <c r="E213" s="77"/>
+      <c r="F213" s="78"/>
     </row>
     <row r="214" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B214" s="51">
@@ -6946,14 +7025,14 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="74" t="s">
+      <c r="A268" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="75"/>
-      <c r="C268" s="75"/>
-      <c r="D268" s="75"/>
-      <c r="E268" s="75"/>
-      <c r="F268" s="76"/>
+      <c r="B268" s="77"/>
+      <c r="C268" s="77"/>
+      <c r="D268" s="77"/>
+      <c r="E268" s="77"/>
+      <c r="F268" s="78"/>
     </row>
     <row r="269" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B269" s="51">
@@ -7977,14 +8056,14 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="74" t="s">
+      <c r="A362" s="76" t="s">
         <v>25</v>
       </c>
-      <c r="B362" s="75"/>
-      <c r="C362" s="75"/>
-      <c r="D362" s="75"/>
-      <c r="E362" s="75"/>
-      <c r="F362" s="76"/>
+      <c r="B362" s="77"/>
+      <c r="C362" s="77"/>
+      <c r="D362" s="77"/>
+      <c r="E362" s="77"/>
+      <c r="F362" s="78"/>
     </row>
     <row r="363" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B363" s="51">
@@ -8766,14 +8845,14 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="74" t="s">
+      <c r="A434" s="76" t="s">
         <v>30</v>
       </c>
-      <c r="B434" s="75"/>
-      <c r="C434" s="75"/>
-      <c r="D434" s="75"/>
-      <c r="E434" s="75"/>
-      <c r="F434" s="76"/>
+      <c r="B434" s="77"/>
+      <c r="C434" s="77"/>
+      <c r="D434" s="77"/>
+      <c r="E434" s="77"/>
+      <c r="F434" s="78"/>
     </row>
     <row r="435" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B435" s="51">
@@ -9447,14 +9526,14 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="74" t="s">
+      <c r="A496" s="76" t="s">
         <v>32</v>
       </c>
-      <c r="B496" s="75"/>
-      <c r="C496" s="75"/>
-      <c r="D496" s="75"/>
-      <c r="E496" s="75"/>
-      <c r="F496" s="76"/>
+      <c r="B496" s="77"/>
+      <c r="C496" s="77"/>
+      <c r="D496" s="77"/>
+      <c r="E496" s="77"/>
+      <c r="F496" s="78"/>
     </row>
     <row r="497" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B497" s="51">
@@ -10390,14 +10469,14 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582" s="74" t="s">
+      <c r="A582" s="76" t="s">
         <v>35</v>
       </c>
-      <c r="B582" s="75"/>
-      <c r="C582" s="75"/>
-      <c r="D582" s="75"/>
-      <c r="E582" s="75"/>
-      <c r="F582" s="76"/>
+      <c r="B582" s="77"/>
+      <c r="C582" s="77"/>
+      <c r="D582" s="77"/>
+      <c r="E582" s="77"/>
+      <c r="F582" s="78"/>
     </row>
     <row r="583" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B583" s="51">
@@ -10924,8 +11003,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B44" sqref="B44"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10939,20 +11018,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -10971,13 +11050,13 @@
       <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -11005,7 +11084,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>469</v>
@@ -11030,7 +11109,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>470</v>
@@ -11051,7 +11130,7 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="67" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -11067,7 +11146,7 @@
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>473</v>
@@ -11077,7 +11156,7 @@
         <v>466</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="13" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11093,7 +11172,7 @@
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>475</v>
@@ -11103,7 +11182,7 @@
         <v>466</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="15" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11118,17 +11197,17 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="74" t="s">
         <v>477</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>478</v>
@@ -11138,7 +11217,7 @@
         <v>466</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11154,7 +11233,7 @@
     </row>
     <row r="19" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>480</v>
@@ -11178,7 +11257,7 @@
     </row>
     <row r="21" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>482</v>
@@ -11202,7 +11281,7 @@
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>484</v>
@@ -11212,7 +11291,7 @@
         <v>466</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11228,7 +11307,7 @@
     </row>
     <row r="25" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>486</v>
@@ -11238,7 +11317,7 @@
         <v>466</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11254,7 +11333,7 @@
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>488</v>
@@ -11277,17 +11356,17 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="74" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>491</v>
@@ -11297,7 +11376,7 @@
         <v>466</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>684</v>
+        <v>665</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -11313,7 +11392,7 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>493</v>
@@ -11323,10 +11402,10 @@
         <v>466</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="8"/>
       <c r="B33" s="9" t="s">
         <v>492</v>
@@ -11337,9 +11416,9 @@
       <c r="D33" s="8"/>
       <c r="E33" s="8"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>494</v>
@@ -11349,10 +11428,10 @@
         <v>466</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="8"/>
       <c r="B35" s="9" t="s">
         <v>495</v>
@@ -11363,9 +11442,9 @@
       <c r="D35" s="8"/>
       <c r="E35" s="8"/>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>496</v>
@@ -11375,10 +11454,10 @@
         <v>466</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="8"/>
       <c r="B37" s="9" t="s">
         <v>497</v>
@@ -11389,9 +11468,9 @@
       <c r="D37" s="8"/>
       <c r="E37" s="8"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>498</v>
@@ -11401,10 +11480,10 @@
         <v>466</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="8"/>
       <c r="B39" s="9" t="s">
         <v>499</v>
@@ -11415,18 +11494,18 @@
       <c r="D39" s="8"/>
       <c r="E39" s="8"/>
     </row>
-    <row r="40" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+    <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>501</v>
@@ -11435,9 +11514,14 @@
       <c r="D41" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E41" s="5"/>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E41" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G41" s="105" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="8"/>
       <c r="B42" s="9" t="s">
         <v>502</v>
@@ -11448,9 +11532,9 @@
       <c r="D42" s="8"/>
       <c r="E42" s="8"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>503</v>
@@ -11459,9 +11543,14 @@
       <c r="D43" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E43" s="5"/>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E43" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G43" s="105" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="8"/>
       <c r="B44" s="9" t="s">
         <v>502</v>
@@ -11472,9 +11561,9 @@
       <c r="D44" s="8"/>
       <c r="E44" s="8"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>504</v>
@@ -11484,10 +11573,10 @@
         <v>466</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>684</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="8"/>
       <c r="B46" s="9" t="s">
         <v>505</v>
@@ -11498,9 +11587,9 @@
       <c r="D46" s="8"/>
       <c r="E46" s="8"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>506</v>
@@ -11510,8 +11599,11 @@
         <v>466</v>
       </c>
       <c r="E47" s="5"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47" s="105" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="8"/>
       <c r="B48" s="9" t="s">
         <v>507</v>
@@ -11540,10 +11632,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H610"/>
+  <dimension ref="A1:H604"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A255" sqref="A255:XFD255"/>
+    <sheetView topLeftCell="A243" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D320" sqref="D320:D327"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11578,21 +11670,21 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="88" t="s">
+      <c r="A2" s="90" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="88"/>
-      <c r="C2" s="88"/>
-      <c r="D2" s="88"/>
-      <c r="E2" s="88"/>
-      <c r="F2" s="88"/>
+      <c r="B2" s="90"/>
+      <c r="C2" s="90"/>
+      <c r="D2" s="90"/>
+      <c r="E2" s="90"/>
+      <c r="F2" s="90"/>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B3" s="29" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C3" s="30" t="s">
         <v>196</v>
@@ -11603,16 +11695,16 @@
       <c r="E3" s="28"/>
       <c r="F3" s="28"/>
       <c r="G3" s="13" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
       <c r="H3" s="13"/>
     </row>
     <row r="4" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B4" s="29" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C4" s="30" t="s">
         <v>509</v>
@@ -11625,10 +11717,10 @@
     </row>
     <row r="5" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B5" s="29" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C5" s="30" t="s">
         <v>511</v>
@@ -11641,10 +11733,10 @@
     </row>
     <row r="6" spans="1:8" s="27" customFormat="1" ht="72" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B6" s="29" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C6" s="31" t="s">
         <v>513</v>
@@ -11657,10 +11749,10 @@
     </row>
     <row r="7" spans="1:8" s="27" customFormat="1" ht="84" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B7" s="29" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C7" s="31" t="s">
         <v>515</v>
@@ -11670,15 +11762,15 @@
       </c>
       <c r="E7" s="28"/>
       <c r="F7" s="61" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="27" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B8" s="29" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C8" s="31" t="s">
         <v>517</v>
@@ -11688,15 +11780,15 @@
       </c>
       <c r="E8" s="28"/>
       <c r="F8" s="61" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
     </row>
     <row r="9" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B9" s="29" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C9" s="30" t="s">
         <v>519</v>
@@ -11708,21 +11800,21 @@
       <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="88" t="s">
+      <c r="A10" s="90" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="88"/>
-      <c r="E10" s="88"/>
-      <c r="F10" s="88"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B11" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C11" s="33" t="s">
         <v>40</v>
@@ -11738,10 +11830,10 @@
     </row>
     <row r="12" spans="1:8" ht="72" x14ac:dyDescent="0.25">
       <c r="A12" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B12" s="37" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C12" s="36" t="s">
         <v>522</v>
@@ -11755,10 +11847,10 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B13" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C13" s="33" t="s">
         <v>524</v>
@@ -11772,10 +11864,10 @@
     </row>
     <row r="14" spans="1:8" ht="96" x14ac:dyDescent="0.25">
       <c r="A14" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B14" s="37" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C14" s="36" t="s">
         <v>526</v>
@@ -11789,10 +11881,10 @@
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B15" s="34" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C15" s="33" t="s">
         <v>46</v>
@@ -11806,10 +11898,10 @@
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B16" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C16" s="33" t="s">
         <v>48</v>
@@ -11827,10 +11919,10 @@
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="33" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B17" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C17" s="33" t="s">
         <v>50</v>
@@ -11847,22 +11939,22 @@
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="81" t="s">
+      <c r="A18" s="83" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="81"/>
-      <c r="C18" s="81"/>
-      <c r="D18" s="81"/>
-      <c r="E18" s="81"/>
-      <c r="F18" s="81"/>
+      <c r="B18" s="83"/>
+      <c r="C18" s="83"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="83"/>
+      <c r="F18" s="83"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="33" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B19" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C19" s="33" t="s">
         <v>40</v>
@@ -11875,72 +11967,72 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="82" t="s">
-        <v>628</v>
-      </c>
-      <c r="B20" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C20" s="82" t="s">
+      <c r="A20" s="84" t="s">
+        <v>625</v>
+      </c>
+      <c r="B20" s="87" t="s">
+        <v>640</v>
+      </c>
+      <c r="C20" s="84" t="s">
         <v>530</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E20" s="82"/>
-      <c r="F20" s="82"/>
-      <c r="G20" s="80"/>
+      <c r="E20" s="84"/>
+      <c r="F20" s="84"/>
+      <c r="G20" s="82"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="83"/>
-      <c r="B21" s="86"/>
-      <c r="C21" s="83"/>
+      <c r="A21" s="85"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="85"/>
       <c r="D21" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="83"/>
-      <c r="F21" s="83"/>
-      <c r="G21" s="80"/>
+      <c r="E21" s="85"/>
+      <c r="F21" s="85"/>
+      <c r="G21" s="82"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="83"/>
-      <c r="B22" s="86"/>
-      <c r="C22" s="83"/>
+      <c r="A22" s="85"/>
+      <c r="B22" s="88"/>
+      <c r="C22" s="85"/>
       <c r="D22" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E22" s="83"/>
-      <c r="F22" s="83"/>
-      <c r="G22" s="80"/>
+      <c r="E22" s="85"/>
+      <c r="F22" s="85"/>
+      <c r="G22" s="82"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="83"/>
-      <c r="B23" s="86"/>
-      <c r="C23" s="83"/>
+      <c r="A23" s="85"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="85"/>
       <c r="D23" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E23" s="83"/>
-      <c r="F23" s="83"/>
-      <c r="G23" s="80"/>
+      <c r="E23" s="85"/>
+      <c r="F23" s="85"/>
+      <c r="G23" s="82"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="84"/>
-      <c r="B24" s="87"/>
-      <c r="C24" s="84"/>
+      <c r="A24" s="86"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="86"/>
       <c r="D24" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E24" s="84"/>
-      <c r="F24" s="84"/>
-      <c r="G24" s="80"/>
+      <c r="E24" s="86"/>
+      <c r="F24" s="86"/>
+      <c r="G24" s="82"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B25" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C25" s="33" t="s">
         <v>524</v>
@@ -11954,10 +12046,10 @@
     </row>
     <row r="26" spans="1:7" ht="132" x14ac:dyDescent="0.25">
       <c r="A26" s="60" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B26" s="37" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C26" s="36" t="s">
         <v>536</v>
@@ -11971,10 +12063,10 @@
     </row>
     <row r="27" spans="1:7" ht="72" x14ac:dyDescent="0.25">
       <c r="A27" s="60" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B27" s="37" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C27" s="36" t="s">
         <v>513</v>
@@ -11987,10 +12079,10 @@
     </row>
     <row r="28" spans="1:7" ht="84" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B28" s="37" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C28" s="36" t="s">
         <v>515</v>
@@ -12000,16 +12092,16 @@
       </c>
       <c r="E28" s="36"/>
       <c r="F28" s="61" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="G28" s="43"/>
     </row>
     <row r="29" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A29" s="44" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B29" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C29" s="33" t="s">
         <v>517</v>
@@ -12019,16 +12111,16 @@
       </c>
       <c r="E29" s="44"/>
       <c r="F29" s="61" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="G29" s="45"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="44" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B30" s="34" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C30" s="39" t="s">
         <v>519</v>
@@ -12041,22 +12133,22 @@
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="81" t="s">
+      <c r="A31" s="83" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="81"/>
-      <c r="C31" s="81"/>
-      <c r="D31" s="81"/>
-      <c r="E31" s="81"/>
-      <c r="F31" s="81"/>
+      <c r="B31" s="83"/>
+      <c r="C31" s="83"/>
+      <c r="D31" s="83"/>
+      <c r="E31" s="83"/>
+      <c r="F31" s="83"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="33" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B32" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C32" s="33" t="s">
         <v>40</v>
@@ -12069,72 +12161,72 @@
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="82" t="s">
-        <v>629</v>
-      </c>
-      <c r="B33" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C33" s="82" t="s">
+      <c r="A33" s="84" t="s">
+        <v>626</v>
+      </c>
+      <c r="B33" s="87" t="s">
+        <v>640</v>
+      </c>
+      <c r="C33" s="84" t="s">
         <v>538</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E33" s="82"/>
-      <c r="F33" s="82"/>
-      <c r="G33" s="80"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="82"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="83"/>
-      <c r="B34" s="86"/>
-      <c r="C34" s="83"/>
+      <c r="A34" s="85"/>
+      <c r="B34" s="88"/>
+      <c r="C34" s="85"/>
       <c r="D34" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E34" s="83"/>
-      <c r="F34" s="83"/>
-      <c r="G34" s="80"/>
+      <c r="E34" s="85"/>
+      <c r="F34" s="85"/>
+      <c r="G34" s="82"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="83"/>
-      <c r="B35" s="86"/>
-      <c r="C35" s="83"/>
+      <c r="A35" s="85"/>
+      <c r="B35" s="88"/>
+      <c r="C35" s="85"/>
       <c r="D35" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E35" s="83"/>
-      <c r="F35" s="83"/>
-      <c r="G35" s="80"/>
+      <c r="E35" s="85"/>
+      <c r="F35" s="85"/>
+      <c r="G35" s="82"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="83"/>
-      <c r="B36" s="86"/>
-      <c r="C36" s="83"/>
+      <c r="A36" s="85"/>
+      <c r="B36" s="88"/>
+      <c r="C36" s="85"/>
       <c r="D36" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E36" s="83"/>
-      <c r="F36" s="83"/>
-      <c r="G36" s="80"/>
+      <c r="E36" s="85"/>
+      <c r="F36" s="85"/>
+      <c r="G36" s="82"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="84"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="84"/>
+      <c r="A37" s="86"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="86"/>
       <c r="D37" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E37" s="84"/>
-      <c r="F37" s="84"/>
-      <c r="G37" s="80"/>
+      <c r="E37" s="86"/>
+      <c r="F37" s="86"/>
+      <c r="G37" s="82"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B38" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C38" s="33" t="s">
         <v>524</v>
@@ -12148,10 +12240,10 @@
     </row>
     <row r="39" spans="1:7" ht="96" x14ac:dyDescent="0.25">
       <c r="A39" s="60" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B39" s="37" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C39" s="36" t="s">
         <v>540</v>
@@ -12165,10 +12257,10 @@
     </row>
     <row r="40" spans="1:7" ht="120" x14ac:dyDescent="0.25">
       <c r="A40" s="60" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B40" s="37" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C40" s="36" t="s">
         <v>542</v>
@@ -12182,10 +12274,10 @@
     </row>
     <row r="41" spans="1:7" ht="96" x14ac:dyDescent="0.25">
       <c r="A41" s="60" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B41" s="37" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C41" s="36" t="s">
         <v>543</v>
@@ -12195,16 +12287,16 @@
       </c>
       <c r="E41" s="40"/>
       <c r="F41" s="61" t="s">
-        <v>681</v>
+        <v>662</v>
       </c>
       <c r="G41" s="38"/>
     </row>
     <row r="42" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A42" s="44" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B42" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C42" s="33" t="s">
         <v>517</v>
@@ -12214,16 +12306,16 @@
       </c>
       <c r="E42" s="39"/>
       <c r="F42" s="61" t="s">
-        <v>680</v>
+        <v>661</v>
       </c>
       <c r="G42" s="45"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="44" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
       <c r="B43" s="34" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C43" s="39" t="s">
         <v>519</v>
@@ -12236,21 +12328,21 @@
       <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="81" t="s">
+      <c r="A44" s="83" t="s">
         <v>479</v>
       </c>
-      <c r="B44" s="81"/>
-      <c r="C44" s="81"/>
-      <c r="D44" s="81"/>
-      <c r="E44" s="81"/>
-      <c r="F44" s="81"/>
+      <c r="B44" s="83"/>
+      <c r="C44" s="83"/>
+      <c r="D44" s="83"/>
+      <c r="E44" s="83"/>
+      <c r="F44" s="83"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B45" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C45" s="39" t="s">
         <v>196</v>
@@ -12263,10 +12355,10 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B46" s="34" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C46" s="39" t="s">
         <v>544</v>
@@ -12279,10 +12371,10 @@
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B47" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C47" s="39" t="s">
         <v>546</v>
@@ -12295,10 +12387,10 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B48" s="34" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C48" s="39" t="s">
         <v>548</v>
@@ -12311,10 +12403,10 @@
     </row>
     <row r="49" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="46" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B49" s="37" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C49" s="36" t="s">
         <v>550</v>
@@ -12327,10 +12419,10 @@
     </row>
     <row r="50" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A50" s="44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B50" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C50" s="33" t="s">
         <v>517</v>
@@ -12343,10 +12435,10 @@
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A51" s="44" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
       <c r="B51" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C51" s="39" t="s">
         <v>519</v>
@@ -12358,21 +12450,21 @@
       <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="81" t="s">
+      <c r="A52" s="83" t="s">
         <v>481</v>
       </c>
-      <c r="B52" s="81"/>
-      <c r="C52" s="81"/>
-      <c r="D52" s="81"/>
-      <c r="E52" s="81"/>
-      <c r="F52" s="81"/>
+      <c r="B52" s="83"/>
+      <c r="C52" s="83"/>
+      <c r="D52" s="83"/>
+      <c r="E52" s="83"/>
+      <c r="F52" s="83"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B53" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C53" s="39" t="s">
         <v>196</v>
@@ -12385,10 +12477,10 @@
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A54" s="47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B54" s="34" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C54" s="39" t="s">
         <v>544</v>
@@ -12401,10 +12493,10 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A55" s="47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B55" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C55" s="39" t="s">
         <v>551</v>
@@ -12417,10 +12509,10 @@
     </row>
     <row r="56" spans="1:7" ht="108" x14ac:dyDescent="0.25">
       <c r="A56" s="46" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B56" s="37" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C56" s="36" t="s">
         <v>553</v>
@@ -12433,10 +12525,10 @@
     </row>
     <row r="57" spans="1:7" ht="60" x14ac:dyDescent="0.25">
       <c r="A57" s="46" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B57" s="37" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C57" s="36" t="s">
         <v>550</v>
@@ -12449,10 +12541,10 @@
     </row>
     <row r="58" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A58" s="47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B58" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C58" s="33" t="s">
         <v>517</v>
@@ -12462,18 +12554,18 @@
       </c>
       <c r="E58" s="39"/>
       <c r="F58" s="63" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="G58" s="13" t="s">
-        <v>686</v>
+        <v>667</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A59" s="47" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
       <c r="B59" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C59" s="39" t="s">
         <v>519</v>
@@ -12485,21 +12577,21 @@
       <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="81" t="s">
+      <c r="A60" s="83" t="s">
         <v>483</v>
       </c>
-      <c r="B60" s="81"/>
-      <c r="C60" s="81"/>
-      <c r="D60" s="81"/>
-      <c r="E60" s="81"/>
-      <c r="F60" s="81"/>
+      <c r="B60" s="83"/>
+      <c r="C60" s="83"/>
+      <c r="D60" s="83"/>
+      <c r="E60" s="83"/>
+      <c r="F60" s="83"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B61" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C61" s="39" t="s">
         <v>196</v>
@@ -12512,10 +12604,10 @@
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A62" s="47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B62" s="34" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C62" s="39" t="s">
         <v>544</v>
@@ -12528,10 +12620,10 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A63" s="47" t="s">
+        <v>637</v>
+      </c>
+      <c r="B63" s="34" t="s">
         <v>641</v>
-      </c>
-      <c r="B63" s="34" t="s">
-        <v>651</v>
       </c>
       <c r="C63" s="39" t="s">
         <v>551</v>
@@ -12544,10 +12636,10 @@
     </row>
     <row r="64" spans="1:7" ht="108" x14ac:dyDescent="0.25">
       <c r="A64" s="46" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B64" s="37" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C64" s="36" t="s">
         <v>554</v>
@@ -12560,10 +12652,10 @@
     </row>
     <row r="65" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A65" s="46" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B65" s="37" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C65" s="36" t="s">
         <v>550</v>
@@ -12576,10 +12668,10 @@
     </row>
     <row r="66" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A66" s="47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B66" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C66" s="33" t="s">
         <v>517</v>
@@ -12589,15 +12681,15 @@
       </c>
       <c r="E66" s="39"/>
       <c r="F66" s="63" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A67" s="47" t="s">
-        <v>641</v>
+        <v>637</v>
       </c>
       <c r="B67" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C67" s="39" t="s">
         <v>519</v>
@@ -12609,21 +12701,21 @@
       <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="81" t="s">
+      <c r="A68" s="83" t="s">
         <v>492</v>
       </c>
-      <c r="B68" s="81"/>
-      <c r="C68" s="81"/>
-      <c r="D68" s="81"/>
-      <c r="E68" s="81"/>
-      <c r="F68" s="81"/>
+      <c r="B68" s="83"/>
+      <c r="C68" s="83"/>
+      <c r="D68" s="83"/>
+      <c r="E68" s="83"/>
+      <c r="F68" s="83"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B69" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C69" s="39" t="s">
         <v>196</v>
@@ -12636,10 +12728,10 @@
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A70" s="33" t="s">
+        <v>636</v>
+      </c>
+      <c r="B70" s="34" t="s">
         <v>640</v>
-      </c>
-      <c r="B70" s="34" t="s">
-        <v>646</v>
       </c>
       <c r="C70" s="39" t="s">
         <v>544</v>
@@ -12652,10 +12744,10 @@
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B71" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C71" s="39" t="s">
         <v>555</v>
@@ -12668,10 +12760,10 @@
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A72" s="33" t="s">
-        <v>640</v>
+        <v>636</v>
       </c>
       <c r="B72" s="34" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C72" s="33" t="s">
         <v>557</v>
@@ -12683,21 +12775,21 @@
       <c r="F72" s="33"/>
     </row>
     <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="81" t="s">
+      <c r="A73" s="83" t="s">
         <v>502</v>
       </c>
-      <c r="B73" s="81"/>
-      <c r="C73" s="81"/>
-      <c r="D73" s="81"/>
-      <c r="E73" s="81"/>
-      <c r="F73" s="81"/>
+      <c r="B73" s="83"/>
+      <c r="C73" s="83"/>
+      <c r="D73" s="83"/>
+      <c r="E73" s="83"/>
+      <c r="F73" s="83"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B74" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C74" s="39" t="s">
         <v>196</v>
@@ -12710,10 +12802,10 @@
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A75" s="33" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B75" s="34" t="s">
-        <v>646</v>
+        <v>640</v>
       </c>
       <c r="C75" s="39" t="s">
         <v>544</v>
@@ -12726,10 +12818,10 @@
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A76" s="33" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B76" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C76" s="39" t="s">
         <v>558</v>
@@ -12742,10 +12834,10 @@
     </row>
     <row r="77" spans="1:6" ht="132" x14ac:dyDescent="0.25">
       <c r="A77" s="60" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B77" s="37" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C77" s="36" t="s">
         <v>560</v>
@@ -12758,10 +12850,10 @@
     </row>
     <row r="78" spans="1:6" ht="72" x14ac:dyDescent="0.25">
       <c r="A78" s="60" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B78" s="37" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C78" s="36" t="s">
         <v>513</v>
@@ -12774,10 +12866,10 @@
     </row>
     <row r="79" spans="1:6" ht="84" x14ac:dyDescent="0.25">
       <c r="A79" s="60" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B79" s="37" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C79" s="36" t="s">
         <v>515</v>
@@ -12790,10 +12882,10 @@
     </row>
     <row r="80" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A80" s="44" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B80" s="34" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C80" s="33" t="s">
         <v>517</v>
@@ -12806,10 +12898,10 @@
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" s="44" t="s">
-        <v>639</v>
+        <v>635</v>
       </c>
       <c r="B81" s="34" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C81" s="39" t="s">
         <v>519</v>
@@ -12821,21 +12913,21 @@
       <c r="F81" s="44"/>
     </row>
     <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="81" t="s">
+      <c r="A82" s="83" t="s">
         <v>485</v>
       </c>
-      <c r="B82" s="81"/>
-      <c r="C82" s="81"/>
-      <c r="D82" s="81"/>
-      <c r="E82" s="81"/>
-      <c r="F82" s="81"/>
+      <c r="B82" s="83"/>
+      <c r="C82" s="83"/>
+      <c r="D82" s="83"/>
+      <c r="E82" s="83"/>
+      <c r="F82" s="83"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
+        <v>634</v>
+      </c>
+      <c r="B83" s="34" t="s">
         <v>638</v>
-      </c>
-      <c r="B83" s="34" t="s">
-        <v>642</v>
       </c>
       <c r="C83" s="33" t="s">
         <v>40</v>
@@ -12847,67 +12939,67 @@
       <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="82" t="s">
-        <v>638</v>
-      </c>
-      <c r="B84" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C84" s="82" t="s">
+      <c r="A84" s="84" t="s">
+        <v>634</v>
+      </c>
+      <c r="B84" s="87" t="s">
+        <v>640</v>
+      </c>
+      <c r="C84" s="84" t="s">
         <v>530</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E84" s="82"/>
-      <c r="F84" s="82"/>
+      <c r="E84" s="84"/>
+      <c r="F84" s="84"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="83"/>
-      <c r="B85" s="86"/>
-      <c r="C85" s="83"/>
+      <c r="A85" s="85"/>
+      <c r="B85" s="88"/>
+      <c r="C85" s="85"/>
       <c r="D85" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E85" s="83"/>
-      <c r="F85" s="83"/>
+      <c r="E85" s="85"/>
+      <c r="F85" s="85"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="83"/>
-      <c r="B86" s="86"/>
-      <c r="C86" s="83"/>
+      <c r="A86" s="85"/>
+      <c r="B86" s="88"/>
+      <c r="C86" s="85"/>
       <c r="D86" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E86" s="83"/>
-      <c r="F86" s="83"/>
+      <c r="E86" s="85"/>
+      <c r="F86" s="85"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="83"/>
-      <c r="B87" s="86"/>
-      <c r="C87" s="83"/>
+      <c r="A87" s="85"/>
+      <c r="B87" s="88"/>
+      <c r="C87" s="85"/>
       <c r="D87" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E87" s="83"/>
-      <c r="F87" s="83"/>
+      <c r="E87" s="85"/>
+      <c r="F87" s="85"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="84"/>
-      <c r="B88" s="87"/>
-      <c r="C88" s="84"/>
+      <c r="A88" s="86"/>
+      <c r="B88" s="89"/>
+      <c r="C88" s="86"/>
       <c r="D88" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E88" s="84"/>
-      <c r="F88" s="84"/>
+      <c r="E88" s="86"/>
+      <c r="F88" s="86"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B89" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C89" s="33" t="s">
         <v>561</v>
@@ -12920,10 +13012,10 @@
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" s="33" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B90" s="34" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C90" s="33" t="s">
         <v>563</v>
@@ -12936,10 +13028,10 @@
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" s="48" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B91" s="49" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C91" s="48" t="s">
         <v>565</v>
@@ -12952,10 +13044,10 @@
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" s="33" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B92" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C92" s="33" t="s">
         <v>567</v>
@@ -12968,10 +13060,10 @@
     </row>
     <row r="93" spans="1:6" ht="96" x14ac:dyDescent="0.25">
       <c r="A93" s="36" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B93" s="37" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C93" s="36" t="s">
         <v>569</v>
@@ -12984,10 +13076,10 @@
     </row>
     <row r="94" spans="1:6" ht="96" x14ac:dyDescent="0.25">
       <c r="A94" s="36" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B94" s="37" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C94" s="36" t="s">
         <v>571</v>
@@ -13000,10 +13092,10 @@
     </row>
     <row r="95" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A95" s="36" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B95" s="37" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="C95" s="36" t="s">
         <v>550</v>
@@ -13016,10 +13108,10 @@
     </row>
     <row r="96" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A96" s="44" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B96" s="34" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C96" s="33" t="s">
         <v>517</v>
@@ -13032,10 +13124,10 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" s="44" t="s">
-        <v>638</v>
+        <v>634</v>
       </c>
       <c r="B97" s="34" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="C97" s="39" t="s">
         <v>519</v>
@@ -13047,21 +13139,21 @@
       <c r="F97" s="44"/>
     </row>
     <row r="98" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="81" t="s">
+      <c r="A98" s="83" t="s">
         <v>487</v>
       </c>
-      <c r="B98" s="81"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="81"/>
-      <c r="E98" s="81"/>
-      <c r="F98" s="81"/>
+      <c r="B98" s="83"/>
+      <c r="C98" s="83"/>
+      <c r="D98" s="83"/>
+      <c r="E98" s="83"/>
+      <c r="F98" s="83"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B99" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C99" s="33" t="s">
         <v>40</v>
@@ -13073,67 +13165,67 @@
       <c r="F99" s="33"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="82" t="s">
-        <v>637</v>
-      </c>
-      <c r="B100" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C100" s="82" t="s">
+      <c r="A100" s="84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B100" s="87" t="s">
+        <v>640</v>
+      </c>
+      <c r="C100" s="84" t="s">
         <v>530</v>
       </c>
       <c r="D100" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E100" s="82"/>
-      <c r="F100" s="82"/>
+      <c r="E100" s="84"/>
+      <c r="F100" s="84"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="83"/>
-      <c r="B101" s="86"/>
-      <c r="C101" s="83"/>
+      <c r="A101" s="85"/>
+      <c r="B101" s="88"/>
+      <c r="C101" s="85"/>
       <c r="D101" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E101" s="83"/>
-      <c r="F101" s="83"/>
+      <c r="E101" s="85"/>
+      <c r="F101" s="85"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="83"/>
-      <c r="B102" s="86"/>
-      <c r="C102" s="83"/>
+      <c r="A102" s="85"/>
+      <c r="B102" s="88"/>
+      <c r="C102" s="85"/>
       <c r="D102" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E102" s="83"/>
-      <c r="F102" s="83"/>
+      <c r="E102" s="85"/>
+      <c r="F102" s="85"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="83"/>
-      <c r="B103" s="86"/>
-      <c r="C103" s="83"/>
+      <c r="A103" s="85"/>
+      <c r="B103" s="88"/>
+      <c r="C103" s="85"/>
       <c r="D103" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E103" s="83"/>
-      <c r="F103" s="83"/>
+      <c r="E103" s="85"/>
+      <c r="F103" s="85"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="84"/>
-      <c r="B104" s="87"/>
-      <c r="C104" s="84"/>
+      <c r="A104" s="86"/>
+      <c r="B104" s="89"/>
+      <c r="C104" s="86"/>
       <c r="D104" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="84"/>
-      <c r="F104" s="84"/>
+      <c r="E104" s="86"/>
+      <c r="F104" s="86"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B105" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C105" s="33" t="s">
         <v>561</v>
@@ -13146,10 +13238,10 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" s="33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B106" s="34" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C106" s="33" t="s">
         <v>563</v>
@@ -13162,10 +13254,10 @@
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" s="48" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B107" s="49" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C107" s="48" t="s">
         <v>565</v>
@@ -13178,10 +13270,10 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B108" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C108" s="33" t="s">
         <v>572</v>
@@ -13193,259 +13285,259 @@
       <c r="F108" s="33"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="82" t="s">
-        <v>637</v>
-      </c>
-      <c r="B109" s="85" t="s">
-        <v>669</v>
+      <c r="A109" s="84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B109" s="87" t="s">
+        <v>653</v>
       </c>
       <c r="C109" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="D109" s="82" t="s">
+      <c r="D109" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="E109" s="82"/>
-      <c r="F109" s="82"/>
+      <c r="E109" s="84"/>
+      <c r="F109" s="84"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="83"/>
-      <c r="B110" s="86"/>
+      <c r="A110" s="85"/>
+      <c r="B110" s="88"/>
       <c r="C110" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="D110" s="83"/>
-      <c r="E110" s="83"/>
-      <c r="F110" s="83"/>
+      <c r="D110" s="85"/>
+      <c r="E110" s="85"/>
+      <c r="F110" s="85"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="83"/>
-      <c r="B111" s="86"/>
+      <c r="A111" s="85"/>
+      <c r="B111" s="88"/>
       <c r="C111" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="D111" s="83"/>
-      <c r="E111" s="83"/>
-      <c r="F111" s="83"/>
+      <c r="D111" s="85"/>
+      <c r="E111" s="85"/>
+      <c r="F111" s="85"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="83"/>
-      <c r="B112" s="86"/>
+      <c r="A112" s="85"/>
+      <c r="B112" s="88"/>
       <c r="C112" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D112" s="83"/>
-      <c r="E112" s="83"/>
-      <c r="F112" s="83"/>
+      <c r="D112" s="85"/>
+      <c r="E112" s="85"/>
+      <c r="F112" s="85"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="83"/>
-      <c r="B113" s="86"/>
+      <c r="A113" s="85"/>
+      <c r="B113" s="88"/>
       <c r="C113" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="D113" s="83"/>
-      <c r="E113" s="83"/>
-      <c r="F113" s="83"/>
+      <c r="D113" s="85"/>
+      <c r="E113" s="85"/>
+      <c r="F113" s="85"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="83"/>
-      <c r="B114" s="86"/>
+      <c r="A114" s="85"/>
+      <c r="B114" s="88"/>
       <c r="C114" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D114" s="83"/>
-      <c r="E114" s="83"/>
-      <c r="F114" s="83"/>
+      <c r="D114" s="85"/>
+      <c r="E114" s="85"/>
+      <c r="F114" s="85"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="83"/>
-      <c r="B115" s="86"/>
+      <c r="A115" s="85"/>
+      <c r="B115" s="88"/>
       <c r="C115" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D115" s="83"/>
-      <c r="E115" s="83"/>
-      <c r="F115" s="83"/>
+      <c r="D115" s="85"/>
+      <c r="E115" s="85"/>
+      <c r="F115" s="85"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="83"/>
-      <c r="B116" s="86"/>
+      <c r="A116" s="85"/>
+      <c r="B116" s="88"/>
       <c r="C116" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D116" s="83"/>
-      <c r="E116" s="83"/>
-      <c r="F116" s="83"/>
+      <c r="D116" s="85"/>
+      <c r="E116" s="85"/>
+      <c r="F116" s="85"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="83"/>
-      <c r="B117" s="86"/>
+      <c r="A117" s="85"/>
+      <c r="B117" s="88"/>
       <c r="C117" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D117" s="83"/>
-      <c r="E117" s="83"/>
-      <c r="F117" s="83"/>
+      <c r="D117" s="85"/>
+      <c r="E117" s="85"/>
+      <c r="F117" s="85"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="84"/>
-      <c r="B118" s="87"/>
+      <c r="A118" s="86"/>
+      <c r="B118" s="89"/>
       <c r="C118" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D118" s="84"/>
-      <c r="E118" s="84"/>
-      <c r="F118" s="84"/>
+      <c r="D118" s="86"/>
+      <c r="E118" s="86"/>
+      <c r="F118" s="86"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="82" t="s">
-        <v>637</v>
-      </c>
-      <c r="B119" s="85" t="s">
-        <v>673</v>
+      <c r="A119" s="84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B119" s="87" t="s">
+        <v>656</v>
       </c>
       <c r="C119" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="D119" s="82" t="s">
+      <c r="D119" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="E119" s="82"/>
-      <c r="F119" s="82"/>
+      <c r="E119" s="84"/>
+      <c r="F119" s="84"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="83"/>
-      <c r="B120" s="86"/>
+      <c r="A120" s="85"/>
+      <c r="B120" s="88"/>
       <c r="C120" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D120" s="83"/>
-      <c r="E120" s="83"/>
-      <c r="F120" s="83"/>
+      <c r="D120" s="85"/>
+      <c r="E120" s="85"/>
+      <c r="F120" s="85"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="83"/>
-      <c r="B121" s="86"/>
+      <c r="A121" s="85"/>
+      <c r="B121" s="88"/>
       <c r="C121" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="D121" s="83"/>
-      <c r="E121" s="83"/>
-      <c r="F121" s="83"/>
+      <c r="D121" s="85"/>
+      <c r="E121" s="85"/>
+      <c r="F121" s="85"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="83"/>
-      <c r="B122" s="86"/>
+      <c r="A122" s="85"/>
+      <c r="B122" s="88"/>
       <c r="C122" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D122" s="83"/>
-      <c r="E122" s="83"/>
-      <c r="F122" s="83"/>
+      <c r="D122" s="85"/>
+      <c r="E122" s="85"/>
+      <c r="F122" s="85"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="83"/>
-      <c r="B123" s="86"/>
+      <c r="A123" s="85"/>
+      <c r="B123" s="88"/>
       <c r="C123" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D123" s="83"/>
-      <c r="E123" s="83"/>
-      <c r="F123" s="83"/>
+      <c r="D123" s="85"/>
+      <c r="E123" s="85"/>
+      <c r="F123" s="85"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="83"/>
-      <c r="B124" s="86"/>
+      <c r="A124" s="85"/>
+      <c r="B124" s="88"/>
       <c r="C124" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D124" s="83"/>
-      <c r="E124" s="83"/>
-      <c r="F124" s="83"/>
+      <c r="D124" s="85"/>
+      <c r="E124" s="85"/>
+      <c r="F124" s="85"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="83"/>
-      <c r="B125" s="86"/>
+      <c r="A125" s="85"/>
+      <c r="B125" s="88"/>
       <c r="C125" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D125" s="83"/>
-      <c r="E125" s="83"/>
-      <c r="F125" s="83"/>
+      <c r="D125" s="85"/>
+      <c r="E125" s="85"/>
+      <c r="F125" s="85"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="84"/>
-      <c r="B126" s="87"/>
+      <c r="A126" s="86"/>
+      <c r="B126" s="89"/>
       <c r="C126" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D126" s="84"/>
-      <c r="E126" s="84"/>
-      <c r="F126" s="84"/>
+      <c r="D126" s="86"/>
+      <c r="E126" s="86"/>
+      <c r="F126" s="86"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="82" t="s">
-        <v>637</v>
-      </c>
-      <c r="B127" s="85" t="s">
-        <v>676</v>
+      <c r="A127" s="84" t="s">
+        <v>633</v>
+      </c>
+      <c r="B127" s="87" t="s">
+        <v>658</v>
       </c>
       <c r="C127" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="D127" s="82" t="s">
+      <c r="D127" s="84" t="s">
         <v>516</v>
       </c>
-      <c r="E127" s="82"/>
-      <c r="F127" s="82"/>
+      <c r="E127" s="84"/>
+      <c r="F127" s="84"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="83"/>
-      <c r="B128" s="86"/>
+      <c r="A128" s="85"/>
+      <c r="B128" s="88"/>
       <c r="C128" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="D128" s="83"/>
-      <c r="E128" s="83"/>
-      <c r="F128" s="83"/>
+      <c r="D128" s="85"/>
+      <c r="E128" s="85"/>
+      <c r="F128" s="85"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="83"/>
-      <c r="B129" s="86"/>
+      <c r="A129" s="85"/>
+      <c r="B129" s="88"/>
       <c r="C129" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="D129" s="83"/>
-      <c r="E129" s="83"/>
-      <c r="F129" s="83"/>
+      <c r="D129" s="85"/>
+      <c r="E129" s="85"/>
+      <c r="F129" s="85"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="83"/>
-      <c r="B130" s="86"/>
+      <c r="A130" s="85"/>
+      <c r="B130" s="88"/>
       <c r="C130" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="D130" s="83"/>
-      <c r="E130" s="83"/>
-      <c r="F130" s="83"/>
+      <c r="D130" s="85"/>
+      <c r="E130" s="85"/>
+      <c r="F130" s="85"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="84"/>
-      <c r="B131" s="87"/>
+      <c r="A131" s="86"/>
+      <c r="B131" s="89"/>
       <c r="C131" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D131" s="84"/>
-      <c r="E131" s="84"/>
-      <c r="F131" s="84"/>
+      <c r="D131" s="86"/>
+      <c r="E131" s="86"/>
+      <c r="F131" s="86"/>
     </row>
     <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B132" s="34" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C132" s="33" t="s">
         <v>517</v>
@@ -13458,10 +13550,10 @@
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="s">
-        <v>637</v>
+        <v>633</v>
       </c>
       <c r="B133" s="34" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="C133" s="39" t="s">
         <v>519</v>
@@ -13473,21 +13565,21 @@
       <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="81" t="s">
+      <c r="A134" s="83" t="s">
         <v>489</v>
       </c>
-      <c r="B134" s="81"/>
-      <c r="C134" s="81"/>
-      <c r="D134" s="81"/>
-      <c r="E134" s="81"/>
-      <c r="F134" s="81"/>
+      <c r="B134" s="83"/>
+      <c r="C134" s="83"/>
+      <c r="D134" s="83"/>
+      <c r="E134" s="83"/>
+      <c r="F134" s="83"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B135" s="34" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C135" s="33" t="s">
         <v>40</v>
@@ -13499,67 +13591,67 @@
       <c r="F135" s="33"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="B136" s="85" t="s">
-        <v>646</v>
-      </c>
-      <c r="C136" s="82" t="s">
+      <c r="A136" s="84" t="s">
+        <v>632</v>
+      </c>
+      <c r="B136" s="87" t="s">
+        <v>640</v>
+      </c>
+      <c r="C136" s="84" t="s">
         <v>538</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E136" s="82"/>
-      <c r="F136" s="82"/>
+      <c r="E136" s="84"/>
+      <c r="F136" s="84"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="83"/>
-      <c r="B137" s="86"/>
-      <c r="C137" s="83"/>
+      <c r="A137" s="85"/>
+      <c r="B137" s="88"/>
+      <c r="C137" s="85"/>
       <c r="D137" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E137" s="83"/>
-      <c r="F137" s="83"/>
+      <c r="E137" s="85"/>
+      <c r="F137" s="85"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="83"/>
-      <c r="B138" s="86"/>
-      <c r="C138" s="83"/>
+      <c r="A138" s="85"/>
+      <c r="B138" s="88"/>
+      <c r="C138" s="85"/>
       <c r="D138" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E138" s="83"/>
-      <c r="F138" s="83"/>
+      <c r="E138" s="85"/>
+      <c r="F138" s="85"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="83"/>
-      <c r="B139" s="86"/>
-      <c r="C139" s="83"/>
+      <c r="A139" s="85"/>
+      <c r="B139" s="88"/>
+      <c r="C139" s="85"/>
       <c r="D139" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E139" s="83"/>
-      <c r="F139" s="83"/>
+      <c r="E139" s="85"/>
+      <c r="F139" s="85"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="84"/>
-      <c r="B140" s="87"/>
-      <c r="C140" s="84"/>
+      <c r="A140" s="86"/>
+      <c r="B140" s="89"/>
+      <c r="C140" s="86"/>
       <c r="D140" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E140" s="84"/>
-      <c r="F140" s="84"/>
+      <c r="E140" s="86"/>
+      <c r="F140" s="86"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B141" s="34" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C141" s="33" t="s">
         <v>561</v>
@@ -13572,10 +13664,10 @@
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B142" s="34" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C142" s="33" t="s">
         <v>563</v>
@@ -13588,10 +13680,10 @@
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B143" s="49" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C143" s="48" t="s">
         <v>565</v>
@@ -13604,10 +13696,10 @@
     </row>
     <row r="144" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B144" s="34" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C144" s="33" t="s">
         <v>592</v>
@@ -13619,261 +13711,261 @@
       <c r="F144" s="33"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="B145" s="85" t="s">
-        <v>669</v>
+      <c r="A145" s="84" t="s">
+        <v>632</v>
+      </c>
+      <c r="B145" s="87" t="s">
+        <v>653</v>
       </c>
       <c r="C145" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="D145" s="82" t="s">
+      <c r="D145" s="84" t="s">
         <v>570</v>
       </c>
-      <c r="E145" s="82"/>
-      <c r="F145" s="90" t="s">
-        <v>689</v>
+      <c r="E145" s="84"/>
+      <c r="F145" s="92" t="s">
+        <v>670</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="83"/>
-      <c r="B146" s="86"/>
+      <c r="A146" s="85"/>
+      <c r="B146" s="88"/>
       <c r="C146" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="D146" s="83"/>
-      <c r="E146" s="83"/>
-      <c r="F146" s="91"/>
+      <c r="D146" s="85"/>
+      <c r="E146" s="85"/>
+      <c r="F146" s="93"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="83"/>
-      <c r="B147" s="86"/>
+      <c r="A147" s="85"/>
+      <c r="B147" s="88"/>
       <c r="C147" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="D147" s="83"/>
-      <c r="E147" s="83"/>
-      <c r="F147" s="91"/>
+      <c r="D147" s="85"/>
+      <c r="E147" s="85"/>
+      <c r="F147" s="93"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="83"/>
-      <c r="B148" s="86"/>
+      <c r="A148" s="85"/>
+      <c r="B148" s="88"/>
       <c r="C148" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D148" s="83"/>
-      <c r="E148" s="83"/>
-      <c r="F148" s="91"/>
+      <c r="D148" s="85"/>
+      <c r="E148" s="85"/>
+      <c r="F148" s="93"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="83"/>
-      <c r="B149" s="86"/>
+      <c r="A149" s="85"/>
+      <c r="B149" s="88"/>
       <c r="C149" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="D149" s="83"/>
-      <c r="E149" s="83"/>
-      <c r="F149" s="91"/>
+      <c r="D149" s="85"/>
+      <c r="E149" s="85"/>
+      <c r="F149" s="93"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="83"/>
-      <c r="B150" s="86"/>
+      <c r="A150" s="85"/>
+      <c r="B150" s="88"/>
       <c r="C150" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D150" s="83"/>
-      <c r="E150" s="83"/>
-      <c r="F150" s="91"/>
+      <c r="D150" s="85"/>
+      <c r="E150" s="85"/>
+      <c r="F150" s="93"/>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="83"/>
-      <c r="B151" s="86"/>
+      <c r="A151" s="85"/>
+      <c r="B151" s="88"/>
       <c r="C151" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D151" s="83"/>
-      <c r="E151" s="83"/>
-      <c r="F151" s="91"/>
+      <c r="D151" s="85"/>
+      <c r="E151" s="85"/>
+      <c r="F151" s="93"/>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="83"/>
-      <c r="B152" s="86"/>
+      <c r="A152" s="85"/>
+      <c r="B152" s="88"/>
       <c r="C152" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D152" s="83"/>
-      <c r="E152" s="83"/>
-      <c r="F152" s="91"/>
+      <c r="D152" s="85"/>
+      <c r="E152" s="85"/>
+      <c r="F152" s="93"/>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="83"/>
-      <c r="B153" s="86"/>
+      <c r="A153" s="85"/>
+      <c r="B153" s="88"/>
       <c r="C153" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D153" s="83"/>
-      <c r="E153" s="83"/>
-      <c r="F153" s="91"/>
+      <c r="D153" s="85"/>
+      <c r="E153" s="85"/>
+      <c r="F153" s="93"/>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="84"/>
-      <c r="B154" s="87"/>
+      <c r="A154" s="86"/>
+      <c r="B154" s="89"/>
       <c r="C154" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D154" s="84"/>
-      <c r="E154" s="84"/>
-      <c r="F154" s="92"/>
+      <c r="D154" s="86"/>
+      <c r="E154" s="86"/>
+      <c r="F154" s="94"/>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="B155" s="85" t="s">
-        <v>673</v>
+      <c r="A155" s="84" t="s">
+        <v>632</v>
+      </c>
+      <c r="B155" s="87" t="s">
+        <v>656</v>
       </c>
       <c r="C155" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="D155" s="82" t="s">
+      <c r="D155" s="84" t="s">
         <v>514</v>
       </c>
-      <c r="E155" s="82"/>
-      <c r="F155" s="82"/>
+      <c r="E155" s="84"/>
+      <c r="F155" s="84"/>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="83"/>
-      <c r="B156" s="86"/>
+      <c r="A156" s="85"/>
+      <c r="B156" s="88"/>
       <c r="C156" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D156" s="83"/>
-      <c r="E156" s="83"/>
-      <c r="F156" s="83"/>
+      <c r="D156" s="85"/>
+      <c r="E156" s="85"/>
+      <c r="F156" s="85"/>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="83"/>
-      <c r="B157" s="86"/>
+      <c r="A157" s="85"/>
+      <c r="B157" s="88"/>
       <c r="C157" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="D157" s="83"/>
-      <c r="E157" s="83"/>
-      <c r="F157" s="83"/>
+      <c r="D157" s="85"/>
+      <c r="E157" s="85"/>
+      <c r="F157" s="85"/>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="83"/>
-      <c r="B158" s="86"/>
+      <c r="A158" s="85"/>
+      <c r="B158" s="88"/>
       <c r="C158" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D158" s="83"/>
-      <c r="E158" s="83"/>
-      <c r="F158" s="83"/>
+      <c r="D158" s="85"/>
+      <c r="E158" s="85"/>
+      <c r="F158" s="85"/>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="83"/>
-      <c r="B159" s="86"/>
+      <c r="A159" s="85"/>
+      <c r="B159" s="88"/>
       <c r="C159" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D159" s="83"/>
-      <c r="E159" s="83"/>
-      <c r="F159" s="83"/>
+      <c r="D159" s="85"/>
+      <c r="E159" s="85"/>
+      <c r="F159" s="85"/>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="83"/>
-      <c r="B160" s="86"/>
+      <c r="A160" s="85"/>
+      <c r="B160" s="88"/>
       <c r="C160" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D160" s="83"/>
-      <c r="E160" s="83"/>
-      <c r="F160" s="83"/>
+      <c r="D160" s="85"/>
+      <c r="E160" s="85"/>
+      <c r="F160" s="85"/>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="83"/>
-      <c r="B161" s="86"/>
+      <c r="A161" s="85"/>
+      <c r="B161" s="88"/>
       <c r="C161" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D161" s="83"/>
-      <c r="E161" s="83"/>
-      <c r="F161" s="83"/>
+      <c r="D161" s="85"/>
+      <c r="E161" s="85"/>
+      <c r="F161" s="85"/>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="84"/>
-      <c r="B162" s="87"/>
+      <c r="A162" s="86"/>
+      <c r="B162" s="89"/>
       <c r="C162" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D162" s="84"/>
-      <c r="E162" s="84"/>
-      <c r="F162" s="84"/>
+      <c r="D162" s="86"/>
+      <c r="E162" s="86"/>
+      <c r="F162" s="86"/>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="82" t="s">
-        <v>636</v>
-      </c>
-      <c r="B163" s="85" t="s">
-        <v>676</v>
+      <c r="A163" s="84" t="s">
+        <v>632</v>
+      </c>
+      <c r="B163" s="87" t="s">
+        <v>658</v>
       </c>
       <c r="C163" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="D163" s="82" t="s">
+      <c r="D163" s="84" t="s">
         <v>516</v>
       </c>
-      <c r="E163" s="82"/>
-      <c r="F163" s="82"/>
+      <c r="E163" s="84"/>
+      <c r="F163" s="84"/>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="83"/>
-      <c r="B164" s="86"/>
+      <c r="A164" s="85"/>
+      <c r="B164" s="88"/>
       <c r="C164" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="D164" s="83"/>
-      <c r="E164" s="83"/>
-      <c r="F164" s="83"/>
+      <c r="D164" s="85"/>
+      <c r="E164" s="85"/>
+      <c r="F164" s="85"/>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="83"/>
-      <c r="B165" s="86"/>
+      <c r="A165" s="85"/>
+      <c r="B165" s="88"/>
       <c r="C165" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="D165" s="83"/>
-      <c r="E165" s="83"/>
-      <c r="F165" s="83"/>
+      <c r="D165" s="85"/>
+      <c r="E165" s="85"/>
+      <c r="F165" s="85"/>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="83"/>
-      <c r="B166" s="86"/>
+      <c r="A166" s="85"/>
+      <c r="B166" s="88"/>
       <c r="C166" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="D166" s="83"/>
-      <c r="E166" s="83"/>
-      <c r="F166" s="83"/>
+      <c r="D166" s="85"/>
+      <c r="E166" s="85"/>
+      <c r="F166" s="85"/>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="84"/>
-      <c r="B167" s="87"/>
+      <c r="A167" s="86"/>
+      <c r="B167" s="89"/>
       <c r="C167" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D167" s="84"/>
-      <c r="E167" s="84"/>
-      <c r="F167" s="84"/>
+      <c r="D167" s="86"/>
+      <c r="E167" s="86"/>
+      <c r="F167" s="86"/>
     </row>
     <row r="168" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A168" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B168" s="34" t="s">
-        <v>643</v>
+        <v>639</v>
       </c>
       <c r="C168" s="33" t="s">
         <v>517</v>
@@ -13886,10 +13978,10 @@
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A169" s="33" t="s">
-        <v>636</v>
+        <v>632</v>
       </c>
       <c r="B169" s="34" t="s">
-        <v>679</v>
+        <v>660</v>
       </c>
       <c r="C169" s="39" t="s">
         <v>519</v>
@@ -13901,21 +13993,21 @@
       <c r="F169" s="44"/>
     </row>
     <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="89" t="s">
+      <c r="A170" s="91" t="s">
         <v>495</v>
       </c>
-      <c r="B170" s="89"/>
-      <c r="C170" s="89"/>
-      <c r="D170" s="89"/>
-      <c r="E170" s="89"/>
-      <c r="F170" s="89"/>
+      <c r="B170" s="91"/>
+      <c r="C170" s="91"/>
+      <c r="D170" s="91"/>
+      <c r="E170" s="91"/>
+      <c r="F170" s="91"/>
     </row>
     <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A171" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B171" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C171" s="16" t="s">
         <v>40</v>
@@ -13927,67 +14019,67 @@
       <c r="F171" s="16"/>
     </row>
     <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="93" t="s">
-        <v>635</v>
-      </c>
-      <c r="B172" s="96" t="s">
-        <v>646</v>
-      </c>
-      <c r="C172" s="93" t="s">
+      <c r="A172" s="95" t="s">
+        <v>631</v>
+      </c>
+      <c r="B172" s="98" t="s">
+        <v>640</v>
+      </c>
+      <c r="C172" s="95" t="s">
         <v>522</v>
       </c>
       <c r="D172" s="18" t="s">
         <v>593</v>
       </c>
-      <c r="E172" s="93"/>
-      <c r="F172" s="93"/>
+      <c r="E172" s="95"/>
+      <c r="F172" s="95"/>
     </row>
     <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="94"/>
-      <c r="B173" s="97"/>
-      <c r="C173" s="94"/>
+      <c r="A173" s="96"/>
+      <c r="B173" s="99"/>
+      <c r="C173" s="96"/>
       <c r="D173" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E173" s="94"/>
-      <c r="F173" s="94"/>
+      <c r="E173" s="96"/>
+      <c r="F173" s="96"/>
     </row>
     <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="94"/>
-      <c r="B174" s="97"/>
-      <c r="C174" s="94"/>
+      <c r="A174" s="96"/>
+      <c r="B174" s="99"/>
+      <c r="C174" s="96"/>
       <c r="D174" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E174" s="94"/>
-      <c r="F174" s="94"/>
+      <c r="E174" s="96"/>
+      <c r="F174" s="96"/>
     </row>
     <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="94"/>
-      <c r="B175" s="97"/>
-      <c r="C175" s="94"/>
+      <c r="A175" s="96"/>
+      <c r="B175" s="99"/>
+      <c r="C175" s="96"/>
       <c r="D175" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E175" s="94"/>
-      <c r="F175" s="94"/>
+      <c r="E175" s="96"/>
+      <c r="F175" s="96"/>
     </row>
     <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="95"/>
-      <c r="B176" s="98"/>
-      <c r="C176" s="95"/>
+      <c r="A176" s="97"/>
+      <c r="B176" s="100"/>
+      <c r="C176" s="97"/>
       <c r="D176" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E176" s="95"/>
-      <c r="F176" s="95"/>
+      <c r="E176" s="97"/>
+      <c r="F176" s="97"/>
     </row>
     <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A177" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B177" s="17" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C177" s="16" t="s">
         <v>594</v>
@@ -14000,10 +14092,10 @@
     </row>
     <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A178" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B178" s="17" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C178" s="16" t="s">
         <v>563</v>
@@ -14016,10 +14108,10 @@
     </row>
     <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B179" s="25" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C179" s="24" t="s">
         <v>565</v>
@@ -14031,107 +14123,107 @@
       <c r="F179" s="24"/>
     </row>
     <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="93" t="s">
-        <v>635</v>
-      </c>
-      <c r="B180" s="96" t="s">
-        <v>665</v>
+      <c r="A180" s="95" t="s">
+        <v>631</v>
+      </c>
+      <c r="B180" s="98" t="s">
+        <v>650</v>
       </c>
       <c r="C180" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D180" s="93" t="s">
+      <c r="D180" s="95" t="s">
         <v>516</v>
       </c>
-      <c r="E180" s="93"/>
-      <c r="F180" s="93"/>
+      <c r="E180" s="95"/>
+      <c r="F180" s="95"/>
     </row>
     <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="94"/>
-      <c r="B181" s="97"/>
+      <c r="A181" s="96"/>
+      <c r="B181" s="99"/>
       <c r="C181" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D181" s="94"/>
-      <c r="E181" s="94"/>
-      <c r="F181" s="94"/>
+      <c r="D181" s="96"/>
+      <c r="E181" s="96"/>
+      <c r="F181" s="96"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="94"/>
-      <c r="B182" s="97"/>
+      <c r="A182" s="96"/>
+      <c r="B182" s="99"/>
       <c r="C182" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="D182" s="94"/>
-      <c r="E182" s="94"/>
-      <c r="F182" s="94"/>
+      <c r="D182" s="96"/>
+      <c r="E182" s="96"/>
+      <c r="F182" s="96"/>
     </row>
     <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="94"/>
-      <c r="B183" s="97"/>
+      <c r="A183" s="96"/>
+      <c r="B183" s="99"/>
       <c r="C183" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D183" s="94"/>
-      <c r="E183" s="94"/>
-      <c r="F183" s="94"/>
+      <c r="D183" s="96"/>
+      <c r="E183" s="96"/>
+      <c r="F183" s="96"/>
     </row>
     <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="94"/>
-      <c r="B184" s="97"/>
+      <c r="A184" s="96"/>
+      <c r="B184" s="99"/>
       <c r="C184" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D184" s="94"/>
-      <c r="E184" s="94"/>
-      <c r="F184" s="94"/>
+      <c r="D184" s="96"/>
+      <c r="E184" s="96"/>
+      <c r="F184" s="96"/>
     </row>
     <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="94"/>
-      <c r="B185" s="97"/>
+      <c r="A185" s="96"/>
+      <c r="B185" s="99"/>
       <c r="C185" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D185" s="94"/>
-      <c r="E185" s="94"/>
-      <c r="F185" s="94"/>
+      <c r="D185" s="96"/>
+      <c r="E185" s="96"/>
+      <c r="F185" s="96"/>
     </row>
     <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="94"/>
-      <c r="B186" s="97"/>
+      <c r="A186" s="96"/>
+      <c r="B186" s="99"/>
       <c r="C186" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D186" s="94"/>
-      <c r="E186" s="94"/>
-      <c r="F186" s="94"/>
+      <c r="D186" s="96"/>
+      <c r="E186" s="96"/>
+      <c r="F186" s="96"/>
     </row>
     <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="94"/>
-      <c r="B187" s="97"/>
+      <c r="A187" s="96"/>
+      <c r="B187" s="99"/>
       <c r="C187" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="D187" s="94"/>
-      <c r="E187" s="94"/>
-      <c r="F187" s="94"/>
+      <c r="D187" s="96"/>
+      <c r="E187" s="96"/>
+      <c r="F187" s="96"/>
     </row>
     <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="95"/>
-      <c r="B188" s="98"/>
+      <c r="A188" s="97"/>
+      <c r="B188" s="100"/>
       <c r="C188" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D188" s="95"/>
-      <c r="E188" s="95"/>
-      <c r="F188" s="95"/>
+      <c r="D188" s="97"/>
+      <c r="E188" s="97"/>
+      <c r="F188" s="97"/>
     </row>
     <row r="189" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C189" s="16" t="s">
         <v>517</v>
@@ -14144,10 +14236,10 @@
     </row>
     <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>635</v>
+        <v>631</v>
       </c>
       <c r="B190" s="17" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C190" s="22" t="s">
         <v>519</v>
@@ -14159,21 +14251,21 @@
       <c r="F190" s="16"/>
     </row>
     <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="89" t="s">
+      <c r="A191" s="91" t="s">
         <v>497</v>
       </c>
-      <c r="B191" s="89"/>
-      <c r="C191" s="89"/>
-      <c r="D191" s="89"/>
-      <c r="E191" s="89"/>
-      <c r="F191" s="89"/>
+      <c r="B191" s="91"/>
+      <c r="C191" s="91"/>
+      <c r="D191" s="91"/>
+      <c r="E191" s="91"/>
+      <c r="F191" s="91"/>
     </row>
     <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A192" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B192" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C192" s="16" t="s">
         <v>40</v>
@@ -14185,67 +14277,67 @@
       <c r="F192" s="16"/>
     </row>
     <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="93" t="s">
-        <v>634</v>
-      </c>
-      <c r="B193" s="96" t="s">
-        <v>646</v>
-      </c>
-      <c r="C193" s="93" t="s">
+      <c r="A193" s="95" t="s">
+        <v>630</v>
+      </c>
+      <c r="B193" s="98" t="s">
+        <v>640</v>
+      </c>
+      <c r="C193" s="95" t="s">
         <v>530</v>
       </c>
       <c r="D193" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E193" s="93"/>
-      <c r="F193" s="93"/>
+      <c r="E193" s="95"/>
+      <c r="F193" s="95"/>
     </row>
     <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="94"/>
-      <c r="B194" s="97"/>
-      <c r="C194" s="94"/>
+      <c r="A194" s="96"/>
+      <c r="B194" s="99"/>
+      <c r="C194" s="96"/>
       <c r="D194" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E194" s="94"/>
-      <c r="F194" s="94"/>
+      <c r="E194" s="96"/>
+      <c r="F194" s="96"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="94"/>
-      <c r="B195" s="97"/>
-      <c r="C195" s="94"/>
+      <c r="A195" s="96"/>
+      <c r="B195" s="99"/>
+      <c r="C195" s="96"/>
       <c r="D195" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E195" s="94"/>
-      <c r="F195" s="94"/>
+      <c r="E195" s="96"/>
+      <c r="F195" s="96"/>
     </row>
     <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="94"/>
-      <c r="B196" s="97"/>
-      <c r="C196" s="94"/>
+      <c r="A196" s="96"/>
+      <c r="B196" s="99"/>
+      <c r="C196" s="96"/>
       <c r="D196" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E196" s="94"/>
-      <c r="F196" s="94"/>
+      <c r="E196" s="96"/>
+      <c r="F196" s="96"/>
     </row>
     <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="95"/>
-      <c r="B197" s="98"/>
-      <c r="C197" s="95"/>
+      <c r="A197" s="97"/>
+      <c r="B197" s="100"/>
+      <c r="C197" s="97"/>
       <c r="D197" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E197" s="95"/>
-      <c r="F197" s="95"/>
+      <c r="E197" s="97"/>
+      <c r="F197" s="97"/>
     </row>
     <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A198" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B198" s="17" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C198" s="16" t="s">
         <v>594</v>
@@ -14258,10 +14350,10 @@
     </row>
     <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A199" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B199" s="17" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C199" s="16" t="s">
         <v>563</v>
@@ -14274,10 +14366,10 @@
     </row>
     <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B200" s="25" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C200" s="24" t="s">
         <v>565</v>
@@ -14289,107 +14381,107 @@
       <c r="F200" s="24"/>
     </row>
     <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="93" t="s">
-        <v>634</v>
-      </c>
-      <c r="B201" s="96" t="s">
-        <v>665</v>
+      <c r="A201" s="95" t="s">
+        <v>630</v>
+      </c>
+      <c r="B201" s="98" t="s">
+        <v>650</v>
       </c>
       <c r="C201" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D201" s="93" t="s">
+      <c r="D201" s="95" t="s">
         <v>516</v>
       </c>
-      <c r="E201" s="93"/>
-      <c r="F201" s="93"/>
+      <c r="E201" s="95"/>
+      <c r="F201" s="95"/>
     </row>
     <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="94"/>
-      <c r="B202" s="97"/>
+      <c r="A202" s="96"/>
+      <c r="B202" s="99"/>
       <c r="C202" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D202" s="94"/>
-      <c r="E202" s="94"/>
-      <c r="F202" s="94"/>
+      <c r="D202" s="96"/>
+      <c r="E202" s="96"/>
+      <c r="F202" s="96"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="94"/>
-      <c r="B203" s="97"/>
+      <c r="A203" s="96"/>
+      <c r="B203" s="99"/>
       <c r="C203" s="20" t="s">
         <v>585</v>
       </c>
-      <c r="D203" s="94"/>
-      <c r="E203" s="94"/>
-      <c r="F203" s="94"/>
+      <c r="D203" s="96"/>
+      <c r="E203" s="96"/>
+      <c r="F203" s="96"/>
     </row>
     <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="94"/>
-      <c r="B204" s="97"/>
+      <c r="A204" s="96"/>
+      <c r="B204" s="99"/>
       <c r="C204" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D204" s="94"/>
-      <c r="E204" s="94"/>
-      <c r="F204" s="94"/>
+      <c r="D204" s="96"/>
+      <c r="E204" s="96"/>
+      <c r="F204" s="96"/>
     </row>
     <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="94"/>
-      <c r="B205" s="97"/>
+      <c r="A205" s="96"/>
+      <c r="B205" s="99"/>
       <c r="C205" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D205" s="94"/>
-      <c r="E205" s="94"/>
-      <c r="F205" s="94"/>
+      <c r="D205" s="96"/>
+      <c r="E205" s="96"/>
+      <c r="F205" s="96"/>
     </row>
     <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="94"/>
-      <c r="B206" s="97"/>
+      <c r="A206" s="96"/>
+      <c r="B206" s="99"/>
       <c r="C206" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D206" s="94"/>
-      <c r="E206" s="94"/>
-      <c r="F206" s="94"/>
+      <c r="D206" s="96"/>
+      <c r="E206" s="96"/>
+      <c r="F206" s="96"/>
     </row>
     <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="94"/>
-      <c r="B207" s="97"/>
+      <c r="A207" s="96"/>
+      <c r="B207" s="99"/>
       <c r="C207" s="20" t="s">
         <v>597</v>
       </c>
-      <c r="D207" s="94"/>
-      <c r="E207" s="94"/>
-      <c r="F207" s="94"/>
+      <c r="D207" s="96"/>
+      <c r="E207" s="96"/>
+      <c r="F207" s="96"/>
     </row>
     <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="94"/>
-      <c r="B208" s="97"/>
+      <c r="A208" s="96"/>
+      <c r="B208" s="99"/>
       <c r="C208" s="20" t="s">
         <v>596</v>
       </c>
-      <c r="D208" s="94"/>
-      <c r="E208" s="94"/>
-      <c r="F208" s="94"/>
+      <c r="D208" s="96"/>
+      <c r="E208" s="96"/>
+      <c r="F208" s="96"/>
     </row>
     <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="95"/>
-      <c r="B209" s="98"/>
+      <c r="A209" s="97"/>
+      <c r="B209" s="100"/>
       <c r="C209" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D209" s="95"/>
-      <c r="E209" s="95"/>
-      <c r="F209" s="95"/>
+      <c r="D209" s="97"/>
+      <c r="E209" s="97"/>
+      <c r="F209" s="97"/>
     </row>
     <row r="210" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C210" s="16" t="s">
         <v>517</v>
@@ -14402,10 +14494,10 @@
     </row>
     <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
-        <v>634</v>
+        <v>630</v>
       </c>
       <c r="B211" s="17" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C211" s="22" t="s">
         <v>519</v>
@@ -14417,21 +14509,21 @@
       <c r="F211" s="16"/>
     </row>
     <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="99" t="s">
+      <c r="A212" s="101" t="s">
         <v>499</v>
       </c>
-      <c r="B212" s="99"/>
-      <c r="C212" s="99"/>
-      <c r="D212" s="99"/>
-      <c r="E212" s="99"/>
-      <c r="F212" s="99"/>
+      <c r="B212" s="101"/>
+      <c r="C212" s="101"/>
+      <c r="D212" s="101"/>
+      <c r="E212" s="101"/>
+      <c r="F212" s="101"/>
     </row>
     <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A213" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B213" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C213" s="16" t="s">
         <v>40</v>
@@ -14443,67 +14535,67 @@
       <c r="F213" s="16"/>
     </row>
     <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="93" t="s">
-        <v>633</v>
-      </c>
-      <c r="B214" s="96" t="s">
-        <v>646</v>
-      </c>
-      <c r="C214" s="93" t="s">
+      <c r="A214" s="95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B214" s="98" t="s">
+        <v>640</v>
+      </c>
+      <c r="C214" s="95" t="s">
         <v>538</v>
       </c>
       <c r="D214" s="18" t="s">
         <v>539</v>
       </c>
-      <c r="E214" s="93"/>
-      <c r="F214" s="93"/>
+      <c r="E214" s="95"/>
+      <c r="F214" s="95"/>
     </row>
     <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="94"/>
-      <c r="B215" s="97"/>
-      <c r="C215" s="94"/>
+      <c r="A215" s="96"/>
+      <c r="B215" s="99"/>
+      <c r="C215" s="96"/>
       <c r="D215" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E215" s="94"/>
-      <c r="F215" s="94"/>
+      <c r="E215" s="96"/>
+      <c r="F215" s="96"/>
     </row>
     <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="94"/>
-      <c r="B216" s="97"/>
-      <c r="C216" s="94"/>
+      <c r="A216" s="96"/>
+      <c r="B216" s="99"/>
+      <c r="C216" s="96"/>
       <c r="D216" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E216" s="94"/>
-      <c r="F216" s="94"/>
+      <c r="E216" s="96"/>
+      <c r="F216" s="96"/>
     </row>
     <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="94"/>
-      <c r="B217" s="97"/>
-      <c r="C217" s="94"/>
+      <c r="A217" s="96"/>
+      <c r="B217" s="99"/>
+      <c r="C217" s="96"/>
       <c r="D217" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E217" s="94"/>
-      <c r="F217" s="94"/>
+      <c r="E217" s="96"/>
+      <c r="F217" s="96"/>
     </row>
     <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="95"/>
-      <c r="B218" s="98"/>
-      <c r="C218" s="95"/>
+      <c r="A218" s="97"/>
+      <c r="B218" s="100"/>
+      <c r="C218" s="97"/>
       <c r="D218" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E218" s="95"/>
-      <c r="F218" s="95"/>
+      <c r="E218" s="97"/>
+      <c r="F218" s="97"/>
     </row>
     <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A219" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B219" s="17" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C219" s="16" t="s">
         <v>594</v>
@@ -14516,10 +14608,10 @@
     </row>
     <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A220" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B220" s="17" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C220" s="16" t="s">
         <v>563</v>
@@ -14532,10 +14624,10 @@
     </row>
     <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B221" s="25" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C221" s="24" t="s">
         <v>565</v>
@@ -14547,107 +14639,107 @@
       <c r="F221" s="24"/>
     </row>
     <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="93" t="s">
-        <v>633</v>
-      </c>
-      <c r="B222" s="96" t="s">
-        <v>665</v>
+      <c r="A222" s="95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B222" s="98" t="s">
+        <v>650</v>
       </c>
       <c r="C222" s="18" t="s">
         <v>588</v>
       </c>
-      <c r="D222" s="93" t="s">
+      <c r="D222" s="95" t="s">
         <v>516</v>
       </c>
-      <c r="E222" s="93"/>
-      <c r="F222" s="93"/>
+      <c r="E222" s="95"/>
+      <c r="F222" s="95"/>
     </row>
     <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="94"/>
-      <c r="B223" s="97"/>
+      <c r="A223" s="96"/>
+      <c r="B223" s="99"/>
       <c r="C223" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D223" s="94"/>
-      <c r="E223" s="94"/>
-      <c r="F223" s="94"/>
+      <c r="D223" s="96"/>
+      <c r="E223" s="96"/>
+      <c r="F223" s="96"/>
     </row>
     <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="94"/>
-      <c r="B224" s="97"/>
+      <c r="A224" s="96"/>
+      <c r="B224" s="99"/>
       <c r="C224" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D224" s="94"/>
-      <c r="E224" s="94"/>
-      <c r="F224" s="94"/>
+      <c r="D224" s="96"/>
+      <c r="E224" s="96"/>
+      <c r="F224" s="96"/>
     </row>
     <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="94"/>
-      <c r="B225" s="97"/>
+      <c r="A225" s="96"/>
+      <c r="B225" s="99"/>
       <c r="C225" s="20" t="s">
         <v>598</v>
       </c>
-      <c r="D225" s="94"/>
-      <c r="E225" s="94"/>
-      <c r="F225" s="94"/>
+      <c r="D225" s="96"/>
+      <c r="E225" s="96"/>
+      <c r="F225" s="96"/>
     </row>
     <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="94"/>
-      <c r="B226" s="97"/>
+      <c r="A226" s="96"/>
+      <c r="B226" s="99"/>
       <c r="C226" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D226" s="94"/>
-      <c r="E226" s="94"/>
-      <c r="F226" s="94"/>
+      <c r="D226" s="96"/>
+      <c r="E226" s="96"/>
+      <c r="F226" s="96"/>
     </row>
     <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="94"/>
-      <c r="B227" s="97"/>
+      <c r="A227" s="96"/>
+      <c r="B227" s="99"/>
       <c r="C227" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D227" s="94"/>
-      <c r="E227" s="94"/>
-      <c r="F227" s="94"/>
+      <c r="D227" s="96"/>
+      <c r="E227" s="96"/>
+      <c r="F227" s="96"/>
     </row>
     <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="94"/>
-      <c r="B228" s="97"/>
+      <c r="A228" s="96"/>
+      <c r="B228" s="99"/>
       <c r="C228" s="20" t="s">
         <v>599</v>
       </c>
-      <c r="D228" s="94"/>
-      <c r="E228" s="94"/>
-      <c r="F228" s="94"/>
+      <c r="D228" s="96"/>
+      <c r="E228" s="96"/>
+      <c r="F228" s="96"/>
     </row>
     <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="94"/>
-      <c r="B229" s="97"/>
+      <c r="A229" s="96"/>
+      <c r="B229" s="99"/>
       <c r="C229" s="20" t="s">
         <v>589</v>
       </c>
-      <c r="D229" s="94"/>
-      <c r="E229" s="94"/>
-      <c r="F229" s="94"/>
+      <c r="D229" s="96"/>
+      <c r="E229" s="96"/>
+      <c r="F229" s="96"/>
     </row>
     <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="95"/>
-      <c r="B230" s="98"/>
+      <c r="A230" s="97"/>
+      <c r="B230" s="100"/>
       <c r="C230" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D230" s="95"/>
-      <c r="E230" s="95"/>
-      <c r="F230" s="95"/>
+      <c r="D230" s="97"/>
+      <c r="E230" s="97"/>
+      <c r="F230" s="97"/>
     </row>
     <row r="231" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C231" s="16" t="s">
         <v>517</v>
@@ -14660,10 +14752,10 @@
     </row>
     <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B232" s="17" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C232" s="22" t="s">
         <v>519</v>
@@ -14675,21 +14767,21 @@
       <c r="F232" s="16"/>
     </row>
     <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="89" t="s">
+      <c r="A233" s="91" t="s">
         <v>505</v>
       </c>
-      <c r="B233" s="89"/>
-      <c r="C233" s="89"/>
-      <c r="D233" s="89"/>
-      <c r="E233" s="89"/>
-      <c r="F233" s="89"/>
+      <c r="B233" s="91"/>
+      <c r="C233" s="91"/>
+      <c r="D233" s="91"/>
+      <c r="E233" s="91"/>
+      <c r="F233" s="91"/>
     </row>
     <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B234" s="17" t="s">
-        <v>642</v>
+        <v>638</v>
       </c>
       <c r="C234" s="16" t="s">
         <v>40</v>
@@ -14701,67 +14793,67 @@
       <c r="F234" s="16"/>
     </row>
     <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="93" t="s">
-        <v>633</v>
-      </c>
-      <c r="B235" s="96" t="s">
-        <v>646</v>
-      </c>
-      <c r="C235" s="93" t="s">
+      <c r="A235" s="95" t="s">
+        <v>629</v>
+      </c>
+      <c r="B235" s="98" t="s">
+        <v>640</v>
+      </c>
+      <c r="C235" s="95" t="s">
         <v>530</v>
       </c>
       <c r="D235" s="18" t="s">
         <v>531</v>
       </c>
-      <c r="E235" s="93"/>
-      <c r="F235" s="93"/>
+      <c r="E235" s="95"/>
+      <c r="F235" s="95"/>
     </row>
     <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="94"/>
-      <c r="B236" s="97"/>
-      <c r="C236" s="94"/>
+      <c r="A236" s="96"/>
+      <c r="B236" s="99"/>
+      <c r="C236" s="96"/>
       <c r="D236" s="20" t="s">
         <v>532</v>
       </c>
-      <c r="E236" s="94"/>
-      <c r="F236" s="94"/>
+      <c r="E236" s="96"/>
+      <c r="F236" s="96"/>
     </row>
     <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="94"/>
-      <c r="B237" s="97"/>
-      <c r="C237" s="94"/>
+      <c r="A237" s="96"/>
+      <c r="B237" s="99"/>
+      <c r="C237" s="96"/>
       <c r="D237" s="20" t="s">
         <v>533</v>
       </c>
-      <c r="E237" s="94"/>
-      <c r="F237" s="94"/>
+      <c r="E237" s="96"/>
+      <c r="F237" s="96"/>
     </row>
     <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="94"/>
-      <c r="B238" s="97"/>
-      <c r="C238" s="94"/>
+      <c r="A238" s="96"/>
+      <c r="B238" s="99"/>
+      <c r="C238" s="96"/>
       <c r="D238" s="20" t="s">
         <v>534</v>
       </c>
-      <c r="E238" s="94"/>
-      <c r="F238" s="94"/>
+      <c r="E238" s="96"/>
+      <c r="F238" s="96"/>
     </row>
     <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="95"/>
-      <c r="B239" s="98"/>
-      <c r="C239" s="95"/>
+      <c r="A239" s="97"/>
+      <c r="B239" s="100"/>
+      <c r="C239" s="97"/>
       <c r="D239" s="21" t="s">
         <v>535</v>
       </c>
-      <c r="E239" s="95"/>
-      <c r="F239" s="95"/>
+      <c r="E239" s="97"/>
+      <c r="F239" s="97"/>
     </row>
     <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A240" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B240" s="17" t="s">
-        <v>651</v>
+        <v>641</v>
       </c>
       <c r="C240" s="16" t="s">
         <v>600</v>
@@ -14772,12 +14864,12 @@
       <c r="E240" s="22"/>
       <c r="F240" s="22"/>
     </row>
-    <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A241" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B241" s="17" t="s">
-        <v>658</v>
+        <v>646</v>
       </c>
       <c r="C241" s="16" t="s">
         <v>563</v>
@@ -14788,12 +14880,12 @@
       <c r="E241" s="16"/>
       <c r="F241" s="16"/>
     </row>
-    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A242" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B242" s="50" t="s">
-        <v>662</v>
+        <v>648</v>
       </c>
       <c r="C242" s="24" t="s">
         <v>565</v>
@@ -14804,12 +14896,12 @@
       <c r="E242" s="24"/>
       <c r="F242" s="24"/>
     </row>
-    <row r="243" spans="1:6" ht="140.25" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
       <c r="A243" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B243" s="19" t="s">
-        <v>665</v>
+        <v>650</v>
       </c>
       <c r="C243" s="18" t="s">
         <v>536</v>
@@ -14820,12 +14912,12 @@
       <c r="E243" s="18"/>
       <c r="F243" s="18"/>
     </row>
-    <row r="244" spans="1:6" ht="51" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A244" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B244" s="19" t="s">
-        <v>669</v>
+        <v>653</v>
       </c>
       <c r="C244" s="18" t="s">
         <v>602</v>
@@ -14836,12 +14928,12 @@
       <c r="E244" s="18"/>
       <c r="F244" s="18"/>
     </row>
-    <row r="245" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A245" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B245" s="17" t="s">
-        <v>673</v>
+        <v>656</v>
       </c>
       <c r="C245" s="16" t="s">
         <v>517</v>
@@ -14852,12 +14944,12 @@
       <c r="E245" s="23"/>
       <c r="F245" s="23"/>
     </row>
-    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A246" s="16" t="s">
-        <v>633</v>
+        <v>629</v>
       </c>
       <c r="B246" s="17" t="s">
-        <v>676</v>
+        <v>658</v>
       </c>
       <c r="C246" s="22" t="s">
         <v>519</v>
@@ -14868,596 +14960,483 @@
       <c r="E246" s="23"/>
       <c r="F246" s="23"/>
     </row>
-    <row r="247" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="89" t="s">
+    <row r="247" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="91" t="s">
         <v>507</v>
       </c>
-      <c r="B247" s="89"/>
-      <c r="C247" s="89"/>
-      <c r="D247" s="89"/>
-      <c r="E247" s="89"/>
-      <c r="F247" s="89"/>
-    </row>
-    <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B248" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="C248" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D248" s="16" t="s">
+      <c r="B247" s="91"/>
+      <c r="C247" s="91"/>
+      <c r="D247" s="91"/>
+      <c r="E247" s="91"/>
+      <c r="F247" s="91"/>
+      <c r="G247" s="13" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="106"/>
+      <c r="B248" s="107">
+        <v>1</v>
+      </c>
+      <c r="C248" s="106" t="s">
+        <v>682</v>
+      </c>
+      <c r="D248" s="106" t="s">
         <v>425</v>
       </c>
-      <c r="E248" s="16"/>
-      <c r="F248" s="16"/>
-    </row>
-    <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="93" t="s">
-        <v>632</v>
-      </c>
-      <c r="B249" s="96" t="s">
-        <v>646</v>
-      </c>
-      <c r="C249" s="93" t="s">
+      <c r="E248" s="106"/>
+      <c r="F248" s="106"/>
+    </row>
+    <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="115"/>
+      <c r="B249" s="118">
+        <v>2</v>
+      </c>
+      <c r="C249" s="115" t="s">
         <v>538</v>
       </c>
-      <c r="D249" s="18" t="s">
+      <c r="D249" s="108" t="s">
         <v>539</v>
       </c>
-      <c r="E249" s="93"/>
-      <c r="F249" s="93"/>
-    </row>
-    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="94"/>
-      <c r="B250" s="97"/>
-      <c r="C250" s="94"/>
-      <c r="D250" s="20" t="s">
+      <c r="E249" s="115"/>
+      <c r="F249" s="115"/>
+    </row>
+    <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="116"/>
+      <c r="B250" s="119"/>
+      <c r="C250" s="116"/>
+      <c r="D250" s="109" t="s">
         <v>532</v>
       </c>
-      <c r="E250" s="94"/>
-      <c r="F250" s="94"/>
-    </row>
-    <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="94"/>
-      <c r="B251" s="97"/>
-      <c r="C251" s="94"/>
-      <c r="D251" s="20" t="s">
+      <c r="E250" s="116"/>
+      <c r="F250" s="116"/>
+    </row>
+    <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="116"/>
+      <c r="B251" s="119"/>
+      <c r="C251" s="116"/>
+      <c r="D251" s="109" t="s">
         <v>533</v>
       </c>
-      <c r="E251" s="94"/>
-      <c r="F251" s="94"/>
-    </row>
-    <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="94"/>
-      <c r="B252" s="97"/>
-      <c r="C252" s="94"/>
-      <c r="D252" s="20" t="s">
+      <c r="E251" s="116"/>
+      <c r="F251" s="116"/>
+    </row>
+    <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="116"/>
+      <c r="B252" s="119"/>
+      <c r="C252" s="116"/>
+      <c r="D252" s="109" t="s">
         <v>534</v>
       </c>
-      <c r="E252" s="94"/>
-      <c r="F252" s="94"/>
-    </row>
-    <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="95"/>
-      <c r="B253" s="98"/>
-      <c r="C253" s="95"/>
-      <c r="D253" s="21" t="s">
+      <c r="E252" s="116"/>
+      <c r="F252" s="116"/>
+    </row>
+    <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="117"/>
+      <c r="B253" s="120"/>
+      <c r="C253" s="117"/>
+      <c r="D253" s="106" t="s">
         <v>535</v>
       </c>
-      <c r="E253" s="95"/>
-      <c r="F253" s="95"/>
-    </row>
-    <row r="254" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B254" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="C254" s="16" t="s">
+      <c r="E253" s="117"/>
+      <c r="F253" s="117"/>
+    </row>
+    <row r="254" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A254" s="110"/>
+      <c r="B254" s="111">
+        <v>3</v>
+      </c>
+      <c r="C254" s="110" t="s">
         <v>600</v>
       </c>
-      <c r="D254" s="16" t="s">
+      <c r="D254" s="110" t="s">
         <v>603</v>
       </c>
-      <c r="E254" s="16"/>
-      <c r="F254" s="16"/>
-    </row>
-    <row r="255" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B255" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="C255" s="16" t="s">
+      <c r="E254" s="110"/>
+      <c r="F254" s="110"/>
+    </row>
+    <row r="255" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A255" s="115"/>
+      <c r="B255" s="118">
+        <v>4</v>
+      </c>
+      <c r="C255" s="112" t="s">
+        <v>588</v>
+      </c>
+      <c r="D255" s="115" t="s">
+        <v>684</v>
+      </c>
+      <c r="E255" s="115"/>
+      <c r="F255" s="115"/>
+    </row>
+    <row r="256" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A256" s="116"/>
+      <c r="B256" s="119"/>
+      <c r="C256" s="113" t="s">
+        <v>579</v>
+      </c>
+      <c r="D256" s="116"/>
+      <c r="E256" s="116"/>
+      <c r="F256" s="116"/>
+    </row>
+    <row r="257" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A257" s="116"/>
+      <c r="B257" s="119"/>
+      <c r="C257" s="113" t="s">
+        <v>580</v>
+      </c>
+      <c r="D257" s="116"/>
+      <c r="E257" s="116"/>
+      <c r="F257" s="116"/>
+    </row>
+    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A258" s="116"/>
+      <c r="B258" s="119"/>
+      <c r="C258" s="113" t="s">
+        <v>598</v>
+      </c>
+      <c r="D258" s="116"/>
+      <c r="E258" s="116"/>
+      <c r="F258" s="116"/>
+    </row>
+    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A259" s="116"/>
+      <c r="B259" s="119"/>
+      <c r="C259" s="113" t="s">
+        <v>581</v>
+      </c>
+      <c r="D259" s="116"/>
+      <c r="E259" s="116"/>
+      <c r="F259" s="116"/>
+    </row>
+    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A260" s="116"/>
+      <c r="B260" s="119"/>
+      <c r="C260" s="113" t="s">
+        <v>582</v>
+      </c>
+      <c r="D260" s="116"/>
+      <c r="E260" s="116"/>
+      <c r="F260" s="116"/>
+    </row>
+    <row r="261" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A261" s="116"/>
+      <c r="B261" s="119"/>
+      <c r="C261" s="113" t="s">
+        <v>599</v>
+      </c>
+      <c r="D261" s="116"/>
+      <c r="E261" s="116"/>
+      <c r="F261" s="116"/>
+    </row>
+    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A262" s="117"/>
+      <c r="B262" s="120"/>
+      <c r="C262" s="114" t="s">
+        <v>683</v>
+      </c>
+      <c r="D262" s="117"/>
+      <c r="E262" s="117"/>
+      <c r="F262" s="117"/>
+    </row>
+    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A263" s="110"/>
+      <c r="B263" s="111">
+        <v>5</v>
+      </c>
+      <c r="C263" s="110" t="s">
         <v>563</v>
       </c>
-      <c r="D255" s="16" t="s">
+      <c r="D263" s="110" t="s">
         <v>564</v>
       </c>
-      <c r="E255" s="16"/>
-      <c r="F255" s="16"/>
-    </row>
-    <row r="256" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B256" s="25" t="s">
-        <v>662</v>
-      </c>
-      <c r="C256" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D256" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E256" s="24"/>
-      <c r="F256" s="24"/>
-    </row>
-    <row r="257" spans="1:6" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="A257" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B257" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="C257" s="16" t="s">
-        <v>592</v>
-      </c>
-      <c r="D257" s="16" t="s">
-        <v>573</v>
-      </c>
-      <c r="E257" s="16"/>
-      <c r="F257" s="16"/>
-    </row>
-    <row r="258" spans="1:6" ht="127.5" x14ac:dyDescent="0.25">
-      <c r="A258" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B258" s="19" t="s">
-        <v>669</v>
-      </c>
-      <c r="C258" s="18" t="s">
-        <v>604</v>
-      </c>
-      <c r="D258" s="18" t="s">
-        <v>570</v>
-      </c>
-      <c r="E258" s="18"/>
-      <c r="F258" s="18"/>
-    </row>
-    <row r="259" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A259" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B259" s="19" t="s">
-        <v>673</v>
-      </c>
-      <c r="C259" s="18" t="s">
-        <v>571</v>
-      </c>
-      <c r="D259" s="18" t="s">
+      <c r="E263" s="110"/>
+      <c r="F263" s="110"/>
+    </row>
+    <row r="264" spans="1:6" ht="12" hidden="1" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="121"/>
+      <c r="B264" s="122">
+        <v>6</v>
+      </c>
+      <c r="C264" s="121" t="s">
+        <v>685</v>
+      </c>
+      <c r="D264" s="121" t="s">
+        <v>686</v>
+      </c>
+      <c r="E264" s="121"/>
+      <c r="F264" s="121"/>
+    </row>
+    <row r="265" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="121"/>
+      <c r="B265" s="122">
+        <v>7</v>
+      </c>
+      <c r="C265" s="121" t="s">
+        <v>687</v>
+      </c>
+      <c r="D265" s="121" t="s">
+        <v>688</v>
+      </c>
+      <c r="E265" s="121"/>
+      <c r="F265" s="121"/>
+    </row>
+    <row r="266" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="115"/>
+      <c r="B266" s="118">
+        <v>8</v>
+      </c>
+      <c r="C266" s="108" t="s">
+        <v>584</v>
+      </c>
+      <c r="D266" s="115" t="s">
         <v>512</v>
       </c>
-      <c r="E259" s="18"/>
-      <c r="F259" s="18"/>
-    </row>
-    <row r="260" spans="1:6" ht="102" x14ac:dyDescent="0.25">
-      <c r="A260" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B260" s="19" t="s">
-        <v>676</v>
-      </c>
-      <c r="C260" s="18" t="s">
-        <v>605</v>
-      </c>
-      <c r="D260" s="18" t="s">
+      <c r="E266" s="115"/>
+      <c r="F266" s="115"/>
+    </row>
+    <row r="267" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="116"/>
+      <c r="B267" s="119"/>
+      <c r="C267" s="109" t="s">
+        <v>579</v>
+      </c>
+      <c r="D267" s="116"/>
+      <c r="E267" s="116"/>
+      <c r="F267" s="116"/>
+    </row>
+    <row r="268" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="116"/>
+      <c r="B268" s="119"/>
+      <c r="C268" s="109" t="s">
+        <v>580</v>
+      </c>
+      <c r="D268" s="116"/>
+      <c r="E268" s="116"/>
+      <c r="F268" s="116"/>
+    </row>
+    <row r="269" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="116"/>
+      <c r="B269" s="119"/>
+      <c r="C269" s="109" t="s">
+        <v>689</v>
+      </c>
+      <c r="D269" s="116"/>
+      <c r="E269" s="116"/>
+      <c r="F269" s="116"/>
+    </row>
+    <row r="270" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="116"/>
+      <c r="B270" s="119"/>
+      <c r="C270" s="109" t="s">
+        <v>582</v>
+      </c>
+      <c r="D270" s="116"/>
+      <c r="E270" s="116"/>
+      <c r="F270" s="116"/>
+    </row>
+    <row r="271" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="116"/>
+      <c r="B271" s="119"/>
+      <c r="C271" s="109" t="s">
+        <v>690</v>
+      </c>
+      <c r="D271" s="116"/>
+      <c r="E271" s="116"/>
+      <c r="F271" s="116"/>
+    </row>
+    <row r="272" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="116"/>
+      <c r="B272" s="119"/>
+      <c r="C272" s="109" t="s">
+        <v>691</v>
+      </c>
+      <c r="D272" s="116"/>
+      <c r="E272" s="116"/>
+      <c r="F272" s="116"/>
+    </row>
+    <row r="273" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="117"/>
+      <c r="B273" s="120"/>
+      <c r="C273" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="D273" s="117"/>
+      <c r="E273" s="117"/>
+      <c r="F273" s="117"/>
+    </row>
+    <row r="274" spans="1:6" s="51" customFormat="1" ht="76.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="115"/>
+      <c r="B274" s="118">
+        <v>9</v>
+      </c>
+      <c r="C274" s="108" t="s">
+        <v>588</v>
+      </c>
+      <c r="D274" s="115" t="s">
         <v>514</v>
       </c>
-      <c r="E260" s="18"/>
-      <c r="F260" s="18"/>
-    </row>
-    <row r="261" spans="1:6" ht="63.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B261" s="19" t="s">
-        <v>643</v>
-      </c>
-      <c r="C261" s="18" t="s">
-        <v>550</v>
-      </c>
-      <c r="D261" s="18" t="s">
+      <c r="E274" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="F274" s="115"/>
+    </row>
+    <row r="275" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="116"/>
+      <c r="B275" s="119"/>
+      <c r="C275" s="109" t="s">
+        <v>692</v>
+      </c>
+      <c r="D275" s="116"/>
+      <c r="E275" s="116"/>
+      <c r="F275" s="116"/>
+    </row>
+    <row r="276" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="116"/>
+      <c r="B276" s="119"/>
+      <c r="C276" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="D276" s="116"/>
+      <c r="E276" s="116"/>
+      <c r="F276" s="116"/>
+    </row>
+    <row r="277" spans="1:6" s="51" customFormat="1" ht="140.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="116"/>
+      <c r="B277" s="119"/>
+      <c r="C277" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="D277" s="116"/>
+      <c r="E277" s="116"/>
+      <c r="F277" s="116"/>
+    </row>
+    <row r="278" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="116"/>
+      <c r="B278" s="119"/>
+      <c r="C278" s="109" t="s">
+        <v>695</v>
+      </c>
+      <c r="D278" s="116"/>
+      <c r="E278" s="116"/>
+      <c r="F278" s="116"/>
+    </row>
+    <row r="279" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="116"/>
+      <c r="B279" s="119"/>
+      <c r="C279" s="109" t="s">
+        <v>696</v>
+      </c>
+      <c r="D279" s="116"/>
+      <c r="E279" s="116"/>
+      <c r="F279" s="116"/>
+    </row>
+    <row r="280" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="116"/>
+      <c r="B280" s="119"/>
+      <c r="C280" s="109" t="s">
+        <v>596</v>
+      </c>
+      <c r="D280" s="116"/>
+      <c r="E280" s="116"/>
+      <c r="F280" s="116"/>
+    </row>
+    <row r="281" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="117"/>
+      <c r="B281" s="120"/>
+      <c r="C281" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="D281" s="117"/>
+      <c r="E281" s="117"/>
+      <c r="F281" s="117"/>
+    </row>
+    <row r="282" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="115"/>
+      <c r="B282" s="126">
+        <v>10</v>
+      </c>
+      <c r="C282" s="108" t="s">
+        <v>588</v>
+      </c>
+      <c r="D282" s="115" t="s">
         <v>516</v>
       </c>
-      <c r="E261" s="18"/>
-      <c r="F261" s="18"/>
-    </row>
-    <row r="262" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A262" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B262" s="17" t="s">
-        <v>679</v>
-      </c>
-      <c r="C262" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="D262" s="16" t="s">
+      <c r="E282" s="115"/>
+      <c r="F282" s="115"/>
+    </row>
+    <row r="283" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="116"/>
+      <c r="B283" s="127"/>
+      <c r="C283" s="109" t="s">
+        <v>589</v>
+      </c>
+      <c r="D283" s="116"/>
+      <c r="E283" s="116"/>
+      <c r="F283" s="116"/>
+    </row>
+    <row r="284" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="116"/>
+      <c r="B284" s="127"/>
+      <c r="C284" s="109" t="s">
+        <v>590</v>
+      </c>
+      <c r="D284" s="116"/>
+      <c r="E284" s="116"/>
+      <c r="F284" s="116"/>
+    </row>
+    <row r="285" spans="1:6" s="51" customFormat="1" ht="114.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="116"/>
+      <c r="B285" s="127"/>
+      <c r="C285" s="109" t="s">
+        <v>591</v>
+      </c>
+      <c r="D285" s="116"/>
+      <c r="E285" s="116"/>
+      <c r="F285" s="116"/>
+    </row>
+    <row r="286" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="117"/>
+      <c r="B286" s="128"/>
+      <c r="C286" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="D286" s="117"/>
+      <c r="E286" s="117"/>
+      <c r="F286" s="117"/>
+    </row>
+    <row r="287" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="123"/>
+      <c r="B287" s="124">
+        <v>11</v>
+      </c>
+      <c r="C287" s="110" t="s">
+        <v>698</v>
+      </c>
+      <c r="D287" s="110" t="s">
         <v>518</v>
       </c>
-      <c r="E262" s="22"/>
-      <c r="F262" s="22"/>
-    </row>
-    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="16" t="s">
-        <v>632</v>
-      </c>
-      <c r="B263" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="C263" s="22" t="s">
+      <c r="E287" s="125"/>
+      <c r="F287" s="125"/>
+    </row>
+    <row r="288" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="123"/>
+      <c r="B288" s="111">
+        <v>12</v>
+      </c>
+      <c r="C288" s="125" t="s">
         <v>519</v>
       </c>
-      <c r="D263" s="16" t="s">
+      <c r="D288" s="110" t="s">
         <v>520</v>
       </c>
-      <c r="E263" s="23"/>
-      <c r="F263" s="23"/>
-    </row>
-    <row r="264" spans="1:6" hidden="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="88" t="s">
-        <v>606</v>
-      </c>
-      <c r="B264" s="88"/>
-      <c r="C264" s="88"/>
-      <c r="D264" s="88"/>
-      <c r="E264" s="88"/>
-      <c r="F264" s="88"/>
-    </row>
-    <row r="265" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="55"/>
-      <c r="B265" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="C265" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="D265" s="56" t="s">
-        <v>81</v>
-      </c>
-      <c r="E265" s="55"/>
-      <c r="F265" s="55"/>
-    </row>
-    <row r="266" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="55"/>
-      <c r="B266" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="C266" s="56" t="s">
-        <v>82</v>
-      </c>
-      <c r="D266" s="56" t="s">
-        <v>83</v>
-      </c>
-      <c r="E266" s="55"/>
-      <c r="F266" s="55"/>
-    </row>
-    <row r="267" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="55"/>
-      <c r="B267" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="C267" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="D267" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="E267" s="55"/>
-      <c r="F267" s="55"/>
-    </row>
-    <row r="268" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="55"/>
-      <c r="B268" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="C268" s="56" t="s">
-        <v>86</v>
-      </c>
-      <c r="D268" s="56" t="s">
-        <v>87</v>
-      </c>
-      <c r="E268" s="55"/>
-      <c r="F268" s="55"/>
-    </row>
-    <row r="269" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="55"/>
-      <c r="B269" s="17" t="s">
-        <v>662</v>
-      </c>
-      <c r="C269" s="56" t="s">
-        <v>88</v>
-      </c>
-      <c r="D269" s="56" t="s">
-        <v>89</v>
-      </c>
-      <c r="E269" s="55"/>
-      <c r="F269" s="55"/>
-    </row>
-    <row r="270" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="55"/>
-      <c r="B270" s="17" t="s">
-        <v>665</v>
-      </c>
-      <c r="C270" s="56" t="s">
-        <v>92</v>
-      </c>
-      <c r="D270" s="56" t="s">
-        <v>93</v>
-      </c>
-      <c r="E270" s="55"/>
-      <c r="F270" s="55"/>
-    </row>
-    <row r="271" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="55"/>
-      <c r="B271" s="17" t="s">
-        <v>669</v>
-      </c>
-      <c r="C271" s="56" t="s">
-        <v>94</v>
-      </c>
-      <c r="D271" s="56" t="s">
-        <v>95</v>
-      </c>
-      <c r="E271" s="55"/>
-      <c r="F271" s="55"/>
-    </row>
-    <row r="272" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="55"/>
-      <c r="B272" s="17" t="s">
-        <v>673</v>
-      </c>
-      <c r="C272" s="56" t="s">
-        <v>96</v>
-      </c>
-      <c r="D272" s="56" t="s">
-        <v>97</v>
-      </c>
-      <c r="E272" s="55"/>
-      <c r="F272" s="55"/>
-    </row>
-    <row r="273" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="55"/>
-      <c r="B273" s="17" t="s">
-        <v>676</v>
-      </c>
-      <c r="C273" s="56" t="s">
-        <v>98</v>
-      </c>
-      <c r="D273" s="56" t="s">
-        <v>99</v>
-      </c>
-      <c r="E273" s="55"/>
-      <c r="F273" s="55"/>
-    </row>
-    <row r="274" spans="1:6" s="51" customFormat="1" ht="76.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="55"/>
-      <c r="B274" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="C274" s="56" t="s">
-        <v>100</v>
-      </c>
-      <c r="D274" s="56" t="s">
-        <v>101</v>
-      </c>
-      <c r="E274" s="55"/>
-      <c r="F274" s="55"/>
-    </row>
-    <row r="275" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="55"/>
-      <c r="B275" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="C275" s="56" t="s">
-        <v>102</v>
-      </c>
-      <c r="D275" s="56" t="s">
-        <v>103</v>
-      </c>
-      <c r="E275" s="55"/>
-      <c r="F275" s="55"/>
-    </row>
-    <row r="276" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="55"/>
-      <c r="B276" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="C276" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D276" s="56" t="s">
-        <v>105</v>
-      </c>
-      <c r="E276" s="55"/>
-      <c r="F276" s="55"/>
-    </row>
-    <row r="277" spans="1:6" s="51" customFormat="1" ht="140.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="55"/>
-      <c r="B277" s="17" t="s">
-        <v>652</v>
-      </c>
-      <c r="C277" s="56" t="s">
-        <v>106</v>
-      </c>
-      <c r="D277" s="56" t="s">
-        <v>107</v>
-      </c>
-      <c r="E277" s="55"/>
-      <c r="F277" s="55"/>
-    </row>
-    <row r="278" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="55"/>
-      <c r="B278" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="C278" s="56" t="s">
-        <v>108</v>
-      </c>
-      <c r="D278" s="56" t="s">
-        <v>109</v>
-      </c>
-      <c r="E278" s="55"/>
-      <c r="F278" s="55"/>
-    </row>
-    <row r="279" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="55"/>
-      <c r="B279" s="17" t="s">
-        <v>663</v>
-      </c>
-      <c r="C279" s="56" t="s">
-        <v>110</v>
-      </c>
-      <c r="D279" s="56" t="s">
-        <v>111</v>
-      </c>
-      <c r="E279" s="55"/>
-      <c r="F279" s="55"/>
-    </row>
-    <row r="280" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="55"/>
-      <c r="B280" s="17" t="s">
-        <v>666</v>
-      </c>
-      <c r="C280" s="56" t="s">
-        <v>112</v>
-      </c>
-      <c r="D280" s="56" t="s">
-        <v>113</v>
-      </c>
-      <c r="E280" s="55"/>
-      <c r="F280" s="55"/>
-    </row>
-    <row r="281" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="55"/>
-      <c r="B281" s="17" t="s">
-        <v>670</v>
-      </c>
-      <c r="C281" s="56" t="s">
-        <v>114</v>
-      </c>
-      <c r="D281" s="56" t="s">
-        <v>115</v>
-      </c>
-      <c r="E281" s="55"/>
-      <c r="F281" s="55"/>
-    </row>
-    <row r="282" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="55"/>
-      <c r="B282" s="17" t="s">
-        <v>674</v>
-      </c>
-      <c r="C282" s="56" t="s">
-        <v>116</v>
-      </c>
-      <c r="D282" s="55" t="s">
-        <v>117</v>
-      </c>
-      <c r="E282" s="55"/>
-      <c r="F282" s="55"/>
-    </row>
-    <row r="283" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="55"/>
-      <c r="B283" s="17" t="s">
-        <v>677</v>
-      </c>
-      <c r="C283" s="56" t="s">
-        <v>118</v>
-      </c>
-      <c r="D283" s="56" t="s">
-        <v>119</v>
-      </c>
-      <c r="E283" s="55"/>
-      <c r="F283" s="55"/>
-    </row>
-    <row r="284" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="55"/>
-      <c r="B284" s="17" t="s">
-        <v>648</v>
-      </c>
-      <c r="C284" s="56" t="s">
-        <v>120</v>
-      </c>
-      <c r="D284" s="56" t="s">
-        <v>121</v>
-      </c>
-      <c r="E284" s="55"/>
-      <c r="F284" s="55"/>
-    </row>
-    <row r="285" spans="1:6" s="51" customFormat="1" ht="114.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="55"/>
-      <c r="B285" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="C285" s="56" t="s">
-        <v>122</v>
-      </c>
-      <c r="D285" s="56" t="s">
-        <v>123</v>
-      </c>
-      <c r="E285" s="55"/>
-      <c r="F285" s="55"/>
-    </row>
-    <row r="286" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="55"/>
-      <c r="B286" s="17" t="s">
-        <v>650</v>
-      </c>
-      <c r="C286" s="56" t="s">
-        <v>124</v>
-      </c>
-      <c r="D286" s="56" t="s">
-        <v>125</v>
-      </c>
-      <c r="E286" s="55"/>
-      <c r="F286" s="55"/>
-    </row>
-    <row r="287" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="55"/>
-      <c r="B287" s="17" t="s">
-        <v>653</v>
-      </c>
-      <c r="C287" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D287" s="56"/>
-      <c r="E287" s="55"/>
-      <c r="F287" s="55"/>
-    </row>
-    <row r="288" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="55"/>
-      <c r="B288" s="17" t="s">
-        <v>660</v>
-      </c>
-      <c r="C288" s="56" t="s">
-        <v>127</v>
-      </c>
-      <c r="D288" s="56" t="s">
-        <v>128</v>
-      </c>
-      <c r="E288" s="55"/>
-      <c r="F288" s="55"/>
+      <c r="E288" s="123"/>
+      <c r="F288" s="123"/>
     </row>
     <row r="289" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A289" s="55"/>
       <c r="B289" s="17" t="s">
-        <v>664</v>
+        <v>649</v>
       </c>
       <c r="C289" s="56" t="s">
         <v>126</v>
@@ -15469,7 +15448,7 @@
     <row r="290" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A290" s="55"/>
       <c r="B290" s="17" t="s">
-        <v>667</v>
+        <v>651</v>
       </c>
       <c r="C290" s="56" t="s">
         <v>129</v>
@@ -15483,7 +15462,7 @@
     <row r="291" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A291" s="55"/>
       <c r="B291" s="17" t="s">
-        <v>671</v>
+        <v>654</v>
       </c>
       <c r="C291" s="56" t="s">
         <v>131</v>
@@ -15497,7 +15476,7 @@
     <row r="292" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A292" s="55"/>
       <c r="B292" s="17" t="s">
-        <v>675</v>
+        <v>657</v>
       </c>
       <c r="C292" s="56" t="s">
         <v>104</v>
@@ -15511,7 +15490,7 @@
     <row r="293" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A293" s="55"/>
       <c r="B293" s="17" t="s">
-        <v>678</v>
+        <v>659</v>
       </c>
       <c r="C293" s="56" t="s">
         <v>134</v>
@@ -15525,7 +15504,7 @@
     <row r="294" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A294" s="55"/>
       <c r="B294" s="17" t="s">
-        <v>654</v>
+        <v>642</v>
       </c>
       <c r="C294" s="56" t="s">
         <v>136</v>
@@ -15539,7 +15518,7 @@
     <row r="295" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A295" s="55"/>
       <c r="B295" s="17" t="s">
-        <v>655</v>
+        <v>643</v>
       </c>
       <c r="C295" s="56" t="s">
         <v>138</v>
@@ -15553,7 +15532,7 @@
     <row r="296" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A296" s="55"/>
       <c r="B296" s="17" t="s">
-        <v>656</v>
+        <v>644</v>
       </c>
       <c r="C296" s="56" t="s">
         <v>140</v>
@@ -15567,7 +15546,7 @@
     <row r="297" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A297" s="55"/>
       <c r="B297" s="17" t="s">
-        <v>657</v>
+        <v>645</v>
       </c>
       <c r="C297" s="56" t="s">
         <v>142</v>
@@ -15581,7 +15560,7 @@
     <row r="298" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A298" s="55"/>
       <c r="B298" s="17" t="s">
-        <v>661</v>
+        <v>647</v>
       </c>
       <c r="C298" s="56" t="s">
         <v>144</v>
@@ -15593,151 +15572,151 @@
       <c r="F298" s="55"/>
     </row>
     <row r="299" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="100"/>
-      <c r="B299" s="100" t="s">
-        <v>668</v>
-      </c>
-      <c r="C299" s="101" t="s">
+      <c r="A299" s="102"/>
+      <c r="B299" s="102" t="s">
+        <v>652</v>
+      </c>
+      <c r="C299" s="103" t="s">
         <v>146</v>
       </c>
-      <c r="D299" s="102" t="s">
+      <c r="D299" s="104" t="s">
         <v>147</v>
       </c>
       <c r="E299" s="55"/>
       <c r="F299" s="55"/>
     </row>
     <row r="300" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="100"/>
-      <c r="B300" s="100"/>
-      <c r="C300" s="101"/>
-      <c r="D300" s="102"/>
+      <c r="A300" s="102"/>
+      <c r="B300" s="102"/>
+      <c r="C300" s="103"/>
+      <c r="D300" s="104"/>
       <c r="E300" s="55"/>
       <c r="F300" s="55"/>
     </row>
     <row r="301" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="100"/>
-      <c r="B301" s="100"/>
-      <c r="C301" s="101"/>
-      <c r="D301" s="102"/>
+      <c r="A301" s="102"/>
+      <c r="B301" s="102"/>
+      <c r="C301" s="103"/>
+      <c r="D301" s="104"/>
       <c r="E301" s="55"/>
       <c r="F301" s="55"/>
     </row>
     <row r="302" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="100"/>
-      <c r="B302" s="100"/>
-      <c r="C302" s="101"/>
-      <c r="D302" s="102"/>
+      <c r="A302" s="102"/>
+      <c r="B302" s="102"/>
+      <c r="C302" s="103"/>
+      <c r="D302" s="104"/>
       <c r="E302" s="55"/>
       <c r="F302" s="55"/>
     </row>
     <row r="303" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="100"/>
-      <c r="B303" s="100"/>
-      <c r="C303" s="101"/>
-      <c r="D303" s="102"/>
+      <c r="A303" s="102"/>
+      <c r="B303" s="102"/>
+      <c r="C303" s="103"/>
+      <c r="D303" s="104"/>
       <c r="E303" s="55"/>
       <c r="F303" s="55"/>
     </row>
     <row r="304" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="100"/>
-      <c r="B304" s="100"/>
-      <c r="C304" s="101"/>
-      <c r="D304" s="102"/>
+      <c r="A304" s="102"/>
+      <c r="B304" s="102"/>
+      <c r="C304" s="103"/>
+      <c r="D304" s="104"/>
       <c r="E304" s="55"/>
       <c r="F304" s="55"/>
     </row>
     <row r="305" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="100"/>
-      <c r="B305" s="100"/>
-      <c r="C305" s="101"/>
-      <c r="D305" s="102"/>
+      <c r="A305" s="102"/>
+      <c r="B305" s="102"/>
+      <c r="C305" s="103"/>
+      <c r="D305" s="104"/>
       <c r="E305" s="55"/>
       <c r="F305" s="55"/>
     </row>
     <row r="306" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="100"/>
-      <c r="B306" s="100"/>
-      <c r="C306" s="101"/>
-      <c r="D306" s="102"/>
+      <c r="A306" s="102"/>
+      <c r="B306" s="102"/>
+      <c r="C306" s="103"/>
+      <c r="D306" s="104"/>
       <c r="E306" s="55"/>
       <c r="F306" s="55"/>
     </row>
     <row r="307" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="100"/>
-      <c r="B307" s="100"/>
-      <c r="C307" s="101"/>
-      <c r="D307" s="102"/>
+      <c r="A307" s="102"/>
+      <c r="B307" s="102"/>
+      <c r="C307" s="103"/>
+      <c r="D307" s="104"/>
       <c r="E307" s="55"/>
       <c r="F307" s="55"/>
     </row>
     <row r="308" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="100"/>
-      <c r="B308" s="100"/>
-      <c r="C308" s="101"/>
-      <c r="D308" s="102"/>
+      <c r="A308" s="102"/>
+      <c r="B308" s="102"/>
+      <c r="C308" s="103"/>
+      <c r="D308" s="104"/>
       <c r="E308" s="55"/>
       <c r="F308" s="55"/>
     </row>
     <row r="309" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="100"/>
-      <c r="B309" s="100"/>
-      <c r="C309" s="101"/>
-      <c r="D309" s="102"/>
+      <c r="A309" s="102"/>
+      <c r="B309" s="102"/>
+      <c r="C309" s="103"/>
+      <c r="D309" s="104"/>
       <c r="E309" s="55"/>
       <c r="F309" s="55"/>
     </row>
     <row r="310" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="100"/>
-      <c r="B310" s="100"/>
-      <c r="C310" s="101"/>
-      <c r="D310" s="102"/>
+      <c r="A310" s="102"/>
+      <c r="B310" s="102"/>
+      <c r="C310" s="103"/>
+      <c r="D310" s="104"/>
       <c r="E310" s="55"/>
       <c r="F310" s="55"/>
     </row>
     <row r="311" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="100"/>
-      <c r="B311" s="100"/>
-      <c r="C311" s="101"/>
-      <c r="D311" s="102"/>
+      <c r="A311" s="102"/>
+      <c r="B311" s="102"/>
+      <c r="C311" s="103"/>
+      <c r="D311" s="104"/>
       <c r="E311" s="55"/>
       <c r="F311" s="55"/>
     </row>
     <row r="312" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="100"/>
-      <c r="B312" s="100"/>
-      <c r="C312" s="101"/>
-      <c r="D312" s="102"/>
+      <c r="A312" s="102"/>
+      <c r="B312" s="102"/>
+      <c r="C312" s="103"/>
+      <c r="D312" s="104"/>
       <c r="E312" s="55"/>
       <c r="F312" s="55"/>
     </row>
     <row r="313" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="100"/>
-      <c r="B313" s="100"/>
-      <c r="C313" s="101"/>
-      <c r="D313" s="102"/>
+      <c r="A313" s="102"/>
+      <c r="B313" s="102"/>
+      <c r="C313" s="103"/>
+      <c r="D313" s="104"/>
       <c r="E313" s="55"/>
       <c r="F313" s="55"/>
     </row>
     <row r="314" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="100"/>
-      <c r="B314" s="100"/>
-      <c r="C314" s="101"/>
-      <c r="D314" s="102"/>
+      <c r="A314" s="102"/>
+      <c r="B314" s="102"/>
+      <c r="C314" s="103"/>
+      <c r="D314" s="104"/>
       <c r="E314" s="55"/>
       <c r="F314" s="55"/>
     </row>
     <row r="315" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="100"/>
-      <c r="B315" s="100"/>
-      <c r="C315" s="101"/>
-      <c r="D315" s="102"/>
+      <c r="A315" s="102"/>
+      <c r="B315" s="102"/>
+      <c r="C315" s="103"/>
+      <c r="D315" s="104"/>
       <c r="E315" s="55"/>
       <c r="F315" s="55"/>
     </row>
     <row r="316" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="A316" s="55"/>
       <c r="B316" s="55" t="s">
-        <v>672</v>
+        <v>655</v>
       </c>
       <c r="C316" s="56" t="s">
         <v>148</v>
@@ -15752,58 +15731,342 @@
       <c r="C317" s="31"/>
       <c r="D317" s="31"/>
     </row>
-    <row r="318" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:6" ht="138" hidden="1" x14ac:dyDescent="0.25">
       <c r="C318" s="31"/>
       <c r="D318" s="31"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A319" s="13"/>
-      <c r="B319" s="13"/>
-      <c r="C319" s="13"/>
-      <c r="D319" s="13"/>
-      <c r="E319" s="13"/>
-      <c r="F319" s="13"/>
-    </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A320" s="13"/>
-      <c r="B320" s="13"/>
-      <c r="C320" s="13"/>
-      <c r="D320" s="13"/>
-      <c r="E320" s="13"/>
-      <c r="F320" s="13"/>
-    </row>
-    <row r="321" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="322" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="323" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="324" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="325" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="326" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="327" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="328" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="329" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="330" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="331" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="332" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="333" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="334" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="335" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="336" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="337" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="338" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="339" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="340" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="341" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="342" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="343" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="344" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="345" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="346" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="347" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="348" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="349" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="350" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="351" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="352" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A319" s="121"/>
+      <c r="B319" s="122">
+        <v>6</v>
+      </c>
+      <c r="C319" s="121" t="s">
+        <v>685</v>
+      </c>
+      <c r="D319" s="121" t="s">
+        <v>699</v>
+      </c>
+      <c r="E319" s="121"/>
+      <c r="F319" s="121"/>
+    </row>
+    <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A320" s="115"/>
+      <c r="B320" s="118">
+        <v>7</v>
+      </c>
+      <c r="C320" s="108" t="s">
+        <v>584</v>
+      </c>
+      <c r="D320" s="115" t="s">
+        <v>512</v>
+      </c>
+      <c r="E320" s="115"/>
+      <c r="F320" s="115"/>
+    </row>
+    <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A321" s="116"/>
+      <c r="B321" s="119"/>
+      <c r="C321" s="109" t="s">
+        <v>579</v>
+      </c>
+      <c r="D321" s="116"/>
+      <c r="E321" s="116"/>
+      <c r="F321" s="116"/>
+    </row>
+    <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A322" s="116"/>
+      <c r="B322" s="119"/>
+      <c r="C322" s="109" t="s">
+        <v>580</v>
+      </c>
+      <c r="D322" s="116"/>
+      <c r="E322" s="116"/>
+      <c r="F322" s="116"/>
+    </row>
+    <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A323" s="116"/>
+      <c r="B323" s="119"/>
+      <c r="C323" s="109" t="s">
+        <v>689</v>
+      </c>
+      <c r="D323" s="116"/>
+      <c r="E323" s="116"/>
+      <c r="F323" s="116"/>
+    </row>
+    <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A324" s="116"/>
+      <c r="B324" s="119"/>
+      <c r="C324" s="109" t="s">
+        <v>582</v>
+      </c>
+      <c r="D324" s="116"/>
+      <c r="E324" s="116"/>
+      <c r="F324" s="116"/>
+    </row>
+    <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A325" s="116"/>
+      <c r="B325" s="119"/>
+      <c r="C325" s="109" t="s">
+        <v>690</v>
+      </c>
+      <c r="D325" s="116"/>
+      <c r="E325" s="116"/>
+      <c r="F325" s="116"/>
+    </row>
+    <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A326" s="116"/>
+      <c r="B326" s="119"/>
+      <c r="C326" s="109" t="s">
+        <v>691</v>
+      </c>
+      <c r="D326" s="116"/>
+      <c r="E326" s="116"/>
+      <c r="F326" s="116"/>
+    </row>
+    <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A327" s="117"/>
+      <c r="B327" s="120"/>
+      <c r="C327" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="D327" s="117"/>
+      <c r="E327" s="117"/>
+      <c r="F327" s="117"/>
+    </row>
+    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A328" s="115"/>
+      <c r="B328" s="118">
+        <v>8</v>
+      </c>
+      <c r="C328" s="108" t="s">
+        <v>588</v>
+      </c>
+      <c r="D328" s="115" t="s">
+        <v>514</v>
+      </c>
+      <c r="E328" s="115" t="s">
+        <v>697</v>
+      </c>
+      <c r="F328" s="115"/>
+    </row>
+    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A329" s="116"/>
+      <c r="B329" s="119"/>
+      <c r="C329" s="109" t="s">
+        <v>692</v>
+      </c>
+      <c r="D329" s="116"/>
+      <c r="E329" s="116"/>
+      <c r="F329" s="116"/>
+    </row>
+    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A330" s="116"/>
+      <c r="B330" s="119"/>
+      <c r="C330" s="109" t="s">
+        <v>693</v>
+      </c>
+      <c r="D330" s="116"/>
+      <c r="E330" s="116"/>
+      <c r="F330" s="116"/>
+    </row>
+    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A331" s="116"/>
+      <c r="B331" s="119"/>
+      <c r="C331" s="109" t="s">
+        <v>694</v>
+      </c>
+      <c r="D331" s="116"/>
+      <c r="E331" s="116"/>
+      <c r="F331" s="116"/>
+    </row>
+    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A332" s="116"/>
+      <c r="B332" s="119"/>
+      <c r="C332" s="109" t="s">
+        <v>695</v>
+      </c>
+      <c r="D332" s="116"/>
+      <c r="E332" s="116"/>
+      <c r="F332" s="116"/>
+    </row>
+    <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A333" s="116"/>
+      <c r="B333" s="119"/>
+      <c r="C333" s="109" t="s">
+        <v>696</v>
+      </c>
+      <c r="D333" s="116"/>
+      <c r="E333" s="116"/>
+      <c r="F333" s="116"/>
+    </row>
+    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A334" s="116"/>
+      <c r="B334" s="119"/>
+      <c r="C334" s="109" t="s">
+        <v>596</v>
+      </c>
+      <c r="D334" s="116"/>
+      <c r="E334" s="116"/>
+      <c r="F334" s="116"/>
+    </row>
+    <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A335" s="117"/>
+      <c r="B335" s="120"/>
+      <c r="C335" s="106" t="s">
+        <v>587</v>
+      </c>
+      <c r="D335" s="117"/>
+      <c r="E335" s="117"/>
+      <c r="F335" s="117"/>
+    </row>
+    <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A336" s="123"/>
+      <c r="B336" s="129">
+        <v>9</v>
+      </c>
+      <c r="C336" s="110" t="s">
+        <v>698</v>
+      </c>
+      <c r="D336" s="110" t="s">
+        <v>518</v>
+      </c>
+      <c r="E336" s="125"/>
+      <c r="F336" s="125"/>
+    </row>
+    <row r="337" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A337" s="123"/>
+      <c r="B337" s="124">
+        <v>10</v>
+      </c>
+      <c r="C337" s="125" t="s">
+        <v>519</v>
+      </c>
+      <c r="D337" s="110" t="s">
+        <v>520</v>
+      </c>
+      <c r="E337" s="123"/>
+      <c r="F337" s="123"/>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338" s="13"/>
+      <c r="B338" s="13"/>
+      <c r="C338" s="13"/>
+      <c r="D338" s="13"/>
+      <c r="E338" s="13"/>
+      <c r="F338" s="13"/>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339" s="13"/>
+      <c r="B339" s="13"/>
+      <c r="C339" s="13"/>
+      <c r="D339" s="13"/>
+      <c r="E339" s="13"/>
+      <c r="F339" s="13"/>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340" s="13"/>
+      <c r="B340" s="13"/>
+      <c r="C340" s="13"/>
+      <c r="D340" s="13"/>
+      <c r="E340" s="13"/>
+      <c r="F340" s="13"/>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341" s="13"/>
+      <c r="B341" s="13"/>
+      <c r="C341" s="13"/>
+      <c r="D341" s="13"/>
+      <c r="E341" s="13"/>
+      <c r="F341" s="13"/>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342" s="13"/>
+      <c r="B342" s="13"/>
+      <c r="C342" s="13"/>
+      <c r="D342" s="13"/>
+      <c r="E342" s="13"/>
+      <c r="F342" s="13"/>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343" s="13"/>
+      <c r="B343" s="13"/>
+      <c r="C343" s="13"/>
+      <c r="D343" s="13"/>
+      <c r="E343" s="13"/>
+      <c r="F343" s="13"/>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344" s="13"/>
+      <c r="B344" s="13"/>
+      <c r="C344" s="13"/>
+      <c r="D344" s="13"/>
+      <c r="E344" s="13"/>
+      <c r="F344" s="13"/>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345" s="13"/>
+      <c r="B345" s="13"/>
+      <c r="C345" s="13"/>
+      <c r="D345" s="13"/>
+      <c r="E345" s="13"/>
+      <c r="F345" s="13"/>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346" s="13"/>
+      <c r="B346" s="13"/>
+      <c r="C346" s="13"/>
+      <c r="D346" s="13"/>
+      <c r="E346" s="13"/>
+      <c r="F346" s="13"/>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347" s="13"/>
+      <c r="B347" s="13"/>
+      <c r="C347" s="13"/>
+      <c r="D347" s="13"/>
+      <c r="E347" s="13"/>
+      <c r="F347" s="13"/>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348" s="13"/>
+      <c r="B348" s="13"/>
+      <c r="C348" s="13"/>
+      <c r="D348" s="13"/>
+      <c r="E348" s="13"/>
+      <c r="F348" s="13"/>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349" s="13"/>
+      <c r="B349" s="13"/>
+      <c r="C349" s="13"/>
+      <c r="D349" s="13"/>
+      <c r="E349" s="13"/>
+      <c r="F349" s="13"/>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350" s="13"/>
+      <c r="B350" s="13"/>
+      <c r="C350" s="13"/>
+      <c r="D350" s="13"/>
+      <c r="E350" s="13"/>
+      <c r="F350" s="13"/>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351" s="13"/>
+      <c r="B351" s="13"/>
+      <c r="C351" s="13"/>
+      <c r="D351" s="13"/>
+      <c r="E351" s="13"/>
+      <c r="F351" s="13"/>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352" s="13"/>
+      <c r="B352" s="13"/>
+      <c r="C352" s="13"/>
+      <c r="D352" s="13"/>
+      <c r="E352" s="13"/>
+      <c r="F352" s="13"/>
+    </row>
     <row r="353" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="354" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="355" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
@@ -16056,15 +16319,25 @@
     <row r="602" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="603" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
     <row r="604" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="605" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="606" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="607" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="608" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="609" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="610" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <mergeCells count="119">
-    <mergeCell ref="A264:F264"/>
+  <mergeCells count="148">
+    <mergeCell ref="A328:A335"/>
+    <mergeCell ref="B328:B335"/>
+    <mergeCell ref="D328:D335"/>
+    <mergeCell ref="E328:E335"/>
+    <mergeCell ref="F328:F335"/>
+    <mergeCell ref="E274:E281"/>
+    <mergeCell ref="F274:F281"/>
+    <mergeCell ref="A282:A286"/>
+    <mergeCell ref="B282:B286"/>
+    <mergeCell ref="D282:D286"/>
+    <mergeCell ref="E282:E286"/>
+    <mergeCell ref="F282:F286"/>
+    <mergeCell ref="A320:A327"/>
+    <mergeCell ref="B320:B327"/>
+    <mergeCell ref="D320:D327"/>
+    <mergeCell ref="E320:E327"/>
+    <mergeCell ref="F320:F327"/>
     <mergeCell ref="A299:A315"/>
     <mergeCell ref="B299:B315"/>
     <mergeCell ref="C299:C315"/>
@@ -16075,6 +16348,19 @@
     <mergeCell ref="C249:C253"/>
     <mergeCell ref="E249:E253"/>
     <mergeCell ref="F249:F253"/>
+    <mergeCell ref="A255:A262"/>
+    <mergeCell ref="B255:B262"/>
+    <mergeCell ref="D255:D262"/>
+    <mergeCell ref="E255:E262"/>
+    <mergeCell ref="F255:F262"/>
+    <mergeCell ref="A266:A273"/>
+    <mergeCell ref="B266:B273"/>
+    <mergeCell ref="D266:D273"/>
+    <mergeCell ref="E266:E273"/>
+    <mergeCell ref="F266:F273"/>
+    <mergeCell ref="A274:A281"/>
+    <mergeCell ref="B274:B281"/>
+    <mergeCell ref="D274:D281"/>
     <mergeCell ref="A233:F233"/>
     <mergeCell ref="A235:A239"/>
     <mergeCell ref="B235:B239"/>
@@ -16197,7 +16483,7 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -16213,20 +16499,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -16245,13 +16531,13 @@
       <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -16276,15 +16562,15 @@
       </c>
       <c r="D6" s="8"/>
       <c r="E6" s="8" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>469</v>
@@ -16306,15 +16592,15 @@
       </c>
       <c r="D8" s="8"/>
       <c r="E8" s="8" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>470</v>
@@ -16335,10 +16621,10 @@
       </c>
       <c r="D10" s="8"/>
       <c r="E10" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F10" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
@@ -16351,15 +16637,15 @@
       </c>
       <c r="D11" s="8"/>
       <c r="E11" s="8" t="s">
-        <v>682</v>
+        <v>663</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>473</v>
@@ -16380,15 +16666,15 @@
       </c>
       <c r="D13" s="8"/>
       <c r="E13" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F13" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>475</v>
@@ -16409,24 +16695,24 @@
       </c>
       <c r="D15" s="8"/>
       <c r="E15" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F15" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="72" t="s">
+      <c r="A16" s="74" t="s">
         <v>477</v>
       </c>
-      <c r="B16" s="73"/>
-      <c r="C16" s="73"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="73"/>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>478</v>
@@ -16447,21 +16733,21 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="62" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F18" s="64" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B19" s="6" t="s">
         <v>480</v>
@@ -16482,21 +16768,21 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="62" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F20" s="64" t="s">
-        <v>685</v>
+        <v>666</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>482</v>
@@ -16517,18 +16803,18 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="62" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>692</v>
+        <v>673</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>695</v>
+        <v>676</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>484</v>
@@ -16549,15 +16835,15 @@
       </c>
       <c r="D24" s="8"/>
       <c r="E24" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F24" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="25" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>486</v>
@@ -16578,15 +16864,15 @@
       </c>
       <c r="D26" s="8"/>
       <c r="E26" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F26" s="66" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B27" s="6" t="s">
         <v>488</v>
@@ -16607,27 +16893,27 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="62" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>696</v>
+        <v>677</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>688</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="72" t="s">
+      <c r="A29" s="74" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="73"/>
-      <c r="C29" s="73"/>
-      <c r="D29" s="73"/>
-      <c r="E29" s="73"/>
+      <c r="B29" s="75"/>
+      <c r="C29" s="75"/>
+      <c r="D29" s="75"/>
+      <c r="E29" s="75"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>491</v>
@@ -16648,15 +16934,15 @@
       </c>
       <c r="D31" s="8"/>
       <c r="E31" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F31" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>493</v>
@@ -16677,18 +16963,18 @@
       </c>
       <c r="D33" s="8"/>
       <c r="E33" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F33" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="G33" t="s">
-        <v>691</v>
+        <v>672</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="5" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>494</v>
@@ -16709,15 +16995,15 @@
       </c>
       <c r="D35" s="8"/>
       <c r="E35" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F35" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="5" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B36" s="6" t="s">
         <v>496</v>
@@ -16738,15 +17024,15 @@
       </c>
       <c r="D37" s="8"/>
       <c r="E37" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F37" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="5" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>498</v>
@@ -16767,27 +17053,27 @@
       </c>
       <c r="D39" s="8"/>
       <c r="E39" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F39" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
       <c r="G39" t="s">
-        <v>697</v>
+        <v>678</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="72" t="s">
+      <c r="A40" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="B40" s="73"/>
-      <c r="C40" s="73"/>
-      <c r="D40" s="73"/>
-      <c r="E40" s="73"/>
+      <c r="B40" s="75"/>
+      <c r="C40" s="75"/>
+      <c r="D40" s="75"/>
+      <c r="E40" s="75"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>501</v>
@@ -16808,15 +17094,15 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="62" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>503</v>
@@ -16837,15 +17123,15 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="62" t="s">
-        <v>690</v>
+        <v>671</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>694</v>
+        <v>675</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="5" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>504</v>
@@ -16866,15 +17152,15 @@
       </c>
       <c r="D46" s="8"/>
       <c r="E46" s="62" t="s">
-        <v>683</v>
+        <v>664</v>
       </c>
       <c r="F46" s="65" t="s">
-        <v>687</v>
+        <v>668</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>506</v>
@@ -16895,10 +17181,10 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="62" t="s">
-        <v>693</v>
+        <v>674</v>
       </c>
       <c r="F48" t="s">
-        <v>698</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -16921,8 +17207,8 @@
   </sheetPr>
   <dimension ref="A1:G26"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B40" sqref="B40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16936,20 +17222,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="72" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="70"/>
-      <c r="C1" s="70"/>
-      <c r="D1" s="70"/>
-      <c r="E1" s="70"/>
+      <c r="B1" s="72"/>
+      <c r="C1" s="72"/>
+      <c r="D1" s="72"/>
+      <c r="E1" s="72"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="71"/>
-      <c r="B2" s="71"/>
-      <c r="C2" s="71"/>
-      <c r="D2" s="71"/>
-      <c r="E2" s="71"/>
+      <c r="A2" s="73"/>
+      <c r="B2" s="73"/>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+      <c r="E2" s="73"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -16965,18 +17251,18 @@
         <v>463</v>
       </c>
       <c r="E3" s="1"/>
-      <c r="G3" s="104" t="s">
-        <v>699</v>
+      <c r="G3" s="69" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="74" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
+      <c r="B4" s="75"/>
+      <c r="C4" s="75"/>
+      <c r="D4" s="75"/>
+      <c r="E4" s="75"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -17004,7 +17290,7 @@
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B7" s="6" t="s">
         <v>469</v>
@@ -17029,7 +17315,7 @@
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B9" s="6" t="s">
         <v>470</v>
@@ -17052,17 +17338,17 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="72" t="s">
+      <c r="A11" s="74" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="73"/>
-      <c r="C11" s="73"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="73"/>
+      <c r="B11" s="75"/>
+      <c r="C11" s="75"/>
+      <c r="D11" s="75"/>
+      <c r="E11" s="75"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B12" s="6" t="s">
         <v>478</v>
@@ -17082,12 +17368,12 @@
         <v>468</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="103"/>
+      <c r="E13" s="68"/>
       <c r="F13" s="64"/>
     </row>
     <row r="14" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A14" s="5" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B14" s="6" t="s">
         <v>480</v>
@@ -17111,7 +17397,7 @@
     </row>
     <row r="16" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A16" s="5" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B16" s="6" t="s">
         <v>482</v>
@@ -17135,7 +17421,7 @@
     </row>
     <row r="18" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B18" s="6" t="s">
         <v>488</v>
@@ -17158,17 +17444,17 @@
       <c r="E19" s="8"/>
     </row>
     <row r="20" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="72" t="s">
+      <c r="A20" s="74" t="s">
         <v>500</v>
       </c>
-      <c r="B20" s="73"/>
-      <c r="C20" s="73"/>
-      <c r="D20" s="73"/>
-      <c r="E20" s="73"/>
+      <c r="B20" s="75"/>
+      <c r="C20" s="75"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="75"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B21" s="6" t="s">
         <v>501</v>
@@ -17192,7 +17478,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B23" s="6" t="s">
         <v>503</v>
@@ -17216,7 +17502,7 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B25" s="6" t="s">
         <v>506</v>

--- a/Config/SAMO.xlsx
+++ b/Config/SAMO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B97A1ED-A80A-44DD-8FFF-24CE19E548E7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583BF83-7A3F-4EEB-9335-A95C69D61B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Application - Portal_TS" sheetId="9" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2330" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="701">
   <si>
     <t xml:space="preserve">CXE </t>
   </si>
@@ -2757,9 +2757,6 @@
     <t>CAN - 0140090545</t>
   </si>
   <si>
-    <t>Step 7 is not available in the current UI</t>
-  </si>
-  <si>
     <t>ONGOING</t>
   </si>
   <si>
@@ -2848,6 +2845,9 @@
   </si>
   <si>
     <t>Test Design updated Based on current UI - Janauary 5, 2023</t>
+  </si>
+  <si>
+    <t>Automated - January 11, 2023</t>
   </si>
 </sst>
 </file>
@@ -3420,6 +3420,58 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -3456,44 +3508,44 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -3516,87 +3568,35 @@
     <xf numFmtId="0" fontId="3" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3931,20 +3931,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -3960,22 +3960,22 @@
       <c r="E3" s="1"/>
     </row>
     <row r="4" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A5" s="70" t="s">
+      <c r="A5" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="71"/>
-      <c r="C5" s="71"/>
-      <c r="D5" s="71"/>
-      <c r="E5" s="71"/>
+      <c r="B5" s="89"/>
+      <c r="C5" s="89"/>
+      <c r="D5" s="89"/>
+      <c r="E5" s="89"/>
     </row>
     <row r="6" spans="1:5" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
@@ -4099,13 +4099,13 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="70" t="s">
+      <c r="A16" s="88" t="s">
         <v>22</v>
       </c>
-      <c r="B16" s="71"/>
-      <c r="C16" s="71"/>
-      <c r="D16" s="71"/>
-      <c r="E16" s="71"/>
+      <c r="B16" s="89"/>
+      <c r="C16" s="89"/>
+      <c r="D16" s="89"/>
+      <c r="E16" s="89"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="str">
@@ -4169,13 +4169,13 @@
       <c r="E21" s="8"/>
     </row>
     <row r="22" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="70" t="s">
+      <c r="A22" s="88" t="s">
         <v>28</v>
       </c>
-      <c r="B22" s="71"/>
-      <c r="C22" s="71"/>
-      <c r="D22" s="71"/>
-      <c r="E22" s="71"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="89"/>
+      <c r="E22" s="89"/>
     </row>
     <row r="23" spans="1:5" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="str">
@@ -4228,13 +4228,13 @@
       <c r="E26" s="8"/>
     </row>
     <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="70" t="s">
+      <c r="A27" s="88" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="71"/>
-      <c r="C27" s="71"/>
-      <c r="D27" s="71"/>
-      <c r="E27" s="71"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="89"/>
+      <c r="E27" s="89"/>
     </row>
     <row r="28" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="5" t="str">
@@ -4316,14 +4316,14 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="76" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="78"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="96"/>
     </row>
     <row r="3" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B3" s="51">
@@ -4601,172 +4601,172 @@
       </c>
     </row>
     <row r="28" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="79"/>
-      <c r="B28" s="79">
+      <c r="A28" s="97"/>
+      <c r="B28" s="97">
         <v>26</v>
       </c>
-      <c r="C28" s="80" t="s">
+      <c r="C28" s="98" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="80" t="s">
+      <c r="D28" s="98" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="29" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="79"/>
-      <c r="B29" s="79"/>
-      <c r="C29" s="80"/>
-      <c r="D29" s="80"/>
+      <c r="A29" s="97"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="98"/>
+      <c r="D29" s="98"/>
     </row>
     <row r="30" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="79"/>
-      <c r="B30" s="79"/>
-      <c r="C30" s="80"/>
-      <c r="D30" s="80"/>
+      <c r="A30" s="97"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="98"/>
     </row>
     <row r="31" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="79"/>
-      <c r="B31" s="79"/>
-      <c r="C31" s="80"/>
-      <c r="D31" s="80"/>
+      <c r="A31" s="97"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="98"/>
+      <c r="D31" s="98"/>
     </row>
     <row r="32" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="79"/>
-      <c r="B32" s="79"/>
-      <c r="C32" s="80"/>
-      <c r="D32" s="80"/>
+      <c r="A32" s="97"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="98"/>
+      <c r="D32" s="98"/>
     </row>
     <row r="33" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="79"/>
-      <c r="B33" s="79"/>
-      <c r="C33" s="80"/>
-      <c r="D33" s="80"/>
+      <c r="A33" s="97"/>
+      <c r="B33" s="97"/>
+      <c r="C33" s="98"/>
+      <c r="D33" s="98"/>
     </row>
     <row r="34" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="79"/>
-      <c r="B34" s="79"/>
-      <c r="C34" s="80"/>
-      <c r="D34" s="80"/>
+      <c r="A34" s="97"/>
+      <c r="B34" s="97"/>
+      <c r="C34" s="98"/>
+      <c r="D34" s="98"/>
     </row>
     <row r="35" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="79"/>
-      <c r="B35" s="79"/>
-      <c r="C35" s="80"/>
-      <c r="D35" s="80"/>
+      <c r="A35" s="97"/>
+      <c r="B35" s="97"/>
+      <c r="C35" s="98"/>
+      <c r="D35" s="98"/>
     </row>
     <row r="36" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="79"/>
-      <c r="B36" s="79"/>
-      <c r="C36" s="80"/>
-      <c r="D36" s="80"/>
+      <c r="A36" s="97"/>
+      <c r="B36" s="97"/>
+      <c r="C36" s="98"/>
+      <c r="D36" s="98"/>
     </row>
     <row r="37" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="79"/>
-      <c r="B37" s="79"/>
-      <c r="C37" s="80"/>
-      <c r="D37" s="80"/>
+      <c r="A37" s="97"/>
+      <c r="B37" s="97"/>
+      <c r="C37" s="98"/>
+      <c r="D37" s="98"/>
     </row>
     <row r="38" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="79"/>
-      <c r="B38" s="79"/>
-      <c r="C38" s="80"/>
-      <c r="D38" s="80"/>
+      <c r="A38" s="97"/>
+      <c r="B38" s="97"/>
+      <c r="C38" s="98"/>
+      <c r="D38" s="98"/>
     </row>
     <row r="39" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="79"/>
-      <c r="B39" s="79"/>
-      <c r="C39" s="80"/>
-      <c r="D39" s="80"/>
+      <c r="A39" s="97"/>
+      <c r="B39" s="97"/>
+      <c r="C39" s="98"/>
+      <c r="D39" s="98"/>
     </row>
     <row r="40" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="79"/>
-      <c r="B40" s="79"/>
-      <c r="C40" s="80"/>
-      <c r="D40" s="80"/>
+      <c r="A40" s="97"/>
+      <c r="B40" s="97"/>
+      <c r="C40" s="98"/>
+      <c r="D40" s="98"/>
     </row>
     <row r="41" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="79"/>
-      <c r="B41" s="79"/>
-      <c r="C41" s="80"/>
-      <c r="D41" s="80"/>
+      <c r="A41" s="97"/>
+      <c r="B41" s="97"/>
+      <c r="C41" s="98"/>
+      <c r="D41" s="98"/>
     </row>
     <row r="42" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="79"/>
-      <c r="B42" s="79"/>
-      <c r="C42" s="80"/>
-      <c r="D42" s="80"/>
+      <c r="A42" s="97"/>
+      <c r="B42" s="97"/>
+      <c r="C42" s="98"/>
+      <c r="D42" s="98"/>
     </row>
     <row r="43" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="79"/>
-      <c r="B43" s="79"/>
-      <c r="C43" s="80"/>
-      <c r="D43" s="80"/>
+      <c r="A43" s="97"/>
+      <c r="B43" s="97"/>
+      <c r="C43" s="98"/>
+      <c r="D43" s="98"/>
     </row>
     <row r="44" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="79"/>
-      <c r="B44" s="79"/>
-      <c r="C44" s="80"/>
-      <c r="D44" s="80"/>
+      <c r="A44" s="97"/>
+      <c r="B44" s="97"/>
+      <c r="C44" s="98"/>
+      <c r="D44" s="98"/>
     </row>
     <row r="45" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="79"/>
-      <c r="B45" s="79"/>
-      <c r="C45" s="80"/>
-      <c r="D45" s="80"/>
+      <c r="A45" s="97"/>
+      <c r="B45" s="97"/>
+      <c r="C45" s="98"/>
+      <c r="D45" s="98"/>
     </row>
     <row r="46" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="79"/>
-      <c r="B46" s="79"/>
-      <c r="C46" s="80"/>
-      <c r="D46" s="80"/>
+      <c r="A46" s="97"/>
+      <c r="B46" s="97"/>
+      <c r="C46" s="98"/>
+      <c r="D46" s="98"/>
     </row>
     <row r="47" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="79"/>
-      <c r="B47" s="79"/>
-      <c r="C47" s="80"/>
-      <c r="D47" s="80"/>
+      <c r="A47" s="97"/>
+      <c r="B47" s="97"/>
+      <c r="C47" s="98"/>
+      <c r="D47" s="98"/>
     </row>
     <row r="48" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="79"/>
-      <c r="B48" s="79"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
+      <c r="A48" s="97"/>
+      <c r="B48" s="97"/>
+      <c r="C48" s="98"/>
+      <c r="D48" s="98"/>
     </row>
     <row r="49" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="79"/>
-      <c r="B49" s="79"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
+      <c r="A49" s="97"/>
+      <c r="B49" s="97"/>
+      <c r="C49" s="98"/>
+      <c r="D49" s="98"/>
     </row>
     <row r="50" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="79"/>
-      <c r="B50" s="79"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
+      <c r="A50" s="97"/>
+      <c r="B50" s="97"/>
+      <c r="C50" s="98"/>
+      <c r="D50" s="98"/>
     </row>
     <row r="51" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="79"/>
-      <c r="B51" s="79"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
+      <c r="A51" s="97"/>
+      <c r="B51" s="97"/>
+      <c r="C51" s="98"/>
+      <c r="D51" s="98"/>
     </row>
     <row r="52" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="79"/>
-      <c r="B52" s="79"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
+      <c r="A52" s="97"/>
+      <c r="B52" s="97"/>
+      <c r="C52" s="98"/>
+      <c r="D52" s="98"/>
     </row>
     <row r="53" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="79"/>
-      <c r="B53" s="79"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
+      <c r="A53" s="97"/>
+      <c r="B53" s="97"/>
+      <c r="C53" s="98"/>
+      <c r="D53" s="98"/>
     </row>
     <row r="54" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="79"/>
-      <c r="B54" s="79"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
+      <c r="A54" s="97"/>
+      <c r="B54" s="97"/>
+      <c r="C54" s="98"/>
+      <c r="D54" s="98"/>
     </row>
     <row r="55" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B55" s="51">
@@ -5084,112 +5084,112 @@
       </c>
     </row>
     <row r="84" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A84" s="79"/>
-      <c r="B84" s="79">
+      <c r="A84" s="97"/>
+      <c r="B84" s="97">
         <v>56</v>
       </c>
-      <c r="C84" s="81" t="s">
+      <c r="C84" s="99" t="s">
         <v>146</v>
       </c>
-      <c r="D84" s="80" t="s">
+      <c r="D84" s="98" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="85" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A85" s="79"/>
-      <c r="B85" s="79"/>
-      <c r="C85" s="81"/>
-      <c r="D85" s="80"/>
+      <c r="A85" s="97"/>
+      <c r="B85" s="97"/>
+      <c r="C85" s="99"/>
+      <c r="D85" s="98"/>
     </row>
     <row r="86" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A86" s="79"/>
-      <c r="B86" s="79"/>
-      <c r="C86" s="81"/>
-      <c r="D86" s="80"/>
+      <c r="A86" s="97"/>
+      <c r="B86" s="97"/>
+      <c r="C86" s="99"/>
+      <c r="D86" s="98"/>
     </row>
     <row r="87" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A87" s="79"/>
-      <c r="B87" s="79"/>
-      <c r="C87" s="81"/>
-      <c r="D87" s="80"/>
+      <c r="A87" s="97"/>
+      <c r="B87" s="97"/>
+      <c r="C87" s="99"/>
+      <c r="D87" s="98"/>
     </row>
     <row r="88" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A88" s="79"/>
-      <c r="B88" s="79"/>
-      <c r="C88" s="81"/>
-      <c r="D88" s="80"/>
+      <c r="A88" s="97"/>
+      <c r="B88" s="97"/>
+      <c r="C88" s="99"/>
+      <c r="D88" s="98"/>
     </row>
     <row r="89" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A89" s="79"/>
-      <c r="B89" s="79"/>
-      <c r="C89" s="81"/>
-      <c r="D89" s="80"/>
+      <c r="A89" s="97"/>
+      <c r="B89" s="97"/>
+      <c r="C89" s="99"/>
+      <c r="D89" s="98"/>
     </row>
     <row r="90" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A90" s="79"/>
-      <c r="B90" s="79"/>
-      <c r="C90" s="81"/>
-      <c r="D90" s="80"/>
+      <c r="A90" s="97"/>
+      <c r="B90" s="97"/>
+      <c r="C90" s="99"/>
+      <c r="D90" s="98"/>
     </row>
     <row r="91" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="79"/>
-      <c r="B91" s="79"/>
-      <c r="C91" s="81"/>
-      <c r="D91" s="80"/>
+      <c r="A91" s="97"/>
+      <c r="B91" s="97"/>
+      <c r="C91" s="99"/>
+      <c r="D91" s="98"/>
     </row>
     <row r="92" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A92" s="79"/>
-      <c r="B92" s="79"/>
-      <c r="C92" s="81"/>
-      <c r="D92" s="80"/>
+      <c r="A92" s="97"/>
+      <c r="B92" s="97"/>
+      <c r="C92" s="99"/>
+      <c r="D92" s="98"/>
     </row>
     <row r="93" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A93" s="79"/>
-      <c r="B93" s="79"/>
-      <c r="C93" s="81"/>
-      <c r="D93" s="80"/>
+      <c r="A93" s="97"/>
+      <c r="B93" s="97"/>
+      <c r="C93" s="99"/>
+      <c r="D93" s="98"/>
     </row>
     <row r="94" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A94" s="79"/>
-      <c r="B94" s="79"/>
-      <c r="C94" s="81"/>
-      <c r="D94" s="80"/>
+      <c r="A94" s="97"/>
+      <c r="B94" s="97"/>
+      <c r="C94" s="99"/>
+      <c r="D94" s="98"/>
     </row>
     <row r="95" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A95" s="79"/>
-      <c r="B95" s="79"/>
-      <c r="C95" s="81"/>
-      <c r="D95" s="80"/>
+      <c r="A95" s="97"/>
+      <c r="B95" s="97"/>
+      <c r="C95" s="99"/>
+      <c r="D95" s="98"/>
     </row>
     <row r="96" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A96" s="79"/>
-      <c r="B96" s="79"/>
-      <c r="C96" s="81"/>
-      <c r="D96" s="80"/>
+      <c r="A96" s="97"/>
+      <c r="B96" s="97"/>
+      <c r="C96" s="99"/>
+      <c r="D96" s="98"/>
     </row>
     <row r="97" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A97" s="79"/>
-      <c r="B97" s="79"/>
-      <c r="C97" s="81"/>
-      <c r="D97" s="80"/>
+      <c r="A97" s="97"/>
+      <c r="B97" s="97"/>
+      <c r="C97" s="99"/>
+      <c r="D97" s="98"/>
     </row>
     <row r="98" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="79"/>
-      <c r="B98" s="79"/>
-      <c r="C98" s="81"/>
-      <c r="D98" s="80"/>
+      <c r="A98" s="97"/>
+      <c r="B98" s="97"/>
+      <c r="C98" s="99"/>
+      <c r="D98" s="98"/>
     </row>
     <row r="99" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A99" s="79"/>
-      <c r="B99" s="79"/>
-      <c r="C99" s="81"/>
-      <c r="D99" s="80"/>
+      <c r="A99" s="97"/>
+      <c r="B99" s="97"/>
+      <c r="C99" s="99"/>
+      <c r="D99" s="98"/>
     </row>
     <row r="100" spans="1:4" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="79"/>
-      <c r="B100" s="79"/>
-      <c r="C100" s="81"/>
-      <c r="D100" s="80"/>
+      <c r="A100" s="97"/>
+      <c r="B100" s="97"/>
+      <c r="C100" s="99"/>
+      <c r="D100" s="98"/>
     </row>
     <row r="101" spans="1:4" ht="63.75" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B101" s="51">
@@ -5489,14 +5489,14 @@
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="76" t="s">
+      <c r="A128" s="94" t="s">
         <v>12</v>
       </c>
-      <c r="B128" s="77"/>
-      <c r="C128" s="77"/>
-      <c r="D128" s="77"/>
-      <c r="E128" s="77"/>
-      <c r="F128" s="78"/>
+      <c r="B128" s="95"/>
+      <c r="C128" s="95"/>
+      <c r="D128" s="95"/>
+      <c r="E128" s="95"/>
+      <c r="F128" s="96"/>
     </row>
     <row r="129" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B129" s="51">
@@ -6421,14 +6421,14 @@
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A213" s="76" t="s">
+      <c r="A213" s="94" t="s">
         <v>17</v>
       </c>
-      <c r="B213" s="77"/>
-      <c r="C213" s="77"/>
-      <c r="D213" s="77"/>
-      <c r="E213" s="77"/>
-      <c r="F213" s="78"/>
+      <c r="B213" s="95"/>
+      <c r="C213" s="95"/>
+      <c r="D213" s="95"/>
+      <c r="E213" s="95"/>
+      <c r="F213" s="96"/>
     </row>
     <row r="214" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B214" s="51">
@@ -7025,14 +7025,14 @@
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A268" s="76" t="s">
+      <c r="A268" s="94" t="s">
         <v>21</v>
       </c>
-      <c r="B268" s="77"/>
-      <c r="C268" s="77"/>
-      <c r="D268" s="77"/>
-      <c r="E268" s="77"/>
-      <c r="F268" s="78"/>
+      <c r="B268" s="95"/>
+      <c r="C268" s="95"/>
+      <c r="D268" s="95"/>
+      <c r="E268" s="95"/>
+      <c r="F268" s="96"/>
     </row>
     <row r="269" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B269" s="51">
@@ -8056,14 +8056,14 @@
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="76" t="s">
+      <c r="A362" s="94" t="s">
         <v>25</v>
       </c>
-      <c r="B362" s="77"/>
-      <c r="C362" s="77"/>
-      <c r="D362" s="77"/>
-      <c r="E362" s="77"/>
-      <c r="F362" s="78"/>
+      <c r="B362" s="95"/>
+      <c r="C362" s="95"/>
+      <c r="D362" s="95"/>
+      <c r="E362" s="95"/>
+      <c r="F362" s="96"/>
     </row>
     <row r="363" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B363" s="51">
@@ -8845,14 +8845,14 @@
       </c>
     </row>
     <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="76" t="s">
+      <c r="A434" s="94" t="s">
         <v>30</v>
       </c>
-      <c r="B434" s="77"/>
-      <c r="C434" s="77"/>
-      <c r="D434" s="77"/>
-      <c r="E434" s="77"/>
-      <c r="F434" s="78"/>
+      <c r="B434" s="95"/>
+      <c r="C434" s="95"/>
+      <c r="D434" s="95"/>
+      <c r="E434" s="95"/>
+      <c r="F434" s="96"/>
     </row>
     <row r="435" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B435" s="51">
@@ -9526,14 +9526,14 @@
       </c>
     </row>
     <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="76" t="s">
+      <c r="A496" s="94" t="s">
         <v>32</v>
       </c>
-      <c r="B496" s="77"/>
-      <c r="C496" s="77"/>
-      <c r="D496" s="77"/>
-      <c r="E496" s="77"/>
-      <c r="F496" s="78"/>
+      <c r="B496" s="95"/>
+      <c r="C496" s="95"/>
+      <c r="D496" s="95"/>
+      <c r="E496" s="95"/>
+      <c r="F496" s="96"/>
     </row>
     <row r="497" spans="2:4" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B497" s="51">
@@ -10469,14 +10469,14 @@
       </c>
     </row>
     <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582" s="76" t="s">
+      <c r="A582" s="94" t="s">
         <v>35</v>
       </c>
-      <c r="B582" s="77"/>
-      <c r="C582" s="77"/>
-      <c r="D582" s="77"/>
-      <c r="E582" s="77"/>
-      <c r="F582" s="78"/>
+      <c r="B582" s="95"/>
+      <c r="C582" s="95"/>
+      <c r="D582" s="95"/>
+      <c r="E582" s="95"/>
+      <c r="F582" s="96"/>
     </row>
     <row r="583" spans="1:6" outlineLevel="1" x14ac:dyDescent="0.25">
       <c r="B583" s="51">
@@ -11003,8 +11003,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11018,20 +11018,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -11050,13 +11050,13 @@
       <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -11071,7 +11071,7 @@
       </c>
       <c r="E5" s="5"/>
     </row>
-    <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="8"/>
       <c r="B6" s="9" t="s">
         <v>467</v>
@@ -11080,7 +11080,12 @@
         <v>468</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="8"/>
+      <c r="E6" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="G6" s="72" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
@@ -11096,7 +11101,7 @@
       <c r="E7" s="5"/>
       <c r="G7" s="58"/>
     </row>
-    <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="8"/>
       <c r="B8" s="9" t="s">
         <v>467</v>
@@ -11105,7 +11110,12 @@
         <v>468</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="8"/>
+      <c r="E8" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="G8" s="72" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
@@ -11133,7 +11143,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="8"/>
       <c r="B11" s="9" t="s">
         <v>467</v>
@@ -11142,7 +11152,12 @@
         <v>468</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="8"/>
+      <c r="E11" s="67" t="s">
+        <v>665</v>
+      </c>
+      <c r="G11" s="72" t="s">
+        <v>680</v>
+      </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -11197,13 +11212,13 @@
       <c r="E15" s="8"/>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -11356,13 +11371,13 @@
       <c r="E28" s="8"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -11495,13 +11510,13 @@
       <c r="E39" s="8"/>
     </row>
     <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -11517,8 +11532,8 @@
       <c r="E41" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="G41" s="105" t="s">
-        <v>681</v>
+      <c r="G41" s="72" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
@@ -11546,8 +11561,8 @@
       <c r="E43" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="G43" s="105" t="s">
-        <v>681</v>
+      <c r="G43" s="72" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
@@ -11599,8 +11614,8 @@
         <v>466</v>
       </c>
       <c r="E47" s="5"/>
-      <c r="G47" s="105" t="s">
-        <v>681</v>
+      <c r="G47" s="72" t="s">
+        <v>680</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
@@ -11632,10 +11647,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H604"/>
+  <dimension ref="A1:H594"/>
   <sheetViews>
-    <sheetView topLeftCell="A243" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D320" sqref="D320:D327"/>
+    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B159" sqref="B159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -11670,14 +11685,14 @@
       </c>
     </row>
     <row r="2" spans="1:8" s="27" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="90" t="s">
+      <c r="A2" s="128" t="s">
         <v>467</v>
       </c>
-      <c r="B2" s="90"/>
-      <c r="C2" s="90"/>
-      <c r="D2" s="90"/>
-      <c r="E2" s="90"/>
-      <c r="F2" s="90"/>
+      <c r="B2" s="128"/>
+      <c r="C2" s="128"/>
+      <c r="D2" s="128"/>
+      <c r="E2" s="128"/>
+      <c r="F2" s="128"/>
     </row>
     <row r="3" spans="1:8" s="27" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
@@ -11800,14 +11815,14 @@
       <c r="F9" s="28"/>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="90" t="s">
+      <c r="A10" s="128" t="s">
         <v>471</v>
       </c>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
+      <c r="B10" s="128"/>
+      <c r="C10" s="128"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="128"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="33" t="s">
@@ -11939,14 +11954,14 @@
       <c r="G17" s="35"/>
     </row>
     <row r="18" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="83" t="s">
+      <c r="A18" s="126" t="s">
         <v>474</v>
       </c>
-      <c r="B18" s="83"/>
-      <c r="C18" s="83"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="83"/>
-      <c r="F18" s="83"/>
+      <c r="B18" s="126"/>
+      <c r="C18" s="126"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
       <c r="G18" s="35"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
@@ -11967,65 +11982,65 @@
       <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="84" t="s">
+      <c r="A20" s="120" t="s">
         <v>625</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="C20" s="84" t="s">
+      <c r="C20" s="120" t="s">
         <v>530</v>
       </c>
       <c r="D20" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E20" s="84"/>
-      <c r="F20" s="84"/>
-      <c r="G20" s="82"/>
+      <c r="E20" s="120"/>
+      <c r="F20" s="120"/>
+      <c r="G20" s="127"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="85"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="85"/>
+      <c r="A21" s="121"/>
+      <c r="B21" s="124"/>
+      <c r="C21" s="121"/>
       <c r="D21" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E21" s="85"/>
-      <c r="F21" s="85"/>
-      <c r="G21" s="82"/>
+      <c r="E21" s="121"/>
+      <c r="F21" s="121"/>
+      <c r="G21" s="127"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="85"/>
-      <c r="B22" s="88"/>
-      <c r="C22" s="85"/>
+      <c r="A22" s="121"/>
+      <c r="B22" s="124"/>
+      <c r="C22" s="121"/>
       <c r="D22" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E22" s="85"/>
-      <c r="F22" s="85"/>
-      <c r="G22" s="82"/>
+      <c r="E22" s="121"/>
+      <c r="F22" s="121"/>
+      <c r="G22" s="127"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="85"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="85"/>
+      <c r="A23" s="121"/>
+      <c r="B23" s="124"/>
+      <c r="C23" s="121"/>
       <c r="D23" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E23" s="85"/>
-      <c r="F23" s="85"/>
-      <c r="G23" s="82"/>
+      <c r="E23" s="121"/>
+      <c r="F23" s="121"/>
+      <c r="G23" s="127"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="86"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="86"/>
+      <c r="A24" s="122"/>
+      <c r="B24" s="125"/>
+      <c r="C24" s="122"/>
       <c r="D24" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E24" s="86"/>
-      <c r="F24" s="86"/>
-      <c r="G24" s="82"/>
+      <c r="E24" s="122"/>
+      <c r="F24" s="122"/>
+      <c r="G24" s="127"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="39" t="s">
@@ -12133,14 +12148,14 @@
       <c r="G30" s="45"/>
     </row>
     <row r="31" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="83" t="s">
+      <c r="A31" s="126" t="s">
         <v>476</v>
       </c>
-      <c r="B31" s="83"/>
-      <c r="C31" s="83"/>
-      <c r="D31" s="83"/>
-      <c r="E31" s="83"/>
-      <c r="F31" s="83"/>
+      <c r="B31" s="126"/>
+      <c r="C31" s="126"/>
+      <c r="D31" s="126"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="126"/>
       <c r="G31" s="35"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -12161,65 +12176,65 @@
       <c r="G32" s="35"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A33" s="84" t="s">
+      <c r="A33" s="120" t="s">
         <v>626</v>
       </c>
-      <c r="B33" s="87" t="s">
+      <c r="B33" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="C33" s="84" t="s">
+      <c r="C33" s="120" t="s">
         <v>538</v>
       </c>
       <c r="D33" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E33" s="84"/>
-      <c r="F33" s="84"/>
-      <c r="G33" s="82"/>
+      <c r="E33" s="120"/>
+      <c r="F33" s="120"/>
+      <c r="G33" s="127"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A34" s="85"/>
-      <c r="B34" s="88"/>
-      <c r="C34" s="85"/>
+      <c r="A34" s="121"/>
+      <c r="B34" s="124"/>
+      <c r="C34" s="121"/>
       <c r="D34" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E34" s="85"/>
-      <c r="F34" s="85"/>
-      <c r="G34" s="82"/>
+      <c r="E34" s="121"/>
+      <c r="F34" s="121"/>
+      <c r="G34" s="127"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A35" s="85"/>
-      <c r="B35" s="88"/>
-      <c r="C35" s="85"/>
+      <c r="A35" s="121"/>
+      <c r="B35" s="124"/>
+      <c r="C35" s="121"/>
       <c r="D35" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E35" s="85"/>
-      <c r="F35" s="85"/>
-      <c r="G35" s="82"/>
+      <c r="E35" s="121"/>
+      <c r="F35" s="121"/>
+      <c r="G35" s="127"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A36" s="85"/>
-      <c r="B36" s="88"/>
-      <c r="C36" s="85"/>
+      <c r="A36" s="121"/>
+      <c r="B36" s="124"/>
+      <c r="C36" s="121"/>
       <c r="D36" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E36" s="85"/>
-      <c r="F36" s="85"/>
-      <c r="G36" s="82"/>
+      <c r="E36" s="121"/>
+      <c r="F36" s="121"/>
+      <c r="G36" s="127"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A37" s="86"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="86"/>
+      <c r="A37" s="122"/>
+      <c r="B37" s="125"/>
+      <c r="C37" s="122"/>
       <c r="D37" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E37" s="86"/>
-      <c r="F37" s="86"/>
-      <c r="G37" s="82"/>
+      <c r="E37" s="122"/>
+      <c r="F37" s="122"/>
+      <c r="G37" s="127"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="39" t="s">
@@ -12328,14 +12343,14 @@
       <c r="G43" s="45"/>
     </row>
     <row r="44" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="83" t="s">
+      <c r="A44" s="126" t="s">
         <v>479</v>
       </c>
-      <c r="B44" s="83"/>
-      <c r="C44" s="83"/>
-      <c r="D44" s="83"/>
-      <c r="E44" s="83"/>
-      <c r="F44" s="83"/>
+      <c r="B44" s="126"/>
+      <c r="C44" s="126"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="44" t="s">
@@ -12450,14 +12465,14 @@
       <c r="F51" s="44"/>
     </row>
     <row r="52" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="83" t="s">
+      <c r="A52" s="126" t="s">
         <v>481</v>
       </c>
-      <c r="B52" s="83"/>
-      <c r="C52" s="83"/>
-      <c r="D52" s="83"/>
-      <c r="E52" s="83"/>
-      <c r="F52" s="83"/>
+      <c r="B52" s="126"/>
+      <c r="C52" s="126"/>
+      <c r="D52" s="126"/>
+      <c r="E52" s="126"/>
+      <c r="F52" s="126"/>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A53" s="47" t="s">
@@ -12577,14 +12592,14 @@
       <c r="F59" s="33"/>
     </row>
     <row r="60" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="83" t="s">
+      <c r="A60" s="126" t="s">
         <v>483</v>
       </c>
-      <c r="B60" s="83"/>
-      <c r="C60" s="83"/>
-      <c r="D60" s="83"/>
-      <c r="E60" s="83"/>
-      <c r="F60" s="83"/>
+      <c r="B60" s="126"/>
+      <c r="C60" s="126"/>
+      <c r="D60" s="126"/>
+      <c r="E60" s="126"/>
+      <c r="F60" s="126"/>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A61" s="47" t="s">
@@ -12701,14 +12716,14 @@
       <c r="F67" s="33"/>
     </row>
     <row r="68" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A68" s="83" t="s">
+      <c r="A68" s="126" t="s">
         <v>492</v>
       </c>
-      <c r="B68" s="83"/>
-      <c r="C68" s="83"/>
-      <c r="D68" s="83"/>
-      <c r="E68" s="83"/>
-      <c r="F68" s="83"/>
+      <c r="B68" s="126"/>
+      <c r="C68" s="126"/>
+      <c r="D68" s="126"/>
+      <c r="E68" s="126"/>
+      <c r="F68" s="126"/>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A69" s="33" t="s">
@@ -12775,14 +12790,14 @@
       <c r="F72" s="33"/>
     </row>
     <row r="73" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A73" s="83" t="s">
+      <c r="A73" s="126" t="s">
         <v>502</v>
       </c>
-      <c r="B73" s="83"/>
-      <c r="C73" s="83"/>
-      <c r="D73" s="83"/>
-      <c r="E73" s="83"/>
-      <c r="F73" s="83"/>
+      <c r="B73" s="126"/>
+      <c r="C73" s="126"/>
+      <c r="D73" s="126"/>
+      <c r="E73" s="126"/>
+      <c r="F73" s="126"/>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A74" s="33" t="s">
@@ -12913,14 +12928,14 @@
       <c r="F81" s="44"/>
     </row>
     <row r="82" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="83" t="s">
+      <c r="A82" s="126" t="s">
         <v>485</v>
       </c>
-      <c r="B82" s="83"/>
-      <c r="C82" s="83"/>
-      <c r="D82" s="83"/>
-      <c r="E82" s="83"/>
-      <c r="F82" s="83"/>
+      <c r="B82" s="126"/>
+      <c r="C82" s="126"/>
+      <c r="D82" s="126"/>
+      <c r="E82" s="126"/>
+      <c r="F82" s="126"/>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" s="33" t="s">
@@ -12939,60 +12954,60 @@
       <c r="F83" s="33"/>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A84" s="84" t="s">
+      <c r="A84" s="120" t="s">
         <v>634</v>
       </c>
-      <c r="B84" s="87" t="s">
+      <c r="B84" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="C84" s="84" t="s">
+      <c r="C84" s="120" t="s">
         <v>530</v>
       </c>
       <c r="D84" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E84" s="84"/>
-      <c r="F84" s="84"/>
+      <c r="E84" s="120"/>
+      <c r="F84" s="120"/>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A85" s="85"/>
-      <c r="B85" s="88"/>
-      <c r="C85" s="85"/>
+      <c r="A85" s="121"/>
+      <c r="B85" s="124"/>
+      <c r="C85" s="121"/>
       <c r="D85" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
+      <c r="E85" s="121"/>
+      <c r="F85" s="121"/>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A86" s="85"/>
-      <c r="B86" s="88"/>
-      <c r="C86" s="85"/>
+      <c r="A86" s="121"/>
+      <c r="B86" s="124"/>
+      <c r="C86" s="121"/>
       <c r="D86" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E86" s="85"/>
-      <c r="F86" s="85"/>
+      <c r="E86" s="121"/>
+      <c r="F86" s="121"/>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A87" s="85"/>
-      <c r="B87" s="88"/>
-      <c r="C87" s="85"/>
+      <c r="A87" s="121"/>
+      <c r="B87" s="124"/>
+      <c r="C87" s="121"/>
       <c r="D87" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E87" s="85"/>
-      <c r="F87" s="85"/>
+      <c r="E87" s="121"/>
+      <c r="F87" s="121"/>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A88" s="86"/>
-      <c r="B88" s="89"/>
-      <c r="C88" s="86"/>
+      <c r="A88" s="122"/>
+      <c r="B88" s="125"/>
+      <c r="C88" s="122"/>
       <c r="D88" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E88" s="86"/>
-      <c r="F88" s="86"/>
+      <c r="E88" s="122"/>
+      <c r="F88" s="122"/>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" s="33" t="s">
@@ -13139,14 +13154,14 @@
       <c r="F97" s="44"/>
     </row>
     <row r="98" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A98" s="83" t="s">
+      <c r="A98" s="126" t="s">
         <v>487</v>
       </c>
-      <c r="B98" s="83"/>
-      <c r="C98" s="83"/>
-      <c r="D98" s="83"/>
-      <c r="E98" s="83"/>
-      <c r="F98" s="83"/>
+      <c r="B98" s="126"/>
+      <c r="C98" s="126"/>
+      <c r="D98" s="126"/>
+      <c r="E98" s="126"/>
+      <c r="F98" s="126"/>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
@@ -13165,60 +13180,60 @@
       <c r="F99" s="33"/>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A100" s="84" t="s">
+      <c r="A100" s="120" t="s">
         <v>633</v>
       </c>
-      <c r="B100" s="87" t="s">
+      <c r="B100" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="C100" s="84" t="s">
+      <c r="C100" s="120" t="s">
         <v>530</v>
       </c>
       <c r="D100" s="36" t="s">
         <v>531</v>
       </c>
-      <c r="E100" s="84"/>
-      <c r="F100" s="84"/>
+      <c r="E100" s="120"/>
+      <c r="F100" s="120"/>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A101" s="85"/>
-      <c r="B101" s="88"/>
-      <c r="C101" s="85"/>
+      <c r="A101" s="121"/>
+      <c r="B101" s="124"/>
+      <c r="C101" s="121"/>
       <c r="D101" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E101" s="85"/>
-      <c r="F101" s="85"/>
+      <c r="E101" s="121"/>
+      <c r="F101" s="121"/>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A102" s="85"/>
-      <c r="B102" s="88"/>
-      <c r="C102" s="85"/>
+      <c r="A102" s="121"/>
+      <c r="B102" s="124"/>
+      <c r="C102" s="121"/>
       <c r="D102" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E102" s="85"/>
-      <c r="F102" s="85"/>
+      <c r="E102" s="121"/>
+      <c r="F102" s="121"/>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A103" s="85"/>
-      <c r="B103" s="88"/>
-      <c r="C103" s="85"/>
+      <c r="A103" s="121"/>
+      <c r="B103" s="124"/>
+      <c r="C103" s="121"/>
       <c r="D103" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E103" s="85"/>
-      <c r="F103" s="85"/>
+      <c r="E103" s="121"/>
+      <c r="F103" s="121"/>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A104" s="86"/>
-      <c r="B104" s="89"/>
-      <c r="C104" s="86"/>
+      <c r="A104" s="122"/>
+      <c r="B104" s="125"/>
+      <c r="C104" s="122"/>
       <c r="D104" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E104" s="86"/>
-      <c r="F104" s="86"/>
+      <c r="E104" s="122"/>
+      <c r="F104" s="122"/>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" s="33" t="s">
@@ -13285,252 +13300,252 @@
       <c r="F108" s="33"/>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A109" s="84" t="s">
+      <c r="A109" s="120" t="s">
         <v>633</v>
       </c>
-      <c r="B109" s="87" t="s">
+      <c r="B109" s="123" t="s">
         <v>653</v>
       </c>
       <c r="C109" s="36" t="s">
         <v>574</v>
       </c>
-      <c r="D109" s="84" t="s">
+      <c r="D109" s="120" t="s">
         <v>570</v>
       </c>
-      <c r="E109" s="84"/>
-      <c r="F109" s="84"/>
+      <c r="E109" s="120"/>
+      <c r="F109" s="120"/>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" s="85"/>
-      <c r="B110" s="88"/>
+      <c r="A110" s="121"/>
+      <c r="B110" s="124"/>
       <c r="C110" s="41" t="s">
         <v>575</v>
       </c>
-      <c r="D110" s="85"/>
-      <c r="E110" s="85"/>
-      <c r="F110" s="85"/>
+      <c r="D110" s="121"/>
+      <c r="E110" s="121"/>
+      <c r="F110" s="121"/>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A111" s="85"/>
-      <c r="B111" s="88"/>
+      <c r="A111" s="121"/>
+      <c r="B111" s="124"/>
       <c r="C111" s="41" t="s">
         <v>576</v>
       </c>
-      <c r="D111" s="85"/>
-      <c r="E111" s="85"/>
-      <c r="F111" s="85"/>
+      <c r="D111" s="121"/>
+      <c r="E111" s="121"/>
+      <c r="F111" s="121"/>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A112" s="85"/>
-      <c r="B112" s="88"/>
+      <c r="A112" s="121"/>
+      <c r="B112" s="124"/>
       <c r="C112" s="41" t="s">
         <v>577</v>
       </c>
-      <c r="D112" s="85"/>
-      <c r="E112" s="85"/>
-      <c r="F112" s="85"/>
+      <c r="D112" s="121"/>
+      <c r="E112" s="121"/>
+      <c r="F112" s="121"/>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A113" s="85"/>
-      <c r="B113" s="88"/>
+      <c r="A113" s="121"/>
+      <c r="B113" s="124"/>
       <c r="C113" s="41" t="s">
         <v>578</v>
       </c>
-      <c r="D113" s="85"/>
-      <c r="E113" s="85"/>
-      <c r="F113" s="85"/>
+      <c r="D113" s="121"/>
+      <c r="E113" s="121"/>
+      <c r="F113" s="121"/>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A114" s="85"/>
-      <c r="B114" s="88"/>
+      <c r="A114" s="121"/>
+      <c r="B114" s="124"/>
       <c r="C114" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D114" s="85"/>
-      <c r="E114" s="85"/>
-      <c r="F114" s="85"/>
+      <c r="D114" s="121"/>
+      <c r="E114" s="121"/>
+      <c r="F114" s="121"/>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A115" s="85"/>
-      <c r="B115" s="88"/>
+      <c r="A115" s="121"/>
+      <c r="B115" s="124"/>
       <c r="C115" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D115" s="85"/>
-      <c r="E115" s="85"/>
-      <c r="F115" s="85"/>
+      <c r="D115" s="121"/>
+      <c r="E115" s="121"/>
+      <c r="F115" s="121"/>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A116" s="85"/>
-      <c r="B116" s="88"/>
+      <c r="A116" s="121"/>
+      <c r="B116" s="124"/>
       <c r="C116" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D116" s="85"/>
-      <c r="E116" s="85"/>
-      <c r="F116" s="85"/>
+      <c r="D116" s="121"/>
+      <c r="E116" s="121"/>
+      <c r="F116" s="121"/>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A117" s="85"/>
-      <c r="B117" s="88"/>
+      <c r="A117" s="121"/>
+      <c r="B117" s="124"/>
       <c r="C117" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D117" s="85"/>
-      <c r="E117" s="85"/>
-      <c r="F117" s="85"/>
+      <c r="D117" s="121"/>
+      <c r="E117" s="121"/>
+      <c r="F117" s="121"/>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A118" s="86"/>
-      <c r="B118" s="89"/>
+      <c r="A118" s="122"/>
+      <c r="B118" s="125"/>
       <c r="C118" s="42" t="s">
         <v>583</v>
       </c>
-      <c r="D118" s="86"/>
-      <c r="E118" s="86"/>
-      <c r="F118" s="86"/>
+      <c r="D118" s="122"/>
+      <c r="E118" s="122"/>
+      <c r="F118" s="122"/>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A119" s="84" t="s">
+      <c r="A119" s="120" t="s">
         <v>633</v>
       </c>
-      <c r="B119" s="87" t="s">
+      <c r="B119" s="123" t="s">
         <v>656</v>
       </c>
       <c r="C119" s="36" t="s">
         <v>584</v>
       </c>
-      <c r="D119" s="84" t="s">
+      <c r="D119" s="120" t="s">
         <v>514</v>
       </c>
-      <c r="E119" s="84"/>
-      <c r="F119" s="84"/>
+      <c r="E119" s="120"/>
+      <c r="F119" s="120"/>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A120" s="85"/>
-      <c r="B120" s="88"/>
+      <c r="A120" s="121"/>
+      <c r="B120" s="124"/>
       <c r="C120" s="41" t="s">
         <v>579</v>
       </c>
-      <c r="D120" s="85"/>
-      <c r="E120" s="85"/>
-      <c r="F120" s="85"/>
+      <c r="D120" s="121"/>
+      <c r="E120" s="121"/>
+      <c r="F120" s="121"/>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A121" s="85"/>
-      <c r="B121" s="88"/>
+      <c r="A121" s="121"/>
+      <c r="B121" s="124"/>
       <c r="C121" s="41" t="s">
         <v>585</v>
       </c>
-      <c r="D121" s="85"/>
-      <c r="E121" s="85"/>
-      <c r="F121" s="85"/>
+      <c r="D121" s="121"/>
+      <c r="E121" s="121"/>
+      <c r="F121" s="121"/>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A122" s="85"/>
-      <c r="B122" s="88"/>
+      <c r="A122" s="121"/>
+      <c r="B122" s="124"/>
       <c r="C122" s="41" t="s">
         <v>580</v>
       </c>
-      <c r="D122" s="85"/>
-      <c r="E122" s="85"/>
-      <c r="F122" s="85"/>
+      <c r="D122" s="121"/>
+      <c r="E122" s="121"/>
+      <c r="F122" s="121"/>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A123" s="85"/>
-      <c r="B123" s="88"/>
+      <c r="A123" s="121"/>
+      <c r="B123" s="124"/>
       <c r="C123" s="41" t="s">
         <v>581</v>
       </c>
-      <c r="D123" s="85"/>
-      <c r="E123" s="85"/>
-      <c r="F123" s="85"/>
+      <c r="D123" s="121"/>
+      <c r="E123" s="121"/>
+      <c r="F123" s="121"/>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A124" s="85"/>
-      <c r="B124" s="88"/>
+      <c r="A124" s="121"/>
+      <c r="B124" s="124"/>
       <c r="C124" s="41" t="s">
         <v>582</v>
       </c>
-      <c r="D124" s="85"/>
-      <c r="E124" s="85"/>
-      <c r="F124" s="85"/>
+      <c r="D124" s="121"/>
+      <c r="E124" s="121"/>
+      <c r="F124" s="121"/>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A125" s="85"/>
-      <c r="B125" s="88"/>
+      <c r="A125" s="121"/>
+      <c r="B125" s="124"/>
       <c r="C125" s="41" t="s">
         <v>586</v>
       </c>
-      <c r="D125" s="85"/>
-      <c r="E125" s="85"/>
-      <c r="F125" s="85"/>
+      <c r="D125" s="121"/>
+      <c r="E125" s="121"/>
+      <c r="F125" s="121"/>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A126" s="86"/>
-      <c r="B126" s="89"/>
+      <c r="A126" s="122"/>
+      <c r="B126" s="125"/>
       <c r="C126" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D126" s="86"/>
-      <c r="E126" s="86"/>
-      <c r="F126" s="86"/>
+      <c r="D126" s="122"/>
+      <c r="E126" s="122"/>
+      <c r="F126" s="122"/>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A127" s="84" t="s">
+      <c r="A127" s="120" t="s">
         <v>633</v>
       </c>
-      <c r="B127" s="87" t="s">
+      <c r="B127" s="123" t="s">
         <v>658</v>
       </c>
       <c r="C127" s="36" t="s">
         <v>588</v>
       </c>
-      <c r="D127" s="84" t="s">
+      <c r="D127" s="120" t="s">
         <v>516</v>
       </c>
-      <c r="E127" s="84"/>
-      <c r="F127" s="84"/>
+      <c r="E127" s="120"/>
+      <c r="F127" s="120"/>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A128" s="85"/>
-      <c r="B128" s="88"/>
+      <c r="A128" s="121"/>
+      <c r="B128" s="124"/>
       <c r="C128" s="41" t="s">
         <v>589</v>
       </c>
-      <c r="D128" s="85"/>
-      <c r="E128" s="85"/>
-      <c r="F128" s="85"/>
+      <c r="D128" s="121"/>
+      <c r="E128" s="121"/>
+      <c r="F128" s="121"/>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A129" s="85"/>
-      <c r="B129" s="88"/>
+      <c r="A129" s="121"/>
+      <c r="B129" s="124"/>
       <c r="C129" s="41" t="s">
         <v>590</v>
       </c>
-      <c r="D129" s="85"/>
-      <c r="E129" s="85"/>
-      <c r="F129" s="85"/>
+      <c r="D129" s="121"/>
+      <c r="E129" s="121"/>
+      <c r="F129" s="121"/>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A130" s="85"/>
-      <c r="B130" s="88"/>
+      <c r="A130" s="121"/>
+      <c r="B130" s="124"/>
       <c r="C130" s="41" t="s">
         <v>591</v>
       </c>
-      <c r="D130" s="85"/>
-      <c r="E130" s="85"/>
-      <c r="F130" s="85"/>
+      <c r="D130" s="121"/>
+      <c r="E130" s="121"/>
+      <c r="F130" s="121"/>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A131" s="86"/>
-      <c r="B131" s="89"/>
+      <c r="A131" s="122"/>
+      <c r="B131" s="125"/>
       <c r="C131" s="42" t="s">
         <v>587</v>
       </c>
-      <c r="D131" s="86"/>
-      <c r="E131" s="86"/>
-      <c r="F131" s="86"/>
+      <c r="D131" s="122"/>
+      <c r="E131" s="122"/>
+      <c r="F131" s="122"/>
     </row>
     <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="s">
@@ -13565,14 +13580,14 @@
       <c r="F133" s="44"/>
     </row>
     <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A134" s="83" t="s">
+      <c r="A134" s="126" t="s">
         <v>489</v>
       </c>
-      <c r="B134" s="83"/>
-      <c r="C134" s="83"/>
-      <c r="D134" s="83"/>
-      <c r="E134" s="83"/>
-      <c r="F134" s="83"/>
+      <c r="B134" s="126"/>
+      <c r="C134" s="126"/>
+      <c r="D134" s="126"/>
+      <c r="E134" s="126"/>
+      <c r="F134" s="126"/>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
@@ -13591,60 +13606,60 @@
       <c r="F135" s="33"/>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A136" s="84" t="s">
+      <c r="A136" s="120" t="s">
         <v>632</v>
       </c>
-      <c r="B136" s="87" t="s">
+      <c r="B136" s="123" t="s">
         <v>640</v>
       </c>
-      <c r="C136" s="84" t="s">
+      <c r="C136" s="120" t="s">
         <v>538</v>
       </c>
       <c r="D136" s="36" t="s">
         <v>539</v>
       </c>
-      <c r="E136" s="84"/>
-      <c r="F136" s="84"/>
+      <c r="E136" s="120"/>
+      <c r="F136" s="120"/>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A137" s="85"/>
-      <c r="B137" s="88"/>
-      <c r="C137" s="85"/>
+      <c r="A137" s="121"/>
+      <c r="B137" s="124"/>
+      <c r="C137" s="121"/>
       <c r="D137" s="41" t="s">
         <v>532</v>
       </c>
-      <c r="E137" s="85"/>
-      <c r="F137" s="85"/>
+      <c r="E137" s="121"/>
+      <c r="F137" s="121"/>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A138" s="85"/>
-      <c r="B138" s="88"/>
-      <c r="C138" s="85"/>
+      <c r="A138" s="121"/>
+      <c r="B138" s="124"/>
+      <c r="C138" s="121"/>
       <c r="D138" s="41" t="s">
         <v>533</v>
       </c>
-      <c r="E138" s="85"/>
-      <c r="F138" s="85"/>
+      <c r="E138" s="121"/>
+      <c r="F138" s="121"/>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A139" s="85"/>
-      <c r="B139" s="88"/>
-      <c r="C139" s="85"/>
+      <c r="A139" s="121"/>
+      <c r="B139" s="124"/>
+      <c r="C139" s="121"/>
       <c r="D139" s="41" t="s">
         <v>534</v>
       </c>
-      <c r="E139" s="85"/>
-      <c r="F139" s="85"/>
+      <c r="E139" s="121"/>
+      <c r="F139" s="121"/>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A140" s="86"/>
-      <c r="B140" s="89"/>
-      <c r="C140" s="86"/>
+      <c r="A140" s="122"/>
+      <c r="B140" s="125"/>
+      <c r="C140" s="122"/>
       <c r="D140" s="42" t="s">
         <v>535</v>
       </c>
-      <c r="E140" s="86"/>
-      <c r="F140" s="86"/>
+      <c r="E140" s="122"/>
+      <c r="F140" s="122"/>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
@@ -13701,7 +13716,7 @@
       <c r="B144" s="34" t="s">
         <v>650</v>
       </c>
-      <c r="C144" s="33" t="s">
+      <c r="C144" s="129" t="s">
         <v>592</v>
       </c>
       <c r="D144" s="33" t="s">
@@ -13711,2241 +13726,2207 @@
       <c r="F144" s="33"/>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A145" s="84" t="s">
+      <c r="A145" s="120" t="s">
         <v>632</v>
       </c>
-      <c r="B145" s="87" t="s">
-        <v>653</v>
+      <c r="B145" s="123" t="s">
+        <v>656</v>
       </c>
       <c r="C145" s="36" t="s">
-        <v>574</v>
-      </c>
-      <c r="D145" s="84" t="s">
-        <v>570</v>
-      </c>
-      <c r="E145" s="84"/>
-      <c r="F145" s="92" t="s">
-        <v>670</v>
-      </c>
+        <v>584</v>
+      </c>
+      <c r="D145" s="120" t="s">
+        <v>516</v>
+      </c>
+      <c r="E145" s="120"/>
+      <c r="F145" s="120"/>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A146" s="85"/>
-      <c r="B146" s="88"/>
+      <c r="A146" s="121"/>
+      <c r="B146" s="124"/>
       <c r="C146" s="41" t="s">
-        <v>575</v>
-      </c>
-      <c r="D146" s="85"/>
-      <c r="E146" s="85"/>
-      <c r="F146" s="93"/>
+        <v>579</v>
+      </c>
+      <c r="D146" s="121"/>
+      <c r="E146" s="121"/>
+      <c r="F146" s="121"/>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A147" s="85"/>
-      <c r="B147" s="88"/>
+      <c r="A147" s="121"/>
+      <c r="B147" s="124"/>
       <c r="C147" s="41" t="s">
-        <v>576</v>
-      </c>
-      <c r="D147" s="85"/>
-      <c r="E147" s="85"/>
-      <c r="F147" s="93"/>
+        <v>585</v>
+      </c>
+      <c r="D147" s="121"/>
+      <c r="E147" s="121"/>
+      <c r="F147" s="121"/>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A148" s="85"/>
-      <c r="B148" s="88"/>
+      <c r="A148" s="121"/>
+      <c r="B148" s="124"/>
       <c r="C148" s="41" t="s">
-        <v>577</v>
-      </c>
-      <c r="D148" s="85"/>
-      <c r="E148" s="85"/>
-      <c r="F148" s="93"/>
+        <v>580</v>
+      </c>
+      <c r="D148" s="121"/>
+      <c r="E148" s="121"/>
+      <c r="F148" s="121"/>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A149" s="85"/>
-      <c r="B149" s="88"/>
-      <c r="C149" s="41" t="s">
-        <v>578</v>
-      </c>
-      <c r="D149" s="85"/>
-      <c r="E149" s="85"/>
-      <c r="F149" s="93"/>
+      <c r="A149" s="121"/>
+      <c r="B149" s="124"/>
+      <c r="C149" s="71" t="s">
+        <v>598</v>
+      </c>
+      <c r="D149" s="121"/>
+      <c r="E149" s="121"/>
+      <c r="F149" s="121"/>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A150" s="85"/>
-      <c r="B150" s="88"/>
+      <c r="A150" s="121"/>
+      <c r="B150" s="124"/>
       <c r="C150" s="41" t="s">
+        <v>581</v>
+      </c>
+      <c r="D150" s="121"/>
+      <c r="E150" s="121"/>
+      <c r="F150" s="121"/>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151" s="121"/>
+      <c r="B151" s="124"/>
+      <c r="C151" s="41" t="s">
+        <v>582</v>
+      </c>
+      <c r="D151" s="121"/>
+      <c r="E151" s="121"/>
+      <c r="F151" s="121"/>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152" s="121"/>
+      <c r="B152" s="124"/>
+      <c r="C152" s="41" t="s">
+        <v>586</v>
+      </c>
+      <c r="D152" s="121"/>
+      <c r="E152" s="121"/>
+      <c r="F152" s="121"/>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153" s="121"/>
+      <c r="B153" s="124"/>
+      <c r="C153" s="70" t="s">
+        <v>588</v>
+      </c>
+      <c r="D153" s="121"/>
+      <c r="E153" s="121"/>
+      <c r="F153" s="121"/>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154" s="121"/>
+      <c r="B154" s="124"/>
+      <c r="C154" s="71" t="s">
+        <v>589</v>
+      </c>
+      <c r="D154" s="121"/>
+      <c r="E154" s="121"/>
+      <c r="F154" s="121"/>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155" s="121"/>
+      <c r="B155" s="124"/>
+      <c r="C155" s="71" t="s">
+        <v>590</v>
+      </c>
+      <c r="D155" s="121"/>
+      <c r="E155" s="121"/>
+      <c r="F155" s="121"/>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156" s="121"/>
+      <c r="B156" s="124"/>
+      <c r="C156" s="71" t="s">
+        <v>591</v>
+      </c>
+      <c r="D156" s="121"/>
+      <c r="E156" s="121"/>
+      <c r="F156" s="121"/>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157" s="122"/>
+      <c r="B157" s="125"/>
+      <c r="C157" s="42" t="s">
+        <v>587</v>
+      </c>
+      <c r="D157" s="122"/>
+      <c r="E157" s="122"/>
+      <c r="F157" s="122"/>
+    </row>
+    <row r="158" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+      <c r="A158" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="B158" s="34" t="s">
+        <v>658</v>
+      </c>
+      <c r="C158" s="33" t="s">
+        <v>517</v>
+      </c>
+      <c r="D158" s="33" t="s">
+        <v>518</v>
+      </c>
+      <c r="E158" s="39"/>
+      <c r="F158" s="39"/>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159" s="33" t="s">
+        <v>632</v>
+      </c>
+      <c r="B159" s="34" t="s">
+        <v>639</v>
+      </c>
+      <c r="C159" s="39" t="s">
+        <v>519</v>
+      </c>
+      <c r="D159" s="33" t="s">
+        <v>520</v>
+      </c>
+      <c r="E159" s="44"/>
+      <c r="F159" s="44"/>
+    </row>
+    <row r="160" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="112" t="s">
+        <v>495</v>
+      </c>
+      <c r="B160" s="112"/>
+      <c r="C160" s="112"/>
+      <c r="D160" s="112"/>
+      <c r="E160" s="112"/>
+      <c r="F160" s="112"/>
+    </row>
+    <row r="161" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A161" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B161" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="C161" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D161" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="E161" s="16"/>
+      <c r="F161" s="16"/>
+    </row>
+    <row r="162" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A162" s="113" t="s">
+        <v>631</v>
+      </c>
+      <c r="B162" s="116" t="s">
+        <v>640</v>
+      </c>
+      <c r="C162" s="113" t="s">
+        <v>522</v>
+      </c>
+      <c r="D162" s="18" t="s">
+        <v>593</v>
+      </c>
+      <c r="E162" s="113"/>
+      <c r="F162" s="113"/>
+    </row>
+    <row r="163" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A163" s="114"/>
+      <c r="B163" s="117"/>
+      <c r="C163" s="114"/>
+      <c r="D163" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="E163" s="114"/>
+      <c r="F163" s="114"/>
+    </row>
+    <row r="164" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A164" s="114"/>
+      <c r="B164" s="117"/>
+      <c r="C164" s="114"/>
+      <c r="D164" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E164" s="114"/>
+      <c r="F164" s="114"/>
+    </row>
+    <row r="165" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A165" s="114"/>
+      <c r="B165" s="117"/>
+      <c r="C165" s="114"/>
+      <c r="D165" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E165" s="114"/>
+      <c r="F165" s="114"/>
+    </row>
+    <row r="166" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A166" s="115"/>
+      <c r="B166" s="118"/>
+      <c r="C166" s="115"/>
+      <c r="D166" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E166" s="115"/>
+      <c r="F166" s="115"/>
+    </row>
+    <row r="167" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A167" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B167" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C167" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D167" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="E167" s="16"/>
+      <c r="F167" s="16"/>
+    </row>
+    <row r="168" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A168" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B168" s="17" t="s">
+        <v>646</v>
+      </c>
+      <c r="C168" s="16" t="s">
+        <v>563</v>
+      </c>
+      <c r="D168" s="16" t="s">
+        <v>564</v>
+      </c>
+      <c r="E168" s="16"/>
+      <c r="F168" s="16"/>
+    </row>
+    <row r="169" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A169" s="16" t="s">
+        <v>631</v>
+      </c>
+      <c r="B169" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C169" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D169" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E169" s="24"/>
+      <c r="F169" s="24"/>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170" s="113" t="s">
+        <v>631</v>
+      </c>
+      <c r="B170" s="116" t="s">
+        <v>650</v>
+      </c>
+      <c r="C170" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D170" s="113" t="s">
+        <v>516</v>
+      </c>
+      <c r="E170" s="113"/>
+      <c r="F170" s="113"/>
+    </row>
+    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A171" s="114"/>
+      <c r="B171" s="117"/>
+      <c r="C171" s="20" t="s">
         <v>579</v>
       </c>
-      <c r="D150" s="85"/>
-      <c r="E150" s="85"/>
-      <c r="F150" s="93"/>
-    </row>
-    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A151" s="85"/>
-      <c r="B151" s="88"/>
-      <c r="C151" s="41" t="s">
+      <c r="D171" s="114"/>
+      <c r="E171" s="114"/>
+      <c r="F171" s="114"/>
+    </row>
+    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A172" s="114"/>
+      <c r="B172" s="117"/>
+      <c r="C172" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D172" s="114"/>
+      <c r="E172" s="114"/>
+      <c r="F172" s="114"/>
+    </row>
+    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A173" s="114"/>
+      <c r="B173" s="117"/>
+      <c r="C173" s="20" t="s">
         <v>580</v>
       </c>
-      <c r="D151" s="85"/>
-      <c r="E151" s="85"/>
-      <c r="F151" s="93"/>
-    </row>
-    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A152" s="85"/>
-      <c r="B152" s="88"/>
-      <c r="C152" s="41" t="s">
+      <c r="D173" s="114"/>
+      <c r="E173" s="114"/>
+      <c r="F173" s="114"/>
+    </row>
+    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A174" s="114"/>
+      <c r="B174" s="117"/>
+      <c r="C174" s="20" t="s">
         <v>581</v>
       </c>
-      <c r="D152" s="85"/>
-      <c r="E152" s="85"/>
-      <c r="F152" s="93"/>
-    </row>
-    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A153" s="85"/>
-      <c r="B153" s="88"/>
-      <c r="C153" s="41" t="s">
+      <c r="D174" s="114"/>
+      <c r="E174" s="114"/>
+      <c r="F174" s="114"/>
+    </row>
+    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A175" s="114"/>
+      <c r="B175" s="117"/>
+      <c r="C175" s="20" t="s">
         <v>582</v>
       </c>
-      <c r="D153" s="85"/>
-      <c r="E153" s="85"/>
-      <c r="F153" s="93"/>
-    </row>
-    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A154" s="86"/>
-      <c r="B154" s="89"/>
-      <c r="C154" s="42" t="s">
-        <v>583</v>
-      </c>
-      <c r="D154" s="86"/>
-      <c r="E154" s="86"/>
-      <c r="F154" s="94"/>
-    </row>
-    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A155" s="84" t="s">
-        <v>632</v>
-      </c>
-      <c r="B155" s="87" t="s">
-        <v>656</v>
-      </c>
-      <c r="C155" s="36" t="s">
-        <v>584</v>
-      </c>
-      <c r="D155" s="84" t="s">
-        <v>514</v>
-      </c>
-      <c r="E155" s="84"/>
-      <c r="F155" s="84"/>
-    </row>
-    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A156" s="85"/>
-      <c r="B156" s="88"/>
-      <c r="C156" s="41" t="s">
-        <v>579</v>
-      </c>
-      <c r="D156" s="85"/>
-      <c r="E156" s="85"/>
-      <c r="F156" s="85"/>
-    </row>
-    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A157" s="85"/>
-      <c r="B157" s="88"/>
-      <c r="C157" s="41" t="s">
-        <v>585</v>
-      </c>
-      <c r="D157" s="85"/>
-      <c r="E157" s="85"/>
-      <c r="F157" s="85"/>
-    </row>
-    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A158" s="85"/>
-      <c r="B158" s="88"/>
-      <c r="C158" s="41" t="s">
-        <v>580</v>
-      </c>
-      <c r="D158" s="85"/>
-      <c r="E158" s="85"/>
-      <c r="F158" s="85"/>
-    </row>
-    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A159" s="85"/>
-      <c r="B159" s="88"/>
-      <c r="C159" s="41" t="s">
-        <v>581</v>
-      </c>
-      <c r="D159" s="85"/>
-      <c r="E159" s="85"/>
-      <c r="F159" s="85"/>
-    </row>
-    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A160" s="85"/>
-      <c r="B160" s="88"/>
-      <c r="C160" s="41" t="s">
-        <v>582</v>
-      </c>
-      <c r="D160" s="85"/>
-      <c r="E160" s="85"/>
-      <c r="F160" s="85"/>
-    </row>
-    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A161" s="85"/>
-      <c r="B161" s="88"/>
-      <c r="C161" s="41" t="s">
+      <c r="D175" s="114"/>
+      <c r="E175" s="114"/>
+      <c r="F175" s="114"/>
+    </row>
+    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A176" s="114"/>
+      <c r="B176" s="117"/>
+      <c r="C176" s="20" t="s">
         <v>586</v>
       </c>
-      <c r="D161" s="85"/>
-      <c r="E161" s="85"/>
-      <c r="F161" s="85"/>
-    </row>
-    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A162" s="86"/>
-      <c r="B162" s="89"/>
-      <c r="C162" s="42" t="s">
+      <c r="D176" s="114"/>
+      <c r="E176" s="114"/>
+      <c r="F176" s="114"/>
+    </row>
+    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A177" s="114"/>
+      <c r="B177" s="117"/>
+      <c r="C177" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="D177" s="114"/>
+      <c r="E177" s="114"/>
+      <c r="F177" s="114"/>
+    </row>
+    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A178" s="115"/>
+      <c r="B178" s="118"/>
+      <c r="C178" s="21" t="s">
         <v>587</v>
       </c>
-      <c r="D162" s="86"/>
-      <c r="E162" s="86"/>
-      <c r="F162" s="86"/>
-    </row>
-    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A163" s="84" t="s">
-        <v>632</v>
-      </c>
-      <c r="B163" s="87" t="s">
-        <v>658</v>
-      </c>
-      <c r="C163" s="36" t="s">
-        <v>588</v>
-      </c>
-      <c r="D163" s="84" t="s">
-        <v>516</v>
-      </c>
-      <c r="E163" s="84"/>
-      <c r="F163" s="84"/>
-    </row>
-    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A164" s="85"/>
-      <c r="B164" s="88"/>
-      <c r="C164" s="41" t="s">
-        <v>589</v>
-      </c>
-      <c r="D164" s="85"/>
-      <c r="E164" s="85"/>
-      <c r="F164" s="85"/>
-    </row>
-    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A165" s="85"/>
-      <c r="B165" s="88"/>
-      <c r="C165" s="41" t="s">
-        <v>590</v>
-      </c>
-      <c r="D165" s="85"/>
-      <c r="E165" s="85"/>
-      <c r="F165" s="85"/>
-    </row>
-    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A166" s="85"/>
-      <c r="B166" s="88"/>
-      <c r="C166" s="41" t="s">
-        <v>591</v>
-      </c>
-      <c r="D166" s="85"/>
-      <c r="E166" s="85"/>
-      <c r="F166" s="85"/>
-    </row>
-    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A167" s="86"/>
-      <c r="B167" s="89"/>
-      <c r="C167" s="42" t="s">
-        <v>587</v>
-      </c>
-      <c r="D167" s="86"/>
-      <c r="E167" s="86"/>
-      <c r="F167" s="86"/>
-    </row>
-    <row r="168" spans="1:6" ht="24" x14ac:dyDescent="0.25">
-      <c r="A168" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="B168" s="34" t="s">
-        <v>639</v>
-      </c>
-      <c r="C168" s="33" t="s">
-        <v>517</v>
-      </c>
-      <c r="D168" s="33" t="s">
-        <v>518</v>
-      </c>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39"/>
-    </row>
-    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A169" s="33" t="s">
-        <v>632</v>
-      </c>
-      <c r="B169" s="34" t="s">
-        <v>660</v>
-      </c>
-      <c r="C169" s="39" t="s">
-        <v>519</v>
-      </c>
-      <c r="D169" s="33" t="s">
-        <v>520</v>
-      </c>
-      <c r="E169" s="44"/>
-      <c r="F169" s="44"/>
-    </row>
-    <row r="170" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A170" s="91" t="s">
-        <v>495</v>
-      </c>
-      <c r="B170" s="91"/>
-      <c r="C170" s="91"/>
-      <c r="D170" s="91"/>
-      <c r="E170" s="91"/>
-      <c r="F170" s="91"/>
-    </row>
-    <row r="171" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A171" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B171" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="C171" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D171" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="E171" s="16"/>
-      <c r="F171" s="16"/>
-    </row>
-    <row r="172" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A172" s="95" t="s">
-        <v>631</v>
-      </c>
-      <c r="B172" s="98" t="s">
-        <v>640</v>
-      </c>
-      <c r="C172" s="95" t="s">
-        <v>522</v>
-      </c>
-      <c r="D172" s="18" t="s">
-        <v>593</v>
-      </c>
-      <c r="E172" s="95"/>
-      <c r="F172" s="95"/>
-    </row>
-    <row r="173" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A173" s="96"/>
-      <c r="B173" s="99"/>
-      <c r="C173" s="96"/>
-      <c r="D173" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="E173" s="96"/>
-      <c r="F173" s="96"/>
-    </row>
-    <row r="174" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A174" s="96"/>
-      <c r="B174" s="99"/>
-      <c r="C174" s="96"/>
-      <c r="D174" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="E174" s="96"/>
-      <c r="F174" s="96"/>
-    </row>
-    <row r="175" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A175" s="96"/>
-      <c r="B175" s="99"/>
-      <c r="C175" s="96"/>
-      <c r="D175" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="E175" s="96"/>
-      <c r="F175" s="96"/>
-    </row>
-    <row r="176" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A176" s="97"/>
-      <c r="B176" s="100"/>
-      <c r="C176" s="97"/>
-      <c r="D176" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="E176" s="97"/>
-      <c r="F176" s="97"/>
-    </row>
-    <row r="177" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A177" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B177" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="C177" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="D177" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E177" s="16"/>
-      <c r="F177" s="16"/>
-    </row>
-    <row r="178" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A178" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B178" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="C178" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D178" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="E178" s="16"/>
-      <c r="F178" s="16"/>
-    </row>
-    <row r="179" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="D178" s="115"/>
+      <c r="E178" s="115"/>
+      <c r="F178" s="115"/>
+    </row>
+    <row r="179" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A179" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B179" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="C179" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D179" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E179" s="24"/>
-      <c r="F179" s="24"/>
+      <c r="B179" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C179" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D179" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E179" s="16"/>
+      <c r="F179" s="16"/>
     </row>
     <row r="180" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A180" s="95" t="s">
+      <c r="A180" s="16" t="s">
         <v>631</v>
       </c>
-      <c r="B180" s="98" t="s">
-        <v>650</v>
-      </c>
-      <c r="C180" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="D180" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="E180" s="95"/>
-      <c r="F180" s="95"/>
-    </row>
-    <row r="181" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A181" s="96"/>
-      <c r="B181" s="99"/>
-      <c r="C181" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="D181" s="96"/>
-      <c r="E181" s="96"/>
-      <c r="F181" s="96"/>
+      <c r="B180" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C180" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D180" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E180" s="16"/>
+      <c r="F180" s="16"/>
+    </row>
+    <row r="181" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="B181" s="112"/>
+      <c r="C181" s="112"/>
+      <c r="D181" s="112"/>
+      <c r="E181" s="112"/>
+      <c r="F181" s="112"/>
     </row>
     <row r="182" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A182" s="96"/>
-      <c r="B182" s="99"/>
-      <c r="C182" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="D182" s="96"/>
-      <c r="E182" s="96"/>
-      <c r="F182" s="96"/>
+      <c r="A182" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B182" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="C182" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D182" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="E182" s="16"/>
+      <c r="F182" s="16"/>
     </row>
     <row r="183" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A183" s="96"/>
-      <c r="B183" s="99"/>
-      <c r="C183" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D183" s="96"/>
-      <c r="E183" s="96"/>
-      <c r="F183" s="96"/>
+      <c r="A183" s="113" t="s">
+        <v>630</v>
+      </c>
+      <c r="B183" s="116" t="s">
+        <v>640</v>
+      </c>
+      <c r="C183" s="113" t="s">
+        <v>530</v>
+      </c>
+      <c r="D183" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E183" s="113"/>
+      <c r="F183" s="113"/>
     </row>
     <row r="184" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A184" s="96"/>
-      <c r="B184" s="99"/>
-      <c r="C184" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="D184" s="96"/>
-      <c r="E184" s="96"/>
-      <c r="F184" s="96"/>
+      <c r="A184" s="114"/>
+      <c r="B184" s="117"/>
+      <c r="C184" s="114"/>
+      <c r="D184" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="E184" s="114"/>
+      <c r="F184" s="114"/>
     </row>
     <row r="185" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A185" s="96"/>
-      <c r="B185" s="99"/>
-      <c r="C185" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="D185" s="96"/>
-      <c r="E185" s="96"/>
-      <c r="F185" s="96"/>
+      <c r="A185" s="114"/>
+      <c r="B185" s="117"/>
+      <c r="C185" s="114"/>
+      <c r="D185" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E185" s="114"/>
+      <c r="F185" s="114"/>
     </row>
     <row r="186" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A186" s="96"/>
-      <c r="B186" s="99"/>
-      <c r="C186" s="20" t="s">
-        <v>586</v>
-      </c>
-      <c r="D186" s="96"/>
-      <c r="E186" s="96"/>
-      <c r="F186" s="96"/>
+      <c r="A186" s="114"/>
+      <c r="B186" s="117"/>
+      <c r="C186" s="114"/>
+      <c r="D186" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E186" s="114"/>
+      <c r="F186" s="114"/>
     </row>
     <row r="187" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A187" s="96"/>
-      <c r="B187" s="99"/>
-      <c r="C187" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D187" s="96"/>
-      <c r="E187" s="96"/>
-      <c r="F187" s="96"/>
+      <c r="A187" s="115"/>
+      <c r="B187" s="118"/>
+      <c r="C187" s="115"/>
+      <c r="D187" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E187" s="115"/>
+      <c r="F187" s="115"/>
     </row>
     <row r="188" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A188" s="97"/>
-      <c r="B188" s="100"/>
-      <c r="C188" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="D188" s="97"/>
-      <c r="E188" s="97"/>
-      <c r="F188" s="97"/>
-    </row>
-    <row r="189" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A188" s="16" t="s">
+        <v>630</v>
+      </c>
+      <c r="B188" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C188" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D188" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="E188" s="16"/>
+      <c r="F188" s="16"/>
+    </row>
+    <row r="189" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A189" s="16" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B189" s="17" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C189" s="16" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="D189" s="16" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="E189" s="16"/>
       <c r="F189" s="16"/>
     </row>
     <row r="190" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A190" s="16" t="s">
-        <v>631</v>
-      </c>
-      <c r="B190" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C190" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="D190" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="E190" s="16"/>
-      <c r="F190" s="16"/>
-    </row>
-    <row r="191" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A191" s="91" t="s">
-        <v>497</v>
-      </c>
-      <c r="B191" s="91"/>
-      <c r="C191" s="91"/>
-      <c r="D191" s="91"/>
-      <c r="E191" s="91"/>
-      <c r="F191" s="91"/>
+        <v>630</v>
+      </c>
+      <c r="B190" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C190" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D190" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E190" s="24"/>
+      <c r="F190" s="24"/>
+    </row>
+    <row r="191" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A191" s="113" t="s">
+        <v>630</v>
+      </c>
+      <c r="B191" s="116" t="s">
+        <v>650</v>
+      </c>
+      <c r="C191" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D191" s="113" t="s">
+        <v>516</v>
+      </c>
+      <c r="E191" s="113"/>
+      <c r="F191" s="113"/>
     </row>
     <row r="192" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A192" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="B192" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="C192" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D192" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="E192" s="16"/>
-      <c r="F192" s="16"/>
+      <c r="A192" s="114"/>
+      <c r="B192" s="117"/>
+      <c r="C192" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D192" s="114"/>
+      <c r="E192" s="114"/>
+      <c r="F192" s="114"/>
     </row>
     <row r="193" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A193" s="95" t="s">
-        <v>630</v>
-      </c>
-      <c r="B193" s="98" t="s">
-        <v>640</v>
-      </c>
-      <c r="C193" s="95" t="s">
-        <v>530</v>
-      </c>
-      <c r="D193" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="E193" s="95"/>
-      <c r="F193" s="95"/>
+      <c r="A193" s="114"/>
+      <c r="B193" s="117"/>
+      <c r="C193" s="20" t="s">
+        <v>585</v>
+      </c>
+      <c r="D193" s="114"/>
+      <c r="E193" s="114"/>
+      <c r="F193" s="114"/>
     </row>
     <row r="194" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A194" s="96"/>
-      <c r="B194" s="99"/>
-      <c r="C194" s="96"/>
-      <c r="D194" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="E194" s="96"/>
-      <c r="F194" s="96"/>
+      <c r="A194" s="114"/>
+      <c r="B194" s="117"/>
+      <c r="C194" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D194" s="114"/>
+      <c r="E194" s="114"/>
+      <c r="F194" s="114"/>
     </row>
     <row r="195" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A195" s="96"/>
-      <c r="B195" s="99"/>
-      <c r="C195" s="96"/>
-      <c r="D195" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="E195" s="96"/>
-      <c r="F195" s="96"/>
+      <c r="A195" s="114"/>
+      <c r="B195" s="117"/>
+      <c r="C195" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="D195" s="114"/>
+      <c r="E195" s="114"/>
+      <c r="F195" s="114"/>
     </row>
     <row r="196" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A196" s="96"/>
-      <c r="B196" s="99"/>
-      <c r="C196" s="96"/>
-      <c r="D196" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="E196" s="96"/>
-      <c r="F196" s="96"/>
+      <c r="A196" s="114"/>
+      <c r="B196" s="117"/>
+      <c r="C196" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="D196" s="114"/>
+      <c r="E196" s="114"/>
+      <c r="F196" s="114"/>
     </row>
     <row r="197" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A197" s="97"/>
-      <c r="B197" s="100"/>
-      <c r="C197" s="97"/>
-      <c r="D197" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="E197" s="97"/>
-      <c r="F197" s="97"/>
+      <c r="A197" s="114"/>
+      <c r="B197" s="117"/>
+      <c r="C197" s="20" t="s">
+        <v>597</v>
+      </c>
+      <c r="D197" s="114"/>
+      <c r="E197" s="114"/>
+      <c r="F197" s="114"/>
     </row>
     <row r="198" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A198" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="B198" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="C198" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="D198" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E198" s="16"/>
-      <c r="F198" s="16"/>
+      <c r="A198" s="114"/>
+      <c r="B198" s="117"/>
+      <c r="C198" s="20" t="s">
+        <v>596</v>
+      </c>
+      <c r="D198" s="114"/>
+      <c r="E198" s="114"/>
+      <c r="F198" s="114"/>
     </row>
     <row r="199" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A199" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="B199" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="C199" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D199" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="E199" s="16"/>
-      <c r="F199" s="16"/>
-    </row>
-    <row r="200" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A199" s="115"/>
+      <c r="B199" s="118"/>
+      <c r="C199" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="D199" s="115"/>
+      <c r="E199" s="115"/>
+      <c r="F199" s="115"/>
+    </row>
+    <row r="200" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A200" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="B200" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="C200" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D200" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E200" s="24"/>
-      <c r="F200" s="24"/>
+      <c r="B200" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C200" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D200" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E200" s="16"/>
+      <c r="F200" s="16"/>
     </row>
     <row r="201" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A201" s="95" t="s">
+      <c r="A201" s="16" t="s">
         <v>630</v>
       </c>
-      <c r="B201" s="98" t="s">
-        <v>650</v>
-      </c>
-      <c r="C201" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="D201" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="E201" s="95"/>
-      <c r="F201" s="95"/>
-    </row>
-    <row r="202" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A202" s="96"/>
-      <c r="B202" s="99"/>
-      <c r="C202" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="D202" s="96"/>
-      <c r="E202" s="96"/>
-      <c r="F202" s="96"/>
+      <c r="B201" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C201" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D201" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E201" s="16"/>
+      <c r="F201" s="16"/>
+    </row>
+    <row r="202" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="119" t="s">
+        <v>499</v>
+      </c>
+      <c r="B202" s="119"/>
+      <c r="C202" s="119"/>
+      <c r="D202" s="119"/>
+      <c r="E202" s="119"/>
+      <c r="F202" s="119"/>
     </row>
     <row r="203" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A203" s="96"/>
-      <c r="B203" s="99"/>
-      <c r="C203" s="20" t="s">
-        <v>585</v>
-      </c>
-      <c r="D203" s="96"/>
-      <c r="E203" s="96"/>
-      <c r="F203" s="96"/>
+      <c r="A203" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B203" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="C203" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D203" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="E203" s="16"/>
+      <c r="F203" s="16"/>
     </row>
     <row r="204" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A204" s="96"/>
-      <c r="B204" s="99"/>
-      <c r="C204" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D204" s="96"/>
-      <c r="E204" s="96"/>
-      <c r="F204" s="96"/>
+      <c r="A204" s="113" t="s">
+        <v>629</v>
+      </c>
+      <c r="B204" s="116" t="s">
+        <v>640</v>
+      </c>
+      <c r="C204" s="113" t="s">
+        <v>538</v>
+      </c>
+      <c r="D204" s="18" t="s">
+        <v>539</v>
+      </c>
+      <c r="E204" s="113"/>
+      <c r="F204" s="113"/>
     </row>
     <row r="205" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A205" s="96"/>
-      <c r="B205" s="99"/>
-      <c r="C205" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="D205" s="96"/>
-      <c r="E205" s="96"/>
-      <c r="F205" s="96"/>
+      <c r="A205" s="114"/>
+      <c r="B205" s="117"/>
+      <c r="C205" s="114"/>
+      <c r="D205" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="E205" s="114"/>
+      <c r="F205" s="114"/>
     </row>
     <row r="206" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A206" s="96"/>
-      <c r="B206" s="99"/>
-      <c r="C206" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="D206" s="96"/>
-      <c r="E206" s="96"/>
-      <c r="F206" s="96"/>
+      <c r="A206" s="114"/>
+      <c r="B206" s="117"/>
+      <c r="C206" s="114"/>
+      <c r="D206" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E206" s="114"/>
+      <c r="F206" s="114"/>
     </row>
     <row r="207" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A207" s="96"/>
-      <c r="B207" s="99"/>
-      <c r="C207" s="20" t="s">
-        <v>597</v>
-      </c>
-      <c r="D207" s="96"/>
-      <c r="E207" s="96"/>
-      <c r="F207" s="96"/>
+      <c r="A207" s="114"/>
+      <c r="B207" s="117"/>
+      <c r="C207" s="114"/>
+      <c r="D207" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E207" s="114"/>
+      <c r="F207" s="114"/>
     </row>
     <row r="208" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A208" s="96"/>
-      <c r="B208" s="99"/>
-      <c r="C208" s="20" t="s">
-        <v>596</v>
-      </c>
-      <c r="D208" s="96"/>
-      <c r="E208" s="96"/>
-      <c r="F208" s="96"/>
+      <c r="A208" s="115"/>
+      <c r="B208" s="118"/>
+      <c r="C208" s="115"/>
+      <c r="D208" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E208" s="115"/>
+      <c r="F208" s="115"/>
     </row>
     <row r="209" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A209" s="97"/>
-      <c r="B209" s="100"/>
-      <c r="C209" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="D209" s="97"/>
-      <c r="E209" s="97"/>
-      <c r="F209" s="97"/>
-    </row>
-    <row r="210" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A209" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B209" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C209" s="16" t="s">
+        <v>594</v>
+      </c>
+      <c r="D209" s="16" t="s">
+        <v>595</v>
+      </c>
+      <c r="E209" s="16"/>
+      <c r="F209" s="16"/>
+    </row>
+    <row r="210" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A210" s="16" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B210" s="17" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C210" s="16" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="D210" s="16" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="E210" s="16"/>
       <c r="F210" s="16"/>
     </row>
     <row r="211" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A211" s="16" t="s">
-        <v>630</v>
-      </c>
-      <c r="B211" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C211" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="D211" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="E211" s="16"/>
-      <c r="F211" s="16"/>
-    </row>
-    <row r="212" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A212" s="101" t="s">
-        <v>499</v>
-      </c>
-      <c r="B212" s="101"/>
-      <c r="C212" s="101"/>
-      <c r="D212" s="101"/>
-      <c r="E212" s="101"/>
-      <c r="F212" s="101"/>
+        <v>629</v>
+      </c>
+      <c r="B211" s="25" t="s">
+        <v>648</v>
+      </c>
+      <c r="C211" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D211" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E211" s="24"/>
+      <c r="F211" s="24"/>
+    </row>
+    <row r="212" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A212" s="113" t="s">
+        <v>629</v>
+      </c>
+      <c r="B212" s="116" t="s">
+        <v>650</v>
+      </c>
+      <c r="C212" s="18" t="s">
+        <v>588</v>
+      </c>
+      <c r="D212" s="113" t="s">
+        <v>516</v>
+      </c>
+      <c r="E212" s="113"/>
+      <c r="F212" s="113"/>
     </row>
     <row r="213" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A213" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B213" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="C213" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D213" s="16" t="s">
-        <v>425</v>
-      </c>
-      <c r="E213" s="16"/>
-      <c r="F213" s="16"/>
+      <c r="A213" s="114"/>
+      <c r="B213" s="117"/>
+      <c r="C213" s="20" t="s">
+        <v>579</v>
+      </c>
+      <c r="D213" s="114"/>
+      <c r="E213" s="114"/>
+      <c r="F213" s="114"/>
     </row>
     <row r="214" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A214" s="95" t="s">
-        <v>629</v>
-      </c>
-      <c r="B214" s="98" t="s">
-        <v>640</v>
-      </c>
-      <c r="C214" s="95" t="s">
-        <v>538</v>
-      </c>
-      <c r="D214" s="18" t="s">
-        <v>539</v>
-      </c>
-      <c r="E214" s="95"/>
-      <c r="F214" s="95"/>
+      <c r="A214" s="114"/>
+      <c r="B214" s="117"/>
+      <c r="C214" s="20" t="s">
+        <v>580</v>
+      </c>
+      <c r="D214" s="114"/>
+      <c r="E214" s="114"/>
+      <c r="F214" s="114"/>
     </row>
     <row r="215" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A215" s="96"/>
-      <c r="B215" s="99"/>
-      <c r="C215" s="96"/>
-      <c r="D215" s="20" t="s">
-        <v>532</v>
-      </c>
-      <c r="E215" s="96"/>
-      <c r="F215" s="96"/>
+      <c r="A215" s="114"/>
+      <c r="B215" s="117"/>
+      <c r="C215" s="20" t="s">
+        <v>598</v>
+      </c>
+      <c r="D215" s="114"/>
+      <c r="E215" s="114"/>
+      <c r="F215" s="114"/>
     </row>
     <row r="216" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A216" s="96"/>
-      <c r="B216" s="99"/>
-      <c r="C216" s="96"/>
-      <c r="D216" s="20" t="s">
-        <v>533</v>
-      </c>
-      <c r="E216" s="96"/>
-      <c r="F216" s="96"/>
+      <c r="A216" s="114"/>
+      <c r="B216" s="117"/>
+      <c r="C216" s="20" t="s">
+        <v>581</v>
+      </c>
+      <c r="D216" s="114"/>
+      <c r="E216" s="114"/>
+      <c r="F216" s="114"/>
     </row>
     <row r="217" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A217" s="96"/>
-      <c r="B217" s="99"/>
-      <c r="C217" s="96"/>
-      <c r="D217" s="20" t="s">
-        <v>534</v>
-      </c>
-      <c r="E217" s="96"/>
-      <c r="F217" s="96"/>
+      <c r="A217" s="114"/>
+      <c r="B217" s="117"/>
+      <c r="C217" s="20" t="s">
+        <v>582</v>
+      </c>
+      <c r="D217" s="114"/>
+      <c r="E217" s="114"/>
+      <c r="F217" s="114"/>
     </row>
     <row r="218" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A218" s="97"/>
-      <c r="B218" s="100"/>
-      <c r="C218" s="97"/>
-      <c r="D218" s="21" t="s">
-        <v>535</v>
-      </c>
-      <c r="E218" s="97"/>
-      <c r="F218" s="97"/>
+      <c r="A218" s="114"/>
+      <c r="B218" s="117"/>
+      <c r="C218" s="20" t="s">
+        <v>599</v>
+      </c>
+      <c r="D218" s="114"/>
+      <c r="E218" s="114"/>
+      <c r="F218" s="114"/>
     </row>
     <row r="219" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A219" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B219" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="C219" s="16" t="s">
-        <v>594</v>
-      </c>
-      <c r="D219" s="16" t="s">
-        <v>595</v>
-      </c>
-      <c r="E219" s="16"/>
-      <c r="F219" s="16"/>
+      <c r="A219" s="114"/>
+      <c r="B219" s="117"/>
+      <c r="C219" s="20" t="s">
+        <v>589</v>
+      </c>
+      <c r="D219" s="114"/>
+      <c r="E219" s="114"/>
+      <c r="F219" s="114"/>
     </row>
     <row r="220" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A220" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B220" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="C220" s="16" t="s">
-        <v>563</v>
-      </c>
-      <c r="D220" s="16" t="s">
-        <v>564</v>
-      </c>
-      <c r="E220" s="16"/>
-      <c r="F220" s="16"/>
-    </row>
-    <row r="221" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A220" s="115"/>
+      <c r="B220" s="118"/>
+      <c r="C220" s="21" t="s">
+        <v>587</v>
+      </c>
+      <c r="D220" s="115"/>
+      <c r="E220" s="115"/>
+      <c r="F220" s="115"/>
+    </row>
+    <row r="221" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A221" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B221" s="25" t="s">
-        <v>648</v>
-      </c>
-      <c r="C221" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D221" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E221" s="24"/>
-      <c r="F221" s="24"/>
+      <c r="B221" s="17" t="s">
+        <v>653</v>
+      </c>
+      <c r="C221" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D221" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E221" s="16"/>
+      <c r="F221" s="16"/>
     </row>
     <row r="222" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A222" s="95" t="s">
+      <c r="A222" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B222" s="98" t="s">
-        <v>650</v>
-      </c>
-      <c r="C222" s="18" t="s">
-        <v>588</v>
-      </c>
-      <c r="D222" s="95" t="s">
-        <v>516</v>
-      </c>
-      <c r="E222" s="95"/>
-      <c r="F222" s="95"/>
-    </row>
-    <row r="223" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A223" s="96"/>
-      <c r="B223" s="99"/>
-      <c r="C223" s="20" t="s">
-        <v>579</v>
-      </c>
-      <c r="D223" s="96"/>
-      <c r="E223" s="96"/>
-      <c r="F223" s="96"/>
+      <c r="B222" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C222" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D222" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E222" s="16"/>
+      <c r="F222" s="16"/>
+    </row>
+    <row r="223" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="112" t="s">
+        <v>505</v>
+      </c>
+      <c r="B223" s="112"/>
+      <c r="C223" s="112"/>
+      <c r="D223" s="112"/>
+      <c r="E223" s="112"/>
+      <c r="F223" s="112"/>
     </row>
     <row r="224" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A224" s="96"/>
-      <c r="B224" s="99"/>
-      <c r="C224" s="20" t="s">
-        <v>580</v>
-      </c>
-      <c r="D224" s="96"/>
-      <c r="E224" s="96"/>
-      <c r="F224" s="96"/>
-    </row>
-    <row r="225" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A225" s="96"/>
-      <c r="B225" s="99"/>
-      <c r="C225" s="20" t="s">
-        <v>598</v>
-      </c>
-      <c r="D225" s="96"/>
-      <c r="E225" s="96"/>
-      <c r="F225" s="96"/>
-    </row>
-    <row r="226" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A226" s="96"/>
-      <c r="B226" s="99"/>
-      <c r="C226" s="20" t="s">
-        <v>581</v>
-      </c>
-      <c r="D226" s="96"/>
-      <c r="E226" s="96"/>
-      <c r="F226" s="96"/>
-    </row>
-    <row r="227" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A227" s="96"/>
-      <c r="B227" s="99"/>
-      <c r="C227" s="20" t="s">
-        <v>582</v>
-      </c>
-      <c r="D227" s="96"/>
-      <c r="E227" s="96"/>
-      <c r="F227" s="96"/>
-    </row>
-    <row r="228" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A228" s="96"/>
-      <c r="B228" s="99"/>
-      <c r="C228" s="20" t="s">
-        <v>599</v>
-      </c>
-      <c r="D228" s="96"/>
-      <c r="E228" s="96"/>
-      <c r="F228" s="96"/>
-    </row>
-    <row r="229" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A229" s="96"/>
-      <c r="B229" s="99"/>
-      <c r="C229" s="20" t="s">
-        <v>589</v>
-      </c>
-      <c r="D229" s="96"/>
-      <c r="E229" s="96"/>
-      <c r="F229" s="96"/>
-    </row>
-    <row r="230" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A230" s="97"/>
-      <c r="B230" s="100"/>
-      <c r="C230" s="21" t="s">
-        <v>587</v>
-      </c>
-      <c r="D230" s="97"/>
-      <c r="E230" s="97"/>
-      <c r="F230" s="97"/>
-    </row>
-    <row r="231" spans="1:6" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A224" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B224" s="17" t="s">
+        <v>638</v>
+      </c>
+      <c r="C224" s="16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D224" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="E224" s="16"/>
+      <c r="F224" s="16"/>
+    </row>
+    <row r="225" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A225" s="113" t="s">
+        <v>629</v>
+      </c>
+      <c r="B225" s="116" t="s">
+        <v>640</v>
+      </c>
+      <c r="C225" s="113" t="s">
+        <v>530</v>
+      </c>
+      <c r="D225" s="18" t="s">
+        <v>531</v>
+      </c>
+      <c r="E225" s="113"/>
+      <c r="F225" s="113"/>
+    </row>
+    <row r="226" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A226" s="114"/>
+      <c r="B226" s="117"/>
+      <c r="C226" s="114"/>
+      <c r="D226" s="20" t="s">
+        <v>532</v>
+      </c>
+      <c r="E226" s="114"/>
+      <c r="F226" s="114"/>
+    </row>
+    <row r="227" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A227" s="114"/>
+      <c r="B227" s="117"/>
+      <c r="C227" s="114"/>
+      <c r="D227" s="20" t="s">
+        <v>533</v>
+      </c>
+      <c r="E227" s="114"/>
+      <c r="F227" s="114"/>
+    </row>
+    <row r="228" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A228" s="114"/>
+      <c r="B228" s="117"/>
+      <c r="C228" s="114"/>
+      <c r="D228" s="20" t="s">
+        <v>534</v>
+      </c>
+      <c r="E228" s="114"/>
+      <c r="F228" s="114"/>
+    </row>
+    <row r="229" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A229" s="115"/>
+      <c r="B229" s="118"/>
+      <c r="C229" s="115"/>
+      <c r="D229" s="21" t="s">
+        <v>535</v>
+      </c>
+      <c r="E229" s="115"/>
+      <c r="F229" s="115"/>
+    </row>
+    <row r="230" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A230" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B230" s="17" t="s">
+        <v>641</v>
+      </c>
+      <c r="C230" s="16" t="s">
+        <v>600</v>
+      </c>
+      <c r="D230" s="16" t="s">
+        <v>601</v>
+      </c>
+      <c r="E230" s="22"/>
+      <c r="F230" s="22"/>
+    </row>
+    <row r="231" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A231" s="16" t="s">
         <v>629</v>
       </c>
       <c r="B231" s="17" t="s">
-        <v>653</v>
+        <v>646</v>
       </c>
       <c r="C231" s="16" t="s">
-        <v>517</v>
+        <v>563</v>
       </c>
       <c r="D231" s="16" t="s">
-        <v>518</v>
+        <v>564</v>
       </c>
       <c r="E231" s="16"/>
       <c r="F231" s="16"/>
     </row>
-    <row r="232" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A232" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B232" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C232" s="22" t="s">
-        <v>519</v>
-      </c>
-      <c r="D232" s="16" t="s">
-        <v>520</v>
-      </c>
-      <c r="E232" s="16"/>
-      <c r="F232" s="16"/>
-    </row>
-    <row r="233" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A233" s="91" t="s">
-        <v>505</v>
-      </c>
-      <c r="B233" s="91"/>
-      <c r="C233" s="91"/>
-      <c r="D233" s="91"/>
-      <c r="E233" s="91"/>
-      <c r="F233" s="91"/>
-    </row>
-    <row r="234" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="B232" s="50" t="s">
+        <v>648</v>
+      </c>
+      <c r="C232" s="24" t="s">
+        <v>565</v>
+      </c>
+      <c r="D232" s="24" t="s">
+        <v>566</v>
+      </c>
+      <c r="E232" s="24"/>
+      <c r="F232" s="24"/>
+    </row>
+    <row r="233" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
+      <c r="A233" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B233" s="19" t="s">
+        <v>650</v>
+      </c>
+      <c r="C233" s="18" t="s">
+        <v>536</v>
+      </c>
+      <c r="D233" s="18" t="s">
+        <v>514</v>
+      </c>
+      <c r="E233" s="18"/>
+      <c r="F233" s="18"/>
+    </row>
+    <row r="234" spans="1:7" ht="51" x14ac:dyDescent="0.25">
       <c r="A234" s="16" t="s">
         <v>629</v>
       </c>
-      <c r="B234" s="17" t="s">
-        <v>638</v>
-      </c>
-      <c r="C234" s="16" t="s">
-        <v>40</v>
-      </c>
-      <c r="D234" s="16" t="s">
+      <c r="B234" s="19" t="s">
+        <v>653</v>
+      </c>
+      <c r="C234" s="18" t="s">
+        <v>602</v>
+      </c>
+      <c r="D234" s="18" t="s">
+        <v>516</v>
+      </c>
+      <c r="E234" s="18"/>
+      <c r="F234" s="18"/>
+    </row>
+    <row r="235" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
+      <c r="A235" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B235" s="17" t="s">
+        <v>656</v>
+      </c>
+      <c r="C235" s="16" t="s">
+        <v>517</v>
+      </c>
+      <c r="D235" s="16" t="s">
+        <v>518</v>
+      </c>
+      <c r="E235" s="23"/>
+      <c r="F235" s="23"/>
+    </row>
+    <row r="236" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A236" s="16" t="s">
+        <v>629</v>
+      </c>
+      <c r="B236" s="17" t="s">
+        <v>658</v>
+      </c>
+      <c r="C236" s="22" t="s">
+        <v>519</v>
+      </c>
+      <c r="D236" s="16" t="s">
+        <v>520</v>
+      </c>
+      <c r="E236" s="23"/>
+      <c r="F236" s="23"/>
+    </row>
+    <row r="237" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="112" t="s">
+        <v>507</v>
+      </c>
+      <c r="B237" s="112"/>
+      <c r="C237" s="112"/>
+      <c r="D237" s="112"/>
+      <c r="E237" s="112"/>
+      <c r="F237" s="112"/>
+      <c r="G237" s="13" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A238" s="73"/>
+      <c r="B238" s="74">
+        <v>1</v>
+      </c>
+      <c r="C238" s="73" t="s">
+        <v>681</v>
+      </c>
+      <c r="D238" s="73" t="s">
         <v>425</v>
       </c>
-      <c r="E234" s="16"/>
-      <c r="F234" s="16"/>
-    </row>
-    <row r="235" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A235" s="95" t="s">
-        <v>629</v>
-      </c>
-      <c r="B235" s="98" t="s">
-        <v>640</v>
-      </c>
-      <c r="C235" s="95" t="s">
-        <v>530</v>
-      </c>
-      <c r="D235" s="18" t="s">
-        <v>531</v>
-      </c>
-      <c r="E235" s="95"/>
-      <c r="F235" s="95"/>
-    </row>
-    <row r="236" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A236" s="96"/>
-      <c r="B236" s="99"/>
-      <c r="C236" s="96"/>
-      <c r="D236" s="20" t="s">
+      <c r="E238" s="73"/>
+      <c r="F238" s="73"/>
+    </row>
+    <row r="239" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A239" s="100"/>
+      <c r="B239" s="103">
+        <v>2</v>
+      </c>
+      <c r="C239" s="100" t="s">
+        <v>538</v>
+      </c>
+      <c r="D239" s="75" t="s">
+        <v>539</v>
+      </c>
+      <c r="E239" s="100"/>
+      <c r="F239" s="100"/>
+    </row>
+    <row r="240" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A240" s="101"/>
+      <c r="B240" s="104"/>
+      <c r="C240" s="101"/>
+      <c r="D240" s="76" t="s">
         <v>532</v>
       </c>
-      <c r="E236" s="96"/>
-      <c r="F236" s="96"/>
-    </row>
-    <row r="237" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A237" s="96"/>
-      <c r="B237" s="99"/>
-      <c r="C237" s="96"/>
-      <c r="D237" s="20" t="s">
+      <c r="E240" s="101"/>
+      <c r="F240" s="101"/>
+    </row>
+    <row r="241" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A241" s="101"/>
+      <c r="B241" s="104"/>
+      <c r="C241" s="101"/>
+      <c r="D241" s="76" t="s">
         <v>533</v>
       </c>
-      <c r="E237" s="96"/>
-      <c r="F237" s="96"/>
-    </row>
-    <row r="238" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A238" s="96"/>
-      <c r="B238" s="99"/>
-      <c r="C238" s="96"/>
-      <c r="D238" s="20" t="s">
+      <c r="E241" s="101"/>
+      <c r="F241" s="101"/>
+    </row>
+    <row r="242" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A242" s="101"/>
+      <c r="B242" s="104"/>
+      <c r="C242" s="101"/>
+      <c r="D242" s="76" t="s">
         <v>534</v>
       </c>
-      <c r="E238" s="96"/>
-      <c r="F238" s="96"/>
-    </row>
-    <row r="239" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A239" s="97"/>
-      <c r="B239" s="100"/>
-      <c r="C239" s="97"/>
-      <c r="D239" s="21" t="s">
+      <c r="E242" s="101"/>
+      <c r="F242" s="101"/>
+    </row>
+    <row r="243" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A243" s="102"/>
+      <c r="B243" s="105"/>
+      <c r="C243" s="102"/>
+      <c r="D243" s="73" t="s">
         <v>535</v>
       </c>
-      <c r="E239" s="97"/>
-      <c r="F239" s="97"/>
-    </row>
-    <row r="240" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A240" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B240" s="17" t="s">
-        <v>641</v>
-      </c>
-      <c r="C240" s="16" t="s">
+      <c r="E243" s="102"/>
+      <c r="F243" s="102"/>
+    </row>
+    <row r="244" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A244" s="77"/>
+      <c r="B244" s="78">
+        <v>3</v>
+      </c>
+      <c r="C244" s="77" t="s">
         <v>600</v>
       </c>
-      <c r="D240" s="16" t="s">
-        <v>601</v>
-      </c>
-      <c r="E240" s="22"/>
-      <c r="F240" s="22"/>
-    </row>
-    <row r="241" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A241" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B241" s="17" t="s">
-        <v>646</v>
-      </c>
-      <c r="C241" s="16" t="s">
+      <c r="D244" s="77" t="s">
+        <v>603</v>
+      </c>
+      <c r="E244" s="77"/>
+      <c r="F244" s="77"/>
+    </row>
+    <row r="245" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A245" s="100"/>
+      <c r="B245" s="103">
+        <v>4</v>
+      </c>
+      <c r="C245" s="79" t="s">
+        <v>588</v>
+      </c>
+      <c r="D245" s="100" t="s">
+        <v>683</v>
+      </c>
+      <c r="E245" s="100"/>
+      <c r="F245" s="100"/>
+    </row>
+    <row r="246" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A246" s="101"/>
+      <c r="B246" s="104"/>
+      <c r="C246" s="80" t="s">
+        <v>579</v>
+      </c>
+      <c r="D246" s="101"/>
+      <c r="E246" s="101"/>
+      <c r="F246" s="101"/>
+    </row>
+    <row r="247" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A247" s="101"/>
+      <c r="B247" s="104"/>
+      <c r="C247" s="80" t="s">
+        <v>580</v>
+      </c>
+      <c r="D247" s="101"/>
+      <c r="E247" s="101"/>
+      <c r="F247" s="101"/>
+    </row>
+    <row r="248" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A248" s="101"/>
+      <c r="B248" s="104"/>
+      <c r="C248" s="80" t="s">
+        <v>598</v>
+      </c>
+      <c r="D248" s="101"/>
+      <c r="E248" s="101"/>
+      <c r="F248" s="101"/>
+    </row>
+    <row r="249" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A249" s="101"/>
+      <c r="B249" s="104"/>
+      <c r="C249" s="80" t="s">
+        <v>581</v>
+      </c>
+      <c r="D249" s="101"/>
+      <c r="E249" s="101"/>
+      <c r="F249" s="101"/>
+    </row>
+    <row r="250" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A250" s="101"/>
+      <c r="B250" s="104"/>
+      <c r="C250" s="80" t="s">
+        <v>582</v>
+      </c>
+      <c r="D250" s="101"/>
+      <c r="E250" s="101"/>
+      <c r="F250" s="101"/>
+    </row>
+    <row r="251" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A251" s="101"/>
+      <c r="B251" s="104"/>
+      <c r="C251" s="80" t="s">
+        <v>599</v>
+      </c>
+      <c r="D251" s="101"/>
+      <c r="E251" s="101"/>
+      <c r="F251" s="101"/>
+    </row>
+    <row r="252" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A252" s="102"/>
+      <c r="B252" s="105"/>
+      <c r="C252" s="81" t="s">
+        <v>682</v>
+      </c>
+      <c r="D252" s="102"/>
+      <c r="E252" s="102"/>
+      <c r="F252" s="102"/>
+    </row>
+    <row r="253" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A253" s="77"/>
+      <c r="B253" s="78">
+        <v>5</v>
+      </c>
+      <c r="C253" s="77" t="s">
         <v>563</v>
       </c>
-      <c r="D241" s="16" t="s">
+      <c r="D253" s="77" t="s">
         <v>564</v>
       </c>
-      <c r="E241" s="16"/>
-      <c r="F241" s="16"/>
-    </row>
-    <row r="242" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A242" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B242" s="50" t="s">
-        <v>648</v>
-      </c>
-      <c r="C242" s="24" t="s">
-        <v>565</v>
-      </c>
-      <c r="D242" s="24" t="s">
-        <v>566</v>
-      </c>
-      <c r="E242" s="24"/>
-      <c r="F242" s="24"/>
-    </row>
-    <row r="243" spans="1:7" ht="140.25" x14ac:dyDescent="0.25">
-      <c r="A243" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B243" s="19" t="s">
-        <v>650</v>
-      </c>
-      <c r="C243" s="18" t="s">
-        <v>536</v>
-      </c>
-      <c r="D243" s="18" t="s">
+      <c r="E253" s="77"/>
+      <c r="F253" s="77"/>
+    </row>
+    <row r="254" spans="1:6" ht="12" hidden="1" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="A254" s="82"/>
+      <c r="B254" s="83">
+        <v>6</v>
+      </c>
+      <c r="C254" s="82" t="s">
+        <v>684</v>
+      </c>
+      <c r="D254" s="82" t="s">
+        <v>685</v>
+      </c>
+      <c r="E254" s="82"/>
+      <c r="F254" s="82"/>
+    </row>
+    <row r="255" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="82"/>
+      <c r="B255" s="83">
+        <v>7</v>
+      </c>
+      <c r="C255" s="82" t="s">
+        <v>686</v>
+      </c>
+      <c r="D255" s="82" t="s">
+        <v>687</v>
+      </c>
+      <c r="E255" s="82"/>
+      <c r="F255" s="82"/>
+    </row>
+    <row r="256" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="100"/>
+      <c r="B256" s="103">
+        <v>8</v>
+      </c>
+      <c r="C256" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="D256" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="E256" s="100"/>
+      <c r="F256" s="100"/>
+    </row>
+    <row r="257" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A257" s="101"/>
+      <c r="B257" s="104"/>
+      <c r="C257" s="76" t="s">
+        <v>579</v>
+      </c>
+      <c r="D257" s="101"/>
+      <c r="E257" s="101"/>
+      <c r="F257" s="101"/>
+    </row>
+    <row r="258" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="101"/>
+      <c r="B258" s="104"/>
+      <c r="C258" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D258" s="101"/>
+      <c r="E258" s="101"/>
+      <c r="F258" s="101"/>
+    </row>
+    <row r="259" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="101"/>
+      <c r="B259" s="104"/>
+      <c r="C259" s="76" t="s">
+        <v>688</v>
+      </c>
+      <c r="D259" s="101"/>
+      <c r="E259" s="101"/>
+      <c r="F259" s="101"/>
+    </row>
+    <row r="260" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A260" s="101"/>
+      <c r="B260" s="104"/>
+      <c r="C260" s="76" t="s">
+        <v>582</v>
+      </c>
+      <c r="D260" s="101"/>
+      <c r="E260" s="101"/>
+      <c r="F260" s="101"/>
+    </row>
+    <row r="261" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="101"/>
+      <c r="B261" s="104"/>
+      <c r="C261" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D261" s="101"/>
+      <c r="E261" s="101"/>
+      <c r="F261" s="101"/>
+    </row>
+    <row r="262" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="101"/>
+      <c r="B262" s="104"/>
+      <c r="C262" s="76" t="s">
+        <v>690</v>
+      </c>
+      <c r="D262" s="101"/>
+      <c r="E262" s="101"/>
+      <c r="F262" s="101"/>
+    </row>
+    <row r="263" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A263" s="102"/>
+      <c r="B263" s="105"/>
+      <c r="C263" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="D263" s="102"/>
+      <c r="E263" s="102"/>
+      <c r="F263" s="102"/>
+    </row>
+    <row r="264" spans="1:6" s="51" customFormat="1" ht="76.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="100"/>
+      <c r="B264" s="103">
+        <v>9</v>
+      </c>
+      <c r="C264" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D264" s="100" t="s">
         <v>514</v>
       </c>
-      <c r="E243" s="18"/>
-      <c r="F243" s="18"/>
-    </row>
-    <row r="244" spans="1:7" ht="51" x14ac:dyDescent="0.25">
-      <c r="A244" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B244" s="19" t="s">
-        <v>653</v>
-      </c>
-      <c r="C244" s="18" t="s">
-        <v>602</v>
-      </c>
-      <c r="D244" s="18" t="s">
+      <c r="E264" s="100" t="s">
+        <v>696</v>
+      </c>
+      <c r="F264" s="100"/>
+    </row>
+    <row r="265" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="101"/>
+      <c r="B265" s="104"/>
+      <c r="C265" s="76" t="s">
+        <v>691</v>
+      </c>
+      <c r="D265" s="101"/>
+      <c r="E265" s="101"/>
+      <c r="F265" s="101"/>
+    </row>
+    <row r="266" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A266" s="101"/>
+      <c r="B266" s="104"/>
+      <c r="C266" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="D266" s="101"/>
+      <c r="E266" s="101"/>
+      <c r="F266" s="101"/>
+    </row>
+    <row r="267" spans="1:6" s="51" customFormat="1" ht="140.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="101"/>
+      <c r="B267" s="104"/>
+      <c r="C267" s="76" t="s">
+        <v>693</v>
+      </c>
+      <c r="D267" s="101"/>
+      <c r="E267" s="101"/>
+      <c r="F267" s="101"/>
+    </row>
+    <row r="268" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="101"/>
+      <c r="B268" s="104"/>
+      <c r="C268" s="76" t="s">
+        <v>694</v>
+      </c>
+      <c r="D268" s="101"/>
+      <c r="E268" s="101"/>
+      <c r="F268" s="101"/>
+    </row>
+    <row r="269" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A269" s="101"/>
+      <c r="B269" s="104"/>
+      <c r="C269" s="76" t="s">
+        <v>695</v>
+      </c>
+      <c r="D269" s="101"/>
+      <c r="E269" s="101"/>
+      <c r="F269" s="101"/>
+    </row>
+    <row r="270" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="101"/>
+      <c r="B270" s="104"/>
+      <c r="C270" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="D270" s="101"/>
+      <c r="E270" s="101"/>
+      <c r="F270" s="101"/>
+    </row>
+    <row r="271" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="102"/>
+      <c r="B271" s="105"/>
+      <c r="C271" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="D271" s="102"/>
+      <c r="E271" s="102"/>
+      <c r="F271" s="102"/>
+    </row>
+    <row r="272" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A272" s="100"/>
+      <c r="B272" s="106">
+        <v>10</v>
+      </c>
+      <c r="C272" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D272" s="100" t="s">
         <v>516</v>
       </c>
-      <c r="E244" s="18"/>
-      <c r="F244" s="18"/>
-    </row>
-    <row r="245" spans="1:7" ht="38.25" x14ac:dyDescent="0.25">
-      <c r="A245" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B245" s="17" t="s">
-        <v>656</v>
-      </c>
-      <c r="C245" s="16" t="s">
-        <v>517</v>
-      </c>
-      <c r="D245" s="16" t="s">
+      <c r="E272" s="100"/>
+      <c r="F272" s="100"/>
+    </row>
+    <row r="273" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="101"/>
+      <c r="B273" s="107"/>
+      <c r="C273" s="76" t="s">
+        <v>589</v>
+      </c>
+      <c r="D273" s="101"/>
+      <c r="E273" s="101"/>
+      <c r="F273" s="101"/>
+    </row>
+    <row r="274" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="101"/>
+      <c r="B274" s="107"/>
+      <c r="C274" s="76" t="s">
+        <v>590</v>
+      </c>
+      <c r="D274" s="101"/>
+      <c r="E274" s="101"/>
+      <c r="F274" s="101"/>
+    </row>
+    <row r="275" spans="1:6" s="51" customFormat="1" ht="114.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A275" s="101"/>
+      <c r="B275" s="107"/>
+      <c r="C275" s="76" t="s">
+        <v>591</v>
+      </c>
+      <c r="D275" s="101"/>
+      <c r="E275" s="101"/>
+      <c r="F275" s="101"/>
+    </row>
+    <row r="276" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="102"/>
+      <c r="B276" s="108"/>
+      <c r="C276" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="D276" s="102"/>
+      <c r="E276" s="102"/>
+      <c r="F276" s="102"/>
+    </row>
+    <row r="277" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="84"/>
+      <c r="B277" s="85">
+        <v>11</v>
+      </c>
+      <c r="C277" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="D277" s="77" t="s">
         <v>518</v>
       </c>
-      <c r="E245" s="23"/>
-      <c r="F245" s="23"/>
-    </row>
-    <row r="246" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A246" s="16" t="s">
-        <v>629</v>
-      </c>
-      <c r="B246" s="17" t="s">
-        <v>658</v>
-      </c>
-      <c r="C246" s="22" t="s">
+      <c r="E277" s="86"/>
+      <c r="F277" s="86"/>
+    </row>
+    <row r="278" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A278" s="84"/>
+      <c r="B278" s="78">
+        <v>12</v>
+      </c>
+      <c r="C278" s="86" t="s">
         <v>519</v>
       </c>
-      <c r="D246" s="16" t="s">
+      <c r="D278" s="77" t="s">
         <v>520</v>
       </c>
-      <c r="E246" s="23"/>
-      <c r="F246" s="23"/>
-    </row>
-    <row r="247" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A247" s="91" t="s">
-        <v>507</v>
-      </c>
-      <c r="B247" s="91"/>
-      <c r="C247" s="91"/>
-      <c r="D247" s="91"/>
-      <c r="E247" s="91"/>
-      <c r="F247" s="91"/>
-      <c r="G247" s="13" t="s">
-        <v>700</v>
-      </c>
-    </row>
-    <row r="248" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A248" s="106"/>
-      <c r="B248" s="107">
-        <v>1</v>
-      </c>
-      <c r="C248" s="106" t="s">
-        <v>682</v>
-      </c>
-      <c r="D248" s="106" t="s">
-        <v>425</v>
-      </c>
-      <c r="E248" s="106"/>
-      <c r="F248" s="106"/>
-    </row>
-    <row r="249" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A249" s="115"/>
-      <c r="B249" s="118">
-        <v>2</v>
-      </c>
-      <c r="C249" s="115" t="s">
-        <v>538</v>
-      </c>
-      <c r="D249" s="108" t="s">
-        <v>539</v>
-      </c>
-      <c r="E249" s="115"/>
-      <c r="F249" s="115"/>
-    </row>
-    <row r="250" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A250" s="116"/>
-      <c r="B250" s="119"/>
-      <c r="C250" s="116"/>
-      <c r="D250" s="109" t="s">
-        <v>532</v>
-      </c>
-      <c r="E250" s="116"/>
-      <c r="F250" s="116"/>
-    </row>
-    <row r="251" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A251" s="116"/>
-      <c r="B251" s="119"/>
-      <c r="C251" s="116"/>
-      <c r="D251" s="109" t="s">
-        <v>533</v>
-      </c>
-      <c r="E251" s="116"/>
-      <c r="F251" s="116"/>
-    </row>
-    <row r="252" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A252" s="116"/>
-      <c r="B252" s="119"/>
-      <c r="C252" s="116"/>
-      <c r="D252" s="109" t="s">
-        <v>534</v>
-      </c>
-      <c r="E252" s="116"/>
-      <c r="F252" s="116"/>
-    </row>
-    <row r="253" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A253" s="117"/>
-      <c r="B253" s="120"/>
-      <c r="C253" s="117"/>
-      <c r="D253" s="106" t="s">
-        <v>535</v>
-      </c>
-      <c r="E253" s="117"/>
-      <c r="F253" s="117"/>
-    </row>
-    <row r="254" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A254" s="110"/>
-      <c r="B254" s="111">
-        <v>3</v>
-      </c>
-      <c r="C254" s="110" t="s">
-        <v>600</v>
-      </c>
-      <c r="D254" s="110" t="s">
-        <v>603</v>
-      </c>
-      <c r="E254" s="110"/>
-      <c r="F254" s="110"/>
-    </row>
-    <row r="255" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A255" s="115"/>
-      <c r="B255" s="118">
-        <v>4</v>
-      </c>
-      <c r="C255" s="112" t="s">
-        <v>588</v>
-      </c>
-      <c r="D255" s="115" t="s">
-        <v>684</v>
-      </c>
-      <c r="E255" s="115"/>
-      <c r="F255" s="115"/>
-    </row>
-    <row r="256" spans="1:7" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A256" s="116"/>
-      <c r="B256" s="119"/>
-      <c r="C256" s="113" t="s">
-        <v>579</v>
-      </c>
-      <c r="D256" s="116"/>
-      <c r="E256" s="116"/>
-      <c r="F256" s="116"/>
-    </row>
-    <row r="257" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A257" s="116"/>
-      <c r="B257" s="119"/>
-      <c r="C257" s="113" t="s">
-        <v>580</v>
-      </c>
-      <c r="D257" s="116"/>
-      <c r="E257" s="116"/>
-      <c r="F257" s="116"/>
-    </row>
-    <row r="258" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A258" s="116"/>
-      <c r="B258" s="119"/>
-      <c r="C258" s="113" t="s">
-        <v>598</v>
-      </c>
-      <c r="D258" s="116"/>
-      <c r="E258" s="116"/>
-      <c r="F258" s="116"/>
-    </row>
-    <row r="259" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A259" s="116"/>
-      <c r="B259" s="119"/>
-      <c r="C259" s="113" t="s">
-        <v>581</v>
-      </c>
-      <c r="D259" s="116"/>
-      <c r="E259" s="116"/>
-      <c r="F259" s="116"/>
-    </row>
-    <row r="260" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A260" s="116"/>
-      <c r="B260" s="119"/>
-      <c r="C260" s="113" t="s">
-        <v>582</v>
-      </c>
-      <c r="D260" s="116"/>
-      <c r="E260" s="116"/>
-      <c r="F260" s="116"/>
-    </row>
-    <row r="261" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A261" s="116"/>
-      <c r="B261" s="119"/>
-      <c r="C261" s="113" t="s">
-        <v>599</v>
-      </c>
-      <c r="D261" s="116"/>
-      <c r="E261" s="116"/>
-      <c r="F261" s="116"/>
-    </row>
-    <row r="262" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A262" s="117"/>
-      <c r="B262" s="120"/>
-      <c r="C262" s="114" t="s">
-        <v>683</v>
-      </c>
-      <c r="D262" s="117"/>
-      <c r="E262" s="117"/>
-      <c r="F262" s="117"/>
-    </row>
-    <row r="263" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A263" s="110"/>
-      <c r="B263" s="111">
-        <v>5</v>
-      </c>
-      <c r="C263" s="110" t="s">
-        <v>563</v>
-      </c>
-      <c r="D263" s="110" t="s">
-        <v>564</v>
-      </c>
-      <c r="E263" s="110"/>
-      <c r="F263" s="110"/>
-    </row>
-    <row r="264" spans="1:6" ht="12" hidden="1" customHeight="1" collapsed="1" x14ac:dyDescent="0.25">
-      <c r="A264" s="121"/>
-      <c r="B264" s="122">
-        <v>6</v>
-      </c>
-      <c r="C264" s="121" t="s">
-        <v>685</v>
-      </c>
-      <c r="D264" s="121" t="s">
-        <v>686</v>
-      </c>
-      <c r="E264" s="121"/>
-      <c r="F264" s="121"/>
-    </row>
-    <row r="265" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A265" s="121"/>
-      <c r="B265" s="122">
-        <v>7</v>
-      </c>
-      <c r="C265" s="121" t="s">
-        <v>687</v>
-      </c>
-      <c r="D265" s="121" t="s">
-        <v>688</v>
-      </c>
-      <c r="E265" s="121"/>
-      <c r="F265" s="121"/>
-    </row>
-    <row r="266" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A266" s="115"/>
-      <c r="B266" s="118">
-        <v>8</v>
-      </c>
-      <c r="C266" s="108" t="s">
-        <v>584</v>
-      </c>
-      <c r="D266" s="115" t="s">
-        <v>512</v>
-      </c>
-      <c r="E266" s="115"/>
-      <c r="F266" s="115"/>
-    </row>
-    <row r="267" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A267" s="116"/>
-      <c r="B267" s="119"/>
-      <c r="C267" s="109" t="s">
-        <v>579</v>
-      </c>
-      <c r="D267" s="116"/>
-      <c r="E267" s="116"/>
-      <c r="F267" s="116"/>
-    </row>
-    <row r="268" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A268" s="116"/>
-      <c r="B268" s="119"/>
-      <c r="C268" s="109" t="s">
-        <v>580</v>
-      </c>
-      <c r="D268" s="116"/>
-      <c r="E268" s="116"/>
-      <c r="F268" s="116"/>
-    </row>
-    <row r="269" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A269" s="116"/>
-      <c r="B269" s="119"/>
-      <c r="C269" s="109" t="s">
-        <v>689</v>
-      </c>
-      <c r="D269" s="116"/>
-      <c r="E269" s="116"/>
-      <c r="F269" s="116"/>
-    </row>
-    <row r="270" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A270" s="116"/>
-      <c r="B270" s="119"/>
-      <c r="C270" s="109" t="s">
-        <v>582</v>
-      </c>
-      <c r="D270" s="116"/>
-      <c r="E270" s="116"/>
-      <c r="F270" s="116"/>
-    </row>
-    <row r="271" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A271" s="116"/>
-      <c r="B271" s="119"/>
-      <c r="C271" s="109" t="s">
-        <v>690</v>
-      </c>
-      <c r="D271" s="116"/>
-      <c r="E271" s="116"/>
-      <c r="F271" s="116"/>
-    </row>
-    <row r="272" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A272" s="116"/>
-      <c r="B272" s="119"/>
-      <c r="C272" s="109" t="s">
-        <v>691</v>
-      </c>
-      <c r="D272" s="116"/>
-      <c r="E272" s="116"/>
-      <c r="F272" s="116"/>
-    </row>
-    <row r="273" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A273" s="117"/>
-      <c r="B273" s="120"/>
-      <c r="C273" s="106" t="s">
-        <v>587</v>
-      </c>
-      <c r="D273" s="117"/>
-      <c r="E273" s="117"/>
-      <c r="F273" s="117"/>
-    </row>
-    <row r="274" spans="1:6" s="51" customFormat="1" ht="76.5" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A274" s="115"/>
-      <c r="B274" s="118">
-        <v>9</v>
-      </c>
-      <c r="C274" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="D274" s="115" t="s">
-        <v>514</v>
-      </c>
-      <c r="E274" s="115" t="s">
-        <v>697</v>
-      </c>
-      <c r="F274" s="115"/>
-    </row>
-    <row r="275" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A275" s="116"/>
-      <c r="B275" s="119"/>
-      <c r="C275" s="109" t="s">
-        <v>692</v>
-      </c>
-      <c r="D275" s="116"/>
-      <c r="E275" s="116"/>
-      <c r="F275" s="116"/>
-    </row>
-    <row r="276" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A276" s="116"/>
-      <c r="B276" s="119"/>
-      <c r="C276" s="109" t="s">
-        <v>693</v>
-      </c>
-      <c r="D276" s="116"/>
-      <c r="E276" s="116"/>
-      <c r="F276" s="116"/>
-    </row>
-    <row r="277" spans="1:6" s="51" customFormat="1" ht="140.25" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A277" s="116"/>
-      <c r="B277" s="119"/>
-      <c r="C277" s="109" t="s">
-        <v>694</v>
-      </c>
-      <c r="D277" s="116"/>
-      <c r="E277" s="116"/>
-      <c r="F277" s="116"/>
-    </row>
-    <row r="278" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A278" s="116"/>
-      <c r="B278" s="119"/>
-      <c r="C278" s="109" t="s">
-        <v>695</v>
-      </c>
-      <c r="D278" s="116"/>
-      <c r="E278" s="116"/>
-      <c r="F278" s="116"/>
-    </row>
-    <row r="279" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A279" s="116"/>
-      <c r="B279" s="119"/>
-      <c r="C279" s="109" t="s">
-        <v>696</v>
-      </c>
-      <c r="D279" s="116"/>
-      <c r="E279" s="116"/>
-      <c r="F279" s="116"/>
-    </row>
-    <row r="280" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A280" s="116"/>
-      <c r="B280" s="119"/>
-      <c r="C280" s="109" t="s">
-        <v>596</v>
-      </c>
-      <c r="D280" s="116"/>
-      <c r="E280" s="116"/>
-      <c r="F280" s="116"/>
-    </row>
-    <row r="281" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A281" s="117"/>
-      <c r="B281" s="120"/>
-      <c r="C281" s="106" t="s">
-        <v>587</v>
-      </c>
-      <c r="D281" s="117"/>
-      <c r="E281" s="117"/>
-      <c r="F281" s="117"/>
-    </row>
-    <row r="282" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A282" s="115"/>
-      <c r="B282" s="126">
-        <v>10</v>
-      </c>
-      <c r="C282" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="D282" s="115" t="s">
-        <v>516</v>
-      </c>
-      <c r="E282" s="115"/>
-      <c r="F282" s="115"/>
-    </row>
-    <row r="283" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A283" s="116"/>
-      <c r="B283" s="127"/>
-      <c r="C283" s="109" t="s">
-        <v>589</v>
-      </c>
-      <c r="D283" s="116"/>
-      <c r="E283" s="116"/>
-      <c r="F283" s="116"/>
-    </row>
-    <row r="284" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A284" s="116"/>
-      <c r="B284" s="127"/>
-      <c r="C284" s="109" t="s">
-        <v>590</v>
-      </c>
-      <c r="D284" s="116"/>
-      <c r="E284" s="116"/>
-      <c r="F284" s="116"/>
-    </row>
-    <row r="285" spans="1:6" s="51" customFormat="1" ht="114.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A285" s="116"/>
-      <c r="B285" s="127"/>
-      <c r="C285" s="109" t="s">
-        <v>591</v>
-      </c>
-      <c r="D285" s="116"/>
-      <c r="E285" s="116"/>
-      <c r="F285" s="116"/>
-    </row>
-    <row r="286" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A286" s="117"/>
-      <c r="B286" s="128"/>
-      <c r="C286" s="106" t="s">
-        <v>587</v>
-      </c>
-      <c r="D286" s="117"/>
-      <c r="E286" s="117"/>
-      <c r="F286" s="117"/>
-    </row>
-    <row r="287" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A287" s="123"/>
-      <c r="B287" s="124">
-        <v>11</v>
-      </c>
-      <c r="C287" s="110" t="s">
-        <v>698</v>
-      </c>
-      <c r="D287" s="110" t="s">
-        <v>518</v>
-      </c>
-      <c r="E287" s="125"/>
-      <c r="F287" s="125"/>
-    </row>
-    <row r="288" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A288" s="123"/>
-      <c r="B288" s="111">
-        <v>12</v>
-      </c>
-      <c r="C288" s="125" t="s">
-        <v>519</v>
-      </c>
-      <c r="D288" s="110" t="s">
-        <v>520</v>
-      </c>
-      <c r="E288" s="123"/>
-      <c r="F288" s="123"/>
+      <c r="E278" s="84"/>
+      <c r="F278" s="84"/>
+    </row>
+    <row r="279" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="55"/>
+      <c r="B279" s="17" t="s">
+        <v>649</v>
+      </c>
+      <c r="C279" s="56" t="s">
+        <v>126</v>
+      </c>
+      <c r="D279" s="56"/>
+      <c r="E279" s="55"/>
+      <c r="F279" s="55"/>
+    </row>
+    <row r="280" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="55"/>
+      <c r="B280" s="17" t="s">
+        <v>651</v>
+      </c>
+      <c r="C280" s="56" t="s">
+        <v>129</v>
+      </c>
+      <c r="D280" s="56" t="s">
+        <v>130</v>
+      </c>
+      <c r="E280" s="55"/>
+      <c r="F280" s="55"/>
+    </row>
+    <row r="281" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A281" s="55"/>
+      <c r="B281" s="17" t="s">
+        <v>654</v>
+      </c>
+      <c r="C281" s="56" t="s">
+        <v>131</v>
+      </c>
+      <c r="D281" s="56" t="s">
+        <v>132</v>
+      </c>
+      <c r="E281" s="55"/>
+      <c r="F281" s="55"/>
+    </row>
+    <row r="282" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="55"/>
+      <c r="B282" s="17" t="s">
+        <v>657</v>
+      </c>
+      <c r="C282" s="56" t="s">
+        <v>104</v>
+      </c>
+      <c r="D282" s="56" t="s">
+        <v>133</v>
+      </c>
+      <c r="E282" s="55"/>
+      <c r="F282" s="55"/>
+    </row>
+    <row r="283" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="55"/>
+      <c r="B283" s="17" t="s">
+        <v>659</v>
+      </c>
+      <c r="C283" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D283" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="E283" s="55"/>
+      <c r="F283" s="55"/>
+    </row>
+    <row r="284" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A284" s="55"/>
+      <c r="B284" s="17" t="s">
+        <v>642</v>
+      </c>
+      <c r="C284" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D284" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="E284" s="55"/>
+      <c r="F284" s="55"/>
+    </row>
+    <row r="285" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="55"/>
+      <c r="B285" s="17" t="s">
+        <v>643</v>
+      </c>
+      <c r="C285" s="56" t="s">
+        <v>138</v>
+      </c>
+      <c r="D285" s="56" t="s">
+        <v>139</v>
+      </c>
+      <c r="E285" s="55"/>
+      <c r="F285" s="55"/>
+    </row>
+    <row r="286" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="55"/>
+      <c r="B286" s="17" t="s">
+        <v>644</v>
+      </c>
+      <c r="C286" s="56" t="s">
+        <v>140</v>
+      </c>
+      <c r="D286" s="56" t="s">
+        <v>141</v>
+      </c>
+      <c r="E286" s="55"/>
+      <c r="F286" s="55"/>
+    </row>
+    <row r="287" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A287" s="55"/>
+      <c r="B287" s="17" t="s">
+        <v>645</v>
+      </c>
+      <c r="C287" s="56" t="s">
+        <v>142</v>
+      </c>
+      <c r="D287" s="56" t="s">
+        <v>143</v>
+      </c>
+      <c r="E287" s="55"/>
+      <c r="F287" s="55"/>
+    </row>
+    <row r="288" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="55"/>
+      <c r="B288" s="17" t="s">
+        <v>647</v>
+      </c>
+      <c r="C288" s="56" t="s">
+        <v>144</v>
+      </c>
+      <c r="D288" s="56" t="s">
+        <v>145</v>
+      </c>
+      <c r="E288" s="55"/>
+      <c r="F288" s="55"/>
     </row>
     <row r="289" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A289" s="55"/>
-      <c r="B289" s="17" t="s">
-        <v>649</v>
-      </c>
-      <c r="C289" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="D289" s="56"/>
+      <c r="A289" s="109"/>
+      <c r="B289" s="109" t="s">
+        <v>652</v>
+      </c>
+      <c r="C289" s="110" t="s">
+        <v>146</v>
+      </c>
+      <c r="D289" s="111" t="s">
+        <v>147</v>
+      </c>
       <c r="E289" s="55"/>
       <c r="F289" s="55"/>
     </row>
-    <row r="290" spans="1:6" s="51" customFormat="1" ht="38.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A290" s="55"/>
-      <c r="B290" s="17" t="s">
-        <v>651</v>
-      </c>
-      <c r="C290" s="56" t="s">
-        <v>129</v>
-      </c>
-      <c r="D290" s="56" t="s">
-        <v>130</v>
-      </c>
+    <row r="290" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A290" s="109"/>
+      <c r="B290" s="109"/>
+      <c r="C290" s="110"/>
+      <c r="D290" s="111"/>
       <c r="E290" s="55"/>
       <c r="F290" s="55"/>
     </row>
     <row r="291" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A291" s="55"/>
-      <c r="B291" s="17" t="s">
-        <v>654</v>
-      </c>
-      <c r="C291" s="56" t="s">
-        <v>131</v>
-      </c>
-      <c r="D291" s="56" t="s">
-        <v>132</v>
-      </c>
+      <c r="A291" s="109"/>
+      <c r="B291" s="109"/>
+      <c r="C291" s="110"/>
+      <c r="D291" s="111"/>
       <c r="E291" s="55"/>
       <c r="F291" s="55"/>
     </row>
     <row r="292" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A292" s="55"/>
-      <c r="B292" s="17" t="s">
-        <v>657</v>
-      </c>
-      <c r="C292" s="56" t="s">
-        <v>104</v>
-      </c>
-      <c r="D292" s="56" t="s">
-        <v>133</v>
-      </c>
+      <c r="A292" s="109"/>
+      <c r="B292" s="109"/>
+      <c r="C292" s="110"/>
+      <c r="D292" s="111"/>
       <c r="E292" s="55"/>
       <c r="F292" s="55"/>
     </row>
     <row r="293" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A293" s="55"/>
-      <c r="B293" s="17" t="s">
-        <v>659</v>
-      </c>
-      <c r="C293" s="56" t="s">
-        <v>134</v>
-      </c>
-      <c r="D293" s="56" t="s">
-        <v>135</v>
-      </c>
+      <c r="A293" s="109"/>
+      <c r="B293" s="109"/>
+      <c r="C293" s="110"/>
+      <c r="D293" s="111"/>
       <c r="E293" s="55"/>
       <c r="F293" s="55"/>
     </row>
     <row r="294" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A294" s="55"/>
-      <c r="B294" s="17" t="s">
-        <v>642</v>
-      </c>
-      <c r="C294" s="56" t="s">
-        <v>136</v>
-      </c>
-      <c r="D294" s="56" t="s">
-        <v>137</v>
-      </c>
+      <c r="A294" s="109"/>
+      <c r="B294" s="109"/>
+      <c r="C294" s="110"/>
+      <c r="D294" s="111"/>
       <c r="E294" s="55"/>
       <c r="F294" s="55"/>
     </row>
     <row r="295" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A295" s="55"/>
-      <c r="B295" s="17" t="s">
-        <v>643</v>
-      </c>
-      <c r="C295" s="56" t="s">
-        <v>138</v>
-      </c>
-      <c r="D295" s="56" t="s">
-        <v>139</v>
-      </c>
+      <c r="A295" s="109"/>
+      <c r="B295" s="109"/>
+      <c r="C295" s="110"/>
+      <c r="D295" s="111"/>
       <c r="E295" s="55"/>
       <c r="F295" s="55"/>
     </row>
     <row r="296" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A296" s="55"/>
-      <c r="B296" s="17" t="s">
-        <v>644</v>
-      </c>
-      <c r="C296" s="56" t="s">
-        <v>140</v>
-      </c>
-      <c r="D296" s="56" t="s">
-        <v>141</v>
-      </c>
+      <c r="A296" s="109"/>
+      <c r="B296" s="109"/>
+      <c r="C296" s="110"/>
+      <c r="D296" s="111"/>
       <c r="E296" s="55"/>
       <c r="F296" s="55"/>
     </row>
     <row r="297" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A297" s="55"/>
-      <c r="B297" s="17" t="s">
-        <v>645</v>
-      </c>
-      <c r="C297" s="56" t="s">
-        <v>142</v>
-      </c>
-      <c r="D297" s="56" t="s">
-        <v>143</v>
-      </c>
+      <c r="A297" s="109"/>
+      <c r="B297" s="109"/>
+      <c r="C297" s="110"/>
+      <c r="D297" s="111"/>
       <c r="E297" s="55"/>
       <c r="F297" s="55"/>
     </row>
     <row r="298" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A298" s="55"/>
-      <c r="B298" s="17" t="s">
-        <v>647</v>
-      </c>
-      <c r="C298" s="56" t="s">
-        <v>144</v>
-      </c>
-      <c r="D298" s="56" t="s">
-        <v>145</v>
-      </c>
+      <c r="A298" s="109"/>
+      <c r="B298" s="109"/>
+      <c r="C298" s="110"/>
+      <c r="D298" s="111"/>
       <c r="E298" s="55"/>
       <c r="F298" s="55"/>
     </row>
     <row r="299" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A299" s="102"/>
-      <c r="B299" s="102" t="s">
-        <v>652</v>
-      </c>
-      <c r="C299" s="103" t="s">
-        <v>146</v>
-      </c>
-      <c r="D299" s="104" t="s">
-        <v>147</v>
-      </c>
+      <c r="A299" s="109"/>
+      <c r="B299" s="109"/>
+      <c r="C299" s="110"/>
+      <c r="D299" s="111"/>
       <c r="E299" s="55"/>
       <c r="F299" s="55"/>
     </row>
     <row r="300" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A300" s="102"/>
-      <c r="B300" s="102"/>
-      <c r="C300" s="103"/>
-      <c r="D300" s="104"/>
+      <c r="A300" s="109"/>
+      <c r="B300" s="109"/>
+      <c r="C300" s="110"/>
+      <c r="D300" s="111"/>
       <c r="E300" s="55"/>
       <c r="F300" s="55"/>
     </row>
     <row r="301" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A301" s="102"/>
-      <c r="B301" s="102"/>
-      <c r="C301" s="103"/>
-      <c r="D301" s="104"/>
+      <c r="A301" s="109"/>
+      <c r="B301" s="109"/>
+      <c r="C301" s="110"/>
+      <c r="D301" s="111"/>
       <c r="E301" s="55"/>
       <c r="F301" s="55"/>
     </row>
     <row r="302" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A302" s="102"/>
-      <c r="B302" s="102"/>
-      <c r="C302" s="103"/>
-      <c r="D302" s="104"/>
+      <c r="A302" s="109"/>
+      <c r="B302" s="109"/>
+      <c r="C302" s="110"/>
+      <c r="D302" s="111"/>
       <c r="E302" s="55"/>
       <c r="F302" s="55"/>
     </row>
     <row r="303" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A303" s="102"/>
-      <c r="B303" s="102"/>
-      <c r="C303" s="103"/>
-      <c r="D303" s="104"/>
+      <c r="A303" s="109"/>
+      <c r="B303" s="109"/>
+      <c r="C303" s="110"/>
+      <c r="D303" s="111"/>
       <c r="E303" s="55"/>
       <c r="F303" s="55"/>
     </row>
     <row r="304" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A304" s="102"/>
-      <c r="B304" s="102"/>
-      <c r="C304" s="103"/>
-      <c r="D304" s="104"/>
+      <c r="A304" s="109"/>
+      <c r="B304" s="109"/>
+      <c r="C304" s="110"/>
+      <c r="D304" s="111"/>
       <c r="E304" s="55"/>
       <c r="F304" s="55"/>
     </row>
     <row r="305" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A305" s="102"/>
-      <c r="B305" s="102"/>
-      <c r="C305" s="103"/>
-      <c r="D305" s="104"/>
+      <c r="A305" s="109"/>
+      <c r="B305" s="109"/>
+      <c r="C305" s="110"/>
+      <c r="D305" s="111"/>
       <c r="E305" s="55"/>
       <c r="F305" s="55"/>
     </row>
-    <row r="306" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A306" s="102"/>
-      <c r="B306" s="102"/>
-      <c r="C306" s="103"/>
-      <c r="D306" s="104"/>
+    <row r="306" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="55"/>
+      <c r="B306" s="55" t="s">
+        <v>655</v>
+      </c>
+      <c r="C306" s="56" t="s">
+        <v>148</v>
+      </c>
+      <c r="D306" s="56" t="s">
+        <v>149</v>
+      </c>
       <c r="E306" s="55"/>
       <c r="F306" s="55"/>
     </row>
-    <row r="307" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A307" s="102"/>
-      <c r="B307" s="102"/>
-      <c r="C307" s="103"/>
-      <c r="D307" s="104"/>
-      <c r="E307" s="55"/>
-      <c r="F307" s="55"/>
-    </row>
-    <row r="308" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A308" s="102"/>
-      <c r="B308" s="102"/>
-      <c r="C308" s="103"/>
-      <c r="D308" s="104"/>
-      <c r="E308" s="55"/>
-      <c r="F308" s="55"/>
-    </row>
-    <row r="309" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A309" s="102"/>
-      <c r="B309" s="102"/>
-      <c r="C309" s="103"/>
-      <c r="D309" s="104"/>
-      <c r="E309" s="55"/>
-      <c r="F309" s="55"/>
-    </row>
-    <row r="310" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A310" s="102"/>
-      <c r="B310" s="102"/>
-      <c r="C310" s="103"/>
-      <c r="D310" s="104"/>
-      <c r="E310" s="55"/>
-      <c r="F310" s="55"/>
-    </row>
-    <row r="311" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A311" s="102"/>
-      <c r="B311" s="102"/>
-      <c r="C311" s="103"/>
-      <c r="D311" s="104"/>
-      <c r="E311" s="55"/>
-      <c r="F311" s="55"/>
-    </row>
-    <row r="312" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A312" s="102"/>
-      <c r="B312" s="102"/>
-      <c r="C312" s="103"/>
-      <c r="D312" s="104"/>
-      <c r="E312" s="55"/>
-      <c r="F312" s="55"/>
-    </row>
-    <row r="313" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A313" s="102"/>
-      <c r="B313" s="102"/>
-      <c r="C313" s="103"/>
-      <c r="D313" s="104"/>
-      <c r="E313" s="55"/>
-      <c r="F313" s="55"/>
-    </row>
-    <row r="314" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A314" s="102"/>
-      <c r="B314" s="102"/>
-      <c r="C314" s="103"/>
-      <c r="D314" s="104"/>
-      <c r="E314" s="55"/>
-      <c r="F314" s="55"/>
-    </row>
-    <row r="315" spans="1:6" s="51" customFormat="1" ht="12.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A315" s="102"/>
-      <c r="B315" s="102"/>
-      <c r="C315" s="103"/>
-      <c r="D315" s="104"/>
-      <c r="E315" s="55"/>
-      <c r="F315" s="55"/>
-    </row>
-    <row r="316" spans="1:6" s="51" customFormat="1" ht="63.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.25">
-      <c r="A316" s="55"/>
-      <c r="B316" s="55" t="s">
-        <v>655</v>
-      </c>
-      <c r="C316" s="56" t="s">
-        <v>148</v>
-      </c>
-      <c r="D316" s="56" t="s">
-        <v>149</v>
-      </c>
-      <c r="E316" s="55"/>
-      <c r="F316" s="55"/>
-    </row>
-    <row r="317" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C317" s="31"/>
-      <c r="D317" s="31"/>
-    </row>
-    <row r="318" spans="1:6" ht="138" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C318" s="31"/>
-      <c r="D318" s="31"/>
+    <row r="307" spans="1:6" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C307" s="31"/>
+      <c r="D307" s="31"/>
+    </row>
+    <row r="308" spans="1:6" ht="138" hidden="1" x14ac:dyDescent="0.25">
+      <c r="C308" s="31"/>
+      <c r="D308" s="31"/>
+    </row>
+    <row r="309" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A309" s="82"/>
+      <c r="B309" s="83">
+        <v>6</v>
+      </c>
+      <c r="C309" s="82" t="s">
+        <v>684</v>
+      </c>
+      <c r="D309" s="82" t="s">
+        <v>698</v>
+      </c>
+      <c r="E309" s="82"/>
+      <c r="F309" s="82"/>
+    </row>
+    <row r="310" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A310" s="100"/>
+      <c r="B310" s="103">
+        <v>7</v>
+      </c>
+      <c r="C310" s="75" t="s">
+        <v>584</v>
+      </c>
+      <c r="D310" s="100" t="s">
+        <v>512</v>
+      </c>
+      <c r="E310" s="100"/>
+      <c r="F310" s="100"/>
+    </row>
+    <row r="311" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A311" s="101"/>
+      <c r="B311" s="104"/>
+      <c r="C311" s="76" t="s">
+        <v>579</v>
+      </c>
+      <c r="D311" s="101"/>
+      <c r="E311" s="101"/>
+      <c r="F311" s="101"/>
+    </row>
+    <row r="312" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A312" s="101"/>
+      <c r="B312" s="104"/>
+      <c r="C312" s="76" t="s">
+        <v>580</v>
+      </c>
+      <c r="D312" s="101"/>
+      <c r="E312" s="101"/>
+      <c r="F312" s="101"/>
+    </row>
+    <row r="313" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A313" s="101"/>
+      <c r="B313" s="104"/>
+      <c r="C313" s="76" t="s">
+        <v>688</v>
+      </c>
+      <c r="D313" s="101"/>
+      <c r="E313" s="101"/>
+      <c r="F313" s="101"/>
+    </row>
+    <row r="314" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A314" s="101"/>
+      <c r="B314" s="104"/>
+      <c r="C314" s="76" t="s">
+        <v>582</v>
+      </c>
+      <c r="D314" s="101"/>
+      <c r="E314" s="101"/>
+      <c r="F314" s="101"/>
+    </row>
+    <row r="315" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A315" s="101"/>
+      <c r="B315" s="104"/>
+      <c r="C315" s="76" t="s">
+        <v>689</v>
+      </c>
+      <c r="D315" s="101"/>
+      <c r="E315" s="101"/>
+      <c r="F315" s="101"/>
+    </row>
+    <row r="316" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A316" s="101"/>
+      <c r="B316" s="104"/>
+      <c r="C316" s="76" t="s">
+        <v>690</v>
+      </c>
+      <c r="D316" s="101"/>
+      <c r="E316" s="101"/>
+      <c r="F316" s="101"/>
+    </row>
+    <row r="317" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A317" s="102"/>
+      <c r="B317" s="105"/>
+      <c r="C317" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="D317" s="102"/>
+      <c r="E317" s="102"/>
+      <c r="F317" s="102"/>
+    </row>
+    <row r="318" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="A318" s="100"/>
+      <c r="B318" s="103">
+        <v>8</v>
+      </c>
+      <c r="C318" s="75" t="s">
+        <v>588</v>
+      </c>
+      <c r="D318" s="100" t="s">
+        <v>514</v>
+      </c>
+      <c r="E318" s="100" t="s">
+        <v>696</v>
+      </c>
+      <c r="F318" s="100"/>
     </row>
     <row r="319" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A319" s="121"/>
-      <c r="B319" s="122">
-        <v>6</v>
-      </c>
-      <c r="C319" s="121" t="s">
-        <v>685</v>
-      </c>
-      <c r="D319" s="121" t="s">
-        <v>699</v>
-      </c>
-      <c r="E319" s="121"/>
-      <c r="F319" s="121"/>
+      <c r="A319" s="101"/>
+      <c r="B319" s="104"/>
+      <c r="C319" s="76" t="s">
+        <v>691</v>
+      </c>
+      <c r="D319" s="101"/>
+      <c r="E319" s="101"/>
+      <c r="F319" s="101"/>
     </row>
     <row r="320" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A320" s="115"/>
-      <c r="B320" s="118">
-        <v>7</v>
-      </c>
-      <c r="C320" s="108" t="s">
-        <v>584</v>
-      </c>
-      <c r="D320" s="115" t="s">
-        <v>512</v>
-      </c>
-      <c r="E320" s="115"/>
-      <c r="F320" s="115"/>
+      <c r="A320" s="101"/>
+      <c r="B320" s="104"/>
+      <c r="C320" s="76" t="s">
+        <v>692</v>
+      </c>
+      <c r="D320" s="101"/>
+      <c r="E320" s="101"/>
+      <c r="F320" s="101"/>
     </row>
     <row r="321" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A321" s="116"/>
-      <c r="B321" s="119"/>
-      <c r="C321" s="109" t="s">
-        <v>579</v>
-      </c>
-      <c r="D321" s="116"/>
-      <c r="E321" s="116"/>
-      <c r="F321" s="116"/>
+      <c r="A321" s="101"/>
+      <c r="B321" s="104"/>
+      <c r="C321" s="76" t="s">
+        <v>693</v>
+      </c>
+      <c r="D321" s="101"/>
+      <c r="E321" s="101"/>
+      <c r="F321" s="101"/>
     </row>
     <row r="322" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A322" s="116"/>
-      <c r="B322" s="119"/>
-      <c r="C322" s="109" t="s">
-        <v>580</v>
-      </c>
-      <c r="D322" s="116"/>
-      <c r="E322" s="116"/>
-      <c r="F322" s="116"/>
+      <c r="A322" s="101"/>
+      <c r="B322" s="104"/>
+      <c r="C322" s="76" t="s">
+        <v>694</v>
+      </c>
+      <c r="D322" s="101"/>
+      <c r="E322" s="101"/>
+      <c r="F322" s="101"/>
     </row>
     <row r="323" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A323" s="116"/>
-      <c r="B323" s="119"/>
-      <c r="C323" s="109" t="s">
-        <v>689</v>
-      </c>
-      <c r="D323" s="116"/>
-      <c r="E323" s="116"/>
-      <c r="F323" s="116"/>
+      <c r="A323" s="101"/>
+      <c r="B323" s="104"/>
+      <c r="C323" s="76" t="s">
+        <v>695</v>
+      </c>
+      <c r="D323" s="101"/>
+      <c r="E323" s="101"/>
+      <c r="F323" s="101"/>
     </row>
     <row r="324" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A324" s="116"/>
-      <c r="B324" s="119"/>
-      <c r="C324" s="109" t="s">
-        <v>582</v>
-      </c>
-      <c r="D324" s="116"/>
-      <c r="E324" s="116"/>
-      <c r="F324" s="116"/>
+      <c r="A324" s="101"/>
+      <c r="B324" s="104"/>
+      <c r="C324" s="76" t="s">
+        <v>596</v>
+      </c>
+      <c r="D324" s="101"/>
+      <c r="E324" s="101"/>
+      <c r="F324" s="101"/>
     </row>
     <row r="325" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A325" s="116"/>
-      <c r="B325" s="119"/>
-      <c r="C325" s="109" t="s">
-        <v>690</v>
-      </c>
-      <c r="D325" s="116"/>
-      <c r="E325" s="116"/>
-      <c r="F325" s="116"/>
+      <c r="A325" s="102"/>
+      <c r="B325" s="105"/>
+      <c r="C325" s="73" t="s">
+        <v>587</v>
+      </c>
+      <c r="D325" s="102"/>
+      <c r="E325" s="102"/>
+      <c r="F325" s="102"/>
     </row>
     <row r="326" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A326" s="116"/>
-      <c r="B326" s="119"/>
-      <c r="C326" s="109" t="s">
-        <v>691</v>
-      </c>
-      <c r="D326" s="116"/>
-      <c r="E326" s="116"/>
-      <c r="F326" s="116"/>
+      <c r="A326" s="84"/>
+      <c r="B326" s="87">
+        <v>9</v>
+      </c>
+      <c r="C326" s="77" t="s">
+        <v>697</v>
+      </c>
+      <c r="D326" s="77" t="s">
+        <v>518</v>
+      </c>
+      <c r="E326" s="86"/>
+      <c r="F326" s="86"/>
     </row>
     <row r="327" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A327" s="117"/>
-      <c r="B327" s="120"/>
-      <c r="C327" s="106" t="s">
-        <v>587</v>
-      </c>
-      <c r="D327" s="117"/>
-      <c r="E327" s="117"/>
-      <c r="F327" s="117"/>
-    </row>
-    <row r="328" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A328" s="115"/>
-      <c r="B328" s="118">
-        <v>8</v>
-      </c>
-      <c r="C328" s="108" t="s">
-        <v>588</v>
-      </c>
-      <c r="D328" s="115" t="s">
-        <v>514</v>
-      </c>
-      <c r="E328" s="115" t="s">
-        <v>697</v>
-      </c>
-      <c r="F328" s="115"/>
-    </row>
-    <row r="329" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A329" s="116"/>
-      <c r="B329" s="119"/>
-      <c r="C329" s="109" t="s">
-        <v>692</v>
-      </c>
-      <c r="D329" s="116"/>
-      <c r="E329" s="116"/>
-      <c r="F329" s="116"/>
-    </row>
-    <row r="330" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A330" s="116"/>
-      <c r="B330" s="119"/>
-      <c r="C330" s="109" t="s">
-        <v>693</v>
-      </c>
-      <c r="D330" s="116"/>
-      <c r="E330" s="116"/>
-      <c r="F330" s="116"/>
-    </row>
-    <row r="331" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A331" s="116"/>
-      <c r="B331" s="119"/>
-      <c r="C331" s="109" t="s">
-        <v>694</v>
-      </c>
-      <c r="D331" s="116"/>
-      <c r="E331" s="116"/>
-      <c r="F331" s="116"/>
-    </row>
-    <row r="332" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A332" s="116"/>
-      <c r="B332" s="119"/>
-      <c r="C332" s="109" t="s">
-        <v>695</v>
-      </c>
-      <c r="D332" s="116"/>
-      <c r="E332" s="116"/>
-      <c r="F332" s="116"/>
-    </row>
-    <row r="333" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A333" s="116"/>
-      <c r="B333" s="119"/>
-      <c r="C333" s="109" t="s">
-        <v>696</v>
-      </c>
-      <c r="D333" s="116"/>
-      <c r="E333" s="116"/>
-      <c r="F333" s="116"/>
-    </row>
-    <row r="334" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A334" s="116"/>
-      <c r="B334" s="119"/>
-      <c r="C334" s="109" t="s">
-        <v>596</v>
-      </c>
-      <c r="D334" s="116"/>
-      <c r="E334" s="116"/>
-      <c r="F334" s="116"/>
-    </row>
-    <row r="335" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A335" s="117"/>
-      <c r="B335" s="120"/>
-      <c r="C335" s="106" t="s">
-        <v>587</v>
-      </c>
-      <c r="D335" s="117"/>
-      <c r="E335" s="117"/>
-      <c r="F335" s="117"/>
-    </row>
-    <row r="336" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A336" s="123"/>
-      <c r="B336" s="129">
-        <v>9</v>
-      </c>
-      <c r="C336" s="110" t="s">
-        <v>698</v>
-      </c>
-      <c r="D336" s="110" t="s">
-        <v>518</v>
-      </c>
-      <c r="E336" s="125"/>
-      <c r="F336" s="125"/>
-    </row>
-    <row r="337" spans="1:6" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A337" s="123"/>
-      <c r="B337" s="124">
+      <c r="A327" s="84"/>
+      <c r="B327" s="85">
         <v>10</v>
       </c>
-      <c r="C337" s="125" t="s">
+      <c r="C327" s="86" t="s">
         <v>519</v>
       </c>
-      <c r="D337" s="110" t="s">
+      <c r="D327" s="77" t="s">
         <v>520</v>
       </c>
-      <c r="E337" s="123"/>
-      <c r="F337" s="123"/>
+      <c r="E327" s="84"/>
+      <c r="F327" s="84"/>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328" s="13"/>
+      <c r="B328" s="13"/>
+      <c r="C328" s="13"/>
+      <c r="D328" s="13"/>
+      <c r="E328" s="13"/>
+      <c r="F328" s="13"/>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329" s="13"/>
+      <c r="B329" s="13"/>
+      <c r="C329" s="13"/>
+      <c r="D329" s="13"/>
+      <c r="E329" s="13"/>
+      <c r="F329" s="13"/>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330" s="13"/>
+      <c r="B330" s="13"/>
+      <c r="C330" s="13"/>
+      <c r="D330" s="13"/>
+      <c r="E330" s="13"/>
+      <c r="F330" s="13"/>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331" s="13"/>
+      <c r="B331" s="13"/>
+      <c r="C331" s="13"/>
+      <c r="D331" s="13"/>
+      <c r="E331" s="13"/>
+      <c r="F331" s="13"/>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332" s="13"/>
+      <c r="B332" s="13"/>
+      <c r="C332" s="13"/>
+      <c r="D332" s="13"/>
+      <c r="E332" s="13"/>
+      <c r="F332" s="13"/>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333" s="13"/>
+      <c r="B333" s="13"/>
+      <c r="C333" s="13"/>
+      <c r="D333" s="13"/>
+      <c r="E333" s="13"/>
+      <c r="F333" s="13"/>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334" s="13"/>
+      <c r="B334" s="13"/>
+      <c r="C334" s="13"/>
+      <c r="D334" s="13"/>
+      <c r="E334" s="13"/>
+      <c r="F334" s="13"/>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335" s="13"/>
+      <c r="B335" s="13"/>
+      <c r="C335" s="13"/>
+      <c r="D335" s="13"/>
+      <c r="E335" s="13"/>
+      <c r="F335" s="13"/>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336" s="13"/>
+      <c r="B336" s="13"/>
+      <c r="C336" s="13"/>
+      <c r="D336" s="13"/>
+      <c r="E336" s="13"/>
+      <c r="F336" s="13"/>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337" s="13"/>
+      <c r="B337" s="13"/>
+      <c r="C337" s="13"/>
+      <c r="D337" s="13"/>
+      <c r="E337" s="13"/>
+      <c r="F337" s="13"/>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A338" s="13"/>
@@ -16067,354 +16048,1982 @@
       <c r="E352" s="13"/>
       <c r="F352" s="13"/>
     </row>
-    <row r="353" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="354" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="355" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="356" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="357" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="358" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="359" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="360" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="361" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="362" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="363" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="364" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="365" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="366" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="367" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="368" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="369" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="370" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="371" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="372" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="373" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="374" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="375" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="376" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="377" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="378" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="379" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="380" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="381" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="382" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="383" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="384" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="385" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="386" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="387" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="388" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="389" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="390" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="391" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="392" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="393" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="394" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="395" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="396" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="397" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="398" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="399" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="400" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="401" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="402" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="403" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="404" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="405" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="406" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="407" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="408" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="409" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="410" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="411" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="412" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="413" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="414" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="415" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="416" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="417" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="418" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="419" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="420" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="421" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="422" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="423" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="424" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="425" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="426" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="427" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="428" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="429" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="430" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="431" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="432" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="433" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="434" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="435" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="436" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="437" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="438" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="439" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="440" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="441" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="442" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="443" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="444" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="445" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="446" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="447" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="448" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="449" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="450" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="451" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="452" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="453" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="454" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="455" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="456" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="457" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="458" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="459" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="460" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="461" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="462" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="463" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="464" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="465" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="466" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="467" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="468" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="469" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="470" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="471" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="472" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="473" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="474" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="475" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="476" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="477" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="478" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="479" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="480" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="481" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="482" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="483" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="484" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="485" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="486" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="487" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="488" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="489" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="490" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="491" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="492" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="493" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="494" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="495" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="496" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="497" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="498" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="499" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="500" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="501" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="502" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="503" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="504" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="505" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="506" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="507" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="508" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="509" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="510" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="511" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="512" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="513" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="514" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="515" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="516" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="517" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="518" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="519" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="520" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="521" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="522" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="523" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="524" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="525" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="526" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="527" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="528" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="529" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="530" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="531" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="532" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="533" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="534" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="535" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="536" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="537" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="538" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="539" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="540" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="541" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="542" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="543" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="544" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="545" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="546" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="547" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="548" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="549" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="550" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="551" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="552" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="553" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="554" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="555" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="556" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="557" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="558" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="559" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="560" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="561" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="562" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="563" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="564" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="565" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="566" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="567" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="568" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="569" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="570" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="571" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="572" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="573" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="574" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="575" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="576" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="577" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="578" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="579" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="580" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="581" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="582" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="583" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="584" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="585" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="586" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="587" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="588" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="589" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="590" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="591" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="592" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="593" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="594" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="595" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="596" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="597" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="598" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="599" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="600" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="601" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="602" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="603" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
-    <row r="604" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353" s="13"/>
+      <c r="B353" s="13"/>
+      <c r="C353" s="13"/>
+      <c r="D353" s="13"/>
+      <c r="E353" s="13"/>
+      <c r="F353" s="13"/>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354" s="13"/>
+      <c r="B354" s="13"/>
+      <c r="C354" s="13"/>
+      <c r="D354" s="13"/>
+      <c r="E354" s="13"/>
+      <c r="F354" s="13"/>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355" s="13"/>
+      <c r="B355" s="13"/>
+      <c r="C355" s="13"/>
+      <c r="D355" s="13"/>
+      <c r="E355" s="13"/>
+      <c r="F355" s="13"/>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356" s="13"/>
+      <c r="B356" s="13"/>
+      <c r="C356" s="13"/>
+      <c r="D356" s="13"/>
+      <c r="E356" s="13"/>
+      <c r="F356" s="13"/>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357" s="13"/>
+      <c r="B357" s="13"/>
+      <c r="C357" s="13"/>
+      <c r="D357" s="13"/>
+      <c r="E357" s="13"/>
+      <c r="F357" s="13"/>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358" s="13"/>
+      <c r="B358" s="13"/>
+      <c r="C358" s="13"/>
+      <c r="D358" s="13"/>
+      <c r="E358" s="13"/>
+      <c r="F358" s="13"/>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359" s="13"/>
+      <c r="B359" s="13"/>
+      <c r="C359" s="13"/>
+      <c r="D359" s="13"/>
+      <c r="E359" s="13"/>
+      <c r="F359" s="13"/>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360" s="13"/>
+      <c r="B360" s="13"/>
+      <c r="C360" s="13"/>
+      <c r="D360" s="13"/>
+      <c r="E360" s="13"/>
+      <c r="F360" s="13"/>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361" s="13"/>
+      <c r="B361" s="13"/>
+      <c r="C361" s="13"/>
+      <c r="D361" s="13"/>
+      <c r="E361" s="13"/>
+      <c r="F361" s="13"/>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362" s="13"/>
+      <c r="B362" s="13"/>
+      <c r="C362" s="13"/>
+      <c r="D362" s="13"/>
+      <c r="E362" s="13"/>
+      <c r="F362" s="13"/>
+    </row>
+    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A363" s="13"/>
+      <c r="B363" s="13"/>
+      <c r="C363" s="13"/>
+      <c r="D363" s="13"/>
+      <c r="E363" s="13"/>
+      <c r="F363" s="13"/>
+    </row>
+    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A364" s="13"/>
+      <c r="B364" s="13"/>
+      <c r="C364" s="13"/>
+      <c r="D364" s="13"/>
+      <c r="E364" s="13"/>
+      <c r="F364" s="13"/>
+    </row>
+    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A365" s="13"/>
+      <c r="B365" s="13"/>
+      <c r="C365" s="13"/>
+      <c r="D365" s="13"/>
+      <c r="E365" s="13"/>
+      <c r="F365" s="13"/>
+    </row>
+    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A366" s="13"/>
+      <c r="B366" s="13"/>
+      <c r="C366" s="13"/>
+      <c r="D366" s="13"/>
+      <c r="E366" s="13"/>
+      <c r="F366" s="13"/>
+    </row>
+    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A367" s="13"/>
+      <c r="B367" s="13"/>
+      <c r="C367" s="13"/>
+      <c r="D367" s="13"/>
+      <c r="E367" s="13"/>
+      <c r="F367" s="13"/>
+    </row>
+    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A368" s="13"/>
+      <c r="B368" s="13"/>
+      <c r="C368" s="13"/>
+      <c r="D368" s="13"/>
+      <c r="E368" s="13"/>
+      <c r="F368" s="13"/>
+    </row>
+    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A369" s="13"/>
+      <c r="B369" s="13"/>
+      <c r="C369" s="13"/>
+      <c r="D369" s="13"/>
+      <c r="E369" s="13"/>
+      <c r="F369" s="13"/>
+    </row>
+    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A370" s="13"/>
+      <c r="B370" s="13"/>
+      <c r="C370" s="13"/>
+      <c r="D370" s="13"/>
+      <c r="E370" s="13"/>
+      <c r="F370" s="13"/>
+    </row>
+    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A371" s="13"/>
+      <c r="B371" s="13"/>
+      <c r="C371" s="13"/>
+      <c r="D371" s="13"/>
+      <c r="E371" s="13"/>
+      <c r="F371" s="13"/>
+    </row>
+    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A372" s="13"/>
+      <c r="B372" s="13"/>
+      <c r="C372" s="13"/>
+      <c r="D372" s="13"/>
+      <c r="E372" s="13"/>
+      <c r="F372" s="13"/>
+    </row>
+    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A373" s="13"/>
+      <c r="B373" s="13"/>
+      <c r="C373" s="13"/>
+      <c r="D373" s="13"/>
+      <c r="E373" s="13"/>
+      <c r="F373" s="13"/>
+    </row>
+    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A374" s="13"/>
+      <c r="B374" s="13"/>
+      <c r="C374" s="13"/>
+      <c r="D374" s="13"/>
+      <c r="E374" s="13"/>
+      <c r="F374" s="13"/>
+    </row>
+    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A375" s="13"/>
+      <c r="B375" s="13"/>
+      <c r="C375" s="13"/>
+      <c r="D375" s="13"/>
+      <c r="E375" s="13"/>
+      <c r="F375" s="13"/>
+    </row>
+    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A376" s="13"/>
+      <c r="B376" s="13"/>
+      <c r="C376" s="13"/>
+      <c r="D376" s="13"/>
+      <c r="E376" s="13"/>
+      <c r="F376" s="13"/>
+    </row>
+    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A377" s="13"/>
+      <c r="B377" s="13"/>
+      <c r="C377" s="13"/>
+      <c r="D377" s="13"/>
+      <c r="E377" s="13"/>
+      <c r="F377" s="13"/>
+    </row>
+    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A378" s="13"/>
+      <c r="B378" s="13"/>
+      <c r="C378" s="13"/>
+      <c r="D378" s="13"/>
+      <c r="E378" s="13"/>
+      <c r="F378" s="13"/>
+    </row>
+    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A379" s="13"/>
+      <c r="B379" s="13"/>
+      <c r="C379" s="13"/>
+      <c r="D379" s="13"/>
+      <c r="E379" s="13"/>
+      <c r="F379" s="13"/>
+    </row>
+    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A380" s="13"/>
+      <c r="B380" s="13"/>
+      <c r="C380" s="13"/>
+      <c r="D380" s="13"/>
+      <c r="E380" s="13"/>
+      <c r="F380" s="13"/>
+    </row>
+    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A381" s="13"/>
+      <c r="B381" s="13"/>
+      <c r="C381" s="13"/>
+      <c r="D381" s="13"/>
+      <c r="E381" s="13"/>
+      <c r="F381" s="13"/>
+    </row>
+    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A382" s="13"/>
+      <c r="B382" s="13"/>
+      <c r="C382" s="13"/>
+      <c r="D382" s="13"/>
+      <c r="E382" s="13"/>
+      <c r="F382" s="13"/>
+    </row>
+    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A383" s="13"/>
+      <c r="B383" s="13"/>
+      <c r="C383" s="13"/>
+      <c r="D383" s="13"/>
+      <c r="E383" s="13"/>
+      <c r="F383" s="13"/>
+    </row>
+    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A384" s="13"/>
+      <c r="B384" s="13"/>
+      <c r="C384" s="13"/>
+      <c r="D384" s="13"/>
+      <c r="E384" s="13"/>
+      <c r="F384" s="13"/>
+    </row>
+    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A385" s="13"/>
+      <c r="B385" s="13"/>
+      <c r="C385" s="13"/>
+      <c r="D385" s="13"/>
+      <c r="E385" s="13"/>
+      <c r="F385" s="13"/>
+    </row>
+    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A386" s="13"/>
+      <c r="B386" s="13"/>
+      <c r="C386" s="13"/>
+      <c r="D386" s="13"/>
+      <c r="E386" s="13"/>
+      <c r="F386" s="13"/>
+    </row>
+    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A387" s="13"/>
+      <c r="B387" s="13"/>
+      <c r="C387" s="13"/>
+      <c r="D387" s="13"/>
+      <c r="E387" s="13"/>
+      <c r="F387" s="13"/>
+    </row>
+    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A388" s="13"/>
+      <c r="B388" s="13"/>
+      <c r="C388" s="13"/>
+      <c r="D388" s="13"/>
+      <c r="E388" s="13"/>
+      <c r="F388" s="13"/>
+    </row>
+    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A389" s="13"/>
+      <c r="B389" s="13"/>
+      <c r="C389" s="13"/>
+      <c r="D389" s="13"/>
+      <c r="E389" s="13"/>
+      <c r="F389" s="13"/>
+    </row>
+    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A390" s="13"/>
+      <c r="B390" s="13"/>
+      <c r="C390" s="13"/>
+      <c r="D390" s="13"/>
+      <c r="E390" s="13"/>
+      <c r="F390" s="13"/>
+    </row>
+    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A391" s="13"/>
+      <c r="B391" s="13"/>
+      <c r="C391" s="13"/>
+      <c r="D391" s="13"/>
+      <c r="E391" s="13"/>
+      <c r="F391" s="13"/>
+    </row>
+    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A392" s="13"/>
+      <c r="B392" s="13"/>
+      <c r="C392" s="13"/>
+      <c r="D392" s="13"/>
+      <c r="E392" s="13"/>
+      <c r="F392" s="13"/>
+    </row>
+    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A393" s="13"/>
+      <c r="B393" s="13"/>
+      <c r="C393" s="13"/>
+      <c r="D393" s="13"/>
+      <c r="E393" s="13"/>
+      <c r="F393" s="13"/>
+    </row>
+    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A394" s="13"/>
+      <c r="B394" s="13"/>
+      <c r="C394" s="13"/>
+      <c r="D394" s="13"/>
+      <c r="E394" s="13"/>
+      <c r="F394" s="13"/>
+    </row>
+    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A395" s="13"/>
+      <c r="B395" s="13"/>
+      <c r="C395" s="13"/>
+      <c r="D395" s="13"/>
+      <c r="E395" s="13"/>
+      <c r="F395" s="13"/>
+    </row>
+    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A396" s="13"/>
+      <c r="B396" s="13"/>
+      <c r="C396" s="13"/>
+      <c r="D396" s="13"/>
+      <c r="E396" s="13"/>
+      <c r="F396" s="13"/>
+    </row>
+    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A397" s="13"/>
+      <c r="B397" s="13"/>
+      <c r="C397" s="13"/>
+      <c r="D397" s="13"/>
+      <c r="E397" s="13"/>
+      <c r="F397" s="13"/>
+    </row>
+    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A398" s="13"/>
+      <c r="B398" s="13"/>
+      <c r="C398" s="13"/>
+      <c r="D398" s="13"/>
+      <c r="E398" s="13"/>
+      <c r="F398" s="13"/>
+    </row>
+    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A399" s="13"/>
+      <c r="B399" s="13"/>
+      <c r="C399" s="13"/>
+      <c r="D399" s="13"/>
+      <c r="E399" s="13"/>
+      <c r="F399" s="13"/>
+    </row>
+    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A400" s="13"/>
+      <c r="B400" s="13"/>
+      <c r="C400" s="13"/>
+      <c r="D400" s="13"/>
+      <c r="E400" s="13"/>
+      <c r="F400" s="13"/>
+    </row>
+    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A401" s="13"/>
+      <c r="B401" s="13"/>
+      <c r="C401" s="13"/>
+      <c r="D401" s="13"/>
+      <c r="E401" s="13"/>
+      <c r="F401" s="13"/>
+    </row>
+    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A402" s="13"/>
+      <c r="B402" s="13"/>
+      <c r="C402" s="13"/>
+      <c r="D402" s="13"/>
+      <c r="E402" s="13"/>
+      <c r="F402" s="13"/>
+    </row>
+    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A403" s="13"/>
+      <c r="B403" s="13"/>
+      <c r="C403" s="13"/>
+      <c r="D403" s="13"/>
+      <c r="E403" s="13"/>
+      <c r="F403" s="13"/>
+    </row>
+    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A404" s="13"/>
+      <c r="B404" s="13"/>
+      <c r="C404" s="13"/>
+      <c r="D404" s="13"/>
+      <c r="E404" s="13"/>
+      <c r="F404" s="13"/>
+    </row>
+    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A405" s="13"/>
+      <c r="B405" s="13"/>
+      <c r="C405" s="13"/>
+      <c r="D405" s="13"/>
+      <c r="E405" s="13"/>
+      <c r="F405" s="13"/>
+    </row>
+    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A406" s="13"/>
+      <c r="B406" s="13"/>
+      <c r="C406" s="13"/>
+      <c r="D406" s="13"/>
+      <c r="E406" s="13"/>
+      <c r="F406" s="13"/>
+    </row>
+    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A407" s="13"/>
+      <c r="B407" s="13"/>
+      <c r="C407" s="13"/>
+      <c r="D407" s="13"/>
+      <c r="E407" s="13"/>
+      <c r="F407" s="13"/>
+    </row>
+    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A408" s="13"/>
+      <c r="B408" s="13"/>
+      <c r="C408" s="13"/>
+      <c r="D408" s="13"/>
+      <c r="E408" s="13"/>
+      <c r="F408" s="13"/>
+    </row>
+    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A409" s="13"/>
+      <c r="B409" s="13"/>
+      <c r="C409" s="13"/>
+      <c r="D409" s="13"/>
+      <c r="E409" s="13"/>
+      <c r="F409" s="13"/>
+    </row>
+    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A410" s="13"/>
+      <c r="B410" s="13"/>
+      <c r="C410" s="13"/>
+      <c r="D410" s="13"/>
+      <c r="E410" s="13"/>
+      <c r="F410" s="13"/>
+    </row>
+    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A411" s="13"/>
+      <c r="B411" s="13"/>
+      <c r="C411" s="13"/>
+      <c r="D411" s="13"/>
+      <c r="E411" s="13"/>
+      <c r="F411" s="13"/>
+    </row>
+    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A412" s="13"/>
+      <c r="B412" s="13"/>
+      <c r="C412" s="13"/>
+      <c r="D412" s="13"/>
+      <c r="E412" s="13"/>
+      <c r="F412" s="13"/>
+    </row>
+    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A413" s="13"/>
+      <c r="B413" s="13"/>
+      <c r="C413" s="13"/>
+      <c r="D413" s="13"/>
+      <c r="E413" s="13"/>
+      <c r="F413" s="13"/>
+    </row>
+    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A414" s="13"/>
+      <c r="B414" s="13"/>
+      <c r="C414" s="13"/>
+      <c r="D414" s="13"/>
+      <c r="E414" s="13"/>
+      <c r="F414" s="13"/>
+    </row>
+    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A415" s="13"/>
+      <c r="B415" s="13"/>
+      <c r="C415" s="13"/>
+      <c r="D415" s="13"/>
+      <c r="E415" s="13"/>
+      <c r="F415" s="13"/>
+    </row>
+    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A416" s="13"/>
+      <c r="B416" s="13"/>
+      <c r="C416" s="13"/>
+      <c r="D416" s="13"/>
+      <c r="E416" s="13"/>
+      <c r="F416" s="13"/>
+    </row>
+    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A417" s="13"/>
+      <c r="B417" s="13"/>
+      <c r="C417" s="13"/>
+      <c r="D417" s="13"/>
+      <c r="E417" s="13"/>
+      <c r="F417" s="13"/>
+    </row>
+    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A418" s="13"/>
+      <c r="B418" s="13"/>
+      <c r="C418" s="13"/>
+      <c r="D418" s="13"/>
+      <c r="E418" s="13"/>
+      <c r="F418" s="13"/>
+    </row>
+    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A419" s="13"/>
+      <c r="B419" s="13"/>
+      <c r="C419" s="13"/>
+      <c r="D419" s="13"/>
+      <c r="E419" s="13"/>
+      <c r="F419" s="13"/>
+    </row>
+    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A420" s="13"/>
+      <c r="B420" s="13"/>
+      <c r="C420" s="13"/>
+      <c r="D420" s="13"/>
+      <c r="E420" s="13"/>
+      <c r="F420" s="13"/>
+    </row>
+    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A421" s="13"/>
+      <c r="B421" s="13"/>
+      <c r="C421" s="13"/>
+      <c r="D421" s="13"/>
+      <c r="E421" s="13"/>
+      <c r="F421" s="13"/>
+    </row>
+    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A422" s="13"/>
+      <c r="B422" s="13"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="13"/>
+      <c r="E422" s="13"/>
+      <c r="F422" s="13"/>
+    </row>
+    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A423" s="13"/>
+      <c r="B423" s="13"/>
+      <c r="C423" s="13"/>
+      <c r="D423" s="13"/>
+      <c r="E423" s="13"/>
+      <c r="F423" s="13"/>
+    </row>
+    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A424" s="13"/>
+      <c r="B424" s="13"/>
+      <c r="C424" s="13"/>
+      <c r="D424" s="13"/>
+      <c r="E424" s="13"/>
+      <c r="F424" s="13"/>
+    </row>
+    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A425" s="13"/>
+      <c r="B425" s="13"/>
+      <c r="C425" s="13"/>
+      <c r="D425" s="13"/>
+      <c r="E425" s="13"/>
+      <c r="F425" s="13"/>
+    </row>
+    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A426" s="13"/>
+      <c r="B426" s="13"/>
+      <c r="C426" s="13"/>
+      <c r="D426" s="13"/>
+      <c r="E426" s="13"/>
+      <c r="F426" s="13"/>
+    </row>
+    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A427" s="13"/>
+      <c r="B427" s="13"/>
+      <c r="C427" s="13"/>
+      <c r="D427" s="13"/>
+      <c r="E427" s="13"/>
+      <c r="F427" s="13"/>
+    </row>
+    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A428" s="13"/>
+      <c r="B428" s="13"/>
+      <c r="C428" s="13"/>
+      <c r="D428" s="13"/>
+      <c r="E428" s="13"/>
+      <c r="F428" s="13"/>
+    </row>
+    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A429" s="13"/>
+      <c r="B429" s="13"/>
+      <c r="C429" s="13"/>
+      <c r="D429" s="13"/>
+      <c r="E429" s="13"/>
+      <c r="F429" s="13"/>
+    </row>
+    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A430" s="13"/>
+      <c r="B430" s="13"/>
+      <c r="C430" s="13"/>
+      <c r="D430" s="13"/>
+      <c r="E430" s="13"/>
+      <c r="F430" s="13"/>
+    </row>
+    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A431" s="13"/>
+      <c r="B431" s="13"/>
+      <c r="C431" s="13"/>
+      <c r="D431" s="13"/>
+      <c r="E431" s="13"/>
+      <c r="F431" s="13"/>
+    </row>
+    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A432" s="13"/>
+      <c r="B432" s="13"/>
+      <c r="C432" s="13"/>
+      <c r="D432" s="13"/>
+      <c r="E432" s="13"/>
+      <c r="F432" s="13"/>
+    </row>
+    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A433" s="13"/>
+      <c r="B433" s="13"/>
+      <c r="C433" s="13"/>
+      <c r="D433" s="13"/>
+      <c r="E433" s="13"/>
+      <c r="F433" s="13"/>
+    </row>
+    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A434" s="13"/>
+      <c r="B434" s="13"/>
+      <c r="C434" s="13"/>
+      <c r="D434" s="13"/>
+      <c r="E434" s="13"/>
+      <c r="F434" s="13"/>
+    </row>
+    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A435" s="13"/>
+      <c r="B435" s="13"/>
+      <c r="C435" s="13"/>
+      <c r="D435" s="13"/>
+      <c r="E435" s="13"/>
+      <c r="F435" s="13"/>
+    </row>
+    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A436" s="13"/>
+      <c r="B436" s="13"/>
+      <c r="C436" s="13"/>
+      <c r="D436" s="13"/>
+      <c r="E436" s="13"/>
+      <c r="F436" s="13"/>
+    </row>
+    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A437" s="13"/>
+      <c r="B437" s="13"/>
+      <c r="C437" s="13"/>
+      <c r="D437" s="13"/>
+      <c r="E437" s="13"/>
+      <c r="F437" s="13"/>
+    </row>
+    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A438" s="13"/>
+      <c r="B438" s="13"/>
+      <c r="C438" s="13"/>
+      <c r="D438" s="13"/>
+      <c r="E438" s="13"/>
+      <c r="F438" s="13"/>
+    </row>
+    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A439" s="13"/>
+      <c r="B439" s="13"/>
+      <c r="C439" s="13"/>
+      <c r="D439" s="13"/>
+      <c r="E439" s="13"/>
+      <c r="F439" s="13"/>
+    </row>
+    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A440" s="13"/>
+      <c r="B440" s="13"/>
+      <c r="C440" s="13"/>
+      <c r="D440" s="13"/>
+      <c r="E440" s="13"/>
+      <c r="F440" s="13"/>
+    </row>
+    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A441" s="13"/>
+      <c r="B441" s="13"/>
+      <c r="C441" s="13"/>
+      <c r="D441" s="13"/>
+      <c r="E441" s="13"/>
+      <c r="F441" s="13"/>
+    </row>
+    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A442" s="13"/>
+      <c r="B442" s="13"/>
+      <c r="C442" s="13"/>
+      <c r="D442" s="13"/>
+      <c r="E442" s="13"/>
+      <c r="F442" s="13"/>
+    </row>
+    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A443" s="13"/>
+      <c r="B443" s="13"/>
+      <c r="C443" s="13"/>
+      <c r="D443" s="13"/>
+      <c r="E443" s="13"/>
+      <c r="F443" s="13"/>
+    </row>
+    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A444" s="13"/>
+      <c r="B444" s="13"/>
+      <c r="C444" s="13"/>
+      <c r="D444" s="13"/>
+      <c r="E444" s="13"/>
+      <c r="F444" s="13"/>
+    </row>
+    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A445" s="13"/>
+      <c r="B445" s="13"/>
+      <c r="C445" s="13"/>
+      <c r="D445" s="13"/>
+      <c r="E445" s="13"/>
+      <c r="F445" s="13"/>
+    </row>
+    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A446" s="13"/>
+      <c r="B446" s="13"/>
+      <c r="C446" s="13"/>
+      <c r="D446" s="13"/>
+      <c r="E446" s="13"/>
+      <c r="F446" s="13"/>
+    </row>
+    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A447" s="13"/>
+      <c r="B447" s="13"/>
+      <c r="C447" s="13"/>
+      <c r="D447" s="13"/>
+      <c r="E447" s="13"/>
+      <c r="F447" s="13"/>
+    </row>
+    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A448" s="13"/>
+      <c r="B448" s="13"/>
+      <c r="C448" s="13"/>
+      <c r="D448" s="13"/>
+      <c r="E448" s="13"/>
+      <c r="F448" s="13"/>
+    </row>
+    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A449" s="13"/>
+      <c r="B449" s="13"/>
+      <c r="C449" s="13"/>
+      <c r="D449" s="13"/>
+      <c r="E449" s="13"/>
+      <c r="F449" s="13"/>
+    </row>
+    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A450" s="13"/>
+      <c r="B450" s="13"/>
+      <c r="C450" s="13"/>
+      <c r="D450" s="13"/>
+      <c r="E450" s="13"/>
+      <c r="F450" s="13"/>
+    </row>
+    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A451" s="13"/>
+      <c r="B451" s="13"/>
+      <c r="C451" s="13"/>
+      <c r="D451" s="13"/>
+      <c r="E451" s="13"/>
+      <c r="F451" s="13"/>
+    </row>
+    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A452" s="13"/>
+      <c r="B452" s="13"/>
+      <c r="C452" s="13"/>
+      <c r="D452" s="13"/>
+      <c r="E452" s="13"/>
+      <c r="F452" s="13"/>
+    </row>
+    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A453" s="13"/>
+      <c r="B453" s="13"/>
+      <c r="C453" s="13"/>
+      <c r="D453" s="13"/>
+      <c r="E453" s="13"/>
+      <c r="F453" s="13"/>
+    </row>
+    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A454" s="13"/>
+      <c r="B454" s="13"/>
+      <c r="C454" s="13"/>
+      <c r="D454" s="13"/>
+      <c r="E454" s="13"/>
+      <c r="F454" s="13"/>
+    </row>
+    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A455" s="13"/>
+      <c r="B455" s="13"/>
+      <c r="C455" s="13"/>
+      <c r="D455" s="13"/>
+      <c r="E455" s="13"/>
+      <c r="F455" s="13"/>
+    </row>
+    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A456" s="13"/>
+      <c r="B456" s="13"/>
+      <c r="C456" s="13"/>
+      <c r="D456" s="13"/>
+      <c r="E456" s="13"/>
+      <c r="F456" s="13"/>
+    </row>
+    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A457" s="13"/>
+      <c r="B457" s="13"/>
+      <c r="C457" s="13"/>
+      <c r="D457" s="13"/>
+      <c r="E457" s="13"/>
+      <c r="F457" s="13"/>
+    </row>
+    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A458" s="13"/>
+      <c r="B458" s="13"/>
+      <c r="C458" s="13"/>
+      <c r="D458" s="13"/>
+      <c r="E458" s="13"/>
+      <c r="F458" s="13"/>
+    </row>
+    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A459" s="13"/>
+      <c r="B459" s="13"/>
+      <c r="C459" s="13"/>
+      <c r="D459" s="13"/>
+      <c r="E459" s="13"/>
+      <c r="F459" s="13"/>
+    </row>
+    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A460" s="13"/>
+      <c r="B460" s="13"/>
+      <c r="C460" s="13"/>
+      <c r="D460" s="13"/>
+      <c r="E460" s="13"/>
+      <c r="F460" s="13"/>
+    </row>
+    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A461" s="13"/>
+      <c r="B461" s="13"/>
+      <c r="C461" s="13"/>
+      <c r="D461" s="13"/>
+      <c r="E461" s="13"/>
+      <c r="F461" s="13"/>
+    </row>
+    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A462" s="13"/>
+      <c r="B462" s="13"/>
+      <c r="C462" s="13"/>
+      <c r="D462" s="13"/>
+      <c r="E462" s="13"/>
+      <c r="F462" s="13"/>
+    </row>
+    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A463" s="13"/>
+      <c r="B463" s="13"/>
+      <c r="C463" s="13"/>
+      <c r="D463" s="13"/>
+      <c r="E463" s="13"/>
+      <c r="F463" s="13"/>
+    </row>
+    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A464" s="13"/>
+      <c r="B464" s="13"/>
+      <c r="C464" s="13"/>
+      <c r="D464" s="13"/>
+      <c r="E464" s="13"/>
+      <c r="F464" s="13"/>
+    </row>
+    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A465" s="13"/>
+      <c r="B465" s="13"/>
+      <c r="C465" s="13"/>
+      <c r="D465" s="13"/>
+      <c r="E465" s="13"/>
+      <c r="F465" s="13"/>
+    </row>
+    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A466" s="13"/>
+      <c r="B466" s="13"/>
+      <c r="C466" s="13"/>
+      <c r="D466" s="13"/>
+      <c r="E466" s="13"/>
+      <c r="F466" s="13"/>
+    </row>
+    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A467" s="13"/>
+      <c r="B467" s="13"/>
+      <c r="C467" s="13"/>
+      <c r="D467" s="13"/>
+      <c r="E467" s="13"/>
+      <c r="F467" s="13"/>
+    </row>
+    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A468" s="13"/>
+      <c r="B468" s="13"/>
+      <c r="C468" s="13"/>
+      <c r="D468" s="13"/>
+      <c r="E468" s="13"/>
+      <c r="F468" s="13"/>
+    </row>
+    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A469" s="13"/>
+      <c r="B469" s="13"/>
+      <c r="C469" s="13"/>
+      <c r="D469" s="13"/>
+      <c r="E469" s="13"/>
+      <c r="F469" s="13"/>
+    </row>
+    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A470" s="13"/>
+      <c r="B470" s="13"/>
+      <c r="C470" s="13"/>
+      <c r="D470" s="13"/>
+      <c r="E470" s="13"/>
+      <c r="F470" s="13"/>
+    </row>
+    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A471" s="13"/>
+      <c r="B471" s="13"/>
+      <c r="C471" s="13"/>
+      <c r="D471" s="13"/>
+      <c r="E471" s="13"/>
+      <c r="F471" s="13"/>
+    </row>
+    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A472" s="13"/>
+      <c r="B472" s="13"/>
+      <c r="C472" s="13"/>
+      <c r="D472" s="13"/>
+      <c r="E472" s="13"/>
+      <c r="F472" s="13"/>
+    </row>
+    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A473" s="13"/>
+      <c r="B473" s="13"/>
+      <c r="C473" s="13"/>
+      <c r="D473" s="13"/>
+      <c r="E473" s="13"/>
+      <c r="F473" s="13"/>
+    </row>
+    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A474" s="13"/>
+      <c r="B474" s="13"/>
+      <c r="C474" s="13"/>
+      <c r="D474" s="13"/>
+      <c r="E474" s="13"/>
+      <c r="F474" s="13"/>
+    </row>
+    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A475" s="13"/>
+      <c r="B475" s="13"/>
+      <c r="C475" s="13"/>
+      <c r="D475" s="13"/>
+      <c r="E475" s="13"/>
+      <c r="F475" s="13"/>
+    </row>
+    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A476" s="13"/>
+      <c r="B476" s="13"/>
+      <c r="C476" s="13"/>
+      <c r="D476" s="13"/>
+      <c r="E476" s="13"/>
+      <c r="F476" s="13"/>
+    </row>
+    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A477" s="13"/>
+      <c r="B477" s="13"/>
+      <c r="C477" s="13"/>
+      <c r="D477" s="13"/>
+      <c r="E477" s="13"/>
+      <c r="F477" s="13"/>
+    </row>
+    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A478" s="13"/>
+      <c r="B478" s="13"/>
+      <c r="C478" s="13"/>
+      <c r="D478" s="13"/>
+      <c r="E478" s="13"/>
+      <c r="F478" s="13"/>
+    </row>
+    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A479" s="13"/>
+      <c r="B479" s="13"/>
+      <c r="C479" s="13"/>
+      <c r="D479" s="13"/>
+      <c r="E479" s="13"/>
+      <c r="F479" s="13"/>
+    </row>
+    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A480" s="13"/>
+      <c r="B480" s="13"/>
+      <c r="C480" s="13"/>
+      <c r="D480" s="13"/>
+      <c r="E480" s="13"/>
+      <c r="F480" s="13"/>
+    </row>
+    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A481" s="13"/>
+      <c r="B481" s="13"/>
+      <c r="C481" s="13"/>
+      <c r="D481" s="13"/>
+      <c r="E481" s="13"/>
+      <c r="F481" s="13"/>
+    </row>
+    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A482" s="13"/>
+      <c r="B482" s="13"/>
+      <c r="C482" s="13"/>
+      <c r="D482" s="13"/>
+      <c r="E482" s="13"/>
+      <c r="F482" s="13"/>
+    </row>
+    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A483" s="13"/>
+      <c r="B483" s="13"/>
+      <c r="C483" s="13"/>
+      <c r="D483" s="13"/>
+      <c r="E483" s="13"/>
+      <c r="F483" s="13"/>
+    </row>
+    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A484" s="13"/>
+      <c r="B484" s="13"/>
+      <c r="C484" s="13"/>
+      <c r="D484" s="13"/>
+      <c r="E484" s="13"/>
+      <c r="F484" s="13"/>
+    </row>
+    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A485" s="13"/>
+      <c r="B485" s="13"/>
+      <c r="C485" s="13"/>
+      <c r="D485" s="13"/>
+      <c r="E485" s="13"/>
+      <c r="F485" s="13"/>
+    </row>
+    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A486" s="13"/>
+      <c r="B486" s="13"/>
+      <c r="C486" s="13"/>
+      <c r="D486" s="13"/>
+      <c r="E486" s="13"/>
+      <c r="F486" s="13"/>
+    </row>
+    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A487" s="13"/>
+      <c r="B487" s="13"/>
+      <c r="C487" s="13"/>
+      <c r="D487" s="13"/>
+      <c r="E487" s="13"/>
+      <c r="F487" s="13"/>
+    </row>
+    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A488" s="13"/>
+      <c r="B488" s="13"/>
+      <c r="C488" s="13"/>
+      <c r="D488" s="13"/>
+      <c r="E488" s="13"/>
+      <c r="F488" s="13"/>
+    </row>
+    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A489" s="13"/>
+      <c r="B489" s="13"/>
+      <c r="C489" s="13"/>
+      <c r="D489" s="13"/>
+      <c r="E489" s="13"/>
+      <c r="F489" s="13"/>
+    </row>
+    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A490" s="13"/>
+      <c r="B490" s="13"/>
+      <c r="C490" s="13"/>
+      <c r="D490" s="13"/>
+      <c r="E490" s="13"/>
+      <c r="F490" s="13"/>
+    </row>
+    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A491" s="13"/>
+      <c r="B491" s="13"/>
+      <c r="C491" s="13"/>
+      <c r="D491" s="13"/>
+      <c r="E491" s="13"/>
+      <c r="F491" s="13"/>
+    </row>
+    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A492" s="13"/>
+      <c r="B492" s="13"/>
+      <c r="C492" s="13"/>
+      <c r="D492" s="13"/>
+      <c r="E492" s="13"/>
+      <c r="F492" s="13"/>
+    </row>
+    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A493" s="13"/>
+      <c r="B493" s="13"/>
+      <c r="C493" s="13"/>
+      <c r="D493" s="13"/>
+      <c r="E493" s="13"/>
+      <c r="F493" s="13"/>
+    </row>
+    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A494" s="13"/>
+      <c r="B494" s="13"/>
+      <c r="C494" s="13"/>
+      <c r="D494" s="13"/>
+      <c r="E494" s="13"/>
+      <c r="F494" s="13"/>
+    </row>
+    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A495" s="13"/>
+      <c r="B495" s="13"/>
+      <c r="C495" s="13"/>
+      <c r="D495" s="13"/>
+      <c r="E495" s="13"/>
+      <c r="F495" s="13"/>
+    </row>
+    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A496" s="13"/>
+      <c r="B496" s="13"/>
+      <c r="C496" s="13"/>
+      <c r="D496" s="13"/>
+      <c r="E496" s="13"/>
+      <c r="F496" s="13"/>
+    </row>
+    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A497" s="13"/>
+      <c r="B497" s="13"/>
+      <c r="C497" s="13"/>
+      <c r="D497" s="13"/>
+      <c r="E497" s="13"/>
+      <c r="F497" s="13"/>
+    </row>
+    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A498" s="13"/>
+      <c r="B498" s="13"/>
+      <c r="C498" s="13"/>
+      <c r="D498" s="13"/>
+      <c r="E498" s="13"/>
+      <c r="F498" s="13"/>
+    </row>
+    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A499" s="13"/>
+      <c r="B499" s="13"/>
+      <c r="C499" s="13"/>
+      <c r="D499" s="13"/>
+      <c r="E499" s="13"/>
+      <c r="F499" s="13"/>
+    </row>
+    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A500" s="13"/>
+      <c r="B500" s="13"/>
+      <c r="C500" s="13"/>
+      <c r="D500" s="13"/>
+      <c r="E500" s="13"/>
+      <c r="F500" s="13"/>
+    </row>
+    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A501" s="13"/>
+      <c r="B501" s="13"/>
+      <c r="C501" s="13"/>
+      <c r="D501" s="13"/>
+      <c r="E501" s="13"/>
+      <c r="F501" s="13"/>
+    </row>
+    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A502" s="13"/>
+      <c r="B502" s="13"/>
+      <c r="C502" s="13"/>
+      <c r="D502" s="13"/>
+      <c r="E502" s="13"/>
+      <c r="F502" s="13"/>
+    </row>
+    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A503" s="13"/>
+      <c r="B503" s="13"/>
+      <c r="C503" s="13"/>
+      <c r="D503" s="13"/>
+      <c r="E503" s="13"/>
+      <c r="F503" s="13"/>
+    </row>
+    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A504" s="13"/>
+      <c r="B504" s="13"/>
+      <c r="C504" s="13"/>
+      <c r="D504" s="13"/>
+      <c r="E504" s="13"/>
+      <c r="F504" s="13"/>
+    </row>
+    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A505" s="13"/>
+      <c r="B505" s="13"/>
+      <c r="C505" s="13"/>
+      <c r="D505" s="13"/>
+      <c r="E505" s="13"/>
+      <c r="F505" s="13"/>
+    </row>
+    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A506" s="13"/>
+      <c r="B506" s="13"/>
+      <c r="C506" s="13"/>
+      <c r="D506" s="13"/>
+      <c r="E506" s="13"/>
+      <c r="F506" s="13"/>
+    </row>
+    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A507" s="13"/>
+      <c r="B507" s="13"/>
+      <c r="C507" s="13"/>
+      <c r="D507" s="13"/>
+      <c r="E507" s="13"/>
+      <c r="F507" s="13"/>
+    </row>
+    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A508" s="13"/>
+      <c r="B508" s="13"/>
+      <c r="C508" s="13"/>
+      <c r="D508" s="13"/>
+      <c r="E508" s="13"/>
+      <c r="F508" s="13"/>
+    </row>
+    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A509" s="13"/>
+      <c r="B509" s="13"/>
+      <c r="C509" s="13"/>
+      <c r="D509" s="13"/>
+      <c r="E509" s="13"/>
+      <c r="F509" s="13"/>
+    </row>
+    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A510" s="13"/>
+      <c r="B510" s="13"/>
+      <c r="C510" s="13"/>
+      <c r="D510" s="13"/>
+      <c r="E510" s="13"/>
+      <c r="F510" s="13"/>
+    </row>
+    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A511" s="13"/>
+      <c r="B511" s="13"/>
+      <c r="C511" s="13"/>
+      <c r="D511" s="13"/>
+      <c r="E511" s="13"/>
+      <c r="F511" s="13"/>
+    </row>
+    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A512" s="13"/>
+      <c r="B512" s="13"/>
+      <c r="C512" s="13"/>
+      <c r="D512" s="13"/>
+      <c r="E512" s="13"/>
+      <c r="F512" s="13"/>
+    </row>
+    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A513" s="13"/>
+      <c r="B513" s="13"/>
+      <c r="C513" s="13"/>
+      <c r="D513" s="13"/>
+      <c r="E513" s="13"/>
+      <c r="F513" s="13"/>
+    </row>
+    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A514" s="13"/>
+      <c r="B514" s="13"/>
+      <c r="C514" s="13"/>
+      <c r="D514" s="13"/>
+      <c r="E514" s="13"/>
+      <c r="F514" s="13"/>
+    </row>
+    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A515" s="13"/>
+      <c r="B515" s="13"/>
+      <c r="C515" s="13"/>
+      <c r="D515" s="13"/>
+      <c r="E515" s="13"/>
+      <c r="F515" s="13"/>
+    </row>
+    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A516" s="13"/>
+      <c r="B516" s="13"/>
+      <c r="C516" s="13"/>
+      <c r="D516" s="13"/>
+      <c r="E516" s="13"/>
+      <c r="F516" s="13"/>
+    </row>
+    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A517" s="13"/>
+      <c r="B517" s="13"/>
+      <c r="C517" s="13"/>
+      <c r="D517" s="13"/>
+      <c r="E517" s="13"/>
+      <c r="F517" s="13"/>
+    </row>
+    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A518" s="13"/>
+      <c r="B518" s="13"/>
+      <c r="C518" s="13"/>
+      <c r="D518" s="13"/>
+      <c r="E518" s="13"/>
+      <c r="F518" s="13"/>
+    </row>
+    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A519" s="13"/>
+      <c r="B519" s="13"/>
+      <c r="C519" s="13"/>
+      <c r="D519" s="13"/>
+      <c r="E519" s="13"/>
+      <c r="F519" s="13"/>
+    </row>
+    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A520" s="13"/>
+      <c r="B520" s="13"/>
+      <c r="C520" s="13"/>
+      <c r="D520" s="13"/>
+      <c r="E520" s="13"/>
+      <c r="F520" s="13"/>
+    </row>
+    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A521" s="13"/>
+      <c r="B521" s="13"/>
+      <c r="C521" s="13"/>
+      <c r="D521" s="13"/>
+      <c r="E521" s="13"/>
+      <c r="F521" s="13"/>
+    </row>
+    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A522" s="13"/>
+      <c r="B522" s="13"/>
+      <c r="C522" s="13"/>
+      <c r="D522" s="13"/>
+      <c r="E522" s="13"/>
+      <c r="F522" s="13"/>
+    </row>
+    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A523" s="13"/>
+      <c r="B523" s="13"/>
+      <c r="C523" s="13"/>
+      <c r="D523" s="13"/>
+      <c r="E523" s="13"/>
+      <c r="F523" s="13"/>
+    </row>
+    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A524" s="13"/>
+      <c r="B524" s="13"/>
+      <c r="C524" s="13"/>
+      <c r="D524" s="13"/>
+      <c r="E524" s="13"/>
+      <c r="F524" s="13"/>
+    </row>
+    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A525" s="13"/>
+      <c r="B525" s="13"/>
+      <c r="C525" s="13"/>
+      <c r="D525" s="13"/>
+      <c r="E525" s="13"/>
+      <c r="F525" s="13"/>
+    </row>
+    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A526" s="13"/>
+      <c r="B526" s="13"/>
+      <c r="C526" s="13"/>
+      <c r="D526" s="13"/>
+      <c r="E526" s="13"/>
+      <c r="F526" s="13"/>
+    </row>
+    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A527" s="13"/>
+      <c r="B527" s="13"/>
+      <c r="C527" s="13"/>
+      <c r="D527" s="13"/>
+      <c r="E527" s="13"/>
+      <c r="F527" s="13"/>
+    </row>
+    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A528" s="13"/>
+      <c r="B528" s="13"/>
+      <c r="C528" s="13"/>
+      <c r="D528" s="13"/>
+      <c r="E528" s="13"/>
+      <c r="F528" s="13"/>
+    </row>
+    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A529" s="13"/>
+      <c r="B529" s="13"/>
+      <c r="C529" s="13"/>
+      <c r="D529" s="13"/>
+      <c r="E529" s="13"/>
+      <c r="F529" s="13"/>
+    </row>
+    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A530" s="13"/>
+      <c r="B530" s="13"/>
+      <c r="C530" s="13"/>
+      <c r="D530" s="13"/>
+      <c r="E530" s="13"/>
+      <c r="F530" s="13"/>
+    </row>
+    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A531" s="13"/>
+      <c r="B531" s="13"/>
+      <c r="C531" s="13"/>
+      <c r="D531" s="13"/>
+      <c r="E531" s="13"/>
+      <c r="F531" s="13"/>
+    </row>
+    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A532" s="13"/>
+      <c r="B532" s="13"/>
+      <c r="C532" s="13"/>
+      <c r="D532" s="13"/>
+      <c r="E532" s="13"/>
+      <c r="F532" s="13"/>
+    </row>
+    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A533" s="13"/>
+      <c r="B533" s="13"/>
+      <c r="C533" s="13"/>
+      <c r="D533" s="13"/>
+      <c r="E533" s="13"/>
+      <c r="F533" s="13"/>
+    </row>
+    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A534" s="13"/>
+      <c r="B534" s="13"/>
+      <c r="C534" s="13"/>
+      <c r="D534" s="13"/>
+      <c r="E534" s="13"/>
+      <c r="F534" s="13"/>
+    </row>
+    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A535" s="13"/>
+      <c r="B535" s="13"/>
+      <c r="C535" s="13"/>
+      <c r="D535" s="13"/>
+      <c r="E535" s="13"/>
+      <c r="F535" s="13"/>
+    </row>
+    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A536" s="13"/>
+      <c r="B536" s="13"/>
+      <c r="C536" s="13"/>
+      <c r="D536" s="13"/>
+      <c r="E536" s="13"/>
+      <c r="F536" s="13"/>
+    </row>
+    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A537" s="13"/>
+      <c r="B537" s="13"/>
+      <c r="C537" s="13"/>
+      <c r="D537" s="13"/>
+      <c r="E537" s="13"/>
+      <c r="F537" s="13"/>
+    </row>
+    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A538" s="13"/>
+      <c r="B538" s="13"/>
+      <c r="C538" s="13"/>
+      <c r="D538" s="13"/>
+      <c r="E538" s="13"/>
+      <c r="F538" s="13"/>
+    </row>
+    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A539" s="13"/>
+      <c r="B539" s="13"/>
+      <c r="C539" s="13"/>
+      <c r="D539" s="13"/>
+      <c r="E539" s="13"/>
+      <c r="F539" s="13"/>
+    </row>
+    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A540" s="13"/>
+      <c r="B540" s="13"/>
+      <c r="C540" s="13"/>
+      <c r="D540" s="13"/>
+      <c r="E540" s="13"/>
+      <c r="F540" s="13"/>
+    </row>
+    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A541" s="13"/>
+      <c r="B541" s="13"/>
+      <c r="C541" s="13"/>
+      <c r="D541" s="13"/>
+      <c r="E541" s="13"/>
+      <c r="F541" s="13"/>
+    </row>
+    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A542" s="13"/>
+      <c r="B542" s="13"/>
+      <c r="C542" s="13"/>
+      <c r="D542" s="13"/>
+      <c r="E542" s="13"/>
+      <c r="F542" s="13"/>
+    </row>
+    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A543" s="13"/>
+      <c r="B543" s="13"/>
+      <c r="C543" s="13"/>
+      <c r="D543" s="13"/>
+      <c r="E543" s="13"/>
+      <c r="F543" s="13"/>
+    </row>
+    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A544" s="13"/>
+      <c r="B544" s="13"/>
+      <c r="C544" s="13"/>
+      <c r="D544" s="13"/>
+      <c r="E544" s="13"/>
+      <c r="F544" s="13"/>
+    </row>
+    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A545" s="13"/>
+      <c r="B545" s="13"/>
+      <c r="C545" s="13"/>
+      <c r="D545" s="13"/>
+      <c r="E545" s="13"/>
+      <c r="F545" s="13"/>
+    </row>
+    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A546" s="13"/>
+      <c r="B546" s="13"/>
+      <c r="C546" s="13"/>
+      <c r="D546" s="13"/>
+      <c r="E546" s="13"/>
+      <c r="F546" s="13"/>
+    </row>
+    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A547" s="13"/>
+      <c r="B547" s="13"/>
+      <c r="C547" s="13"/>
+      <c r="D547" s="13"/>
+      <c r="E547" s="13"/>
+      <c r="F547" s="13"/>
+    </row>
+    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A548" s="13"/>
+      <c r="B548" s="13"/>
+      <c r="C548" s="13"/>
+      <c r="D548" s="13"/>
+      <c r="E548" s="13"/>
+      <c r="F548" s="13"/>
+    </row>
+    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A549" s="13"/>
+      <c r="B549" s="13"/>
+      <c r="C549" s="13"/>
+      <c r="D549" s="13"/>
+      <c r="E549" s="13"/>
+      <c r="F549" s="13"/>
+    </row>
+    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A550" s="13"/>
+      <c r="B550" s="13"/>
+      <c r="C550" s="13"/>
+      <c r="D550" s="13"/>
+      <c r="E550" s="13"/>
+      <c r="F550" s="13"/>
+    </row>
+    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A551" s="13"/>
+      <c r="B551" s="13"/>
+      <c r="C551" s="13"/>
+      <c r="D551" s="13"/>
+      <c r="E551" s="13"/>
+      <c r="F551" s="13"/>
+    </row>
+    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A552" s="13"/>
+      <c r="B552" s="13"/>
+      <c r="C552" s="13"/>
+      <c r="D552" s="13"/>
+      <c r="E552" s="13"/>
+      <c r="F552" s="13"/>
+    </row>
+    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A553" s="13"/>
+      <c r="B553" s="13"/>
+      <c r="C553" s="13"/>
+      <c r="D553" s="13"/>
+      <c r="E553" s="13"/>
+      <c r="F553" s="13"/>
+    </row>
+    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A554" s="13"/>
+      <c r="B554" s="13"/>
+      <c r="C554" s="13"/>
+      <c r="D554" s="13"/>
+      <c r="E554" s="13"/>
+      <c r="F554" s="13"/>
+    </row>
+    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A555" s="13"/>
+      <c r="B555" s="13"/>
+      <c r="C555" s="13"/>
+      <c r="D555" s="13"/>
+      <c r="E555" s="13"/>
+      <c r="F555" s="13"/>
+    </row>
+    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A556" s="13"/>
+      <c r="B556" s="13"/>
+      <c r="C556" s="13"/>
+      <c r="D556" s="13"/>
+      <c r="E556" s="13"/>
+      <c r="F556" s="13"/>
+    </row>
+    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A557" s="13"/>
+      <c r="B557" s="13"/>
+      <c r="C557" s="13"/>
+      <c r="D557" s="13"/>
+      <c r="E557" s="13"/>
+      <c r="F557" s="13"/>
+    </row>
+    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A558" s="13"/>
+      <c r="B558" s="13"/>
+      <c r="C558" s="13"/>
+      <c r="D558" s="13"/>
+      <c r="E558" s="13"/>
+      <c r="F558" s="13"/>
+    </row>
+    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A559" s="13"/>
+      <c r="B559" s="13"/>
+      <c r="C559" s="13"/>
+      <c r="D559" s="13"/>
+      <c r="E559" s="13"/>
+      <c r="F559" s="13"/>
+    </row>
+    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A560" s="13"/>
+      <c r="B560" s="13"/>
+      <c r="C560" s="13"/>
+      <c r="D560" s="13"/>
+      <c r="E560" s="13"/>
+      <c r="F560" s="13"/>
+    </row>
+    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A561" s="13"/>
+      <c r="B561" s="13"/>
+      <c r="C561" s="13"/>
+      <c r="D561" s="13"/>
+      <c r="E561" s="13"/>
+      <c r="F561" s="13"/>
+    </row>
+    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A562" s="13"/>
+      <c r="B562" s="13"/>
+      <c r="C562" s="13"/>
+      <c r="D562" s="13"/>
+      <c r="E562" s="13"/>
+      <c r="F562" s="13"/>
+    </row>
+    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A563" s="13"/>
+      <c r="B563" s="13"/>
+      <c r="C563" s="13"/>
+      <c r="D563" s="13"/>
+      <c r="E563" s="13"/>
+      <c r="F563" s="13"/>
+    </row>
+    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A564" s="13"/>
+      <c r="B564" s="13"/>
+      <c r="C564" s="13"/>
+      <c r="D564" s="13"/>
+      <c r="E564" s="13"/>
+      <c r="F564" s="13"/>
+    </row>
+    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A565" s="13"/>
+      <c r="B565" s="13"/>
+      <c r="C565" s="13"/>
+      <c r="D565" s="13"/>
+      <c r="E565" s="13"/>
+      <c r="F565" s="13"/>
+    </row>
+    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A566" s="13"/>
+      <c r="B566" s="13"/>
+      <c r="C566" s="13"/>
+      <c r="D566" s="13"/>
+      <c r="E566" s="13"/>
+      <c r="F566" s="13"/>
+    </row>
+    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A567" s="13"/>
+      <c r="B567" s="13"/>
+      <c r="C567" s="13"/>
+      <c r="D567" s="13"/>
+      <c r="E567" s="13"/>
+      <c r="F567" s="13"/>
+    </row>
+    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A568" s="13"/>
+      <c r="B568" s="13"/>
+      <c r="C568" s="13"/>
+      <c r="D568" s="13"/>
+      <c r="E568" s="13"/>
+      <c r="F568" s="13"/>
+    </row>
+    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A569" s="13"/>
+      <c r="B569" s="13"/>
+      <c r="C569" s="13"/>
+      <c r="D569" s="13"/>
+      <c r="E569" s="13"/>
+      <c r="F569" s="13"/>
+    </row>
+    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A570" s="13"/>
+      <c r="B570" s="13"/>
+      <c r="C570" s="13"/>
+      <c r="D570" s="13"/>
+      <c r="E570" s="13"/>
+      <c r="F570" s="13"/>
+    </row>
+    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A571" s="13"/>
+      <c r="B571" s="13"/>
+      <c r="C571" s="13"/>
+      <c r="D571" s="13"/>
+      <c r="E571" s="13"/>
+      <c r="F571" s="13"/>
+    </row>
+    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A572" s="13"/>
+      <c r="B572" s="13"/>
+      <c r="C572" s="13"/>
+      <c r="D572" s="13"/>
+      <c r="E572" s="13"/>
+      <c r="F572" s="13"/>
+    </row>
+    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A573" s="13"/>
+      <c r="B573" s="13"/>
+      <c r="C573" s="13"/>
+      <c r="D573" s="13"/>
+      <c r="E573" s="13"/>
+      <c r="F573" s="13"/>
+    </row>
+    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A574" s="13"/>
+      <c r="B574" s="13"/>
+      <c r="C574" s="13"/>
+      <c r="D574" s="13"/>
+      <c r="E574" s="13"/>
+      <c r="F574" s="13"/>
+    </row>
+    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A575" s="13"/>
+      <c r="B575" s="13"/>
+      <c r="C575" s="13"/>
+      <c r="D575" s="13"/>
+      <c r="E575" s="13"/>
+      <c r="F575" s="13"/>
+    </row>
+    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A576" s="13"/>
+      <c r="B576" s="13"/>
+      <c r="C576" s="13"/>
+      <c r="D576" s="13"/>
+      <c r="E576" s="13"/>
+      <c r="F576" s="13"/>
+    </row>
+    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A577" s="13"/>
+      <c r="B577" s="13"/>
+      <c r="C577" s="13"/>
+      <c r="D577" s="13"/>
+      <c r="E577" s="13"/>
+      <c r="F577" s="13"/>
+    </row>
+    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A578" s="13"/>
+      <c r="B578" s="13"/>
+      <c r="C578" s="13"/>
+      <c r="D578" s="13"/>
+      <c r="E578" s="13"/>
+      <c r="F578" s="13"/>
+    </row>
+    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A579" s="13"/>
+      <c r="B579" s="13"/>
+      <c r="C579" s="13"/>
+      <c r="D579" s="13"/>
+      <c r="E579" s="13"/>
+      <c r="F579" s="13"/>
+    </row>
+    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A580" s="13"/>
+      <c r="B580" s="13"/>
+      <c r="C580" s="13"/>
+      <c r="D580" s="13"/>
+      <c r="E580" s="13"/>
+      <c r="F580" s="13"/>
+    </row>
+    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A581" s="13"/>
+      <c r="B581" s="13"/>
+      <c r="C581" s="13"/>
+      <c r="D581" s="13"/>
+      <c r="E581" s="13"/>
+      <c r="F581" s="13"/>
+    </row>
+    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A582" s="13"/>
+      <c r="B582" s="13"/>
+      <c r="C582" s="13"/>
+      <c r="D582" s="13"/>
+      <c r="E582" s="13"/>
+      <c r="F582" s="13"/>
+    </row>
+    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A583" s="13"/>
+      <c r="B583" s="13"/>
+      <c r="C583" s="13"/>
+      <c r="D583" s="13"/>
+      <c r="E583" s="13"/>
+      <c r="F583" s="13"/>
+    </row>
+    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A584" s="13"/>
+      <c r="B584" s="13"/>
+      <c r="C584" s="13"/>
+      <c r="D584" s="13"/>
+      <c r="E584" s="13"/>
+      <c r="F584" s="13"/>
+    </row>
+    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A585" s="13"/>
+      <c r="B585" s="13"/>
+      <c r="C585" s="13"/>
+      <c r="D585" s="13"/>
+      <c r="E585" s="13"/>
+      <c r="F585" s="13"/>
+    </row>
+    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A586" s="13"/>
+      <c r="B586" s="13"/>
+      <c r="C586" s="13"/>
+      <c r="D586" s="13"/>
+      <c r="E586" s="13"/>
+      <c r="F586" s="13"/>
+    </row>
+    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A587" s="13"/>
+      <c r="B587" s="13"/>
+      <c r="C587" s="13"/>
+      <c r="D587" s="13"/>
+      <c r="E587" s="13"/>
+      <c r="F587" s="13"/>
+    </row>
+    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A588" s="13"/>
+      <c r="B588" s="13"/>
+      <c r="C588" s="13"/>
+      <c r="D588" s="13"/>
+      <c r="E588" s="13"/>
+      <c r="F588" s="13"/>
+    </row>
+    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A589" s="13"/>
+      <c r="B589" s="13"/>
+      <c r="C589" s="13"/>
+      <c r="D589" s="13"/>
+      <c r="E589" s="13"/>
+      <c r="F589" s="13"/>
+    </row>
+    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A590" s="13"/>
+      <c r="B590" s="13"/>
+      <c r="C590" s="13"/>
+      <c r="D590" s="13"/>
+      <c r="E590" s="13"/>
+      <c r="F590" s="13"/>
+    </row>
+    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A591" s="13"/>
+      <c r="B591" s="13"/>
+      <c r="C591" s="13"/>
+      <c r="D591" s="13"/>
+      <c r="E591" s="13"/>
+      <c r="F591" s="13"/>
+    </row>
+    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A592" s="13"/>
+      <c r="B592" s="13"/>
+      <c r="C592" s="13"/>
+      <c r="D592" s="13"/>
+      <c r="E592" s="13"/>
+      <c r="F592" s="13"/>
+    </row>
+    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A593" s="13"/>
+      <c r="B593" s="13"/>
+      <c r="C593" s="13"/>
+      <c r="D593" s="13"/>
+      <c r="E593" s="13"/>
+      <c r="F593" s="13"/>
+    </row>
+    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A594" s="13"/>
+      <c r="B594" s="13"/>
+      <c r="C594" s="13"/>
+      <c r="D594" s="13"/>
+      <c r="E594" s="13"/>
+      <c r="F594" s="13"/>
+    </row>
   </sheetData>
-  <mergeCells count="148">
-    <mergeCell ref="A328:A335"/>
-    <mergeCell ref="B328:B335"/>
-    <mergeCell ref="D328:D335"/>
-    <mergeCell ref="E328:E335"/>
-    <mergeCell ref="F328:F335"/>
-    <mergeCell ref="E274:E281"/>
-    <mergeCell ref="F274:F281"/>
-    <mergeCell ref="A282:A286"/>
-    <mergeCell ref="B282:B286"/>
-    <mergeCell ref="D282:D286"/>
-    <mergeCell ref="E282:E286"/>
-    <mergeCell ref="F282:F286"/>
-    <mergeCell ref="A320:A327"/>
-    <mergeCell ref="B320:B327"/>
-    <mergeCell ref="D320:D327"/>
-    <mergeCell ref="E320:E327"/>
-    <mergeCell ref="F320:F327"/>
-    <mergeCell ref="A299:A315"/>
-    <mergeCell ref="B299:B315"/>
-    <mergeCell ref="C299:C315"/>
-    <mergeCell ref="D299:D315"/>
-    <mergeCell ref="A247:F247"/>
-    <mergeCell ref="A249:A253"/>
-    <mergeCell ref="B249:B253"/>
-    <mergeCell ref="C249:C253"/>
-    <mergeCell ref="E249:E253"/>
-    <mergeCell ref="F249:F253"/>
-    <mergeCell ref="A255:A262"/>
-    <mergeCell ref="B255:B262"/>
-    <mergeCell ref="D255:D262"/>
-    <mergeCell ref="E255:E262"/>
-    <mergeCell ref="F255:F262"/>
-    <mergeCell ref="A266:A273"/>
-    <mergeCell ref="B266:B273"/>
-    <mergeCell ref="D266:D273"/>
-    <mergeCell ref="E266:E273"/>
-    <mergeCell ref="F266:F273"/>
-    <mergeCell ref="A274:A281"/>
-    <mergeCell ref="B274:B281"/>
-    <mergeCell ref="D274:D281"/>
-    <mergeCell ref="A233:F233"/>
-    <mergeCell ref="A235:A239"/>
-    <mergeCell ref="B235:B239"/>
-    <mergeCell ref="C235:C239"/>
-    <mergeCell ref="E235:E239"/>
-    <mergeCell ref="F235:F239"/>
-    <mergeCell ref="A214:A218"/>
-    <mergeCell ref="B214:B218"/>
-    <mergeCell ref="C214:C218"/>
-    <mergeCell ref="E214:E218"/>
-    <mergeCell ref="F214:F218"/>
-    <mergeCell ref="A222:A230"/>
-    <mergeCell ref="B222:B230"/>
-    <mergeCell ref="D222:D230"/>
-    <mergeCell ref="E222:E230"/>
-    <mergeCell ref="F222:F230"/>
-    <mergeCell ref="A201:A209"/>
-    <mergeCell ref="B201:B209"/>
-    <mergeCell ref="D201:D209"/>
-    <mergeCell ref="E201:E209"/>
-    <mergeCell ref="F201:F209"/>
-    <mergeCell ref="A212:F212"/>
-    <mergeCell ref="A191:F191"/>
-    <mergeCell ref="A193:A197"/>
-    <mergeCell ref="B193:B197"/>
-    <mergeCell ref="C193:C197"/>
-    <mergeCell ref="E193:E197"/>
-    <mergeCell ref="F193:F197"/>
-    <mergeCell ref="A172:A176"/>
-    <mergeCell ref="B172:B176"/>
-    <mergeCell ref="C172:C176"/>
-    <mergeCell ref="E172:E176"/>
-    <mergeCell ref="F172:F176"/>
-    <mergeCell ref="A180:A188"/>
-    <mergeCell ref="B180:B188"/>
-    <mergeCell ref="D180:D188"/>
-    <mergeCell ref="E180:E188"/>
-    <mergeCell ref="F180:F188"/>
-    <mergeCell ref="A163:A167"/>
-    <mergeCell ref="B163:B167"/>
-    <mergeCell ref="D163:D167"/>
-    <mergeCell ref="E163:E167"/>
-    <mergeCell ref="F163:F167"/>
-    <mergeCell ref="A170:F170"/>
-    <mergeCell ref="A145:A154"/>
-    <mergeCell ref="B145:B154"/>
-    <mergeCell ref="D145:D154"/>
-    <mergeCell ref="E145:E154"/>
-    <mergeCell ref="F145:F154"/>
-    <mergeCell ref="A155:A162"/>
-    <mergeCell ref="B155:B162"/>
-    <mergeCell ref="D155:D162"/>
-    <mergeCell ref="E155:E162"/>
-    <mergeCell ref="F155:F162"/>
+  <mergeCells count="138">
+    <mergeCell ref="G20:G24"/>
+    <mergeCell ref="A31:F31"/>
+    <mergeCell ref="A33:A37"/>
+    <mergeCell ref="B33:B37"/>
+    <mergeCell ref="C33:C37"/>
+    <mergeCell ref="E33:E37"/>
+    <mergeCell ref="F33:F37"/>
+    <mergeCell ref="G33:G37"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="A10:F10"/>
+    <mergeCell ref="A18:F18"/>
+    <mergeCell ref="A20:A24"/>
+    <mergeCell ref="B20:B24"/>
+    <mergeCell ref="C20:C24"/>
+    <mergeCell ref="E20:E24"/>
+    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="A84:A88"/>
+    <mergeCell ref="B84:B88"/>
+    <mergeCell ref="C84:C88"/>
+    <mergeCell ref="E84:E88"/>
+    <mergeCell ref="F84:F88"/>
+    <mergeCell ref="A98:F98"/>
+    <mergeCell ref="A44:F44"/>
+    <mergeCell ref="A52:F52"/>
+    <mergeCell ref="A60:F60"/>
+    <mergeCell ref="A68:F68"/>
+    <mergeCell ref="A73:F73"/>
+    <mergeCell ref="A82:F82"/>
+    <mergeCell ref="A100:A104"/>
+    <mergeCell ref="B100:B104"/>
+    <mergeCell ref="C100:C104"/>
+    <mergeCell ref="E100:E104"/>
+    <mergeCell ref="F100:F104"/>
+    <mergeCell ref="A109:A118"/>
+    <mergeCell ref="B109:B118"/>
+    <mergeCell ref="D109:D118"/>
+    <mergeCell ref="E109:E118"/>
+    <mergeCell ref="F109:F118"/>
     <mergeCell ref="A134:F134"/>
     <mergeCell ref="A136:A140"/>
     <mergeCell ref="B136:B140"/>
@@ -16431,44 +18040,90 @@
     <mergeCell ref="D127:D131"/>
     <mergeCell ref="E127:E131"/>
     <mergeCell ref="F127:F131"/>
-    <mergeCell ref="A100:A104"/>
-    <mergeCell ref="B100:B104"/>
-    <mergeCell ref="C100:C104"/>
-    <mergeCell ref="E100:E104"/>
-    <mergeCell ref="F100:F104"/>
-    <mergeCell ref="A109:A118"/>
-    <mergeCell ref="B109:B118"/>
-    <mergeCell ref="D109:D118"/>
-    <mergeCell ref="E109:E118"/>
-    <mergeCell ref="F109:F118"/>
-    <mergeCell ref="A84:A88"/>
-    <mergeCell ref="B84:B88"/>
-    <mergeCell ref="C84:C88"/>
-    <mergeCell ref="E84:E88"/>
-    <mergeCell ref="F84:F88"/>
-    <mergeCell ref="A98:F98"/>
-    <mergeCell ref="A44:F44"/>
-    <mergeCell ref="A52:F52"/>
-    <mergeCell ref="A60:F60"/>
-    <mergeCell ref="A68:F68"/>
-    <mergeCell ref="A73:F73"/>
-    <mergeCell ref="A82:F82"/>
-    <mergeCell ref="G20:G24"/>
-    <mergeCell ref="A31:F31"/>
-    <mergeCell ref="A33:A37"/>
-    <mergeCell ref="B33:B37"/>
-    <mergeCell ref="C33:C37"/>
-    <mergeCell ref="E33:E37"/>
-    <mergeCell ref="F33:F37"/>
-    <mergeCell ref="G33:G37"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="A10:F10"/>
-    <mergeCell ref="A18:F18"/>
-    <mergeCell ref="A20:A24"/>
-    <mergeCell ref="B20:B24"/>
-    <mergeCell ref="C20:C24"/>
-    <mergeCell ref="E20:E24"/>
-    <mergeCell ref="F20:F24"/>
+    <mergeCell ref="A160:F160"/>
+    <mergeCell ref="A145:A157"/>
+    <mergeCell ref="B145:B157"/>
+    <mergeCell ref="D145:D157"/>
+    <mergeCell ref="E145:E157"/>
+    <mergeCell ref="F145:F157"/>
+    <mergeCell ref="A162:A166"/>
+    <mergeCell ref="B162:B166"/>
+    <mergeCell ref="C162:C166"/>
+    <mergeCell ref="E162:E166"/>
+    <mergeCell ref="F162:F166"/>
+    <mergeCell ref="A170:A178"/>
+    <mergeCell ref="B170:B178"/>
+    <mergeCell ref="D170:D178"/>
+    <mergeCell ref="E170:E178"/>
+    <mergeCell ref="F170:F178"/>
+    <mergeCell ref="A191:A199"/>
+    <mergeCell ref="B191:B199"/>
+    <mergeCell ref="D191:D199"/>
+    <mergeCell ref="E191:E199"/>
+    <mergeCell ref="F191:F199"/>
+    <mergeCell ref="A202:F202"/>
+    <mergeCell ref="A181:F181"/>
+    <mergeCell ref="A183:A187"/>
+    <mergeCell ref="B183:B187"/>
+    <mergeCell ref="C183:C187"/>
+    <mergeCell ref="E183:E187"/>
+    <mergeCell ref="F183:F187"/>
+    <mergeCell ref="A204:A208"/>
+    <mergeCell ref="B204:B208"/>
+    <mergeCell ref="C204:C208"/>
+    <mergeCell ref="E204:E208"/>
+    <mergeCell ref="F204:F208"/>
+    <mergeCell ref="A212:A220"/>
+    <mergeCell ref="B212:B220"/>
+    <mergeCell ref="D212:D220"/>
+    <mergeCell ref="E212:E220"/>
+    <mergeCell ref="F212:F220"/>
+    <mergeCell ref="A256:A263"/>
+    <mergeCell ref="B256:B263"/>
+    <mergeCell ref="D256:D263"/>
+    <mergeCell ref="E256:E263"/>
+    <mergeCell ref="F256:F263"/>
+    <mergeCell ref="A264:A271"/>
+    <mergeCell ref="B264:B271"/>
+    <mergeCell ref="D264:D271"/>
+    <mergeCell ref="A223:F223"/>
+    <mergeCell ref="A225:A229"/>
+    <mergeCell ref="B225:B229"/>
+    <mergeCell ref="C225:C229"/>
+    <mergeCell ref="E225:E229"/>
+    <mergeCell ref="F225:F229"/>
+    <mergeCell ref="A237:F237"/>
+    <mergeCell ref="A239:A243"/>
+    <mergeCell ref="B239:B243"/>
+    <mergeCell ref="C239:C243"/>
+    <mergeCell ref="E239:E243"/>
+    <mergeCell ref="F239:F243"/>
+    <mergeCell ref="A245:A252"/>
+    <mergeCell ref="B245:B252"/>
+    <mergeCell ref="D245:D252"/>
+    <mergeCell ref="E245:E252"/>
+    <mergeCell ref="F245:F252"/>
+    <mergeCell ref="A318:A325"/>
+    <mergeCell ref="B318:B325"/>
+    <mergeCell ref="D318:D325"/>
+    <mergeCell ref="E318:E325"/>
+    <mergeCell ref="F318:F325"/>
+    <mergeCell ref="E264:E271"/>
+    <mergeCell ref="F264:F271"/>
+    <mergeCell ref="A272:A276"/>
+    <mergeCell ref="B272:B276"/>
+    <mergeCell ref="D272:D276"/>
+    <mergeCell ref="E272:E276"/>
+    <mergeCell ref="F272:F276"/>
+    <mergeCell ref="A310:A317"/>
+    <mergeCell ref="B310:B317"/>
+    <mergeCell ref="D310:D317"/>
+    <mergeCell ref="E310:E317"/>
+    <mergeCell ref="F310:F317"/>
+    <mergeCell ref="A289:A305"/>
+    <mergeCell ref="B289:B305"/>
+    <mergeCell ref="C289:C305"/>
+    <mergeCell ref="D289:D305"/>
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -16483,7 +18138,7 @@
   </sheetPr>
   <dimension ref="A1:H48"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
@@ -16499,20 +18154,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="25.5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -16531,13 +18186,13 @@
       <c r="G3" s="58"/>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
     </row>
     <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
@@ -16565,7 +18220,7 @@
         <v>663</v>
       </c>
       <c r="F6" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
@@ -16595,7 +18250,7 @@
         <v>663</v>
       </c>
       <c r="F8" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16640,7 +18295,7 @@
         <v>663</v>
       </c>
       <c r="F11" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16702,13 +18357,13 @@
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" s="74" t="s">
+      <c r="A16" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="B16" s="75"/>
-      <c r="C16" s="75"/>
-      <c r="D16" s="75"/>
-      <c r="E16" s="75"/>
+      <c r="B16" s="93"/>
+      <c r="C16" s="93"/>
+      <c r="D16" s="93"/>
+      <c r="E16" s="93"/>
     </row>
     <row r="17" spans="1:8" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
@@ -16733,16 +18388,16 @@
       </c>
       <c r="D18" s="8"/>
       <c r="E18" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F18" s="64" t="s">
         <v>666</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="19" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16768,16 +18423,16 @@
       </c>
       <c r="D20" s="8"/>
       <c r="E20" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F20" s="64" t="s">
         <v>666</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="21" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16803,13 +18458,13 @@
       </c>
       <c r="D22" s="8"/>
       <c r="E22" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F22" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="23" spans="1:8" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -16893,23 +18548,23 @@
       </c>
       <c r="D28" s="8"/>
       <c r="E28" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F28" s="64" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A29" s="74" t="s">
+      <c r="A29" s="92" t="s">
         <v>490</v>
       </c>
-      <c r="B29" s="75"/>
-      <c r="C29" s="75"/>
-      <c r="D29" s="75"/>
-      <c r="E29" s="75"/>
+      <c r="B29" s="93"/>
+      <c r="C29" s="93"/>
+      <c r="D29" s="93"/>
+      <c r="E29" s="93"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
@@ -16969,7 +18624,7 @@
         <v>668</v>
       </c>
       <c r="G33" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
@@ -17059,17 +18714,17 @@
         <v>668</v>
       </c>
       <c r="G39" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="74" t="s">
+      <c r="A40" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="B40" s="75"/>
-      <c r="C40" s="75"/>
-      <c r="D40" s="75"/>
-      <c r="E40" s="75"/>
+      <c r="B40" s="93"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="93"/>
+      <c r="E40" s="93"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="5" t="s">
@@ -17094,10 +18749,10 @@
       </c>
       <c r="D42" s="8"/>
       <c r="E42" s="62" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
@@ -17123,10 +18778,10 @@
       </c>
       <c r="D44" s="8"/>
       <c r="E44" s="62" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="F44" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.25">
@@ -17181,10 +18836,10 @@
       </c>
       <c r="D48" s="8"/>
       <c r="E48" s="62" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F48" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
     </row>
   </sheetData>
@@ -17208,7 +18863,7 @@
   <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B40" sqref="B40"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17222,20 +18877,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="4" customFormat="1" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="90" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="72"/>
-      <c r="C1" s="72"/>
-      <c r="D1" s="72"/>
-      <c r="E1" s="72"/>
+      <c r="B1" s="90"/>
+      <c r="C1" s="90"/>
+      <c r="D1" s="90"/>
+      <c r="E1" s="90"/>
     </row>
     <row r="2" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="73"/>
-      <c r="B2" s="73"/>
-      <c r="C2" s="73"/>
-      <c r="D2" s="73"/>
-      <c r="E2" s="73"/>
+      <c r="A2" s="91"/>
+      <c r="B2" s="91"/>
+      <c r="C2" s="91"/>
+      <c r="D2" s="91"/>
+      <c r="E2" s="91"/>
     </row>
     <row r="3" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -17252,19 +18907,19 @@
       </c>
       <c r="E3" s="1"/>
       <c r="G3" s="69" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="92" t="s">
         <v>464</v>
       </c>
-      <c r="B4" s="75"/>
-      <c r="C4" s="75"/>
-      <c r="D4" s="75"/>
-      <c r="E4" s="75"/>
-    </row>
-    <row r="5" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="93"/>
+      <c r="C4" s="93"/>
+      <c r="D4" s="93"/>
+      <c r="E4" s="93"/>
+    </row>
+    <row r="5" spans="1:7" s="4" customFormat="1" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -17276,6 +18931,9 @@
         <v>466</v>
       </c>
       <c r="E5" s="5"/>
+      <c r="G5" s="72" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
@@ -17300,7 +18958,9 @@
         <v>466</v>
       </c>
       <c r="E7" s="5"/>
-      <c r="G7" s="58"/>
+      <c r="G7" s="72" t="s">
+        <v>700</v>
+      </c>
     </row>
     <row r="8" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
@@ -17338,13 +18998,13 @@
       <c r="E10" s="8"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A11" s="74" t="s">
+      <c r="A11" s="92" t="s">
         <v>477</v>
       </c>
-      <c r="B11" s="75"/>
-      <c r="C11" s="75"/>
-      <c r="D11" s="75"/>
-      <c r="E11" s="75"/>
+      <c r="B11" s="93"/>
+      <c r="C11" s="93"/>
+      <c r="D11" s="93"/>
+      <c r="E11" s="93"/>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A12" s="5" t="s">
@@ -17408,7 +19068,7 @@
       </c>
       <c r="E16" s="5"/>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A17" s="8"/>
       <c r="B17" s="9" t="s">
         <v>483</v>
@@ -17419,7 +19079,7 @@
       <c r="D17" s="8"/>
       <c r="E17" s="8"/>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="5" t="s">
         <v>613</v>
       </c>
@@ -17432,7 +19092,7 @@
       </c>
       <c r="E18" s="5"/>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="8"/>
       <c r="B19" s="9" t="s">
         <v>489</v>
@@ -17443,16 +19103,16 @@
       <c r="D19" s="8"/>
       <c r="E19" s="8"/>
     </row>
-    <row r="20" spans="1:5" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="74" t="s">
+    <row r="20" spans="1:7" ht="15.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="92" t="s">
         <v>500</v>
       </c>
-      <c r="B20" s="75"/>
-      <c r="C20" s="75"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="75"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="93"/>
+      <c r="C20" s="93"/>
+      <c r="D20" s="93"/>
+      <c r="E20" s="93"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>619</v>
       </c>
@@ -17464,8 +19124,11 @@
         <v>466</v>
       </c>
       <c r="E21" s="5"/>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G21" s="72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>502</v>
@@ -17476,7 +19139,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>620</v>
       </c>
@@ -17488,8 +19151,11 @@
         <v>466</v>
       </c>
       <c r="E23" s="5"/>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G23" s="72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>502</v>
@@ -17500,7 +19166,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>622</v>
       </c>
@@ -17512,8 +19178,11 @@
         <v>466</v>
       </c>
       <c r="E25" s="5"/>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G25" s="72" t="s">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>507</v>

--- a/Config/SAMO.xlsx
+++ b/Config/SAMO.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ArronSealmoy\PycharmProjects\MeralcoOnline\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B583BF83-7A3F-4EEB-9335-A95C69D61B16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44653FE8-F4FD-4625-AF64-EDA942917F5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="3" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" firstSheet="2" activeTab="2" xr2:uid="{BD473FCF-7A5E-465B-8EF9-31C8FE9EE8B7}"/>
   </bookViews>
   <sheets>
     <sheet name="Service Application - Portal_TS" sheetId="9" state="hidden" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2324" uniqueCount="701">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2328" uniqueCount="702">
   <si>
     <t xml:space="preserve">CXE </t>
   </si>
@@ -2849,12 +2849,15 @@
   <si>
     <t>Automated - January 11, 2023</t>
   </si>
+  <si>
+    <t>'Test design updated based on the current UI</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2972,6 +2975,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF444444"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -3211,7 +3221,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="131">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -3598,6 +3608,7 @@
     <xf numFmtId="0" fontId="8" fillId="10" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -11003,8 +11014,8 @@
   </sheetPr>
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11084,7 +11095,7 @@
         <v>665</v>
       </c>
       <c r="G6" s="72" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
@@ -11114,7 +11125,7 @@
         <v>665</v>
       </c>
       <c r="G8" s="72" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11156,7 +11167,7 @@
         <v>665</v>
       </c>
       <c r="G11" s="72" t="s">
-        <v>680</v>
+        <v>700</v>
       </c>
     </row>
     <row r="12" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
@@ -11220,7 +11231,7 @@
       <c r="D16" s="93"/>
       <c r="E16" s="93"/>
     </row>
-    <row r="17" spans="1:5" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" s="4" customFormat="1" ht="12.75" collapsed="1" x14ac:dyDescent="0.25">
       <c r="A17" s="5" t="s">
         <v>608</v>
       </c>
@@ -11235,7 +11246,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A18" s="8"/>
       <c r="B18" s="9" t="s">
         <v>479</v>
@@ -11246,7 +11257,7 @@
       <c r="D18" s="8"/>
       <c r="E18" s="8"/>
     </row>
-    <row r="19" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A19" s="5" t="s">
         <v>609</v>
       </c>
@@ -11259,7 +11270,7 @@
       </c>
       <c r="E19" s="5"/>
     </row>
-    <row r="20" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A20" s="8"/>
       <c r="B20" s="9" t="s">
         <v>481</v>
@@ -11270,7 +11281,7 @@
       <c r="D20" s="8"/>
       <c r="E20" s="8"/>
     </row>
-    <row r="21" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A21" s="5" t="s">
         <v>610</v>
       </c>
@@ -11283,7 +11294,7 @@
       </c>
       <c r="E21" s="5"/>
     </row>
-    <row r="22" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A22" s="8"/>
       <c r="B22" s="9" t="s">
         <v>483</v>
@@ -11294,7 +11305,7 @@
       <c r="D22" s="8"/>
       <c r="E22" s="8"/>
     </row>
-    <row r="23" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A23" s="5" t="s">
         <v>611</v>
       </c>
@@ -11309,7 +11320,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A24" s="8"/>
       <c r="B24" s="9" t="s">
         <v>485</v>
@@ -11320,7 +11331,7 @@
       <c r="D24" s="8"/>
       <c r="E24" s="8"/>
     </row>
-    <row r="25" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A25" s="5" t="s">
         <v>612</v>
       </c>
@@ -11335,7 +11346,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A26" s="8"/>
       <c r="B26" s="9" t="s">
         <v>487</v>
@@ -11346,7 +11357,7 @@
       <c r="D26" s="8"/>
       <c r="E26" s="8"/>
     </row>
-    <row r="27" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A27" s="5" t="s">
         <v>613</v>
       </c>
@@ -11357,9 +11368,14 @@
       <c r="D27" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E27" s="5"/>
-    </row>
-    <row r="28" spans="1:5" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
+      <c r="E27" s="5" t="s">
+        <v>665</v>
+      </c>
+      <c r="G27" s="72" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" s="4" customFormat="1" ht="12.75" x14ac:dyDescent="0.25">
       <c r="A28" s="8"/>
       <c r="B28" s="9" t="s">
         <v>489</v>
@@ -11370,7 +11386,7 @@
       <c r="D28" s="8"/>
       <c r="E28" s="8"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="92" t="s">
         <v>490</v>
       </c>
@@ -11379,7 +11395,7 @@
       <c r="D29" s="93"/>
       <c r="E29" s="93"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="5" t="s">
         <v>614</v>
       </c>
@@ -11394,7 +11410,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="8"/>
       <c r="B31" s="9" t="s">
         <v>492</v>
@@ -11405,7 +11421,7 @@
       <c r="D31" s="8"/>
       <c r="E31" s="8"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="5" t="s">
         <v>615</v>
       </c>
@@ -11613,7 +11629,9 @@
       <c r="D47" s="5" t="s">
         <v>466</v>
       </c>
-      <c r="E47" s="5"/>
+      <c r="E47" s="5" t="s">
+        <v>665</v>
+      </c>
       <c r="G47" s="72" t="s">
         <v>680</v>
       </c>
@@ -11649,8 +11667,8 @@
   </sheetPr>
   <dimension ref="A1:H594"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A124" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B159" sqref="B159"/>
+    <sheetView topLeftCell="A128" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C158" sqref="C158"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="12" outlineLevelRow="1" x14ac:dyDescent="0.25"/>
@@ -13517,7 +13535,7 @@
       <c r="E128" s="121"/>
       <c r="F128" s="121"/>
     </row>
-    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A129" s="121"/>
       <c r="B129" s="124"/>
       <c r="C129" s="41" t="s">
@@ -13527,7 +13545,7 @@
       <c r="E129" s="121"/>
       <c r="F129" s="121"/>
     </row>
-    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A130" s="121"/>
       <c r="B130" s="124"/>
       <c r="C130" s="41" t="s">
@@ -13537,7 +13555,7 @@
       <c r="E130" s="121"/>
       <c r="F130" s="121"/>
     </row>
-    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A131" s="122"/>
       <c r="B131" s="125"/>
       <c r="C131" s="42" t="s">
@@ -13547,7 +13565,7 @@
       <c r="E131" s="122"/>
       <c r="F131" s="122"/>
     </row>
-    <row r="132" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A132" s="44" t="s">
         <v>633</v>
       </c>
@@ -13563,7 +13581,7 @@
       <c r="E132" s="39"/>
       <c r="F132" s="39"/>
     </row>
-    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A133" s="44" t="s">
         <v>633</v>
       </c>
@@ -13579,7 +13597,7 @@
       <c r="E133" s="44"/>
       <c r="F133" s="44"/>
     </row>
-    <row r="134" spans="1:6" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:7" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="126" t="s">
         <v>489</v>
       </c>
@@ -13588,8 +13606,11 @@
       <c r="D134" s="126"/>
       <c r="E134" s="126"/>
       <c r="F134" s="126"/>
-    </row>
-    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G134" s="130" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A135" s="33" t="s">
         <v>632</v>
       </c>
@@ -13605,7 +13626,7 @@
       <c r="E135" s="33"/>
       <c r="F135" s="33"/>
     </row>
-    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A136" s="120" t="s">
         <v>632</v>
       </c>
@@ -13621,7 +13642,7 @@
       <c r="E136" s="120"/>
       <c r="F136" s="120"/>
     </row>
-    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A137" s="121"/>
       <c r="B137" s="124"/>
       <c r="C137" s="121"/>
@@ -13631,7 +13652,7 @@
       <c r="E137" s="121"/>
       <c r="F137" s="121"/>
     </row>
-    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A138" s="121"/>
       <c r="B138" s="124"/>
       <c r="C138" s="121"/>
@@ -13641,7 +13662,7 @@
       <c r="E138" s="121"/>
       <c r="F138" s="121"/>
     </row>
-    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A139" s="121"/>
       <c r="B139" s="124"/>
       <c r="C139" s="121"/>
@@ -13651,7 +13672,7 @@
       <c r="E139" s="121"/>
       <c r="F139" s="121"/>
     </row>
-    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A140" s="122"/>
       <c r="B140" s="125"/>
       <c r="C140" s="122"/>
@@ -13661,7 +13682,7 @@
       <c r="E140" s="122"/>
       <c r="F140" s="122"/>
     </row>
-    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
         <v>632</v>
       </c>
@@ -13677,7 +13698,7 @@
       <c r="E141" s="33"/>
       <c r="F141" s="33"/>
     </row>
-    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
         <v>632</v>
       </c>
@@ -13693,7 +13714,7 @@
       <c r="E142" s="33"/>
       <c r="F142" s="33"/>
     </row>
-    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>632</v>
       </c>
@@ -13709,7 +13730,7 @@
       <c r="E143" s="48"/>
       <c r="F143" s="48"/>
     </row>
-    <row r="144" spans="1:6" ht="24" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:7" ht="24" x14ac:dyDescent="0.25">
       <c r="A144" s="33" t="s">
         <v>632</v>
       </c>
@@ -13730,7 +13751,7 @@
         <v>632</v>
       </c>
       <c r="B145" s="123" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
       <c r="C145" s="36" t="s">
         <v>584</v>
@@ -13866,7 +13887,7 @@
         <v>632</v>
       </c>
       <c r="B158" s="34" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="C158" s="33" t="s">
         <v>517</v>
@@ -13882,7 +13903,7 @@
         <v>632</v>
       </c>
       <c r="B159" s="34" t="s">
-        <v>639</v>
+        <v>658</v>
       </c>
       <c r="C159" s="39" t="s">
         <v>519</v>
@@ -15920,2070 +15941,264 @@
       <c r="E336" s="13"/>
       <c r="F336" s="13"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A337" s="13"/>
-      <c r="B337" s="13"/>
-      <c r="C337" s="13"/>
-      <c r="D337" s="13"/>
-      <c r="E337" s="13"/>
-      <c r="F337" s="13"/>
-    </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A338" s="13"/>
-      <c r="B338" s="13"/>
-      <c r="C338" s="13"/>
-      <c r="D338" s="13"/>
-      <c r="E338" s="13"/>
-      <c r="F338" s="13"/>
-    </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A339" s="13"/>
-      <c r="B339" s="13"/>
-      <c r="C339" s="13"/>
-      <c r="D339" s="13"/>
-      <c r="E339" s="13"/>
-      <c r="F339" s="13"/>
-    </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A340" s="13"/>
-      <c r="B340" s="13"/>
-      <c r="C340" s="13"/>
-      <c r="D340" s="13"/>
-      <c r="E340" s="13"/>
-      <c r="F340" s="13"/>
-    </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A341" s="13"/>
-      <c r="B341" s="13"/>
-      <c r="C341" s="13"/>
-      <c r="D341" s="13"/>
-      <c r="E341" s="13"/>
-      <c r="F341" s="13"/>
-    </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A342" s="13"/>
-      <c r="B342" s="13"/>
-      <c r="C342" s="13"/>
-      <c r="D342" s="13"/>
-      <c r="E342" s="13"/>
-      <c r="F342" s="13"/>
-    </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A343" s="13"/>
-      <c r="B343" s="13"/>
-      <c r="C343" s="13"/>
-      <c r="D343" s="13"/>
-      <c r="E343" s="13"/>
-      <c r="F343" s="13"/>
-    </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A344" s="13"/>
-      <c r="B344" s="13"/>
-      <c r="C344" s="13"/>
-      <c r="D344" s="13"/>
-      <c r="E344" s="13"/>
-      <c r="F344" s="13"/>
-    </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A345" s="13"/>
-      <c r="B345" s="13"/>
-      <c r="C345" s="13"/>
-      <c r="D345" s="13"/>
-      <c r="E345" s="13"/>
-      <c r="F345" s="13"/>
-    </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A346" s="13"/>
-      <c r="B346" s="13"/>
-      <c r="C346" s="13"/>
-      <c r="D346" s="13"/>
-      <c r="E346" s="13"/>
-      <c r="F346" s="13"/>
-    </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A347" s="13"/>
-      <c r="B347" s="13"/>
-      <c r="C347" s="13"/>
-      <c r="D347" s="13"/>
-      <c r="E347" s="13"/>
-      <c r="F347" s="13"/>
-    </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A348" s="13"/>
-      <c r="B348" s="13"/>
-      <c r="C348" s="13"/>
-      <c r="D348" s="13"/>
-      <c r="E348" s="13"/>
-      <c r="F348" s="13"/>
-    </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A349" s="13"/>
-      <c r="B349" s="13"/>
-      <c r="C349" s="13"/>
-      <c r="D349" s="13"/>
-      <c r="E349" s="13"/>
-      <c r="F349" s="13"/>
-    </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A350" s="13"/>
-      <c r="B350" s="13"/>
-      <c r="C350" s="13"/>
-      <c r="D350" s="13"/>
-      <c r="E350" s="13"/>
-      <c r="F350" s="13"/>
-    </row>
-    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A351" s="13"/>
-      <c r="B351" s="13"/>
-      <c r="C351" s="13"/>
-      <c r="D351" s="13"/>
-      <c r="E351" s="13"/>
-      <c r="F351" s="13"/>
-    </row>
-    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A352" s="13"/>
-      <c r="B352" s="13"/>
-      <c r="C352" s="13"/>
-      <c r="D352" s="13"/>
-      <c r="E352" s="13"/>
-      <c r="F352" s="13"/>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A353" s="13"/>
-      <c r="B353" s="13"/>
-      <c r="C353" s="13"/>
-      <c r="D353" s="13"/>
-      <c r="E353" s="13"/>
-      <c r="F353" s="13"/>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A354" s="13"/>
-      <c r="B354" s="13"/>
-      <c r="C354" s="13"/>
-      <c r="D354" s="13"/>
-      <c r="E354" s="13"/>
-      <c r="F354" s="13"/>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A355" s="13"/>
-      <c r="B355" s="13"/>
-      <c r="C355" s="13"/>
-      <c r="D355" s="13"/>
-      <c r="E355" s="13"/>
-      <c r="F355" s="13"/>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A356" s="13"/>
-      <c r="B356" s="13"/>
-      <c r="C356" s="13"/>
-      <c r="D356" s="13"/>
-      <c r="E356" s="13"/>
-      <c r="F356" s="13"/>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A357" s="13"/>
-      <c r="B357" s="13"/>
-      <c r="C357" s="13"/>
-      <c r="D357" s="13"/>
-      <c r="E357" s="13"/>
-      <c r="F357" s="13"/>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A358" s="13"/>
-      <c r="B358" s="13"/>
-      <c r="C358" s="13"/>
-      <c r="D358" s="13"/>
-      <c r="E358" s="13"/>
-      <c r="F358" s="13"/>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A359" s="13"/>
-      <c r="B359" s="13"/>
-      <c r="C359" s="13"/>
-      <c r="D359" s="13"/>
-      <c r="E359" s="13"/>
-      <c r="F359" s="13"/>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A360" s="13"/>
-      <c r="B360" s="13"/>
-      <c r="C360" s="13"/>
-      <c r="D360" s="13"/>
-      <c r="E360" s="13"/>
-      <c r="F360" s="13"/>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A361" s="13"/>
-      <c r="B361" s="13"/>
-      <c r="C361" s="13"/>
-      <c r="D361" s="13"/>
-      <c r="E361" s="13"/>
-      <c r="F361" s="13"/>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A362" s="13"/>
-      <c r="B362" s="13"/>
-      <c r="C362" s="13"/>
-      <c r="D362" s="13"/>
-      <c r="E362" s="13"/>
-      <c r="F362" s="13"/>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A363" s="13"/>
-      <c r="B363" s="13"/>
-      <c r="C363" s="13"/>
-      <c r="D363" s="13"/>
-      <c r="E363" s="13"/>
-      <c r="F363" s="13"/>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A364" s="13"/>
-      <c r="B364" s="13"/>
-      <c r="C364" s="13"/>
-      <c r="D364" s="13"/>
-      <c r="E364" s="13"/>
-      <c r="F364" s="13"/>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A365" s="13"/>
-      <c r="B365" s="13"/>
-      <c r="C365" s="13"/>
-      <c r="D365" s="13"/>
-      <c r="E365" s="13"/>
-      <c r="F365" s="13"/>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A366" s="13"/>
-      <c r="B366" s="13"/>
-      <c r="C366" s="13"/>
-      <c r="D366" s="13"/>
-      <c r="E366" s="13"/>
-      <c r="F366" s="13"/>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A367" s="13"/>
-      <c r="B367" s="13"/>
-      <c r="C367" s="13"/>
-      <c r="D367" s="13"/>
-      <c r="E367" s="13"/>
-      <c r="F367" s="13"/>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A368" s="13"/>
-      <c r="B368" s="13"/>
-      <c r="C368" s="13"/>
-      <c r="D368" s="13"/>
-      <c r="E368" s="13"/>
-      <c r="F368" s="13"/>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A369" s="13"/>
-      <c r="B369" s="13"/>
-      <c r="C369" s="13"/>
-      <c r="D369" s="13"/>
-      <c r="E369" s="13"/>
-      <c r="F369" s="13"/>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A370" s="13"/>
-      <c r="B370" s="13"/>
-      <c r="C370" s="13"/>
-      <c r="D370" s="13"/>
-      <c r="E370" s="13"/>
-      <c r="F370" s="13"/>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A371" s="13"/>
-      <c r="B371" s="13"/>
-      <c r="C371" s="13"/>
-      <c r="D371" s="13"/>
-      <c r="E371" s="13"/>
-      <c r="F371" s="13"/>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A372" s="13"/>
-      <c r="B372" s="13"/>
-      <c r="C372" s="13"/>
-      <c r="D372" s="13"/>
-      <c r="E372" s="13"/>
-      <c r="F372" s="13"/>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A373" s="13"/>
-      <c r="B373" s="13"/>
-      <c r="C373" s="13"/>
-      <c r="D373" s="13"/>
-      <c r="E373" s="13"/>
-      <c r="F373" s="13"/>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A374" s="13"/>
-      <c r="B374" s="13"/>
-      <c r="C374" s="13"/>
-      <c r="D374" s="13"/>
-      <c r="E374" s="13"/>
-      <c r="F374" s="13"/>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A375" s="13"/>
-      <c r="B375" s="13"/>
-      <c r="C375" s="13"/>
-      <c r="D375" s="13"/>
-      <c r="E375" s="13"/>
-      <c r="F375" s="13"/>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A376" s="13"/>
-      <c r="B376" s="13"/>
-      <c r="C376" s="13"/>
-      <c r="D376" s="13"/>
-      <c r="E376" s="13"/>
-      <c r="F376" s="13"/>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A377" s="13"/>
-      <c r="B377" s="13"/>
-      <c r="C377" s="13"/>
-      <c r="D377" s="13"/>
-      <c r="E377" s="13"/>
-      <c r="F377" s="13"/>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A378" s="13"/>
-      <c r="B378" s="13"/>
-      <c r="C378" s="13"/>
-      <c r="D378" s="13"/>
-      <c r="E378" s="13"/>
-      <c r="F378" s="13"/>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A379" s="13"/>
-      <c r="B379" s="13"/>
-      <c r="C379" s="13"/>
-      <c r="D379" s="13"/>
-      <c r="E379" s="13"/>
-      <c r="F379" s="13"/>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A380" s="13"/>
-      <c r="B380" s="13"/>
-      <c r="C380" s="13"/>
-      <c r="D380" s="13"/>
-      <c r="E380" s="13"/>
-      <c r="F380" s="13"/>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A381" s="13"/>
-      <c r="B381" s="13"/>
-      <c r="C381" s="13"/>
-      <c r="D381" s="13"/>
-      <c r="E381" s="13"/>
-      <c r="F381" s="13"/>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A382" s="13"/>
-      <c r="B382" s="13"/>
-      <c r="C382" s="13"/>
-      <c r="D382" s="13"/>
-      <c r="E382" s="13"/>
-      <c r="F382" s="13"/>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A383" s="13"/>
-      <c r="B383" s="13"/>
-      <c r="C383" s="13"/>
-      <c r="D383" s="13"/>
-      <c r="E383" s="13"/>
-      <c r="F383" s="13"/>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A384" s="13"/>
-      <c r="B384" s="13"/>
-      <c r="C384" s="13"/>
-      <c r="D384" s="13"/>
-      <c r="E384" s="13"/>
-      <c r="F384" s="13"/>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A385" s="13"/>
-      <c r="B385" s="13"/>
-      <c r="C385" s="13"/>
-      <c r="D385" s="13"/>
-      <c r="E385" s="13"/>
-      <c r="F385" s="13"/>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A386" s="13"/>
-      <c r="B386" s="13"/>
-      <c r="C386" s="13"/>
-      <c r="D386" s="13"/>
-      <c r="E386" s="13"/>
-      <c r="F386" s="13"/>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A387" s="13"/>
-      <c r="B387" s="13"/>
-      <c r="C387" s="13"/>
-      <c r="D387" s="13"/>
-      <c r="E387" s="13"/>
-      <c r="F387" s="13"/>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A388" s="13"/>
-      <c r="B388" s="13"/>
-      <c r="C388" s="13"/>
-      <c r="D388" s="13"/>
-      <c r="E388" s="13"/>
-      <c r="F388" s="13"/>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A389" s="13"/>
-      <c r="B389" s="13"/>
-      <c r="C389" s="13"/>
-      <c r="D389" s="13"/>
-      <c r="E389" s="13"/>
-      <c r="F389" s="13"/>
-    </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A390" s="13"/>
-      <c r="B390" s="13"/>
-      <c r="C390" s="13"/>
-      <c r="D390" s="13"/>
-      <c r="E390" s="13"/>
-      <c r="F390" s="13"/>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A391" s="13"/>
-      <c r="B391" s="13"/>
-      <c r="C391" s="13"/>
-      <c r="D391" s="13"/>
-      <c r="E391" s="13"/>
-      <c r="F391" s="13"/>
-    </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A392" s="13"/>
-      <c r="B392" s="13"/>
-      <c r="C392" s="13"/>
-      <c r="D392" s="13"/>
-      <c r="E392" s="13"/>
-      <c r="F392" s="13"/>
-    </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A393" s="13"/>
-      <c r="B393" s="13"/>
-      <c r="C393" s="13"/>
-      <c r="D393" s="13"/>
-      <c r="E393" s="13"/>
-      <c r="F393" s="13"/>
-    </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A394" s="13"/>
-      <c r="B394" s="13"/>
-      <c r="C394" s="13"/>
-      <c r="D394" s="13"/>
-      <c r="E394" s="13"/>
-      <c r="F394" s="13"/>
-    </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A395" s="13"/>
-      <c r="B395" s="13"/>
-      <c r="C395" s="13"/>
-      <c r="D395" s="13"/>
-      <c r="E395" s="13"/>
-      <c r="F395" s="13"/>
-    </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A396" s="13"/>
-      <c r="B396" s="13"/>
-      <c r="C396" s="13"/>
-      <c r="D396" s="13"/>
-      <c r="E396" s="13"/>
-      <c r="F396" s="13"/>
-    </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A397" s="13"/>
-      <c r="B397" s="13"/>
-      <c r="C397" s="13"/>
-      <c r="D397" s="13"/>
-      <c r="E397" s="13"/>
-      <c r="F397" s="13"/>
-    </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A398" s="13"/>
-      <c r="B398" s="13"/>
-      <c r="C398" s="13"/>
-      <c r="D398" s="13"/>
-      <c r="E398" s="13"/>
-      <c r="F398" s="13"/>
-    </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A399" s="13"/>
-      <c r="B399" s="13"/>
-      <c r="C399" s="13"/>
-      <c r="D399" s="13"/>
-      <c r="E399" s="13"/>
-      <c r="F399" s="13"/>
-    </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A400" s="13"/>
-      <c r="B400" s="13"/>
-      <c r="C400" s="13"/>
-      <c r="D400" s="13"/>
-      <c r="E400" s="13"/>
-      <c r="F400" s="13"/>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A401" s="13"/>
-      <c r="B401" s="13"/>
-      <c r="C401" s="13"/>
-      <c r="D401" s="13"/>
-      <c r="E401" s="13"/>
-      <c r="F401" s="13"/>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A402" s="13"/>
-      <c r="B402" s="13"/>
-      <c r="C402" s="13"/>
-      <c r="D402" s="13"/>
-      <c r="E402" s="13"/>
-      <c r="F402" s="13"/>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A403" s="13"/>
-      <c r="B403" s="13"/>
-      <c r="C403" s="13"/>
-      <c r="D403" s="13"/>
-      <c r="E403" s="13"/>
-      <c r="F403" s="13"/>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A404" s="13"/>
-      <c r="B404" s="13"/>
-      <c r="C404" s="13"/>
-      <c r="D404" s="13"/>
-      <c r="E404" s="13"/>
-      <c r="F404" s="13"/>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A405" s="13"/>
-      <c r="B405" s="13"/>
-      <c r="C405" s="13"/>
-      <c r="D405" s="13"/>
-      <c r="E405" s="13"/>
-      <c r="F405" s="13"/>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A406" s="13"/>
-      <c r="B406" s="13"/>
-      <c r="C406" s="13"/>
-      <c r="D406" s="13"/>
-      <c r="E406" s="13"/>
-      <c r="F406" s="13"/>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A407" s="13"/>
-      <c r="B407" s="13"/>
-      <c r="C407" s="13"/>
-      <c r="D407" s="13"/>
-      <c r="E407" s="13"/>
-      <c r="F407" s="13"/>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A408" s="13"/>
-      <c r="B408" s="13"/>
-      <c r="C408" s="13"/>
-      <c r="D408" s="13"/>
-      <c r="E408" s="13"/>
-      <c r="F408" s="13"/>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A409" s="13"/>
-      <c r="B409" s="13"/>
-      <c r="C409" s="13"/>
-      <c r="D409" s="13"/>
-      <c r="E409" s="13"/>
-      <c r="F409" s="13"/>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A410" s="13"/>
-      <c r="B410" s="13"/>
-      <c r="C410" s="13"/>
-      <c r="D410" s="13"/>
-      <c r="E410" s="13"/>
-      <c r="F410" s="13"/>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A411" s="13"/>
-      <c r="B411" s="13"/>
-      <c r="C411" s="13"/>
-      <c r="D411" s="13"/>
-      <c r="E411" s="13"/>
-      <c r="F411" s="13"/>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A412" s="13"/>
-      <c r="B412" s="13"/>
-      <c r="C412" s="13"/>
-      <c r="D412" s="13"/>
-      <c r="E412" s="13"/>
-      <c r="F412" s="13"/>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A413" s="13"/>
-      <c r="B413" s="13"/>
-      <c r="C413" s="13"/>
-      <c r="D413" s="13"/>
-      <c r="E413" s="13"/>
-      <c r="F413" s="13"/>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A414" s="13"/>
-      <c r="B414" s="13"/>
-      <c r="C414" s="13"/>
-      <c r="D414" s="13"/>
-      <c r="E414" s="13"/>
-      <c r="F414" s="13"/>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A415" s="13"/>
-      <c r="B415" s="13"/>
-      <c r="C415" s="13"/>
-      <c r="D415" s="13"/>
-      <c r="E415" s="13"/>
-      <c r="F415" s="13"/>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A416" s="13"/>
-      <c r="B416" s="13"/>
-      <c r="C416" s="13"/>
-      <c r="D416" s="13"/>
-      <c r="E416" s="13"/>
-      <c r="F416" s="13"/>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A417" s="13"/>
-      <c r="B417" s="13"/>
-      <c r="C417" s="13"/>
-      <c r="D417" s="13"/>
-      <c r="E417" s="13"/>
-      <c r="F417" s="13"/>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A418" s="13"/>
-      <c r="B418" s="13"/>
-      <c r="C418" s="13"/>
-      <c r="D418" s="13"/>
-      <c r="E418" s="13"/>
-      <c r="F418" s="13"/>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A419" s="13"/>
-      <c r="B419" s="13"/>
-      <c r="C419" s="13"/>
-      <c r="D419" s="13"/>
-      <c r="E419" s="13"/>
-      <c r="F419" s="13"/>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A420" s="13"/>
-      <c r="B420" s="13"/>
-      <c r="C420" s="13"/>
-      <c r="D420" s="13"/>
-      <c r="E420" s="13"/>
-      <c r="F420" s="13"/>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A421" s="13"/>
-      <c r="B421" s="13"/>
-      <c r="C421" s="13"/>
-      <c r="D421" s="13"/>
-      <c r="E421" s="13"/>
-      <c r="F421" s="13"/>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A422" s="13"/>
-      <c r="B422" s="13"/>
-      <c r="C422" s="13"/>
-      <c r="D422" s="13"/>
-      <c r="E422" s="13"/>
-      <c r="F422" s="13"/>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A423" s="13"/>
-      <c r="B423" s="13"/>
-      <c r="C423" s="13"/>
-      <c r="D423" s="13"/>
-      <c r="E423" s="13"/>
-      <c r="F423" s="13"/>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A424" s="13"/>
-      <c r="B424" s="13"/>
-      <c r="C424" s="13"/>
-      <c r="D424" s="13"/>
-      <c r="E424" s="13"/>
-      <c r="F424" s="13"/>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A425" s="13"/>
-      <c r="B425" s="13"/>
-      <c r="C425" s="13"/>
-      <c r="D425" s="13"/>
-      <c r="E425" s="13"/>
-      <c r="F425" s="13"/>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A426" s="13"/>
-      <c r="B426" s="13"/>
-      <c r="C426" s="13"/>
-      <c r="D426" s="13"/>
-      <c r="E426" s="13"/>
-      <c r="F426" s="13"/>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A427" s="13"/>
-      <c r="B427" s="13"/>
-      <c r="C427" s="13"/>
-      <c r="D427" s="13"/>
-      <c r="E427" s="13"/>
-      <c r="F427" s="13"/>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A428" s="13"/>
-      <c r="B428" s="13"/>
-      <c r="C428" s="13"/>
-      <c r="D428" s="13"/>
-      <c r="E428" s="13"/>
-      <c r="F428" s="13"/>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A429" s="13"/>
-      <c r="B429" s="13"/>
-      <c r="C429" s="13"/>
-      <c r="D429" s="13"/>
-      <c r="E429" s="13"/>
-      <c r="F429" s="13"/>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A430" s="13"/>
-      <c r="B430" s="13"/>
-      <c r="C430" s="13"/>
-      <c r="D430" s="13"/>
-      <c r="E430" s="13"/>
-      <c r="F430" s="13"/>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A431" s="13"/>
-      <c r="B431" s="13"/>
-      <c r="C431" s="13"/>
-      <c r="D431" s="13"/>
-      <c r="E431" s="13"/>
-      <c r="F431" s="13"/>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A432" s="13"/>
-      <c r="B432" s="13"/>
-      <c r="C432" s="13"/>
-      <c r="D432" s="13"/>
-      <c r="E432" s="13"/>
-      <c r="F432" s="13"/>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A433" s="13"/>
-      <c r="B433" s="13"/>
-      <c r="C433" s="13"/>
-      <c r="D433" s="13"/>
-      <c r="E433" s="13"/>
-      <c r="F433" s="13"/>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A434" s="13"/>
-      <c r="B434" s="13"/>
-      <c r="C434" s="13"/>
-      <c r="D434" s="13"/>
-      <c r="E434" s="13"/>
-      <c r="F434" s="13"/>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A435" s="13"/>
-      <c r="B435" s="13"/>
-      <c r="C435" s="13"/>
-      <c r="D435" s="13"/>
-      <c r="E435" s="13"/>
-      <c r="F435" s="13"/>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A436" s="13"/>
-      <c r="B436" s="13"/>
-      <c r="C436" s="13"/>
-      <c r="D436" s="13"/>
-      <c r="E436" s="13"/>
-      <c r="F436" s="13"/>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A437" s="13"/>
-      <c r="B437" s="13"/>
-      <c r="C437" s="13"/>
-      <c r="D437" s="13"/>
-      <c r="E437" s="13"/>
-      <c r="F437" s="13"/>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A438" s="13"/>
-      <c r="B438" s="13"/>
-      <c r="C438" s="13"/>
-      <c r="D438" s="13"/>
-      <c r="E438" s="13"/>
-      <c r="F438" s="13"/>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A439" s="13"/>
-      <c r="B439" s="13"/>
-      <c r="C439" s="13"/>
-      <c r="D439" s="13"/>
-      <c r="E439" s="13"/>
-      <c r="F439" s="13"/>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A440" s="13"/>
-      <c r="B440" s="13"/>
-      <c r="C440" s="13"/>
-      <c r="D440" s="13"/>
-      <c r="E440" s="13"/>
-      <c r="F440" s="13"/>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A441" s="13"/>
-      <c r="B441" s="13"/>
-      <c r="C441" s="13"/>
-      <c r="D441" s="13"/>
-      <c r="E441" s="13"/>
-      <c r="F441" s="13"/>
-    </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A442" s="13"/>
-      <c r="B442" s="13"/>
-      <c r="C442" s="13"/>
-      <c r="D442" s="13"/>
-      <c r="E442" s="13"/>
-      <c r="F442" s="13"/>
-    </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A443" s="13"/>
-      <c r="B443" s="13"/>
-      <c r="C443" s="13"/>
-      <c r="D443" s="13"/>
-      <c r="E443" s="13"/>
-      <c r="F443" s="13"/>
-    </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A444" s="13"/>
-      <c r="B444" s="13"/>
-      <c r="C444" s="13"/>
-      <c r="D444" s="13"/>
-      <c r="E444" s="13"/>
-      <c r="F444" s="13"/>
-    </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A445" s="13"/>
-      <c r="B445" s="13"/>
-      <c r="C445" s="13"/>
-      <c r="D445" s="13"/>
-      <c r="E445" s="13"/>
-      <c r="F445" s="13"/>
-    </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A446" s="13"/>
-      <c r="B446" s="13"/>
-      <c r="C446" s="13"/>
-      <c r="D446" s="13"/>
-      <c r="E446" s="13"/>
-      <c r="F446" s="13"/>
-    </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A447" s="13"/>
-      <c r="B447" s="13"/>
-      <c r="C447" s="13"/>
-      <c r="D447" s="13"/>
-      <c r="E447" s="13"/>
-      <c r="F447" s="13"/>
-    </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A448" s="13"/>
-      <c r="B448" s="13"/>
-      <c r="C448" s="13"/>
-      <c r="D448" s="13"/>
-      <c r="E448" s="13"/>
-      <c r="F448" s="13"/>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A449" s="13"/>
-      <c r="B449" s="13"/>
-      <c r="C449" s="13"/>
-      <c r="D449" s="13"/>
-      <c r="E449" s="13"/>
-      <c r="F449" s="13"/>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A450" s="13"/>
-      <c r="B450" s="13"/>
-      <c r="C450" s="13"/>
-      <c r="D450" s="13"/>
-      <c r="E450" s="13"/>
-      <c r="F450" s="13"/>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A451" s="13"/>
-      <c r="B451" s="13"/>
-      <c r="C451" s="13"/>
-      <c r="D451" s="13"/>
-      <c r="E451" s="13"/>
-      <c r="F451" s="13"/>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A452" s="13"/>
-      <c r="B452" s="13"/>
-      <c r="C452" s="13"/>
-      <c r="D452" s="13"/>
-      <c r="E452" s="13"/>
-      <c r="F452" s="13"/>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A453" s="13"/>
-      <c r="B453" s="13"/>
-      <c r="C453" s="13"/>
-      <c r="D453" s="13"/>
-      <c r="E453" s="13"/>
-      <c r="F453" s="13"/>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A454" s="13"/>
-      <c r="B454" s="13"/>
-      <c r="C454" s="13"/>
-      <c r="D454" s="13"/>
-      <c r="E454" s="13"/>
-      <c r="F454" s="13"/>
-    </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A455" s="13"/>
-      <c r="B455" s="13"/>
-      <c r="C455" s="13"/>
-      <c r="D455" s="13"/>
-      <c r="E455" s="13"/>
-      <c r="F455" s="13"/>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A456" s="13"/>
-      <c r="B456" s="13"/>
-      <c r="C456" s="13"/>
-      <c r="D456" s="13"/>
-      <c r="E456" s="13"/>
-      <c r="F456" s="13"/>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A457" s="13"/>
-      <c r="B457" s="13"/>
-      <c r="C457" s="13"/>
-      <c r="D457" s="13"/>
-      <c r="E457" s="13"/>
-      <c r="F457" s="13"/>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A458" s="13"/>
-      <c r="B458" s="13"/>
-      <c r="C458" s="13"/>
-      <c r="D458" s="13"/>
-      <c r="E458" s="13"/>
-      <c r="F458" s="13"/>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A459" s="13"/>
-      <c r="B459" s="13"/>
-      <c r="C459" s="13"/>
-      <c r="D459" s="13"/>
-      <c r="E459" s="13"/>
-      <c r="F459" s="13"/>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A460" s="13"/>
-      <c r="B460" s="13"/>
-      <c r="C460" s="13"/>
-      <c r="D460" s="13"/>
-      <c r="E460" s="13"/>
-      <c r="F460" s="13"/>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A461" s="13"/>
-      <c r="B461" s="13"/>
-      <c r="C461" s="13"/>
-      <c r="D461" s="13"/>
-      <c r="E461" s="13"/>
-      <c r="F461" s="13"/>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A462" s="13"/>
-      <c r="B462" s="13"/>
-      <c r="C462" s="13"/>
-      <c r="D462" s="13"/>
-      <c r="E462" s="13"/>
-      <c r="F462" s="13"/>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A463" s="13"/>
-      <c r="B463" s="13"/>
-      <c r="C463" s="13"/>
-      <c r="D463" s="13"/>
-      <c r="E463" s="13"/>
-      <c r="F463" s="13"/>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A464" s="13"/>
-      <c r="B464" s="13"/>
-      <c r="C464" s="13"/>
-      <c r="D464" s="13"/>
-      <c r="E464" s="13"/>
-      <c r="F464" s="13"/>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A465" s="13"/>
-      <c r="B465" s="13"/>
-      <c r="C465" s="13"/>
-      <c r="D465" s="13"/>
-      <c r="E465" s="13"/>
-      <c r="F465" s="13"/>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A466" s="13"/>
-      <c r="B466" s="13"/>
-      <c r="C466" s="13"/>
-      <c r="D466" s="13"/>
-      <c r="E466" s="13"/>
-      <c r="F466" s="13"/>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A467" s="13"/>
-      <c r="B467" s="13"/>
-      <c r="C467" s="13"/>
-      <c r="D467" s="13"/>
-      <c r="E467" s="13"/>
-      <c r="F467" s="13"/>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A468" s="13"/>
-      <c r="B468" s="13"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="13"/>
-      <c r="E468" s="13"/>
-      <c r="F468" s="13"/>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A469" s="13"/>
-      <c r="B469" s="13"/>
-      <c r="C469" s="13"/>
-      <c r="D469" s="13"/>
-      <c r="E469" s="13"/>
-      <c r="F469" s="13"/>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A470" s="13"/>
-      <c r="B470" s="13"/>
-      <c r="C470" s="13"/>
-      <c r="D470" s="13"/>
-      <c r="E470" s="13"/>
-      <c r="F470" s="13"/>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A471" s="13"/>
-      <c r="B471" s="13"/>
-      <c r="C471" s="13"/>
-      <c r="D471" s="13"/>
-      <c r="E471" s="13"/>
-      <c r="F471" s="13"/>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A472" s="13"/>
-      <c r="B472" s="13"/>
-      <c r="C472" s="13"/>
-      <c r="D472" s="13"/>
-      <c r="E472" s="13"/>
-      <c r="F472" s="13"/>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A473" s="13"/>
-      <c r="B473" s="13"/>
-      <c r="C473" s="13"/>
-      <c r="D473" s="13"/>
-      <c r="E473" s="13"/>
-      <c r="F473" s="13"/>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A474" s="13"/>
-      <c r="B474" s="13"/>
-      <c r="C474" s="13"/>
-      <c r="D474" s="13"/>
-      <c r="E474" s="13"/>
-      <c r="F474" s="13"/>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A475" s="13"/>
-      <c r="B475" s="13"/>
-      <c r="C475" s="13"/>
-      <c r="D475" s="13"/>
-      <c r="E475" s="13"/>
-      <c r="F475" s="13"/>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A476" s="13"/>
-      <c r="B476" s="13"/>
-      <c r="C476" s="13"/>
-      <c r="D476" s="13"/>
-      <c r="E476" s="13"/>
-      <c r="F476" s="13"/>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A477" s="13"/>
-      <c r="B477" s="13"/>
-      <c r="C477" s="13"/>
-      <c r="D477" s="13"/>
-      <c r="E477" s="13"/>
-      <c r="F477" s="13"/>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A478" s="13"/>
-      <c r="B478" s="13"/>
-      <c r="C478" s="13"/>
-      <c r="D478" s="13"/>
-      <c r="E478" s="13"/>
-      <c r="F478" s="13"/>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A479" s="13"/>
-      <c r="B479" s="13"/>
-      <c r="C479" s="13"/>
-      <c r="D479" s="13"/>
-      <c r="E479" s="13"/>
-      <c r="F479" s="13"/>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A480" s="13"/>
-      <c r="B480" s="13"/>
-      <c r="C480" s="13"/>
-      <c r="D480" s="13"/>
-      <c r="E480" s="13"/>
-      <c r="F480" s="13"/>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A481" s="13"/>
-      <c r="B481" s="13"/>
-      <c r="C481" s="13"/>
-      <c r="D481" s="13"/>
-      <c r="E481" s="13"/>
-      <c r="F481" s="13"/>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A482" s="13"/>
-      <c r="B482" s="13"/>
-      <c r="C482" s="13"/>
-      <c r="D482" s="13"/>
-      <c r="E482" s="13"/>
-      <c r="F482" s="13"/>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A483" s="13"/>
-      <c r="B483" s="13"/>
-      <c r="C483" s="13"/>
-      <c r="D483" s="13"/>
-      <c r="E483" s="13"/>
-      <c r="F483" s="13"/>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A484" s="13"/>
-      <c r="B484" s="13"/>
-      <c r="C484" s="13"/>
-      <c r="D484" s="13"/>
-      <c r="E484" s="13"/>
-      <c r="F484" s="13"/>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A485" s="13"/>
-      <c r="B485" s="13"/>
-      <c r="C485" s="13"/>
-      <c r="D485" s="13"/>
-      <c r="E485" s="13"/>
-      <c r="F485" s="13"/>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A486" s="13"/>
-      <c r="B486" s="13"/>
-      <c r="C486" s="13"/>
-      <c r="D486" s="13"/>
-      <c r="E486" s="13"/>
-      <c r="F486" s="13"/>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A487" s="13"/>
-      <c r="B487" s="13"/>
-      <c r="C487" s="13"/>
-      <c r="D487" s="13"/>
-      <c r="E487" s="13"/>
-      <c r="F487" s="13"/>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A488" s="13"/>
-      <c r="B488" s="13"/>
-      <c r="C488" s="13"/>
-      <c r="D488" s="13"/>
-      <c r="E488" s="13"/>
-      <c r="F488" s="13"/>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A489" s="13"/>
-      <c r="B489" s="13"/>
-      <c r="C489" s="13"/>
-      <c r="D489" s="13"/>
-      <c r="E489" s="13"/>
-      <c r="F489" s="13"/>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A490" s="13"/>
-      <c r="B490" s="13"/>
-      <c r="C490" s="13"/>
-      <c r="D490" s="13"/>
-      <c r="E490" s="13"/>
-      <c r="F490" s="13"/>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A491" s="13"/>
-      <c r="B491" s="13"/>
-      <c r="C491" s="13"/>
-      <c r="D491" s="13"/>
-      <c r="E491" s="13"/>
-      <c r="F491" s="13"/>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A492" s="13"/>
-      <c r="B492" s="13"/>
-      <c r="C492" s="13"/>
-      <c r="D492" s="13"/>
-      <c r="E492" s="13"/>
-      <c r="F492" s="13"/>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A493" s="13"/>
-      <c r="B493" s="13"/>
-      <c r="C493" s="13"/>
-      <c r="D493" s="13"/>
-      <c r="E493" s="13"/>
-      <c r="F493" s="13"/>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A494" s="13"/>
-      <c r="B494" s="13"/>
-      <c r="C494" s="13"/>
-      <c r="D494" s="13"/>
-      <c r="E494" s="13"/>
-      <c r="F494" s="13"/>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A495" s="13"/>
-      <c r="B495" s="13"/>
-      <c r="C495" s="13"/>
-      <c r="D495" s="13"/>
-      <c r="E495" s="13"/>
-      <c r="F495" s="13"/>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A496" s="13"/>
-      <c r="B496" s="13"/>
-      <c r="C496" s="13"/>
-      <c r="D496" s="13"/>
-      <c r="E496" s="13"/>
-      <c r="F496" s="13"/>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A497" s="13"/>
-      <c r="B497" s="13"/>
-      <c r="C497" s="13"/>
-      <c r="D497" s="13"/>
-      <c r="E497" s="13"/>
-      <c r="F497" s="13"/>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A498" s="13"/>
-      <c r="B498" s="13"/>
-      <c r="C498" s="13"/>
-      <c r="D498" s="13"/>
-      <c r="E498" s="13"/>
-      <c r="F498" s="13"/>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A499" s="13"/>
-      <c r="B499" s="13"/>
-      <c r="C499" s="13"/>
-      <c r="D499" s="13"/>
-      <c r="E499" s="13"/>
-      <c r="F499" s="13"/>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A500" s="13"/>
-      <c r="B500" s="13"/>
-      <c r="C500" s="13"/>
-      <c r="D500" s="13"/>
-      <c r="E500" s="13"/>
-      <c r="F500" s="13"/>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A501" s="13"/>
-      <c r="B501" s="13"/>
-      <c r="C501" s="13"/>
-      <c r="D501" s="13"/>
-      <c r="E501" s="13"/>
-      <c r="F501" s="13"/>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A502" s="13"/>
-      <c r="B502" s="13"/>
-      <c r="C502" s="13"/>
-      <c r="D502" s="13"/>
-      <c r="E502" s="13"/>
-      <c r="F502" s="13"/>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A503" s="13"/>
-      <c r="B503" s="13"/>
-      <c r="C503" s="13"/>
-      <c r="D503" s="13"/>
-      <c r="E503" s="13"/>
-      <c r="F503" s="13"/>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A504" s="13"/>
-      <c r="B504" s="13"/>
-      <c r="C504" s="13"/>
-      <c r="D504" s="13"/>
-      <c r="E504" s="13"/>
-      <c r="F504" s="13"/>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A505" s="13"/>
-      <c r="B505" s="13"/>
-      <c r="C505" s="13"/>
-      <c r="D505" s="13"/>
-      <c r="E505" s="13"/>
-      <c r="F505" s="13"/>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A506" s="13"/>
-      <c r="B506" s="13"/>
-      <c r="C506" s="13"/>
-      <c r="D506" s="13"/>
-      <c r="E506" s="13"/>
-      <c r="F506" s="13"/>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A507" s="13"/>
-      <c r="B507" s="13"/>
-      <c r="C507" s="13"/>
-      <c r="D507" s="13"/>
-      <c r="E507" s="13"/>
-      <c r="F507" s="13"/>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A508" s="13"/>
-      <c r="B508" s="13"/>
-      <c r="C508" s="13"/>
-      <c r="D508" s="13"/>
-      <c r="E508" s="13"/>
-      <c r="F508" s="13"/>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A509" s="13"/>
-      <c r="B509" s="13"/>
-      <c r="C509" s="13"/>
-      <c r="D509" s="13"/>
-      <c r="E509" s="13"/>
-      <c r="F509" s="13"/>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A510" s="13"/>
-      <c r="B510" s="13"/>
-      <c r="C510" s="13"/>
-      <c r="D510" s="13"/>
-      <c r="E510" s="13"/>
-      <c r="F510" s="13"/>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A511" s="13"/>
-      <c r="B511" s="13"/>
-      <c r="C511" s="13"/>
-      <c r="D511" s="13"/>
-      <c r="E511" s="13"/>
-      <c r="F511" s="13"/>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A512" s="13"/>
-      <c r="B512" s="13"/>
-      <c r="C512" s="13"/>
-      <c r="D512" s="13"/>
-      <c r="E512" s="13"/>
-      <c r="F512" s="13"/>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A513" s="13"/>
-      <c r="B513" s="13"/>
-      <c r="C513" s="13"/>
-      <c r="D513" s="13"/>
-      <c r="E513" s="13"/>
-      <c r="F513" s="13"/>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A514" s="13"/>
-      <c r="B514" s="13"/>
-      <c r="C514" s="13"/>
-      <c r="D514" s="13"/>
-      <c r="E514" s="13"/>
-      <c r="F514" s="13"/>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A515" s="13"/>
-      <c r="B515" s="13"/>
-      <c r="C515" s="13"/>
-      <c r="D515" s="13"/>
-      <c r="E515" s="13"/>
-      <c r="F515" s="13"/>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A516" s="13"/>
-      <c r="B516" s="13"/>
-      <c r="C516" s="13"/>
-      <c r="D516" s="13"/>
-      <c r="E516" s="13"/>
-      <c r="F516" s="13"/>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A517" s="13"/>
-      <c r="B517" s="13"/>
-      <c r="C517" s="13"/>
-      <c r="D517" s="13"/>
-      <c r="E517" s="13"/>
-      <c r="F517" s="13"/>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A518" s="13"/>
-      <c r="B518" s="13"/>
-      <c r="C518" s="13"/>
-      <c r="D518" s="13"/>
-      <c r="E518" s="13"/>
-      <c r="F518" s="13"/>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A519" s="13"/>
-      <c r="B519" s="13"/>
-      <c r="C519" s="13"/>
-      <c r="D519" s="13"/>
-      <c r="E519" s="13"/>
-      <c r="F519" s="13"/>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A520" s="13"/>
-      <c r="B520" s="13"/>
-      <c r="C520" s="13"/>
-      <c r="D520" s="13"/>
-      <c r="E520" s="13"/>
-      <c r="F520" s="13"/>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A521" s="13"/>
-      <c r="B521" s="13"/>
-      <c r="C521" s="13"/>
-      <c r="D521" s="13"/>
-      <c r="E521" s="13"/>
-      <c r="F521" s="13"/>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A522" s="13"/>
-      <c r="B522" s="13"/>
-      <c r="C522" s="13"/>
-      <c r="D522" s="13"/>
-      <c r="E522" s="13"/>
-      <c r="F522" s="13"/>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A523" s="13"/>
-      <c r="B523" s="13"/>
-      <c r="C523" s="13"/>
-      <c r="D523" s="13"/>
-      <c r="E523" s="13"/>
-      <c r="F523" s="13"/>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A524" s="13"/>
-      <c r="B524" s="13"/>
-      <c r="C524" s="13"/>
-      <c r="D524" s="13"/>
-      <c r="E524" s="13"/>
-      <c r="F524" s="13"/>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A525" s="13"/>
-      <c r="B525" s="13"/>
-      <c r="C525" s="13"/>
-      <c r="D525" s="13"/>
-      <c r="E525" s="13"/>
-      <c r="F525" s="13"/>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A526" s="13"/>
-      <c r="B526" s="13"/>
-      <c r="C526" s="13"/>
-      <c r="D526" s="13"/>
-      <c r="E526" s="13"/>
-      <c r="F526" s="13"/>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A527" s="13"/>
-      <c r="B527" s="13"/>
-      <c r="C527" s="13"/>
-      <c r="D527" s="13"/>
-      <c r="E527" s="13"/>
-      <c r="F527" s="13"/>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A528" s="13"/>
-      <c r="B528" s="13"/>
-      <c r="C528" s="13"/>
-      <c r="D528" s="13"/>
-      <c r="E528" s="13"/>
-      <c r="F528" s="13"/>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A529" s="13"/>
-      <c r="B529" s="13"/>
-      <c r="C529" s="13"/>
-      <c r="D529" s="13"/>
-      <c r="E529" s="13"/>
-      <c r="F529" s="13"/>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A530" s="13"/>
-      <c r="B530" s="13"/>
-      <c r="C530" s="13"/>
-      <c r="D530" s="13"/>
-      <c r="E530" s="13"/>
-      <c r="F530" s="13"/>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A531" s="13"/>
-      <c r="B531" s="13"/>
-      <c r="C531" s="13"/>
-      <c r="D531" s="13"/>
-      <c r="E531" s="13"/>
-      <c r="F531" s="13"/>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A532" s="13"/>
-      <c r="B532" s="13"/>
-      <c r="C532" s="13"/>
-      <c r="D532" s="13"/>
-      <c r="E532" s="13"/>
-      <c r="F532" s="13"/>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A533" s="13"/>
-      <c r="B533" s="13"/>
-      <c r="C533" s="13"/>
-      <c r="D533" s="13"/>
-      <c r="E533" s="13"/>
-      <c r="F533" s="13"/>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A534" s="13"/>
-      <c r="B534" s="13"/>
-      <c r="C534" s="13"/>
-      <c r="D534" s="13"/>
-      <c r="E534" s="13"/>
-      <c r="F534" s="13"/>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A535" s="13"/>
-      <c r="B535" s="13"/>
-      <c r="C535" s="13"/>
-      <c r="D535" s="13"/>
-      <c r="E535" s="13"/>
-      <c r="F535" s="13"/>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A536" s="13"/>
-      <c r="B536" s="13"/>
-      <c r="C536" s="13"/>
-      <c r="D536" s="13"/>
-      <c r="E536" s="13"/>
-      <c r="F536" s="13"/>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A537" s="13"/>
-      <c r="B537" s="13"/>
-      <c r="C537" s="13"/>
-      <c r="D537" s="13"/>
-      <c r="E537" s="13"/>
-      <c r="F537" s="13"/>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A538" s="13"/>
-      <c r="B538" s="13"/>
-      <c r="C538" s="13"/>
-      <c r="D538" s="13"/>
-      <c r="E538" s="13"/>
-      <c r="F538" s="13"/>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A539" s="13"/>
-      <c r="B539" s="13"/>
-      <c r="C539" s="13"/>
-      <c r="D539" s="13"/>
-      <c r="E539" s="13"/>
-      <c r="F539" s="13"/>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A540" s="13"/>
-      <c r="B540" s="13"/>
-      <c r="C540" s="13"/>
-      <c r="D540" s="13"/>
-      <c r="E540" s="13"/>
-      <c r="F540" s="13"/>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A541" s="13"/>
-      <c r="B541" s="13"/>
-      <c r="C541" s="13"/>
-      <c r="D541" s="13"/>
-      <c r="E541" s="13"/>
-      <c r="F541" s="13"/>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A542" s="13"/>
-      <c r="B542" s="13"/>
-      <c r="C542" s="13"/>
-      <c r="D542" s="13"/>
-      <c r="E542" s="13"/>
-      <c r="F542" s="13"/>
-    </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A543" s="13"/>
-      <c r="B543" s="13"/>
-      <c r="C543" s="13"/>
-      <c r="D543" s="13"/>
-      <c r="E543" s="13"/>
-      <c r="F543" s="13"/>
-    </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A544" s="13"/>
-      <c r="B544" s="13"/>
-      <c r="C544" s="13"/>
-      <c r="D544" s="13"/>
-      <c r="E544" s="13"/>
-      <c r="F544" s="13"/>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A545" s="13"/>
-      <c r="B545" s="13"/>
-      <c r="C545" s="13"/>
-      <c r="D545" s="13"/>
-      <c r="E545" s="13"/>
-      <c r="F545" s="13"/>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A546" s="13"/>
-      <c r="B546" s="13"/>
-      <c r="C546" s="13"/>
-      <c r="D546" s="13"/>
-      <c r="E546" s="13"/>
-      <c r="F546" s="13"/>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A547" s="13"/>
-      <c r="B547" s="13"/>
-      <c r="C547" s="13"/>
-      <c r="D547" s="13"/>
-      <c r="E547" s="13"/>
-      <c r="F547" s="13"/>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A548" s="13"/>
-      <c r="B548" s="13"/>
-      <c r="C548" s="13"/>
-      <c r="D548" s="13"/>
-      <c r="E548" s="13"/>
-      <c r="F548" s="13"/>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A549" s="13"/>
-      <c r="B549" s="13"/>
-      <c r="C549" s="13"/>
-      <c r="D549" s="13"/>
-      <c r="E549" s="13"/>
-      <c r="F549" s="13"/>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A550" s="13"/>
-      <c r="B550" s="13"/>
-      <c r="C550" s="13"/>
-      <c r="D550" s="13"/>
-      <c r="E550" s="13"/>
-      <c r="F550" s="13"/>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A551" s="13"/>
-      <c r="B551" s="13"/>
-      <c r="C551" s="13"/>
-      <c r="D551" s="13"/>
-      <c r="E551" s="13"/>
-      <c r="F551" s="13"/>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A552" s="13"/>
-      <c r="B552" s="13"/>
-      <c r="C552" s="13"/>
-      <c r="D552" s="13"/>
-      <c r="E552" s="13"/>
-      <c r="F552" s="13"/>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A553" s="13"/>
-      <c r="B553" s="13"/>
-      <c r="C553" s="13"/>
-      <c r="D553" s="13"/>
-      <c r="E553" s="13"/>
-      <c r="F553" s="13"/>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A554" s="13"/>
-      <c r="B554" s="13"/>
-      <c r="C554" s="13"/>
-      <c r="D554" s="13"/>
-      <c r="E554" s="13"/>
-      <c r="F554" s="13"/>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A555" s="13"/>
-      <c r="B555" s="13"/>
-      <c r="C555" s="13"/>
-      <c r="D555" s="13"/>
-      <c r="E555" s="13"/>
-      <c r="F555" s="13"/>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A556" s="13"/>
-      <c r="B556" s="13"/>
-      <c r="C556" s="13"/>
-      <c r="D556" s="13"/>
-      <c r="E556" s="13"/>
-      <c r="F556" s="13"/>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A557" s="13"/>
-      <c r="B557" s="13"/>
-      <c r="C557" s="13"/>
-      <c r="D557" s="13"/>
-      <c r="E557" s="13"/>
-      <c r="F557" s="13"/>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A558" s="13"/>
-      <c r="B558" s="13"/>
-      <c r="C558" s="13"/>
-      <c r="D558" s="13"/>
-      <c r="E558" s="13"/>
-      <c r="F558" s="13"/>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A559" s="13"/>
-      <c r="B559" s="13"/>
-      <c r="C559" s="13"/>
-      <c r="D559" s="13"/>
-      <c r="E559" s="13"/>
-      <c r="F559" s="13"/>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A560" s="13"/>
-      <c r="B560" s="13"/>
-      <c r="C560" s="13"/>
-      <c r="D560" s="13"/>
-      <c r="E560" s="13"/>
-      <c r="F560" s="13"/>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A561" s="13"/>
-      <c r="B561" s="13"/>
-      <c r="C561" s="13"/>
-      <c r="D561" s="13"/>
-      <c r="E561" s="13"/>
-      <c r="F561" s="13"/>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A562" s="13"/>
-      <c r="B562" s="13"/>
-      <c r="C562" s="13"/>
-      <c r="D562" s="13"/>
-      <c r="E562" s="13"/>
-      <c r="F562" s="13"/>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A563" s="13"/>
-      <c r="B563" s="13"/>
-      <c r="C563" s="13"/>
-      <c r="D563" s="13"/>
-      <c r="E563" s="13"/>
-      <c r="F563" s="13"/>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A564" s="13"/>
-      <c r="B564" s="13"/>
-      <c r="C564" s="13"/>
-      <c r="D564" s="13"/>
-      <c r="E564" s="13"/>
-      <c r="F564" s="13"/>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A565" s="13"/>
-      <c r="B565" s="13"/>
-      <c r="C565" s="13"/>
-      <c r="D565" s="13"/>
-      <c r="E565" s="13"/>
-      <c r="F565" s="13"/>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A566" s="13"/>
-      <c r="B566" s="13"/>
-      <c r="C566" s="13"/>
-      <c r="D566" s="13"/>
-      <c r="E566" s="13"/>
-      <c r="F566" s="13"/>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A567" s="13"/>
-      <c r="B567" s="13"/>
-      <c r="C567" s="13"/>
-      <c r="D567" s="13"/>
-      <c r="E567" s="13"/>
-      <c r="F567" s="13"/>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A568" s="13"/>
-      <c r="B568" s="13"/>
-      <c r="C568" s="13"/>
-      <c r="D568" s="13"/>
-      <c r="E568" s="13"/>
-      <c r="F568" s="13"/>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A569" s="13"/>
-      <c r="B569" s="13"/>
-      <c r="C569" s="13"/>
-      <c r="D569" s="13"/>
-      <c r="E569" s="13"/>
-      <c r="F569" s="13"/>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A570" s="13"/>
-      <c r="B570" s="13"/>
-      <c r="C570" s="13"/>
-      <c r="D570" s="13"/>
-      <c r="E570" s="13"/>
-      <c r="F570" s="13"/>
-    </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A571" s="13"/>
-      <c r="B571" s="13"/>
-      <c r="C571" s="13"/>
-      <c r="D571" s="13"/>
-      <c r="E571" s="13"/>
-      <c r="F571" s="13"/>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A572" s="13"/>
-      <c r="B572" s="13"/>
-      <c r="C572" s="13"/>
-      <c r="D572" s="13"/>
-      <c r="E572" s="13"/>
-      <c r="F572" s="13"/>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A573" s="13"/>
-      <c r="B573" s="13"/>
-      <c r="C573" s="13"/>
-      <c r="D573" s="13"/>
-      <c r="E573" s="13"/>
-      <c r="F573" s="13"/>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A574" s="13"/>
-      <c r="B574" s="13"/>
-      <c r="C574" s="13"/>
-      <c r="D574" s="13"/>
-      <c r="E574" s="13"/>
-      <c r="F574" s="13"/>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A575" s="13"/>
-      <c r="B575" s="13"/>
-      <c r="C575" s="13"/>
-      <c r="D575" s="13"/>
-      <c r="E575" s="13"/>
-      <c r="F575" s="13"/>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A576" s="13"/>
-      <c r="B576" s="13"/>
-      <c r="C576" s="13"/>
-      <c r="D576" s="13"/>
-      <c r="E576" s="13"/>
-      <c r="F576" s="13"/>
-    </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A577" s="13"/>
-      <c r="B577" s="13"/>
-      <c r="C577" s="13"/>
-      <c r="D577" s="13"/>
-      <c r="E577" s="13"/>
-      <c r="F577" s="13"/>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A578" s="13"/>
-      <c r="B578" s="13"/>
-      <c r="C578" s="13"/>
-      <c r="D578" s="13"/>
-      <c r="E578" s="13"/>
-      <c r="F578" s="13"/>
-    </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A579" s="13"/>
-      <c r="B579" s="13"/>
-      <c r="C579" s="13"/>
-      <c r="D579" s="13"/>
-      <c r="E579" s="13"/>
-      <c r="F579" s="13"/>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A580" s="13"/>
-      <c r="B580" s="13"/>
-      <c r="C580" s="13"/>
-      <c r="D580" s="13"/>
-      <c r="E580" s="13"/>
-      <c r="F580" s="13"/>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A581" s="13"/>
-      <c r="B581" s="13"/>
-      <c r="C581" s="13"/>
-      <c r="D581" s="13"/>
-      <c r="E581" s="13"/>
-      <c r="F581" s="13"/>
-    </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A582" s="13"/>
-      <c r="B582" s="13"/>
-      <c r="C582" s="13"/>
-      <c r="D582" s="13"/>
-      <c r="E582" s="13"/>
-      <c r="F582" s="13"/>
-    </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A583" s="13"/>
-      <c r="B583" s="13"/>
-      <c r="C583" s="13"/>
-      <c r="D583" s="13"/>
-      <c r="E583" s="13"/>
-      <c r="F583" s="13"/>
-    </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A584" s="13"/>
-      <c r="B584" s="13"/>
-      <c r="C584" s="13"/>
-      <c r="D584" s="13"/>
-      <c r="E584" s="13"/>
-      <c r="F584" s="13"/>
-    </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A585" s="13"/>
-      <c r="B585" s="13"/>
-      <c r="C585" s="13"/>
-      <c r="D585" s="13"/>
-      <c r="E585" s="13"/>
-      <c r="F585" s="13"/>
-    </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A586" s="13"/>
-      <c r="B586" s="13"/>
-      <c r="C586" s="13"/>
-      <c r="D586" s="13"/>
-      <c r="E586" s="13"/>
-      <c r="F586" s="13"/>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A587" s="13"/>
-      <c r="B587" s="13"/>
-      <c r="C587" s="13"/>
-      <c r="D587" s="13"/>
-      <c r="E587" s="13"/>
-      <c r="F587" s="13"/>
-    </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A588" s="13"/>
-      <c r="B588" s="13"/>
-      <c r="C588" s="13"/>
-      <c r="D588" s="13"/>
-      <c r="E588" s="13"/>
-      <c r="F588" s="13"/>
-    </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A589" s="13"/>
-      <c r="B589" s="13"/>
-      <c r="C589" s="13"/>
-      <c r="D589" s="13"/>
-      <c r="E589" s="13"/>
-      <c r="F589" s="13"/>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A590" s="13"/>
-      <c r="B590" s="13"/>
-      <c r="C590" s="13"/>
-      <c r="D590" s="13"/>
-      <c r="E590" s="13"/>
-      <c r="F590" s="13"/>
-    </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A591" s="13"/>
-      <c r="B591" s="13"/>
-      <c r="C591" s="13"/>
-      <c r="D591" s="13"/>
-      <c r="E591" s="13"/>
-      <c r="F591" s="13"/>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A592" s="13"/>
-      <c r="B592" s="13"/>
-      <c r="C592" s="13"/>
-      <c r="D592" s="13"/>
-      <c r="E592" s="13"/>
-      <c r="F592" s="13"/>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A593" s="13"/>
-      <c r="B593" s="13"/>
-      <c r="C593" s="13"/>
-      <c r="D593" s="13"/>
-      <c r="E593" s="13"/>
-      <c r="F593" s="13"/>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A594" s="13"/>
-      <c r="B594" s="13"/>
-      <c r="C594" s="13"/>
-      <c r="D594" s="13"/>
-      <c r="E594" s="13"/>
-      <c r="F594" s="13"/>
-    </row>
+    <row r="337" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="338" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="339" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="340" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="341" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="342" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="343" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="344" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="345" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="346" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="347" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="348" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="349" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="350" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="351" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="352" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="353" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="354" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="355" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="356" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="357" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="358" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="359" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="360" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="361" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="362" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="363" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="364" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="365" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="366" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="367" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="368" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="369" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="370" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="371" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="372" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="373" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="374" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="375" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="376" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="377" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="378" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="379" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="380" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="381" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="382" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="383" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="384" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="385" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="386" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="387" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="388" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="389" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="390" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="391" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="392" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="393" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="394" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="395" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="396" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="397" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="398" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="399" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="400" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="401" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="402" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="403" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="404" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="405" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="406" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="407" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="408" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="409" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="410" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="411" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="412" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="413" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="414" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="415" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="416" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="417" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="418" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="419" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="420" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="421" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="422" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="423" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="424" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="425" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="426" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="427" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="428" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="429" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="430" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="431" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="432" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="433" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="434" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="435" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="436" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="437" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="438" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="439" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="440" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="441" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="442" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="443" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="444" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="445" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="446" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="447" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="448" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="449" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="450" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="451" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="452" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="453" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="454" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="455" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="456" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="457" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="458" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="459" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="460" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="461" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="462" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="463" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="464" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="465" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="466" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="467" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="468" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="469" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="470" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="471" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="472" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="473" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="474" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="475" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="476" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="477" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="478" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="479" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="480" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="481" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="482" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="483" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="484" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="485" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="486" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="487" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="488" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="489" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="490" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="491" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="492" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="493" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="494" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="495" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="496" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="497" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="498" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="499" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="500" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="501" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="502" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="503" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="504" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="505" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="506" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="507" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="508" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="509" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="510" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="511" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="512" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="513" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="514" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="515" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="516" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="517" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="518" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="519" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="520" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="521" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="522" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="523" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="524" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="525" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="526" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="527" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="528" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="529" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="530" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="531" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="532" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="533" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="534" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="535" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="536" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="537" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="538" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="539" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="540" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="541" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="542" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="543" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="544" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="545" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="546" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="547" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="548" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="549" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="550" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="551" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="552" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="553" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="554" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="555" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="556" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="557" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="558" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="559" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="560" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="561" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="562" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="563" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="564" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="565" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="566" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="567" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="568" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="569" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="570" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="571" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="572" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="573" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="574" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="575" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="576" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="577" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="578" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="579" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="580" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="581" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="582" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="583" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="584" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="585" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="586" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="587" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="588" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="589" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="590" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="591" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="592" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="593" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
+    <row r="594" s="13" customFormat="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="138">
     <mergeCell ref="G20:G24"/>
@@ -18127,7 +16342,7 @@
   </mergeCells>
   <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
